--- a/기사데이터/토스/엑셀파일/news(토스, 2022.01.01~2022.01.15).xlsx
+++ b/기사데이터/토스/엑셀파일/news(토스, 2022.01.01~2022.01.15).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E201"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2955,2506 +2955,6 @@
         </is>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>2022.01.04.</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>5일부터 '내 손안의 금융비서' 마이데이터 전면 시행</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/082/0001134981?sid=101</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>한 달간의 시범 서비스를 선보인 본인신용정보관리업(마이데이터) 서비스가 내일(5일)부터 전면 시행된다.금융위원회와 금융감독원은 5일 오후 4시부터 안전한 표준 응용프로그램 인터페이스(API) 방식을 통해 금융 마이데이터 서비스를 시행한다고 4일 밝혔다.마이데이터는 흩어진 개인 신용정보를 한곳에 모아 보여주고 재무 현황·소비 습관을 분석해 금융상품을 추천하는 등 자산관리와 신용관리를 도와주는 서비스다.이날 기준 은행, 증권, 카드, 핀테크 업계의 33개 사업자가 서비스를 제공한다. 은행업계에서는 KB국민·농협·신한·우리·기업·하나·대구·SC제일·광주·전북은행 등이 서비스를 운영한다.금융투자업계에선 미래에셋·NH투자·키움증권과 하나금융투자 등이, 카드 업계에선 KB국민·신한· 하나· BC· 현대·우리카드 등이 참여한다.이 밖에도 카카오페이, 토스, 네이버파이낸셜 등 핀테크·정보기술(IT) 업체와 저축은행, 상호금융 업계 등도 서비스를 제공한다.나머지 마이데이터 사업자 21개사는 시스템과 애플리케이션 개발 등을 거쳐 올해 상반기 중으로 사업에 동참할 예정이다.금융당국은 지난해 12월부터 한 달여간 서비스를 시범 운영하면서 드러난 개선 필요 사항을 보완했다고 밝혔다.앞서 지난달 29일 일부 핀테크사는 NH농협은행과 일부 금융사에 요청한 표준 응용프로그램 인터페이스(API) 정보를 제대로 받지 못하는 현상을 겪기도 했다.금융당국은 중계기관의 처리 가능한 트래픽 양을 10배 이상 확대해 전산장애를 방지하고, 마이데이터 사업자에 연결되는 정보제공자를 늘려 인증수단을 추가하는 등 더욱 쉽게 본인인증 절차를 거칠 수 있도록 개선했다고 설명했다.마이데이터가 5일부터 본격 시행되면, 사업자들이 고객을 대신해 금융사 사이트에 접속하고 화면을 읽어내는 '스크린 스크레이핑'(screen scraping) 방식은 전면 금지된다.사업자들은 데이터 표준 API를 통해 금융기관 등에 흩어진 정보를 받게 된다.시행일부터 일부 대부업체를 제외한 대부분의 제도권 금융회사 417곳의 정보를 받을 수 있으며, 국세 납세증명 자료도 조회할 수 있다.금융당국은 현재 제공하지 않는 국세·지방세·관세 납부 명세나 건강보험, 공무원연금·국민연금 보험료 납부내역 등 공공정보는 올해 상반기 안에 추가 제공이 가능하도록 협의 중이라고 덧붙였다.금융당국은 마이데이터 서비스 시행으로 더욱 엄격해진 정보보호·보안 체계 속에서 소비자들이 안전하게 자산 관리를 할 수 있을 것으로 기대했다.소비자들은 많은 정보를 빠르고 편리하게 통합 조회하면서 맞춤형 자산·재무관리를 누릴 수 있게 될 것으로 전망된다.마이데이터 사업자 측면에서도 안정적인 사업기반을 확보할 수 있고, 다양한 정보를 받아 서비스 혁신 기반을 다질 수 있다는 장점이 있다.금융당국은 '마이데이터 특별대응반'을 꾸려 특이사항을 실시간 모니터링하며 안정적인 서비스가 제공될 수 있도록 지속 점검할 예정이다.또 마이데이터 서비스가 금융소비자보호법과 충돌할 우려가 제기된 데 대해선 금융규제 샌드박스 등을 통해 보완이 필요한 사항을 적극적으로 검토해 소비자 편익을 높이겠다고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>2022.01.05.</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>오늘(5일) 본격 시행되는 마이데이터...금융권 시장 선점 경쟁 치열</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/629/0000125502?sid=101</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>한 달간의 시범 서비스를 선보인 본인신용정보관리업(마이데이터) 서비스가 5일부터 전면 시행된다. /더팩트 DB은행·증권·카드 등 33개 사업자 서비스 제공…"차별성 있는 서비스 선보여야" 마이데이터(본인신용정보관리업) 서비스가 본격 시행되는 가운데 금융권의 시장 선점 경쟁이 치열하다.5일 금융권에 따르면 마이데이터는 이날부터 전면 시행된다. 이날부터는 기존 스크래핑 방식으로 정보를 긁어오는 것은 금지되고 API 사용이 의무화된다. 당초 지난1일부터 시행될 예정이었지만, 업체 요청 등으로 연기됐다.마이데이터는 흩어진 개인 신용정보를 한곳에 모아 보여주고 재무 현황·소비패턴 등을 분석해 적합한 금융상품 등을 추천하는 서비스다. '내 손 안의 금융비서'로도 불린다.이날 기준 은행, 증권, 카드, 핀테크 업계의 33개 사업자가 서비스를 제공한다. 은행업계에서는 KB국민·농협·신한·우리·기업·하나·대구·SC제일·광주·전북은행 등이 서비스를 운영한다. 금융투자업계에선 미래에셋·NH투자·키움증권과 하나금융투자 등이, 카드 업계에선 KB국민·신한· 하나· BC· 현대·우리카드 등이 참여한다. 이 밖에도 카카오페이, 토스, 네이버파이낸셜 등 핀테크·정보기술(IT) 업체와 저축은행, 상호금융 업계 등도 서비스를 제공한다.이미 금융권에서는 마이데이터 시장 선점 경쟁이 치열하다.은행권은 시범 서비스 한 달여 전부터 마이데이터 사전 예약 이벤트를 펼치며 고객의 관심을 끌었으며, 지금도 고객 유치에 열을 올리고 있다. 금융사들이 과도한 고객 유치전을 벌이면서 명품 지갑까지 경품으로 등장하기도 했다.신한은행은 마이데이터 서비스로 출시한 '머니버스'에 오는 31일까지 가입하고 자산을 연결한 고객에게 구찌 지갑, 아이패드 프로, 삼성 갤럭시 스마트워치 등 다양한 한정판 경품을 추첨한다. 또한 당첨받지 못한 고객 3000명에겐 음료수를 준다.은행별로 서비스 자체가 크게 다르지 않아 차별성을 내세우기 보다는 가입자 유치에 집중하면서 과열 양상을 빚고 있다. /더팩트 DBIBK기업은행도 28일까지 마이데이터 계좌를 카드와 연결하면, 서울 시내 호텔 식사권과 샤넬 클래식 스몰 플랩 지갑 등을 추첨을 통해 총 1만5200명에게 증정한다.이들뿐 아니라 대부분 금융사들은 스타벅스 쿠폰, 아이패드 등 파격적인 경품을 내걸고 가입자 모집에 나서고 있다.앞서 KB국민은행과 우리은행은 지난해 11월 마이데이터 사전예약 이벤트로 자동차를 경품으로 걸었다가 금융당국의 '과열 경쟁' 경고를 받고 이를 철회하기도 했다.한 금융권 관계자는 "이미 마이데이터 시범 사업 때부터 고객 유치를 위한 경쟁은 치열했다"며 "당장은 마케팅 비용이 나가겠지만 장기적 관점에서 봐야 한다. 마이데이터는 미래 먹거리 사업이라고 불리고 있는 만큼 시장 선점이 무엇보다 중요하다. 특히, 각 금융사의 자산이 연결되므로 가입한 고객이 이탈하지 않고 충성 고객으로 남을 가능성도 크다"라고 말했다.일각에서는 고객 유치 경쟁으로 과도한 마케팅이 부각되면서 차별성 등 마이데이터 서비스 내용은 뒷전이 됐다는 지적도 나온다.또 다른 관계자는 "시범 기간 동안 여러 금융사에서 마이데이터 서비스를 선보였지만, 차별성이 없다는 지적이 나왔다"며 "아직 개인정보 규제 등 제약이 있어 다양한 서비스를 선보이는 데 한계가 있지만, 향후 혁신적이고 차별성 있는 서비스를 선보여야 앞서나갈 수 있을 것"이라고 전했다.더팩트는 24시간 여러분의 제보를 기다립니다.▶카카오톡: '더팩트제보' 검색▶이메일: jebo@tf.co.kr▶뉴스 홈페이지: http://talk.tf.co.kr/bbs/report/write</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>2022.01.03.</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>해남군, 거리두기 방역수칙 강화 이달 16일까지 2주 연장</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/468/0000835497?sid=102</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>해남군청사 전경[스포츠서울|해남=조광태 기자] 전남 해남군은 오는 16일까지 거리두기 방역강화 조치가 2주간 연장됨에 따라 연말연시 분야별 방역 강화에 나서고 있다. 사적모임 인원은 접종여부 관계없이 전국 4인으로 제한한다. 식당카페의 경우 방역패스(접종완료·음성확인)가 적용되며, 백신접종 완료자는 최대 4인까지 이용할 수 있지만 미접종자는 1인 단독으로 이용하거나 포장배달만 가능하다. 다중이용시설의 경우 마스크 착용 등 방역적 위험성을 고려하여 유흥시설과 식당카페, 노래연습장, 목욕장업, 실내체육시설은 운영시간을 오후 9시까지로 제한하고, 영화관·공연장, 오락실, PC방, 마사지·안마소, 평생직업교육학원 등은 오후 10시까지로 제한된다. 단, 영화관·공연장은 오후9시 이전 시작하는 영화·공연에 한해 종료시까지 이용 가능하되 종료시각은 자정을 초과할 수 없다. 특히 1월 3일부터 방역패스 유효기간이 적용된다. 방역패스 유효기간은 코로나19 백신접종후 14일이 경과한 날부터 6개월이다. 유효기간이 임박한 사람은 3차접종을 해야 방역패스 효력을 유지할 수 있으며, 3차접종을 받은 즉시 효력이 생긴다.방역패스 유효기간은 예방접종 인증 전자증명서 ‘쿠브(COOV) 앱’과 카카오, 네이버, 토스, PASS 등 민간 전자출입명부 앱에서 확인할 수 있다. 12~17세 청소년 방역패스는 오는 3월 1일부터 시행한다.이와 함께 감염취약시설 운영자 등에 대한 진단검사 행정명령은 종전대로 유지된다. 외국인고용사업장, 외국인선원 승선 연근해어업 어선, 직업소개소 운영자·종사자·이용근로자는 2주1회 진단검사, 요양병원(시설), 정신병원(시설), 노인 주야간보호센터(이용자 포함), 재가복지 장기요양기관, 목욕장업, 유흥시설 운영자 및 종사자는 주1회 진단검사를 받아야 하며, 경로당과 마을회관은 별도 공지가 있을 때까지 임시휴관 조치하며, 타지역 방문후 일상생활 복귀전 진단검사 음성확인후 복귀하도록 권고하고 있다.군 관계자는 “최근 발생하고 있는 신규확진자 대부분이 타지역 거주 가족과 지인 접촉으로 감염되는 사례가 많아 타지역민 접촉시에는 증상이 없더라도 적극적인 진단검사를 받을 것과 가벼운 감기증상이라도 의료기관이나 약국을 방문하기 전에 반드시 보건소 선별진료소에서 진단검사를 먼저 받을 것을 당부드린다”고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>2022.01.12.</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>[ET뷰]K-개발자, 높아진 몸값</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0002993244?sid=101</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>게티이미지뱅크'네카라쿠배당토'(네이버·카카오·라인·쿠팡·배달의민족·당근마켓·토스)는 인기 높은 IT(정보기술) 기업을 일컫는 신조어다. 신조어가 생길 정도로 개발자 채용이 활발해지면서 연봉 또한 높아졌다. 반대로 슈퍼 개발자를 확보하기 경쟁이 치열해지면서 인력난은 심화됐다.토스가 불을 지폈다. 2016년 임직원이 67명에서 공격적으로 개발자를 영입하며 5년 만에 임직원이 850여명으로 불어났다. 토스는 전 회사 연봉보다 최대 50%를 올려주고 1억원 상당의 스톡옵션을 지급한다. 당근마켓도 개발자 초봉을 6500만원으로 올리고 스톡옵션을 제시했다. 업계 최고 수준이다.야놀자, 여기어때도 개발자 영입전에 뛰어들었다. 야놀자는 전 직원에 1000만원 상당의 주식을 무상 지급한다는 방침을 세웠다. 여기어때는 리드급 개발 인재에 연봉과 함께 사이닝 보너스 4000만원, 스톡옵션 6000만원을 최소 지급한다. 스톡옵션에 상한을 제한하지 않는 파격 조건까지 내걸었다. 온라인 유통업계도 개발자 인력쟁탈전에 기름을 부었다. 쿠팡은 2년차 개발자 연봉을 6000만원대로 책정했고, 경력 개발자 200여명을 모집하면서 최소 5000만원의 입사 축하금을 지급한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>2022.01.10.</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>[단독] 토스, 마이데이터 논란… 당국 “가입자 재동의 받아라”</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000786226?sid=101</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>토스, 마이데이터 가입 과정서 ‘가이드라인’ 위배  고객에 선택권 줘야 하는데도 ‘필수 동의’로 포함  금융업계 “반칙… 문제 방식 가입 고객 원복시켜야”  금융당국·금보원 “재동의 진행하라”        토스가 마이데이터(본인신용정보관리업) 시행을 앞두고 가입자들을 끌어모으는 과정에서 제대로 규정을 지키지 않았다는 사실이 확인됐다. 토스는 부적절한 방식으로 동의를 받은 고객들을 대상으로 이번주 중 ‘재동의’ 절차에 착수할 계획이다.10일 금융권에 따르면 금융당국은 최근 토스 측에 마이데이터 가이드라인을 위반한 채 가입시킨 고객들을 대상으로 ‘재동의 절차를 거쳐야 한다’고 권고했다. 이에 토스는 문제가 된 고객들을 추려 현재 재동의 절차를 받기 위한 프로세스 구축 막바지 단계에 착수했다. 금융보안원 관계자는 “토스가 수립하고 있는 재동의 절차가 ‘기능 적합성 심사’에 위배되는 것은 없는지 살펴보고 있다”고 설명했다.토스 제공        앞서 토스는 마이데이터 서비스 시행을 앞둔 지난 12월 말쯤 기존 고객들을 표준 응용프로그램 인터페이스(API) 연결 방식으로 전환하면서, 금융당국이 수립한 가이드라인을 지키지 않는 등 일종의 꼼수를 사용했다는 지적을 받아왔다.가이드라인에 따르면 마이데이터 사용자는 ‘알고 하는 동의’가 이뤄질 수 있도록 직접 데이터를 연결하고 싶은 금융기관을 선택하도록 규정하고 있다. 그런데 토스는 전체 기관을 선택 과정 없이 일괄적으로 연결할 수 있도록 화면을 구성했다.예를 들어 A 은행에서는 마이데이터 연결 동의 시 고객이 연결하고 싶은 기관을 B 은행이나 C 카드사 등으로 선택할 수 있도록 절차를 마련하고 있는데, 토스는 모든 금융기관이 한 번에 연결될 수 있도록 과정을 간소화했다는 것이다.토스가 지키지 않았던 또 다른 가이드라인은 ‘정기 전송 요구권’이다. 고객의 금융 패턴을 주기적으로 받아 데이터 분석을 얼마나 잘하느냐가 마이데이터의 경쟁력을 좌우하는데, 고객이 정기 전송 요구에 동의하면 주 1회 자동으로 정보 제공이 전송 가능해진다. 이 역시 가이드라인에 따르면 정기 전송 요구권은 고객의 선택이 가능하게 돼 있어야 하는데, 토스는 이를 필수항목에 집어넣었다.본인인증 과정에서도 문제가 됐다. 마이데이터 사업자는 정보 제공 시 거쳐야 할 인증서의 선택지로 사설인증서뿐만 아니라 공동인증서까지 모두 인증 수단으로 제공해야 한다. 그런데 토스는 일정 기간 기존 회원을 대상으로 토스인증서를 반드시 설치해야만 앞으로 토스 서비스를 이용할 수 있는 것처럼 안내했다.마이데이터 서비스는 개개인의 금융 정보 분석을 위한 편리성을 제공하기에 앞서, 정보의 주체권을 개인에게 돌려주자는데 근본 의의가 있다. 한 금융업계 관계자는 “토스의 행태는 이런 취지를 무시하고 묵시적으로 정보 제공 동의를 강요한 셈”이라며 “토스인증서 사용 유도와 관련해서도 자체 인증서 사용자를 늘리고자 하는 꼼수가 아녔느냐는 지적이 나온다”고 전했다.그래픽=손민균        이런 문제가 알려지자 토스는 금융당국으로부터 시정 조치를 받았다. 토스는 지난 5일 마이데이터 전면 적용 직전인 주말 사이, 이런 문제에 대한 개선 조치를 완료했다.그럼에도 전통 금융사와 핀테크 업계에서의 불만은 끊이지 않는 분위기다. 토스가 문제의 방식으로 끌어모은 가입자들을 원상 복구하고, 다시 재가입 선택권을 줘야 하는 것이 타당하지 않으냐는 문제 제기가 금융당국에 접수됐다.한 마이데이터 사업자는 “빡빡한 가이드라인을 누가 지키고 싶어서 지킨 줄 아느냐”며 “소수 고객에게만 제대로 된 동의 절차를 밟아놓고 모두 정당한 고객인 것처럼 이어가는 것은 엄연한 반칙”이라고 주장했다.또 다른 관계자는 “마이데이터 사업자들도 사업 초기에 토스가 기존 이용자들을 쉽게 전환하기 위해 의도적으로 기준을 지키지 않은 것이 아닌지 우려하고 있다”며 “전통 금융기관 쪽에서 핀테크 업체 같은 기존 마이데이터 사업자들을 모두 부도덕하다는 시선으로 바라보는 계기가 되는 것은 아닌지 마음을 졸이며 이번 사태를 바라보고 있다”고 토로했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>2022.01.12.</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>‘내 손 안의 금융 비서’라던 마이데이터, 열어보니…‘애걔?’</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/028/0002575170?sid=101</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>마이데이터 서비스 체험기10일 취재기자가 직접 KB스타뱅킹 애플리케이션에 접속해 마이데이터 서비스를 이용해봤다. 앱 화면 갈무리“○○○님 지출이 평균보다 낮네요. 비결이 궁금해요∼”“코로나 시대! 집콕 일상화로 이달은 온라인 쇼핑에 지출이 많았어요!”지난 5일부터 마이데이터 서비스가 전면 시행된 뒤 한 주 동안 케이비(KB)국민은행, 하나은행, 토스 세 곳의 서비스를 사용해 봤다. 급여 통장이 있거나 계좌를 갖고 있던 금융사들이다. 초기 단계여서인지 각 회사별 차별성은 찾기 어려웠다. 또 ‘자산관리’라는 이름으로 서비스는 제공하나 은행이나 증권사의 계좌 내역, 카드 이용 내역 등 정보를 기반으로 한 소비 내역을 보여주는 수준에 그쳐 아쉬움을 남겼다. 내가 ‘지난 달 온라인 쇼핑에 소득의 절반 이상을 썼다’는 사실을 확인한 것 외에 가계에 도움이 되는 정보를 찾기 어려웠다. 한 마디로 ‘내 손안의 금융비서’는 걸음마 뗀 아기였다. 허탈했다.마이데이터, ‘내 손 안의 금융 비서’?…글쎄KB스타뱅킹 앱에 접속해 마이데이터 서비스에 가입했다. “○○○님에게 딱 맞는 AI(인공지능) 맞춤상품을 만나보세요”란 문구가 떴다. 은행은 나의 자산관리 유형을 “#동서학개미”, “#뉴어덜트”로 분류했다. 여기까지 오케이. 그런데 그 다음이 없었다. ‘동서학개미’로서 어디에, 어떻게 투자하라는 것인가. ‘나를 위한 AI 맞춤상품’ 배너를 클릭했다. “투자성향 분석을 진행하시겠습니까?” 정보 제공에 동의할 때까지만 해도 ‘알아서’ 상품을 AI가 추천할 거라고 기대했다. 하지만 또 뭔가 ‘동의’를 해야 했다. 그 뒤부터 최근 대출 여부부터 연령대, 연 소득, 투자 경험 등을 물었다. 모두 이미 금융사들에 제공했던 기초 정보였다. 이어 투자 목적, 투자 예상 기간, 기대 수익 및 감내할 수 있는 손실 등 투자성향을 묻는 말이 이어졌다. ‘내 손 안의 금융 비서’는 너무 많은 정보를 요구한다고 느낄 소비자도 있겠다 싶었다.KB스타뱅킹 애플리케이션 화면 갈무리하나은행은 개인의 지출 습관, 자산관리 스타일 등 소비자의 금융 서비스 이용 성향을 재미있는 표현을 써 알려주는 점이 눈에 띄었다. “○○○님의 자산관리 스타일을 알려드립니다. (당신은) 예비자금을 선호하는 ‘너는 다 계획이 있구나’ 스타일입니다.”하지만 눈길 끄는 표현만 빼면 실속있는 내용은 없었다. “일부 금액을 펀드로 운용해보시길 추천해요”라는 문구를 보고 클릭해봤다. ‘갈아 탈 펀드 종목을 알려주려나?’하는 기대감도 잠시, 화면에는 계좌 잔액 현황만 보였다. 딱 거기까지였다. 허무했다. ‘금융 비서’라면 적어도 나에게 적합한 펀드 상품 한두 가지 정도는 소개해줘야 하는 것 아닌가.하나은행 애플리케이션 화면 갈무리그리 똑똑하지 않은 금융비서를 탓하자 사업자 쪽은 이런 설명을 내놨다. “소비자가 개인정보 제공 동의를 했더라도 금융소비자법에 따라 은행이 고객에게 상품을 추천하려면 투자성향 분석을 먼저 해야 한다.” “현재 사업 초기 상황에서 정보제공자는 은행, 증권사, 카드사, 통신사 정도가 대부분이라 마이데이터 사업자들이 제공하는 서비스가 사실상 초보적인 자산관리 수준에 그치는 상황이다.” 단기간에는 만족도 높은 서비스 제공은 쉽지 않다는 얘기였다. 이런 상황 속에서도 사업자들은 소소한 차별화 포인트를 앞세워 소비자 몰이에 한창이다. 예컨대 국민은행은 지출 내용 정보를 기반으로 소비자 씀씀이를 분석하고 그에 따라 외식비·커피·홈쇼핑 등 줄이기, 한 달 예산으로 살기 등 ‘챌린지’ 서비스를 운영하고 있다. 비슷한 연령, 소득 수준인 비교그룹의 소비 행태와 나의 소비를 비교해주고 절약을 유도하는 서비스로, 챌린지에 성공하면 일반 입출금 통장보다는 높은 이율(0.6%)을 준다. 금융 자산 외에 상품권이나 회원권부터 현금, 금 등의 자산을 직접 등록해 시세 등을 관리할 수 있는 서비스도 이용할 수 있었다.KB스타뱅킹 애플리케이션 화면 갈무리마이데이터, 어느 금융사 선택해야 할까…이용 않는다면 꼭 해지 신청서비스가 고만고만하다면 어느 사업자 서비스를 선택해야 할까. 더구나 현재까지 마이데이터 사업자로 등록한 업체는 모두 33곳에 이른다. 특정 금융사를 이용하려면 계좌나 카드, 아이디 등이 있어야 한다는 점을 염두에 두면 평소 자주 이용하는 금융사를 택하는 편이 편리하다. 다만 앞으로 서비스 품질이 크게 개선된다면 직접 이용해보고 고르는 것도 추천한다. 마이데이터 서비스를 이용하려면 자신의 개인정보 제공에 일일이 동의해야 하는 ‘부담’이 따른다. 혹시 더는 이용하지 않을 업체에 대해서는 서비스 이용 해지를 신청해야 한다. 마이데이터 서비스 이용을 멈추길 원하거나 정보 제공 기관을 바꾸고 싶다면 언제든지 관리 페이지에 들어가 ‘해지’ 또는 ‘변경’할 수 있다. 정보 보호를 위해 업체의 서비스를 이용하지 않을 경우 꼭 해지하는 편이 안전하다.KB스타뱅킹 애플리케이션 화면 갈무리KB스타뱅킹 애플리케이션 화면 갈무리KB스타뱅킹 애플리케이션 화면 갈무리하나은행 애플리케이션 화면 갈무리</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>2022.01.02.</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>[fn사설] 방역패스 불가피하나 불만에도 귀기울이길</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004765399?sid=110</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>오미크론 갈수록 기승미접종자 잘 다독여야 2일 오전 서울 시내 한 대형마트를 찾은 시민들이 QR코드로 출입 인증을 하고 있다. 정부는 오는 10일부터 백화점과 대형마트에도 방역패스(접종증명·음성확인제)를 적용하고 미접종자는 이용을 제한하기로 했다. 뉴시스화상 세계보건기구(WHO)의 테워드로스 아드하놈 거브러여수스 사무총장은 신년사에서 "팬데믹을 3년째 겪는 대신 우리는 가족, 이웃과 모여 코로나19 이전의 일상으로 돌아가는 것을 축하할 것"이라며 올해 코로나19 종식을 낙관하는 입장을 밝혔다. 팬데믹을 끝내자는 WHO의 2022년도 목표 제시에 응원의 큰 박수를 보낸다.   게임체인저(국면전환자) 역할을 기대하는 먹는 치료제에 기대를 걸어본다. 정부는 팍스로비드와 몰누피라비르 등 먹는 치료제 100만4000명분을 도입, 이달 말부터 재택치료자를 중심으로 투약에 들어간다. 이 약이 중증화와 입원율을 낮춰 방역·의료체계의 부담을 획기적으로 덜어줄 것으로 본다.   1일 현재 누적 확진자 수 1207명을 기록한 오미크론 변이의 확산이 변수다. 현재 우세종인 델타 바이러스보다 확산 속도가 2.5배나 빠르다. 오미크론은 지난달 1일 국내 첫 확인 이후 1000명 돌파까지 한 달밖에 안 걸렸다. 오미크론이 국내 지배종이 되는 건 시간문제로 보인다. 그러나 오미크론의 위중도가 낮다는 사실이 확인되면 멈췄던 일상회복을 다시 가동할 수 있다는 희망이 생길 수도 있다.   사적모임 4인, 유흥시설과 식당·카페 등 다중시설 운영시간 오후 9~10시 제한 등 거리두기 강화조치가 3일부터 오는 16일까지 2주간 추가 연장됐다. 상점과 마트, 백화점 등 대규모 점포 2003곳이 방역패스 적용대상에 추가됨에 따라 방역패스(접종증명·음성확인제)에 '유효기간'이 적용된다는 사실에 유의해야 한다. 유효기간 적용이 시작되기 전에 예방접종 인증 전자증명서인 '쿠브(COOV)' 애플리케이션(앱)이나 카카오, 네이버, 토스, PASS 등 민간 전자출입명부 앱을 미리 업데이트해둬야 출입 시 혼선을 피할 수 있다.   접종을 하지 않았거나 2차 접종을 완료하지 않은 미접종자들의 불만 제기에도 귀 기울일 필요가 있다. 18세 이상 성인인구의 4.4%에 이르는 이들은 방역패스 예외 적용범위가 극도로 제한돼 있다고 어려움을 토로한다. 만원 지하철이나 버스에는 적용하지 않으면서 생필품을 구입하는 장소의 출입을 제한하는 것은 지나치다는 것이다. 방역당국은 미접종자의 방역패스 예외 범위를 지속적으로 보완해 이들이 겪는 불편을 최소화하는 데도 신경써주기 바란다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>2022.01.08.</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>[Pick] 판사가 살인 무기수와 키스?…교도소 CCTV에 딱 걸렸다</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/055/0000945186?sid=104</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>아르헨티나에서 한 판사와 살인 무기수가 입을 맞추는 듯한 모습이 교도소 CCTV에 포착됐습니다. 심지어 이 판사는 해당 재소자의 종신형 선고를 결정하는 재판에서 유일하게 반대표를 던진 것으로 밝혀져 논란이 커지고 있습니다.현지 시간으로 5일 뉴욕포스트 등 외신들은 지난달 29일 아르헨티나 추부트주 인근 교도소에서 불거진 황당한 스캔들에 대해 보도했습니다. 살해 혐의 등으로 복역 중인 재소자 크리스티안 부르토스와 마리엘 수아레즈 판사가 교도소 면회실 구석에서 입을 맞추는 듯한 장면이 CCTV에 포착된 겁니다.부스토스는 2005년 생후 9개월 된 의붓아들을 살해해 종신형을 처음 선고받았습니다. 하지만 13년 후 변호사를 통해 이의제기해 20년형으로 감형받은 뒤, 2007년 탈옥했습니다. 2년 동안 도피 생활을 이어가던 부스토스는 자신을 체포하러 온 경찰을 총으로 쏴 살해한 혐의로 다시 붙잡혔습니다.지난달 22일 부스토스의 종신형 선고 여부를 결정하는 재판이 열렸고, 수아레즈 판사도 심사위원 자격으로 참석했습니다. 수아레즈 판사는 해당 재판에서 "부스토스가 위험한 죄수"라는 이야기를 들었음에도 종신형 선고에 반대표를 던졌고, 그럼에도 부스토스는 무기징역을 선고받았습니다.그로부터 일주일 뒤 부스토스와 수아레즈 판사는 교도소에서 다시 재회했는데, 면회실에서 함께 사진을 찍고 이야기를 하던 두 사람이 갑자기 약 3초가량 얼굴을 가까이 밀착했습니다. 이후 부스토스는 태연하게 자세를 고쳐잡고 수아레즈 판사와 이야기를 이어갔습니다.이후 아르헨티나 현지 언론들이 판사와 살인 무기수의 부적절한 관계를 의심하며 "앞선 부스토스의 종신형 선고 재판이 '봐주기 재판' 혹은 '재판 거래'인 것 아니냐"고 비난했습니다. 이에 수아레즈 판사는 "그와 사적인 관계가 절대 아니다. 그와 관련된 책을 집필 중이라 가까이에서 이야기를 나눈 것뿐, 입을 맞춘 적은 없다"고 해명했습니다.하지만 추부트주 고등법원은 "판사의 부적절한 행동이 있었다"면서 "판사와 재소자가 어떤 경위로 사적인 관계를 맺게 됐는지, 또 둘의 관계가 재판에 어떤 영향을 미쳤는지 철저하게 조사하겠다"고 밝혔습니다.이어 "당시 면회실에서 수아레즈 판사와 부스토스 사이에 어떤 대화가 오갔는지 확인하고 있다. 공정성과 청렴성, 품위를 유지하고 모든 외부 영향에서 사법권 독립을 지켜야 한다는 '법관윤리강령'을 수아레즈 판사가 위반했는지 낱낱이 살피겠다"고 강조했습니다.'뉴스 픽' 입니다.(사진='Newyork post'·'infobae' 홈페이지 캡처)</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>2022.01.03.</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>네이버·카카오·패스 이어 토스도 방역패스 추가</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005119102?sid=105</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>“코로나19 방역패스 토스 QR에서 확인하세요”앱 업데이트 후 서비스 이용가능[이데일리 김현아 기자]모바일 금융 서비스 ‘토스’를 운영하는 비바리퍼블리카(대표 이승건)가 새로운 QR 접종증명서(방역패스) 서비스를 제공한다.질병관리청의 방역패스 도입에 맞춰 오픈한 새로운 QR 서비스에서는 3차 접종(부스터) 여부, 2차 접종(얀센은 1차) 후 경과 기간 등을 확인할 수 있다.QR 화면에서 ‘접종완료 00일 경과‘ 메시지를 확인할 수 있어 방역패스 유효기간(접종 14일 이후부터 180일까지) 만료 이전에 부스터샷 접종 계획을 세울 수 있다.    종이로만 발급이 가능했던 완치확인서, 예외확인서(의학적 사유로 인한 접종 예외) 관련 내용도 종이증명서 없이 QR 체크인만으로 증명할 수 있다. 기존 QR 에서는 출입 증명 목적의 백신 2차 접종 이력까지만 조회가 가능했다.사용자는 토스 앱을 업데이트만 하면 새로운 QR 서비스를 바로 이용할 수 있다.  토스는 방역패스 계도기간이지만 좀 더 많은 사용자들이 빠르게 새로운 QR 체크인 서비스를 만나볼 수 있도록 전체 유저에게 서비스를 오픈했다. 빠르고 간편한 다중이용시설 출입을 위해 앱 실행 후 첫 화면 상단에서 QR 체크인 서비스를 손쉽게 이용할 수 있으며 위젯 기능도 제공하고 있다. 토스 관계자는 “토스에서는 디지털 환경이나 앱 서비스에 익숙하지 않은 사용자라도 누구나 직관적으로 QR 서비스를 활용할 수 있도록 서비스를 고도화해 나가고 있다“며 “방역패스 유효기간 안내 뿐 아니라 해외 백신 접종 내역 등 다양한 증빙을 손쉽게 이용할 수 있는 편리한 서비스를 만들어 나가겠다”고 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>2022.01.12.</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>엠비아이솔루션, 네이버 클로바로부터 40억 투자 유치</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004695219?sid=101</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>해피톡BI/사진제공=엠비아이솔루션고객 상담 솔루션 전문기업 엠비아이솔루션이 네이버 클로바로부터 40억원 규모의 투자를 유치했다.이번 투자 유치로 엠비아이솔루션은 '해피톡'의 글로벌 시장 진출과 AI(인공지능) 기반 서비스 개발을 가속화할 방침이다. 올 상반기 예정된 신제품 론칭에도 힘을 받을 전망이다.엠비아이솔루션의 대표 솔루션 '해피톡SaaS'는 웹채팅, 카카오톡, 네이버 톡톡, 인스타그램, SNS(사회관계망서비스) 등 여러 채널의 고객문의를 통합해 한 채널에서 실시간 응대할 수 있는 제품이다.김범수 엠비아이솔루션 대표는 "엠비아이솔루션은 고객과 기업의 소통 채널 최전선에서 더 나은 서비스를 개발하기 위해 노력해왔다"며 "주력 서비스인 '해피톡'은 국내 최초로 범용 메신저와 챗봇을 결합한 채팅 상담 솔루션으로 배달의민족, 토스, 코웨이, SSG, 브랜디, 국민카드, 삼성증권 등 국내외 최고의 기업들이 사용 중"이라고 말했다. 이어 "또 기업 전화를 혁신하는 서비스 '상담콜'은 기존 전화와 클라우드 ARS를 연결하는 혁신적인 방법으로 고객 경험을 향상시키고 있다"며 "이번 투자 유치로 기존 서비스에 AI를 이식해 범용성을 강화하고 글로벌 시장 진출을 추진할 것"이라고 덧붙였다.네이버 클로바의 정석근 대표는 "고객상담 전문 솔루션 '해피톡'과 네이버 클로바의 고도화된 AI 기술이 만나 다양한 시너지를 만들어나갈 것으로 기대한다"고 했다.한편 국내외 약 2만5000개의 고객사가 현재 해피톡을 이용 중이다. 엠비아이솔루션은 최근 자사 서비스의 클라우드 인프라를 네이버 클라우드로 이전하면서 네이버와의 협력을 더욱 강화하고 있다. 네이버 클라우드와의 협력으로 시큐리티 모니터링(Security Monitoring) 서비스 및 다양한 보안 솔루션을 적용, 보안 성능을 극대화했다는 평가다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>2022.01.13.</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>"인터넷은행 대출금리 최고 10% 육박…카카오뱅크 최고"</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0012915126?sid=101</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>(서울=연합뉴스) 윤선희 기자 = 최근 금리 상승기에 인터넷은행들이 가산금리를 더 올려 일부 신용대출 금리가 최고 10%에 육박한 것으로 드러났다.    13일 IBK투자증권에 따르면 인터넷은행의 가계 대출금리 상승 폭이 지난해 9월부터 확대되더니 그해 12월 기준 대형 은행과 금리 차이가 크게 벌어졌다.     지난해 12월 상장 은행주의 5개 대형은행 가계 일반 신용대출 금리(서민금융 제외) 평균은 3.78%로 나타났다.    그러나 카카오뱅크 신용대출 금리는 9.79%에 달했고, 케이뱅크는 5.71%로 높았다. 토스뱅크 신용대출 금리도 지난해 11월 기준 5.07%로 대형은행 11월 평균 금리 3.5%보다 높은 수준이었다.     김은갑 연구원은 "최근 은행권 신용대출 금리상승 폭이 예상보다 확대되는 등 은행 수익성 개선 속도가 빨라지고 있다"며 "이 중 인터넷은행의 신용대출 금리는 시중은행 대비 크게 높은 수준에서 형성되고 있다"고 설명했다.     그는 "은행의 대출금리 차이는 가산금리 차이에 의한 것"이라며 "인터넷은행이 중신용자 대출을 확대하는 과정에서 금리가 높아진 부분도 있지만 전반적으로 대형은행 대비 금리 경쟁력이 약화했다"고 지적했다.     그러면서 "인터넷은행에 의한 금리 경쟁과 대출금리 하락 효과는 없는 상황"이라며 "예대금리차는 올해 상반기까지 상승추세를 보이고 신규 대출금리 상승세가 한동안 반전될 가능성은 작아 보인다"고 덧붙였다.     indigo@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>2022.01.08.</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>[VC's Pick]메타버스부터 디지털 수익증권까지…기술기반 서비스 주목</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005122830?sid=101</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>[이데일리 김연지 기자] 이번 주(1월 3일~7일)에는 가상자산부터 메타버스, 디지털 수익증권, 공유 전동 킥보드, 패션 플랫폼 등에 대한 벤처캐피털(VC) 및 액셀러레이터들의 투자가 활발히 이뤄졌다. 특히 세계인의 일상에 큰 영향을 줄 것으로 전망되고 있는 인공지능(AI) 기술을 기반으로 한 서비스 관련 투자 행보가 돋보였다.(사진=이미지투데이) AI 비즈니스 도구 개발 ‘프라이데이즈랩’프라이데이즈랩은 카카오벤처스로부터 6억원 규모의 시드 투자를 유치했다. 이 회사는 기업이 고객 충성도를 높일 수 있도록 다양한 수치와 추천 솔루션 등을 제공하는 ‘AI 프라이데이’를 서비스한다. 카카오벤처스는 프라이데이즈랩의 데이터 분석을 활용할 시 전문인력을 상시 투입하지 않더라도 누구나 데이터 기반의 마케팅과 고객관리를 할 수 있도록 돕는다는 점을 높이 평가했다. 프라이데이즈랩은 올해 상반기 서비스를 출시하고 해외 진출을 모색할 계획이다. AI 데이터 설계 ‘에이모’에이모는 DS자산운용과 중소기업은행, 한화투자증권, S&amp;S인베스트먼트, 토스인베스트먼트, 코리아에셋투자증권, 벤처필트 등으로부터 126억원 규모의 시리즈A 투자를 유치했다. 에이모는 AI 데이터 전문가가 학습 데이터 프로젝트 설계부터 최종 검수에 이르는 전 과정을 전담해 학습 데이터의 정확성을 보장하는 고품질 학습 데이터 제공 서비스 ‘GTaaS(Ground Truth as a Service)’를 제공하고 있다. 투자사들은 에이모가 보유한 독보적인 기술력과 성장 가능성을 높이 평가했다. 에이모는 이번 투자를 계기로 AI 기반의 데이터 레이블링 기술 연구에 힘을 쏟아 빠르게 성장하는 AI 시장의 데이터 확보와 가공 장벽을 낮춘다는 계획이다.  AI 자율주행 ‘스프링클라우드’스프링클라우드는 인포뱅크와 만도, 산업은행, 신용보증기금 등으로부터 180억원 규모의 시리즈A 투자를 유치했다. 스프링클라우드는 자율주행 차량 임시운행 허가 획득 후 대구시를 시작으로 세종시, 군산 및 서울과기대 등에 자율주행 셔틀 서비스 사업·기술 개발을 추진해왔다. 투자사들은 회사가 기술력을 기반으로 관련 산업 경쟁력을 강화하고 있다는 점을 높이 평가했다. 스프링클라우드는 이번 투자를 기반으로 주력 서비스 분야인 자율주행 셔틀 서비스와 풀스택 개발, 인공지능(AI) 자율주행 기술 및 데이터 서비스를 강화한다는 계획이다. 지식 콘텐츠 서비스 롱블랙 운영사 ‘타임앤코’타임앤코는 카카오벤처스로부터 11억원의 시드 투자를 유치했다. 타임앤코가 운영하는 비즈니스 콘텐츠 구독 서비스인 롱블랙은 세계의 다양한 비즈니스 사례를 발굴해 직장인들이 기획력을 키우고 통찰력을 얻을 수 있도록 도와주는 서비스다. 카카오벤처스는 롱블랙이 구독자들의 지식 콘텐츠 경험을 다양화하면서 콘텐츠 시장을 혁신할 것으로 봤다. 습관 형성 구독 서비스를 통해 구독자들에게 매일 유용한 콘텐츠를 읽도록 유도한다는 설명이다. 타임앤코는 이번 투자 유치를 바탕으로 롱블랙을 함께 성장시킬 인재 채용과 서비스 고도화에 집중할 계획이다. K패션 디지털 플랫폼 ‘딜리셔스’딜리셔스는 스톤브릿지벤처스와 산업은행, DSC인베스트먼트, 유안타인베스트먼트, 스마일게이트인베스트먼트 등 13개 기관으로부터 540억원 규모의 투자를 유치했다. 딜리셔스는 2013년 출시한 K패션 도소매 거래 플랫폼 ‘신상마켓’과 2020년 출시한 K패션 올인원 풀필먼트 ‘딜리버드’ 등을 서비스하고 있다. VC들은 딜리셔스가 보유한 사업 역량과 비전에 크게 공감하고 이번 투자를 단행했다. 도소매 사업자의 상품 거래 방식부터 유통까지 모든 과정에 디지털 기술을 접목했다는 평가다. 딜리셔스는 K패션의 본거지 동대문 패션 클러스터의 디지털화, 표준화를 일으킨 경험을 바탕으로 앞으로 글로벌 패션 시장에 진출한다는 계획이다. 디지털 부동산 수익증권 플랫폼 ‘펀블’펀블은 우리기술투자와 SK증권, 한화호텔앤드리조트, 더스퀘어앤컴퍼니, 메이플투자파트너스 등으로부터 50억원 규모의 투자를 유치했다. 펀블은 상업용 건물을 주식처럼 쪼개서 사고 팔 수 있는 부동산 디지털 수익증권 거래 플랫폼이다. 지난해 5월 금융위원회로부터 혁신금융서비스로 지정받았다. 투자사들은 기관이나 전문투자업체뿐 아니라 일반인들도 여러 자산에 투자할 수 있도록 했다는 점을 높이 평가했다. 부동산뿐 아니라 항공과 선박 등 타 대형 자산을 증권화하는 등 서비스를 빠르게 확장할 수 있다는 평가다. 펀블은 이번 투자 유치로 인재 영입과 인프라 강화에 주력할 방침이다. 장기적으로는 자산유동화증권 시장의 확대를 대비한다는 목표다. 글로벌 팬덤 비즈니스 ‘비마이프렌즈’국내 최초 팬덤 비즈니스 전문 스타트업 비마이프렌즈는 새한창업투자와 주식회사 GS, 드림어스컴퍼니 등으로부터 총 80억원의 투자를 유치했다. 회사는 크리에이터와 팬의 직접 소통 및 공감을 통해 가치를 극대화하고 수익창출이 가능한 글로벌 팬덤 플랫폼 서비스 비스테이지(b.stage)를 개발했다. 투자사들은 비마이프렌즈의 기술력과 글로벌 확장성, 혁신 가치 창출 가능성 등을 높이 평가했다. 공유 전동 킥보드 운영사 ‘매스아시아’퍼스널 모빌리티 스타트업 매스아시아는 롯데벤처스 등으로부터 시리즈A 투자를 유치했다. 이번 라운드에는 롯데벤처스와 대덕벤처파트너스, 메인스트리트 인베스트먼트가 투자에 참여했고 투자 금액은 비공개다. 매스아시아는 지난 2019년 전동 킥보드 서비스 ‘알파카’를 인수합병하며 2020년 기존 브랜드 ‘고고씽’에서 ‘알파카’로 리브랜딩했다. 투자사들은 마이크로 모빌리티 산업 속 매스아시아의 운영 효율화, 지역 파트너십 등 경쟁력을 높이 평가했다. 매스아시아가 궁극적으로는 공유 킥보드에 대한 인식을 개선할 것이라는 설명이다. 회사는 이번 투자를 계기로 중국과 유럽 등 해외 진출을 위한 전담팀을 신설하고 인재 채용에 나설 계획이다. 산업용 XR 솔루션 ‘버넥트’버넥트는 스틱벤처스와 롯데벤처스, 한화, KTB네트워크, KB인베스트먼트, KDB산업은행 등으로부터 300억원 규모의 시리즈 B 투자를 유치했다. 버넥트는 현재 XR 다자간 원격 협업 솔루션과 실감형 콘텐츠 제작 솔루션을 LG화학, 삼성전자 등 39개 대기업 및 계열사와 한국전력공사, 한국공항공사 등 27개 공기업에 공급하고 있다. 투자사들은 버넥트가 글로벌 메타버스 기업으로 성장할 역량이 충분하다고 봤다. 실제 회사는 100여건이 넘는 프로젝트 진행 경험을 비롯해 107건의 지식재산권과 36건의 수상 실적, 나이스 기술신용평가(NICE TCB)에서 ‘매우 우수’에 해당하는 TI-2등급의 기술신용평가 인증을 받은 바 있다. 버넥트는 이번 투자로 산업용 XR 에코시스템을 구축하고 우수 인재 확보, 차별화 제품 개발, 글로벌 시장 진출을 위한 마케팅 등을 실시한다는 계획이다. 페이코인 운영사 ‘다날핀테크’페이코인을 운영하는 다날핀테크는 SDB인베스트먼트로부터 200억원의 투자를 유치했다. 다날핀테크의 페이코인은 출시 2년 만에 전국 10만 가맹점 확대와 250만 사용자 확보한 국내 대표 블록체인 서비스다. SDB인베스트먼트는 다날핀테크의 확장성에 주목한 것으로 분석된다. 회사는 이번 투자로 간편 결제뿐 아니라 가상자산 금융서비스, NFT, 메타버스 등 가상자산 활용의 저변을 확대한다는 목표다.  블록체인 금융 플랫폼 ‘지펙스’금융기관과 카드사, 항공사, 유통사 등에 흩어진 잔여 포인트의 활용성을 높이고 음식 할인, 문화 생활 등 소진 중심의 포인트를 투자 자산으로 바꿔주는 블록체인 금융 플랫폼 ‘지펙스’는 미국 시마 캐피탈(Shima Capital)을 비롯한 VC들로부터 총 150만달러의 투자를 유치했다. 투자사들은 유동성이 떨어지는 포인트를 가상자산으로 연결하는 지펙스의 기술력과 성장 가능성을 높이 평가했다. 지펙스는 이번 투자를 계기로 자체 플랫폼 기술 고도화 및 제휴 기업 확대를 진행해 생태계를 지속적으로 확장한다는 계획이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>2022.01.04.</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>[금융계 뉴트렌드]② “은행이 만든 배달·부동산 앱”… 비금융 분야 뛰어든 금융지주</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000784836?sid=101</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>온라인 플랫폼 기반 서비스가 금융의 판도를 바꾸고 있다. 은행이 더는 은행으로만 머무르지 않는다는 이른바 ‘디지털 유니버설 뱅크(digital universal bank)’가 전통 금융지주그룹의 주요 사업 전략으로 자리 잡고 있다.디지털 유니버셜 뱅크는 금융 그룹이 하나의 수퍼 앱(app)에서 은행·보험·증권 등 다양한 서비스를 통합 제공하는 것을 말한다.금융시장에 지각 변동을 일으킨 네이버, 카카오, 토스 등 빅테크·핀테크 플랫폼의 금융 진출 확대에 대항하기 위해 기존 은행들도 금융업에만 안주하지 않고, 배달·숙박·쇼핑 등 비금융 플랫폼 신(新)사업에 적극적으로 뛰어들며 주도권을 지키기 위해 열을 올리고 있다.카카오뱅크        이러한 변화는 경쟁이 심화하는 금융업계의 생존 전략이다. 그동안 금융사들은 기존 금융업권과 다른 규제를 받는 빅테크·핀테크들의 금융업 진출에 대해 ‘불공정 경쟁’이라고 주장해왔다. ‘동일기능(업무)·동일규제’ 원칙을 적용해야 한다는 이유에서다. 반면 시장 후발주자인 신생 핀테크사에 과도한 부담이 될 수 있고, 혁신금융을 위한 핀테크 육성 취지에도 맞지 않는다는 반박도 있었다.초기에는 빅테크의 규제 강도를 높이는 데 무게가 실렸다면, 현재는 ‘금융그룹에게 비금융 플랫폼 사업을 영위할 기회를 적극적으로 부여해야 한다’는 방향으로 분위기가 바뀌고 있다. 고승범 금융위원장도 최근 주요 시중은행장 간 간담회에서 “디지털 유니버설 뱅크로의 전환을 중심으로 은행의 업무 확대를 검토하겠다”고 밝힌 바 있다.다만 아직 국내 금융지주사의 비금융 플랫폼 진출은 걸음마 단계다. 신한은행은 배달 앱 ‘땡겨요’를 통해 금융권 최초로 음식 배달업에 진출한다. 이는 작년 12월 최장 3년간 규제를 적용받지 않는 금융위원회의 혁신금융서비스로 지정돼 추진하는 사업으로, 신한은행은 140억원을 투입했다.신한은행은 이달 정식으로 서울 강남구와 서초구 일대 1만여개 가맹점의 배달 서비스를 시작하고, 내년에는 서울 전역으로 서비스 범위를 확대할 예정이다.신한은행은 LG유플러스, CJ올리브네트웍스와 함께 데이터 커뮤니케이션 서비스 '디키타카(DIKITAKA)'를 선보였다. '데이터로 티키타카'라는 뜻의 디키타카는 고객이 만든 이야기와 기업의 데이터를 바탕으로 만들어진 이야기를 공유할 수 있는 데이터 플랫폼이다.         신한은행은 배달 앱 중개수수료보다 사업 과정에서 얻게 될 각종 데이터에 주목하고 있다. 가맹점으로부터 앱 입점 수수료와 광고비를 받지 않고, 중개 수수료도 공공 배달앱 수준으로 적게 받는 대신 배달노동자(라이더)의 소득정보와 소비자의 결제 정보 등을 얻어 본업인 금융 서비스와 연계하려는 계획이 깔려있는 것이다. 실제 앞서 신한은행은 배달대행 플랫폼 생각대로(로지올)와 손잡고 라이더의 배달 수행 정보를 기반으로 신용평가를 하는 ‘라이더 전용 대출’을 출시하기도 했다.반려동물을 위한 생활플랫폼 ‘쏠 펫(SOL PET)’도 있다. 신한은행은 프리미엄 반려동물용품 전문 브랜드 브레멘과의 제휴를 통해 선보인 고객 참여형 반려동물 커뮤니티 ‘펫스타픽’을 시작으로 향후 ▲펫(PET) 관련 원스탑 상품·서비스 ▲보험, 적금을 비롯한 데이터 기반 펫 금융 서비스 등으로 점차 확대해 나갈 예정이다.신한은행은 최근 LG유플러스, CJ올리브네트웍스와 함께 고객 데이터를 분석해 정보를 공유하는 데이터 커뮤니케이션 플랫폼 ‘디키타카(DIKITAKA)’도 개발해 시범 운영에 들어갔다. 이는 금융·통신·유통 데이터 활용하는 서비스로, 기업이 분석한 정보를 공유하는 것은 물론 고객이 직접 데이터로 이야기를 만들어 소통할 수 있는 플랫폼이다. 가령 ‘실제 방문이 많은 맛집’ 등 제시된 주제에 맞춰 고객이 직접 실시간으로 느낌(이모지), 사진, 글을 서로 공유할 수 있다.KB국민은행의 부동산 전용 애플리케이션 ‘KB부동산’        우리은행은 ‘실손보험 빠른청구 서비스’와 ‘개인 택배 배달·픽업 서비스’ 등을 모바일뱅킹 앱 ‘우리WON뱅킹’에 잇따라 출시했다.우리은행이 앞서 선보인 ‘실손보험 빠른 청구 서비스’는 삼성화재, 현대해상 등 30여개 보험사 실손보험 가입자가 세브란스병원, 성모병원 등 90여개 주요 대형병원을 이용한 경우 진단서, 영수증 등 별도의 종이서류를 발급받을 필요 없이 은행 앱 ‘원뱅킹’ 내에서 보험금 청구를 할 수 있는 서비스다. 기존에 실손보험 가입자가 보험금을 청구하기 위해 번거로운 과정을 은행 앱 안에서 해결할 수 있도록 해 편의성을 높였다.택배 플랫폼 서비스 전문업체 파슬미디어와 함께 택배 서비스 ‘마이(My)택배’는 택배 예약·결제 서비스뿐 아니라 개인별 휴대폰 번호를 기반으로 택배 운송 상태도 조회할 수 있는 원스톱 종합택배 플랫폼이다.KB국민은행은 지도를 기반으로 부동산 정보를 알기 쉽게 보여주는 앱 ‘리브부동산 서비스’를 올해 초 출시했다. KB시세부터 실거래가, 매물가격, 공시가격, 인공지능(AI) 예측 시세, 빌라 시세까지 다양한 부동산 가격정보를 조회할 수 있다. 여기에 최신 청약 정보를 담은 ‘분양 홈’과 회원 중개업소가 편리하게 이용할 수 있는 ‘리브부동산 중개사 허브’ 서비스도 추가했다.KB국민은행은 또 인테리어 앱 ‘오늘의집’을 운영하는 버킷플레이스와 플랫폼 비즈니스 모델 공동 개발을 위한 업무협약을 맺고, 새로운 서비스를 출시할 계획이다. 고객이 KB국민은행의 리브부동산을 통해 매물정보를 확인하면, 해당 매물의 평형과 연계해 ‘오늘의집’에 게시된 실제 인테리어 시공 사례와 온라인 집들이 등의 콘텐츠 정보를 제공하는 식이다.금융지주사들은 별도의 인터넷전문은행을 설립하겠다는 의지도 강하다. 뱅크 인 뱅크(BIB·은행 안의 은행)’ 혹은 100% 자회사나 다른 기업과의 합작사 설립 등을 통해 별도의 인터넷은행을 설립하겠다는 구상이다.2021년 상반기 은행연합회와 은행권, 한국금융연구원이 머리를 맞대고 인터넷전문은행 제안서를 작성해 금융위원회에 건의한 바 있다. 올해는 무산되는 듯한 분위기지만, 금융권에선 차기 정권과 이에 대한 공감대가 형성된다면 계속 추진할 것이라는 의지를 내비치고 있다.BIB의 대표적인 성공 사례는 117년 역사의 이스라엘 르미(Leumi)은행이 2017년 만들어 내놓은 모바일플랫폼 페퍼(Pepper)뱅크가 꼽힌다. 이는 18~35세 청년층 고객을 겨냥한 플랫폼으로, 르미은행은 이를 기반으로 미국과 유럽 시장 진출을 준비 중이다. 그 외에도 유럽 BNP파리바의 ‘헬로뱅크’, 일본 미쓰이스미토모은행의 ‘페이페이뱅크’, 미국 골드만삭스 ‘마커스’, 스페인 BBVA 등이 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>2022.01.15.</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>"두나무 같은 유니콘 더 나와야...K-코인 산업 키우자"</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002245037?sid=105</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>다음 정부에서는 디지털자산 산업을 한국이 세계 무대에서 앞서나갈 수 있는 분야로 인식하고, 산업 활성화를 위해 적극적인 육성정책을 펼쳐야 한다는 목소리가 국회와 산업계에서 나왔다.더불어민주당 싱크탱크 민주연구원, 가상자산 태스크포스(TF), 자본시장대전환위원회는 지난 14일 국회의원회관에서 디지털자산 산업 활성화를 위한 실행 방안을 논의하는 'K-코인 활성화방안 정책토론회'를 개최했다.이날 행사 참가자들은 디지털자산 산업이 세계적으로 급속히 성장하고 있는 반면, 우리나라는 관련 산업을 적절하게 규제하고 적극적으로 육성할 수 있는 제도가 미비하다는 데 인식을 같이했다.14일 국회의원회관에서 K-코인 발행 활성화 정책토론회가 열렸다.(사진=노웅래 의원실)이재명 민주당 대선후보는 서면 축사를 통해 디지털자산 시장에 대해 "다가오는 미래 산업의 한 축이자 이미 펼쳐진 거대 시장으로 특히 청년들에게는 현실을 극복하고 미래를 설계할 수 있는 시장으로 인식되고 있다"고 평가했다.이 후보는 이어 "우리나라는 아직 디지털 자산의 공개(일명 ICO)가 금지돼 있고 관련 법률 또한 세밀하게 정비돼 있지 않아 디지털자산 시장의 제도적 불안정성이 다른 나라에 비해 아주 큰 편"이라며 "우리나라가 디지털자산 강국으로 발전하기 위한 첫 단계로  ICO 논의는 미룰 수 없는 과제가 됐다"고 짚었다.행사를 주최한 노웅래 의원 역시 "지난해 세계 가상자산 시장 규모는 3조 달러를 넘어섰다"며 " 분산금융 디파이나 대체불가토큰인 NFT 시장도 하루가 다르게 성장하고 있고 골드만삭스 등 세계적인 투자 회사들도 관련 펀드와 파생 상품을 출시하고 있는 상황"이라고 세계 동향을 설명했다.이어 "우리나라는 2017년 이후 코인 발행을 금지하면서, (블록체인 기업들이) 모두 해외에 본사를 두고 있어 경제적 이익뿐만 아니라 세금, 고용 창출 효과 등이 고스란히 외국으로 빠져나가고 있다"며 "재주는 우리가 부리고 있고 남 좋은 일만 시키고 있는 셈"이라고 꼬집었다.우리나라가 산업 활성화를 우선에 두고 규제를 정비하면, 세계 디지털자산 산업을 주도할 잠재력이 충분하다는 진단도 나왔다.이날 발제를 맡은 김형중 고려대학교 특임 교수는 우리나라가 다양한 산업 중에서도 디지털금융 분야에서 글로벌 경쟁력을 인정 받고 있다고 강조했다.김형중 고려대 특김교수가 CB인사이트 유니콘 기업 분석 자료를 소개하는 모습.김 교수는 "현 정부가 4차산업혁명 위원회를 만들어 열심히 지원한 인공지능, 빅데이터 분야에서는 한국 기업이 한 곳도 유니콘으로 포함되지 못했지만 핀테크 분야에서는 가상자산 거래소인 두나무를 포함해 두 곳이 유니콘에 들어갔다"며 "차기 정부에서는 반드시 우리나라를 먹여 살릴 수 있고 디지털 경제를 이끄는 데 중요한 산업이 될 분야를 집중적으로 키워야 한다"고 강조했다.글로벌 시장분석업체 CB인사이트 자료에 따르면 전 세계 유니콘 기업 936개 중, 191개가 핀테크 업체로 가장 많은 비중을 차지하고 있다. 유니콘 기업은 창업 10년 미만의 비상장 기업 중 기업가치가 10억 달러(약 1조2천억원) 이상인 고속성장 기업을 말한다. 즉, 핀테크 분야 기업들이 최근 전 세계 산업 성장을 주도하고 있는 셈이다. 우리나라 기업 중에는 두나무와 토스가 핀테크 분야 유니콘으로 이름을 올렸다.김 교수는 이어 "한국인팀이 개발한 디파이 프로토콜 '테라'는 현재 TVL(총 예치 자산 규모) 기준 세계 1위에 올랐고 한국 블록체인 프로젝트 플레이댑은 (미국 최대 암호화폐 거래소) 코인베이스에 올라가 있다"고도 소개했다.산업 규제와 관련해서는 ICO의 문제점을 보완하면서 시장은 육성해야 한다는 의견을 피력했다.그는 "ICO의 가장 큰 문제는 정보 비대층이 크다는 것"이라며 "지금은 코인을 사고파는 것이 일종의 투자이기 때문에 투자자에게 알아서 위험을 부담하라고 하고 있는데, 이렇게 할 게 아니라 코인 발행자들이 공시를 통해 필요한 정보를 제대로 제공하게 해야한다"고 했다.이어 "우리가 그동안 많은 학습을 한 만큼 차기 정부에서는 디지털 경제를 '선물'로 생각하고 잘 키워야 한다"고 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>2022.01.02.</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>내일(3일)부터 ‘방역패스 유효기간’…“네이버‧카카오 앱 업데이트해야”</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002116357?sid=105</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>[디지털데일리 최민지기자] 내일(3일)부터 코로나19 방역패스 유효기간이 적용된다. 이에 방역당국은 네이버와 카카오, 쿠브(COOV) 앱 등을 미리 업데이트하기를 권고했다.    중앙방역대책본부는 오는 3일부터 코로나19 예방접종 증명 유효기간 적용을 시행한다고 2일 밝혔다. 접종증명 유효기간 적용 계도기간은 오는 9일까지다.    이용자는 쿠브앱을 비롯해 네이버, 카카오, 토스, 패스(PASS) 앱을 통해 3차 접종력 및 2차접종후 경과일을 확인할 수 있다.   접종증명 유효기간이 적용되는 3일부터는 2차접종 후 180일 이내 또는 3차접종(부스터)을 받은 경우, 시설 이용을 위해 QR스캔 시 “접종완료자입니다”라고 음성 안내된다.   코로나19 감염력이 있는 2차접종자(얀센은 1차접종자)는 유효기간 만료일이 없으며, 접종 후 180일이 지나도 ‘접종완료자’로 음성 안내된다.    미접종자 또는 1차접종자, 2차접종 후 180일이 지난 경우에는 ‘딩동’ 소리가 나온다. 이 경우, 시설관리자는 이용자 PCR 음성결과 또는 코로나19 완치, 18세 이하, 의학적 사유로 인한 적용 예외 여부를 확인해야 한다.   당초 종이 증명서로만 발급 가능했던 완치확인서와 예외확인서는 쿠브앱과 전자출입명부에서 전자적 형태로 발급받을 수 있다.   방대본은 “이번 방역패스 시스템 보완에 따라 국민 여러분의 접종정보 갱신 등 협조를 요청하며, 카카오와 네이버 등 주로 사용하는 전자출입명부 플랫폼 앱을 주말 중 미리 업데이트하면 3일 동시간대 접속 혼란 방지에 큰 도움이 될 것”이라고 말했다.  이어 “시설운영자의 경우, 3일 0시 기준 KI-PASS앱이 자동 업데이트될 예정이나, 이용에 불편이 없도록 당일 영업 전 업데이트 여부를 확인하기를 바란다”고 요청했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>2022.01.04.</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>新대출 규제 적용 첫날…직장인 신용대출 수천만원 축소</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0010925509?sid=101</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>기사내용 요약차주별 DSR 2단계 조기 시행신용대출 연소득 이내로 제한직전 토스뱅크 대출 시작하자몰려든 차주, 하루새 한도 '뚝'[서울=뉴시스] 박은비 기자 = 새해 들어 총부채원리금상환비율(DSR) 규제 조기 시행 등 여파로 직장인들의 신용대출 한도가 하루 사이에 수천만원이 축소된 것으로 나타났다. 이전보다 비대면으로 손쉽게 대출 조회 서비스를 이용할 수 있다보니 온라인상에서는 자신의 금리·한도가 하루 사이에 어떻게 달라졌는지 보여주는 사례도 심심찮게 볼 수 있다.4일 은행권에 따르면 토스뱅크는 지난 1일 대출 영업을 재개하면서 3일부터 대출 한도가 줄고 금리가 달라질 수 있다고 안내했다. 시중은행 창구 문을 여는 3일부터 DSR 2단계가 본격 시행돼서다. 또 같은 날부터 신용대출 한도는 연소득 이내로 제한된다.대출고객(차주) 단위 DSR 2단계가 적용되면 기존대출과 신규대출 신청분을 합산해 총대출액 2억원을 초과시 연소득 40%(2금융권 50%) 이상을 원리금을 갚는 데 쓸 수 없다.지난해 10월 연간 한도 소진으로 출범 9일 만에 대출을 중단한 토스뱅크는 최저 3% 초반 금리, 최고 2억7000만원 한도를 내세웠다. 그 결과 주말인 이틀간 대출 신청이 폭주했고, 대출 조회 서비스 접속이 지연되는 현상이 나타났다.각종 인터넷 커뮤니티에는 새해 첫날부터 마이너스통장이나 신용대출 받아놓는 게 낫냐는 질문이 올라왔다. 토스뱅크 이용자 중에는 하루 사이에 한도가 3000만원이 줄었다거나 다른 대출도 없는데 10% 넘는 금리에 2000만원 밖에 대출이 안 된다는 게시물도 있었다.아무래도 비대면으로 쉽게 조회해볼 수 있는 인터넷은행에 대한 반응이 뜨거웠던 것으로 보인다. 이날 현재 토스뱅크의 신용대출은 최저 연 3.31%, 최대한도는 2억7000만원이다. 다른 인터넷은행인 케이뱅크의 직장인 신용대출은 최저 연 3.76%, 최대한도 1억5000만원이다. 고신용자 대상 대출 중단 상태인 카카오뱅크는 중·저신용대출만 취급하고 있는데 최저 연 4.12% 금리에 최대한도 1억원이다.시중은행 관계자는 "대출에 관심 있는 고객들은 이미 DSR 규제 강화를 알고 있어서 창구 혼란이 생기지는 않았다"며 "새해 들어 우대금리를 복원하는 등 사실상 금리 인하 조치를 취한 은행도 있지만 금리가 엄청 낮아진 것도 아니기 때문에 가수요가 크게 몰렸다고 보기는 어려울 것"이라고 말했다．</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>2022.01.03.</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>새해 대출 문 열렸지만 한도는 줄어… ‘선착순 대출’ 시대 오나</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/081/0003241930?sid=101</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>우리·국민은행 등 우대금리 인상토스, 저리 신용대출 재개했지만올해 가계대출 여력 97조원 추산총량 고갈 땐 연말 대출난 재연“연초 대출 집중 관련 대책 필요”지난해 하반기 막혔던 대출 문이 새해 다시 열리고 있지만 금융 당국의 대출 총량 관리와 총부채원리금상환비율(DSR) 규제 시행으로 올해도 대출난은 지속될 전망이다. 일부 은행들이 이달부터 대출금리를 낮췄지만 연말에 가까워질수록 올해와 같은 대출 절벽이 나타날 가능성이 크다. 이에 따라 대출 총량이 상대적으로 여유 있는 연초에 대출을 받는 게 유리하다는 관측까지 나오면서 ‘선착순 대출’ 시대가 올 것이라는 우려가 제기된다.2일 금융권에 따르면 인터넷전문은행은 저금리 신용대출 내놓고, 시중은행은 지난해 하반기 축소·폐지했던 우대금리를 복원하고 있다. 지난 10월 대출 한도 5000억원을 모두 소진하면서 신규 대출을 중단한 토스뱅크는 지난 1일부터 신용대출 상품 판매를 재개했다. 최저 금리 연 3% 초반에 최고 한도 2억 7000만원, 중도상환수수료는 무료다.시중은행들도 대출금리 인하 움직임에 동참하는 분위기다. KB국민은행은 3일부터 전세자금대출 우대금리를 최대 0.7%에서 0.9%로 올린다. 같은 날부터 우리은행도 10개 신용대출과 5개 주택담보대출의 우대금리를 최대 0.6% 포인트 인상한다. 우대금리를 인상하면 소비자 입장에서는 대출 금리가 인하되는 효과를 볼 수 있다.은행들의 금리 경쟁 움직임은 수익과도 무관하지 않다. 은행 입장에서는 연말보다는 연초에 대출액이 늘어나면 당장 더 많은 당기순이익을 기대할 수 있다. 일찍 대출을 내줄수록 이자를 받는 기간이 길어지기 때문이다. 금융권 관계자는 “연초에 내준 대출은 1년치 이자를 다 받을 수 있다”며 “대출액이 늘어나는 시기를 1월과 12월로 비교하면 같은 증가분이라도 올해 반영되는 이자이익에서는 차이가 난다”고 말했다.이처럼 당장은 대출 문이 열리는 것처럼 보이지만 시간이 갈수록 대출받기는 어려워지는 상황은 올해도 반복될 전망이다. 우선 금융 당국이 제시한 올해 가계대출 증가율 목표치(연 4~5%)를 토대로 올해 가계대출 증가 규모는 최대 97조원 정도로 추산된다. 지난해 가계대출이 1년 전과 비교해 110조원(7.2%) 정도 늘었다는 점을 감안하면 지난해보다 올해 총량이 더 적다. 총량이 고갈돼 연말 대출난이 재연될 수 있다는 얘기다.대출 총량과는 별개로 이달부터 시행되는 DSR 규제 2단계도 대출 문턱을 높일 것으로 보인다. 총 2억원 넘는 대출을 받을 때 대출자가 1년 동안 갚아야 할 원금과 이자가 연소득의 40%(2금융권 50%)를 넘을 수 없다. 금융 당국은 DSR 규제 시행과 함께 기준금리 인상에 따른 대출금리 인상으로 올해와 같은 대출난은 발생하지 않을 것으로 보고 있다. 하준경 한양대 경제학부 교수는 “지난해부터 엄격한 가계부채 관리 기조가 이어진 만큼 이를 학습한 은행들이 대출 중단 사태가 발생하지 않도록 노력할 것”이라며 “연초에 대출이 몰리는 ‘선착순 대출’이 심해지지 않도록 금융 당국 차원의 관리는 필요하다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>2022.01.06.</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>[人터뷰] 위상 달라진 현대차그룹의 ‘두뇌’…“이제 세계가 우리 기술을 연구한다”</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0001934222?sid=101</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>권해영 현대차그룹 인포테인먼트개발실장 인터뷰20여년 간 현대차그룹서 소프트웨어 개발에 매진‘커넥티드 카’ 위한 자체 운영체제 개발·양산 본격화내비게이션·클러스터·HUD 통합…기기 연동성 강화권해영 현대자동차그룹 인포테인먼트개발실장(상무)이 지난달 14일 서울 강남에 위치한 사옥에서 본지와 인터뷰를 가졌다. 그는 글로벌 완성차 회사들의 현대차 기술 분석 사례를 언급하며 “현대차그룹의 소프트웨어는 이제 글로벌 톱 수준”이라고 말했다. [박해묵 기자][헤럴드경제=김지윤 기자] 자동차가 달라지고 있다. 자율주행 시대가 열리면서 자동차는 과거 운송수단의 개념을 넘어 특별한 이동의 경험을 제공하는 또 하나의 ‘문화·생활 공간’으로 변화하고 있다. 이에 발맞춰 자동차 업체의 핵심 경쟁력도 차체·부품 등 하드웨어(HW)에서 소프트웨어(SW) 중심으로 이동하고 있다.차량용 소프트웨어 플랫폼 시장을 주도했던 독일계 회사들(메르세데스-벤츠· BMW·아우디)은 최근 현대차그룹의 차량을 직접 구매하고 분석하기 시작했다. 현대차그룹의 소프트웨어 기술력이 몇 년 새 눈에 띄게 성장했기 때문이다.이 같은 성장의 기반에는 20여 년 간 현대차그룹에서 소프트웨어 개발에 매진해온 권해영 현대차그룹 연구개발본부 인포테인먼트개발실 실장(상무)이 있다. 그는 “경쟁 자동차 회사에서 우리의 차량을 확보해 시스템의 하드웨어 설계와 소프트웨어 구조를 분석했다는 얘기를 들었다”며 “이제 현대차그룹의 소프트웨어는 글로벌 톱 수준”이라고 강조했다.▶커넥티드 카 두뇌 ‘ccOS’ 개발 주도=2003년부터 텔레매틱스 소프트웨어 개발을 시작으로 현대차그룹과 인연을 맺은 권 상무는 소프트웨어플랫폼개발 파트장, 인포테인먼트소프트웨어개발팀 팀장, 인포테인먼트개발실 실장 등을 거치며 현대차그룹이 현재의 소프트웨어 기술력을 갖추는 데 크게 이바지했다.특히 권 상무는 ‘커넥티드 카 운영체제(ccOS·connected car Operating System)’ 개발을 총괄했다. ccOS는 커넥티드 카를 총괄하는 인포테인먼트 시스템을 위한 현대차그룹의 독자 소프트웨어 플랫폼을 말한다.현대차그룹은 차량용 소프트웨어 기술 내재화와 미래 차량용 서비스 개발을 위한 기술 기반 확보를 목표로 지난 2016년부터 독자 ccOS 개발에 착수했다.권 상무는 “과거 현대차그룹은 QNX, WinCE 등 다양한 OS를 사용했었다”며 “하지만 본격적인 커넥티드카 서비스를 위해서는 기존 상용화된 제품만으로는 우리가 원하는 아키텍처를 완전하게 맞추지 못했다”고 설명했다. 이어 “커넥티드 카에 필요한 고성능 컴퓨팅, 심리스 컴퓨팅(차량과 주변 인프라를 연결), 지능형 컴퓨팅, 보안 컴퓨팅 환경 조성을 위한 자체 ccOS 개발이 꼭 필요했다”고 덧붙였다.현대차그룹은 2020년 출시한 제네시스 ‘GV80’과 ‘G80’에 ccOS를 적용한 ‘인포테인먼트 시스템’을 최초로 선보였다. 지난해 10월과 12월에는 앞서 탑재된 것보다 사용성과 기능을 더욱 강화한 ccOS가 장착된 ‘GV70’와 ‘GV60’도 출시했다.독자 ccOS 활용의 장점은 차량 간 기술 표준화 및 유지·보수가 쉬워졌다는 점이다. 차량에서 실시간으로 생성되는 대용량의 데이터도 효율적으로 분석·처리할 수 있게 됐다.실시간으로 교통 정보를 수집·분석해 고객에게 가장 빠른 경로를 안내하고, 원격으로 시동을 걸거나 원하는 실내온도를 설정하는 것, 내비게이션 화면에서 몇 번의 터치로 결제가 가능한 것은 모두 ccOS를 기반으로 구현한 서비스다.특히 무선(OTA·Over-the-Air) 소프트웨어 업데이트를 통해 최신 지도 및 소프트웨어를 내려받는 것도 가능하다. 권 상무는 소프트웨어에 있어 ‘진화’의 중요성을 강조했다. 그는 “현대차그룹에서는 현재 애플이나 구글에서 OTA로 제공하는 시스템 업데이트 수준 이상으로 인포테인먼트 무선 업데이트를 제공하고 있다”며 “각종 자동차 동호회 카페도 수시로 들여다보고 고객들이 원하는 서비스를 기민하게 파악해 차량에 반영하려고 노력하고 있다”고 말했다.이어 “현대차그룹은 올해 말부터 출시하는 제네시스·현대·기아 브랜드의 모든 차량에 ccOS를 적용할 예정”이라고 덧붙였다.제네시스 GV60. [현대차그룹 제공]▶GV60에 ‘ccIC’ 적용…기기 간 연동성 강화=지난해 10월 출시된 제네시스의 첫 전용 전기차 GV60에는 ccOS를 기반으로 한 최첨단 ‘커넥티드 카 통합 콕핏(ccIC·connected car Integrated Cockpit)’이 세계 최초로 장착돼 업계의 이목을 집중시켰다.현대차그룹은 이 차량을 출시하며 ‘럭셔리 전기차의 새 기준을 제시하겠다’는 포부를 내놨다. ccIC로 사용성과 연결성을 한층 강화할 수 있다는 점을 강조했다.ccIC는 ccOS를 기반으로 ‘고급형 내비게이션’과 ‘클러스터’, ‘헤드업 디스플레이(HUD)’까지 통합한 인포테인먼트 시스템이다. 권 상무는 “이러한 시스템의 통합으로 기존과는 완벽히 다른 특별한 사용자 경험을 제공할 수 있게 됐다”고 말했다.내비게이션 연동 클러스터는 지도, 내비게이션(일반·증강현실 모드), 첨단운전자지원시스템(ADAS) 등 3가지 뷰를 지원, 안전운전에 필요한 핵심 정보를 제공한다. 내비게이션과 HUD 간 콘텐츠 연동도 강화했다.지난달 출시된 제네시스의 4세대 ‘G90’은 3개 디스플레이에 더해 후석 승객을 위한 디스플레이 2개까지 총 5개의 디스플레이를 통합했다. 후석에서 전석을 제어할 수 있고, 영상과 각종 정보를 연속적으로 연동하고 공유할 수 있다.여러 특성의 부품들을 단일 제어기에 통합하기는 쉽지 않았다. 권 상무는 “클러스터는 안전 부품으로 신뢰성과 안전성이, 내비게이션이나 HUD는 편의부품으로 다양성과 확장성이 핵심”이라며 “이를 자유롭게 연동하게끔 만드는 것이 어려웠다”고 회상했다.이어 “자동차 기능안전 측면에서 서로 다른 등급의 소프트웨어인데, 이를 단순하게 하나로 합치게 되면 비효율적인 구조가 되고, 고려해야 하는 사용 시나리오가 복잡해지는 문제가 있다”고 덧붙였다.권 상무는 ‘가상화 기술(Hypervisor)’을 활용해 이를 개선했다. 하나의 하드웨어 안에서 안전부품과 편의부품의 소프트웨어들이 독립적으로 동작하도록 설계한 뒤, 개별 소프트웨어 간 서로의 정보와 콘텐츠를 공유할 수 있도록, 가상화 기술을 통해 연동 환경을 조성했다.‘디자인’에도 힘을 줬다. 단순히 기능만 뛰어나서는 안 된다는 것이 권 상무의 지론이다. 결국 소비자를 사로잡기 위해선 디자인이 핵심이라고 그는 강조한다. ccIC를 통한 사용자경험(UX·User Experience)이 편리하면서도 내비게이션, 클러스터, HUD를 아름답고 고급스러운 디자인으로 만들기 위해 노력했다.권 상무는 “운전자가 차량에 탑승했을 때 보이는 모든 디스플레이를 조화롭게 만드는 데 신경을 많이 썼다”며 “완벽한 사용성을 위해 양산 직전까지 디자인을 개선했을 정도”라고 말했다. 이 같은 노력은 성과로도 이어졌다. 권 상무가 담당하는 조직에서 개발한 UX는 세계 3대 디자인 어워드(iF디자인·레드닷·IDEA)를 휩쓸었다.권 상무는 현대차그룹 내 각 브랜드 간 디자인 차별화에 대해서도 늘 고민한다. 그는 “제네시스·현대·기아의 소프트웨어 아키텍처는 같지만, 이를 각 브랜드에 맞춰 차별화되도록 하는 것이 큰 숙제”라고 말했다.제네시스 GV60 인포테인먼트 시스템. [현대차그룹 제공]▶8비트 게임의 추억…최근 고민은 ‘인재 영입’=권 상무는 어렸을 때부터 컴퓨터에 관심이 많았다. 권 상무는 초등학교 때 컴퓨터 게임을 하고 싶어 부모님을 졸라서 8비트 컴퓨터를 얻었다. 하지만 당시 아버지가 사주신 컴퓨터는 게임 타이틀이 많았던 ‘애플II’, ‘MSX’ 기종이 아닌 ‘교육용’으로, 게임을 하려면 컴퓨터 잡지에 실린 ‘BASIC’과 기계어로 된 게임 코드를 직접 입력해야만 했다. 그는 이 같은 놀이를 통해 자연스럽게 프로그래밍을 배우게 됐다.대학 시절에는 학교 선배의 부탁으로 ‘주유소 재고관리 프로그램’을 만들며 소프트웨어 개발에 매력을 느꼈다. 권 상무가 졸업을 앞둔 1999년에는 닷컴(.com)이 ‘뜨는’ 시절이었다. 고가의 IBM AIX, HP UX 대신 저가의 x86 서버에 리눅스 운영체제(OS)를 사용하는 회사가 많았다. 그는 당시 많이 사용하던 저가용 ‘알짜 리눅스’에 궁금한 점이 있어 제작사인 ‘리눅스원’에 이메일 문의를 했다가 그 길로 리눅스원에 입사하게 됐다.권 상무는 서버가 감당할 수 있는 수준에서 접속자 수를 늘리고자 서비스 구조와 OS를 고치거나, 장애가 발생했을 때 빠른 시간 내에 데이터를 복구하는 일 등을 하며 이 분야에서 경험치를 쌓았다.이후 2003년 현대차그룹으로 자리를 옮겨 ‘텔레매틱스’ 소프트웨어 개발을 시작으로 자동차 소프트웨어만의 매력을 알게 됐다. 그는 특히 커넥티드 카 소프트웨어는 남다른 매력이 있다고 강조했다.권 상무는 “지금까지 적지 않은 분야의 소프트웨어 개발을 해왔지만, 카 클라우드와 연결하고 차량의 데이터를 분석하고, 하드웨어를 제어·연동하는 커넥티드 카 소프트웨어는 그만의 깊은 매력이 있다”고 말했다.그의 최근 고민은 ‘인재 영입’이다. 이른바 유망한 정보·기술(IT) 기업인 ‘네카라쿠배당토(네이버·카카오·라인·쿠팡·배달의민족·당근마켓·토스)’가 공격적으로 소프트웨어 인력을 채용하면서, 소프트웨어 개발자를 구하는 일이 어려워졌다.권 상무는 “현대차그룹이라고 하면 완성차 제조 산업의 정점인 기업이라 당연히 기계 중심일 것이라 생각하는 사람들이 많다”며 “하지만 이제는 전자·IT 회사처럼 소프트웨어 개발이 중요한 요소로 바뀌고 있고, 그에 따라 개발 프로세스와 기업 분위기도 소프트웨어 개발사처럼 바뀌고 있다”고 말했다.정의선 현대차그룹 회장 역시 그 어느 때보다 ‘소프트웨어 원천기술 확보’에 힘을 싣고 있다. 정 회장은 소프트웨어 기술을 바탕으로 자율주행, 로보틱스, 도심항공모빌리티(UAM) 등 미래사업 영역에서 스마트 솔루션을 제시하고 있다. 현대차그룹이 미래 인재 육성에 공격적으로 나서는 이유다.권해영 현대차그룹 인포테인먼트개발실장이 14일 서울 강남에 위치한 사옥에서 본지와 인터뷰를 하고 있다. 그는 “유망한 정보·기술(IT) 기업들이 소프트웨어 인재를 영입하면서, 인재 영입이 가장 큰 고민이 됐다”고 말했다. [박해묵 기자]</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>2022.01.04.</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>5년 사이 몸집 10배 불린 서학개미…93조 굴린다</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005025490?sid=101</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>지난해 해외 주식 보관 잔액780억1558만달러1년 사이 300억달러 늘어90%가 미국 주식에 치중테슬라·애플 등 기술주 많아테크핀 증권사 서비스 본격화해외주식 소수점 거래 등 투자 문턱 더 낮아져올해 거래 최대 10배 확대국내 투자자들의 해외 주식 보관 잔액이 5년 사이 10배 넘게 커졌다. 올해는 테크핀 증권사의 해외주식 거래 서비스의 본격화와 함께, 증권사 대부분이 해외 주식 소수점 서비스를 개시함에 따라 해외로 향하는 자금 규모는 더 늘어날 전망이다.4일 한국예탁결제원 세이브로에 따르면 지난 1년 동안 국내 개인투자자의 해외 주식 보관 잔액은 780억1558만달러(93조2286억원)로 집계됐다. 지난해(470억7665만달러·56조2500억원)보다 약 300억달러(36조원)가량 늘었다. 5년 전 60억726만달러에 비하면 10배가 넘는 수준이다.지난 2020년 3월 코로나19 팬데믹(세계적 대유행) 이후 해외 기업으로 흘러간 자금이 기하급수적으로 커졌다. 해외주식 결제처리건수(매수+매도)의 경우 전년(514만8391건)대비 80% 증가한 931만182건으로 집계됐다.대부분은 미국 증시에 쏠렸다. 2년 전만 해도 전체 해외 주식 보관잔액 144억5305만달러 중 미국은 84억1565만달러로, 전체에서 58%를 차지했다. 하지만 현재 국내 투자자들이 보유하고 있는 해외주식 10개 중 9개는 미국 주식일 정도로 투자 규모가 급증했다. 전체 보관 주식 상위 50개 가운데 40개가 미국 주식이다.이중 테슬라에 대한 관심이 특히 컸다. 보관 잔액은 154억5994만달러(18조4746억원)로 미국 주식 투자자 20%가 테슬라 주식을 보유하고 있는 것으로 집계됐다. 이어 애플(50억3199만달러), 엔비디아(31억2021만달러), 마이크로소프트(22억7119만달러), 알파벳(22억5336만달러), 아마존(18억5723만달러), 인베스코QQQ트러스트ETF(13억8507만달러), 프로쉐어울트라프로QQQETF(13억3199만달러), SPDRS&amp;P500ETF(9억7339만달러), 루시드(9억1947만달러) 순으로 나타났다.올해 해외주식에 뛰어드는 투자자들은 더 많아질 전망이다. 국내 증시가 지난해 주요 20개국(G20) 중 최하위 수익률을 기록하며 지지부진한 흐름을 보이고 있는데 반해 해외 주식 투자 환경은 빠르게 개선되고 있어서다.해외주식 투자 창구가 늘어난 것도 한몫할 전망이다. 토스증권은 지난달 해외주식거래 서비스를 시작했다. 카카오페이증권도 이달 국내와 해외에 투자할 수 있는 MTS(모바일트레이딩시스템)를 선보일 계획이다. 20여개의 기존 증권사들도 해외주식 소수점 거래 서비스를 속속 개시하고 있어 해외주식 투자 문턱은 이전보다 낮아질 것으로 전망된다.황세운 자본시장연구원 연구위원은 "해외 소수점 서비스를 제공한 기존 2개 증권사(신한금융투자, 한국투자증권)의 2018년부터 지난해까지 해외 주식 소수점 거래 규모는 2조원 정도"라며 "이를 고려하면 5배에서 최대 10배 가까이 거래가 늘어날 것으로 추정되며 해외주식 투자금도 같이 확대될 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>2022.01.02.</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>내일부터 방역패스 유효기간 적용…3차 접종률 36%</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000784414?sid=105</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>서울의 한 대형마트에서 QR코드 체크인하는 시민. /연합뉴스         오는 3일부터 방역패스(접종증명·음성확인제)에 ‘유효기간’이 발생한다.2일 방역당국에 따르면 방역패스의 유효기간은 신종 코로나바이러스 감염증(코로나19) 백신 2차접종(얀센 접종자는 1차접종) 14일 후부터 6개월(180일)까지다. 유효기간이 임박했을 경우 3차접종을 마쳐야 방역패스 효력을 유지할 수 있다. 3차접종을 받은 즉시 효력이 생긴다.이에 따라 지난해 7월 6일이나 그보다 전에 기본접종을 완료한 사람은 추가접종을 하지 않았다면 3일부터 영화관 등 방역패스 적용 시설 이용이 제한된다. 청소년 방역패스는 오는 3월 1일부터 시행 예정으로, 12∼17세는 방역패스 유효기간을 적용받지 않는다. 12∼17세는 3차접종 권고 대상이 아니라서다.방역패스 유효기간은 일주일(3∼9일) 계도기간을 거쳐 시행된다. 방역패스 유효기간 위반으로 인한 과태료나 행정처분은 10일부터 부과된다.유효기간은 예방접종 인증 전자증명서인 ‘쿠브(COOV)’ 애플리케이션(앱)에서 확인할 수 있다. 2차접종 후 14일이 지나면 ‘14일 경과’ 표시가, 180일이 지나면 ‘유효기간 만료’ 표시가 뜬다.질병관리청은 쿠브 앱을 업데이트하면 3차접종을 했는지 여부와 2차접종 후 며칠이 지났는지를 확인할 수 있다고 밝혔다. 그러면서 유효기간 적용이 시작하는 3일이 되기 전에 미리 업데이트해두는 게 좋다고 덧붙였다. 카카오, 네이버, 토스, PASS 등 민간 전자출입명부 앱도 업데이트하면 해당 정보를 확인할 수 있다.한편 전날 기준 코로나19 3차 접종 참여자는 3만4112명 늘어 누적 1847만6748명으로 집계됐다. 전체 인구(5134만9116명·2020년 12월 주민등록 거주자 인구) 대비 접종률은 36.0%다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>2022.01.02.</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>말라붙은 자금줄…대출 전략 어떻게[新대출규제가 온다④]</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0010922419?sid=101</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>기사내용 요약대출 받으려고 한다면 연초 유리연간 총량 관리·금리 상승기 영향"변동·고정금리 유불리 따져봐야""우대금리 생각하면 주거래은행"부동산대출, 대선 전까지 관망 要[서울=뉴시스] 박은비 기자 = 내년에 대출을 염두에 둔 대출고객(차주)이라면 자신이 받을 수 있는 한도부터 확인해두는 게 좋겠다. 총부채원리금상환비율(DSR) 규제 조기 시행으로 셈법이 복잡해져서다. 가계대출 총량 관리 강화와 금리 상승기인 점 등을 고려하면 가급적 연초에 대출을 받는 게 유리하다는 전망이 나온다.2일 금융당국에 따르면 전날부터 차주 단위 DSR 2단계가 적용된다. 기존대출과 신규대출 신청분을 합산해 총대출액 2억원을 초과하면 연소득 40%(2금융권 50%) 이상을 원리금을 갚는 데 쓸 수 없다.DSR 규제 변화에 따른 계산이 복잡해지면서 대출을 신청하기 전 신한은행, 카카오페이 등이 선보인 DSR 계산기를 활용하는 것도 방법이다. 사용자의 대출 내역을 기반으로 소득에서 부채가 차지하는 비율을 계산해준다.일단 한도만 놓고 보면 대출 자산 확대에 사활을 건 인터넷전문은행 한도가 여유 있는 편이다. 지난해 출범 9일 만에 대출 문을 닫았다가 전날 오전 11시부터 영업을 재개한 토스뱅크는 최고 한도가 2억7000만원이다. 금리도 최저 3% 초반으로 타행 대비 낮은 편이다.특히 고승범 금융위원장은 개별 은행 대출 한도와 관련해 "새로 출범한 인터넷은행은 여건이 다르다"며 "중저신용대출도 충분히 반영되도록 협의하겠다"고 말했다. 총량 규제를 강화하되 중저신용대출 확대 목표가 있는 인터넷은행은 예외 여지를 두겠다는 의미다.금리의 경우 한국은행이 기준금리 인상을 여러 차례 시사하는 등 상승기가 본격화한 점을 유념해야 한다. 통상적으로 금리 상승기일 때 신규 대출은 변동금리보다 고정금리가 유리하다고 평가받는다. 한 은행 관계자는 "올해 기준금리를 최소 2번, 아니면 3번 올릴 것이라는 전망이 나오니까 정말 대출이 필요하면 아무래도 미리 받는 게 나을 것"이라며 "최근 고정금리가 변동금리보다 더 낮아지는 역전 현상이 나타나는데 이런 것도 고려해하는 게 좋겠다"고 언급했다.다른 은행 관계자는 "기존에 변동금리로 대출을 받았는데 고정금리로 갈아타야 하는지 문의하는 고객들에게는 중도상환수수료나 가산금리를 살펴보고 유불리를 따져서 결정하라고 안내하고 있다"고 설명했다.연초에 확대되는 대출 우대금리를 최대한 활용하려면 아무래도 주거래은행을 활용하는 편이 낫다. 우리은행은 지난해 가계대출 총량 관리를 위해 축소했던 우대금리를 오는 3일부터 복원한다. 신용대출, 주택담보대출, 전세대출 주요 상품이 대상이다.KB국민은행도 같은 날부터 전세자금대출과 부동산담보대출 우대금리를 되살린다. 기존과 비교했을 때 최대 0.2~0.3%포인트 차이가 난다. 고객 수요가 많은 전세대출과 주담대 상품에 대해 한시적으로 축소했던 연초에는 우대금리폭을 확확대한다는 게 국민은행 설명이다.부동산 시장과 관련해서는 일단 대선 전까지 관망하는 게 좋겠다는 의견이 주를 이룬다. 은행권 관계자는 "보통 1월은 새 학기를 앞두고 있어 수요가 많긴 하지만 지금은 무작정 집을 알아보는 것보다는 시장 관망세를 좀 지켜볼 필요가 있다"고 말했다.박원갑 KB국민은행 부동산 수석전문위원은 "(집값이) 대선 전까지는 지금과 같은 약보합세를 보이다가 하반기 들어 다소 나아지는 양상이 될 것으로 보인다"며 "지난해는 상고하저를 예상했는데 올해는 상저하고를 예상한다. 하반기에 크게 오른다기보다는 다소 나아지는 양상이 될 것"이라고 설명했다.그러면서 "부동산가격이 오를 때는 예상보다 더 오르고, 내릴 때는 더 하락하는 경향이 있다"며 "다만 확률적으로 볼 때 지금 분명한 건 고평가 혹은 과매수 국면이고, 적어도 부동산 가격은 고점을 향해 가고 있다고 생각한다. 특히 실수요자라도 매수자라면 일단 대선 전까지는 관망하는 게 좋을 것"이라고 조언했다．</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>2022.01.04.</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>확대되는 방역패스에 시민들 "사실상 접종강제" 분통</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0010925478?sid=102</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>기사내용 요약"차수 더할수록 몸에 과부하 걸리는 느낌, 4차 접종 끔직"[부산=뉴시스] 하경민 기자 = '방역패스'(접종증명·음성확인제)' 의무화가 본격적으로 시행된 13일 부산 해운대구의 한 백화점 내 음식점 입구에서 손님들이 QR코드 확인을 통한 코로나19 백신 접종 완료를 인증하고 있다. 2021.12.13. yulnetphoto@newsis.com[부산=뉴시스]권태완 기자 = 정부가 백화점과 대형마트에 방역패스를 적용하고 방역패스 유효기간제를 실시하자, 불만을 토로하는 시민들도 적지 않다.오는 10일부터 백화점과 대형마트에도 방역패스(접종증명서·음성확인제)를 적용하고 미접종자들의 이용을 제한한다. 이번 방역패스 적용은 16일까지 계도기간을 부여한다.기저질환이 있어 백신접종을 미룬 박모(22)씨는"대형마트와 백화점에도 방역패스를 적용한 것은 너무 과한 처사"라며 “사실상 백신 접종을 강제하는 것”이라며 불만을 토로했다.또 박씨는 "예외적용자 대상 기준이 너무 엄격해, 병원에서 접종 예외 확인서를 받기는 사실상 불가능하다"라고 말했다.최근 1차 접종을 완료한 정모(26)씨는 "방역패스 규제가 점점 커져 백신을 맞게 됐다"라며 "방역패스를 확대하면서, 접종 예외 대상자 범위도 늘려야 한다"라고 주장했다.현재 예외적용자 대상 기준은 1차 접종 후 아낙필락시스나 혈전증, 심근염·심낭염 등을 앓았거나 항암제면역저하제 투여 중인 환자 등만 의사 소견서를 받아 접종 예외 확인서를 발급 받을 수 있다.중앙방역대책본부 관계자는 지난달 29일 온라인 기자간담회에서 "전문가 검토를 거쳐 추후 미접종자의 방역패스 예외 범위를 지속 보완할 방침"이라고 밝혔다.또 3일부터 방역패스 유효기간이 시행돼 2차 접종 후 180일이 경과하면 3차 접종을 받거나 PCR 음성확인서 등을 소지해야 방역패스 적용 17개 시설을 이용할 수 있다. 오는 9일까지는 계도기간이어서 방역패스 위반으로 과태료 등 행정 처분은 내려지지 않는다.방역패스 유효기간이 만료된 권모(56)씨는 "백신 2차접종 후 알 수 없는 가슴통증을 크게 느꼈다"며 "2차 접종을 마치면 끝날 줄 알았지만, 부스터 샷을 접종하려고 하니 겁이나 아직 맞지 않았다"라고 말했다.3차접종을 마친 김모(51)씨는 "업무상의 이유로 빠르게 3차를 접종완료했다"라며 "이번 방역패스 유효기간이 계속 된다면, 4, 5차까지 맞아야 하는 것 아니냐"는 우려를 표했다.익명을 요구한 40대 경찰 관계자 역시 접종에 난색을 표했다. 그는 "차수를 더할수록 몸에 과부하가 걸리는 느낌이다. 경찰이라는 이유로 일반인들보다 빨리 1, 2, 3차 접종을 마쳤다. 또한 매번 다른 제약사의 백신을 맞았다. 몇 개월 후 4차접종을 해야 한다는 사실이 끔직하다"고 걱정했다.한편 3차 접종 확인과 2차 접종 후 경과일은 코로나19 전자예방접종증명(COOV·쿠브)뿐만 아니라 네이버와 카카오, 토스 등 민간 플랫폼에서도 확인할 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>2022.01.03.</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>'접종완료자입니다' 통과, '딩동' 소리나면 입장불가…앱 업데이트 필수</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0005820202?sid=102</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>2차접종 14일 경과한 날부터 180일(6개월) 유효기간지난해 7월 6일 이전 2차접종 후 3차 미접종시 만료3일부터 2차접종 후 180일이 지나면 방역 패스의 유효기간이 만료된다. 또한 3000㎡ 이상 대규모 점포(상점·마트·백화점) 2003개소에도 방역 패스 적용이 추가된다. 사진은 2일 서울의 한 백화점 명품관 앞에 줄 선 시민들. 스마트폰에는 접종완료 +D206이라고 적혀있다. 해당 숫자가 +D180 미만이어야 입장 가능하다. 2022.1.2/뉴스1 © News1 이성철 기자(서울=뉴스1) 강승지 기자 = 3일부터 방역패스(접종증명·음성확인제)에 유효기간이 적용된다. 방역당국은 미리 전자출입명부 애플리케이션(앱)을 업데이트하고 접종 정보를 갱신해달라고 당부했다. 코로나19 백신 2차접종 후 14일이 지나면 '14일 경과' 표시가, 180일이 지나면 '유효기간 만료' 표시가 나온다.유효기간이 남아있다면 3차접종 정보와 접종 증명 유효기간이 연계된 앱 최신 버전의 화면에서 큐알(QR) 코드 주위에 파란색 테두리가 나타난다. 이 화면을 시설마다 비치된 인식기(스캔)에 대면 '접종 완료자입니다'라는 음성이 나오고, 유효기간이 만료된 경우에는 '딩동' 소리가 나와 구별이 가능하다. 딩동 소리가 울린다면 노래연습장과 영화관 등 방역패스 적용 시설 이용이 어렵다.방역패스 유효기간 적용 © News1 김초희 디자이너◇유효기간 임박했다면 3차 접종해야 '방역패스' 효력 유지3일 질병관리청 중앙방역대책본부(방대본)에 따르면 이날부터 방역패스에 유효기간이 적용된다. 코로나19 백신 2차접종(얀센 접종자는 1차접종) 후 14일이 지난 날부터 6개월(180일)까지가 유효기간이다.유효기간이 임박했다면 3차 접종을 해야 방역패스의 효력을 이어갈 수 있다. 3차 접종을 받은 즉시 효력이 생긴다. 이날을 기준으로, 지난해 7월 6일 혹은 그 이전에 2차 접종을 마친 사람이 아직 3차 접종을 받지 않았다면 3일부터 방역패스 적용 시설을 이용할 수 없다.방대본은 3일 방역패스 유효기간 만료 대상자는 563만명이라고 밝혔다. 그중 518만명(92%)은 3차접종을 받아 효력이 유지된 상태다. 이외 1만4000명은(0.2%)은 3차접종을 예약했다. 따라서 나머지 43만6000명(7.7%)은 방역패스가 만료될 예정이다.방역패스의 유효기간 적용은 3~9일 1주일간 계도기간을 갖는다. 방역패스 유효기간 증명 위반으로 인한 과태료나 행정처분은 10일부터 이뤄진다.유효기간은 정부의 전자 예방접종 증명 앱 '쿠브(COOV)'와 네이버, 카카오, 네이버, 토스, PASS앱(SKT, KT, LG) 등 전자 출입명부 앱에서 확인할 수 있다. 2차접종 후 14일이 지나면 '14일 경과' 표시가, 180일이 지나면 '유효기간 만료' 표시가 나온다.질병청은 자주 사용하는 전자 출입명부 앱(네이버, 토스, PASS 등)을 업데이트하고 접종정보를 갱신해야 3차접종 여부와 2차접종 후 얼마나 지났는지를 쉽게 확인할 수 있다고 당부했다. 이에 유효기간 적용 첫날인 3일 편한 시간대에 앱을 미리 업데이트하는 게 좋다고 조언했다. 동시접속으로 인한 '서버 먹통사태'가 재발하지 않고 국민 혼란을 피하겠다는 이유에서다.만약 전자 출입명부 앱에서 3차접종 정보가 갱신되지 않고 '새로운 접종 정보가 없다'고 한다면 해당 앱이 최신 버전인지 확인해야 한다. 다만 네이버 앱이 아닌 인터넷 브라우저로 네이버에 접속해 QR 체크인을 사용할 경우 3차접종 확인이 불가능하다.카카오로 예를 들면 3차접종 정보와 유효기간이 연계된 최신 버전 QR코드 화면에서는 유효한 접종증명을 의미하는 파란색 테두리와 QR코드 그리고 2차접종 후 경과일이 표시된다.접종을 완료했는데도 QR코드 주위 파란색 테두리나 접종 후 경과일이 보이지 않으면 앱을 최신 버전으로 업데이트해야 한다.특히 접종 정보를 갱신하지 않은 3차접종자는 QR코드를 스캔할 때 미접종자로 안내돼 시설 이용이 어려울 수 있다. 유효기간이 남아있다면 '접종 완료자입니다'라는 음성이 나오고, 미접종자이거나 유효기간이 만료됐다면 '딩동' 소리가 나온다.방역패스 의무적용-미적용 시설 © News1 최수아 디자이너◇미접종 완치자는 격리해제 확인서 활용, 돌파감염자는 유효기간 없이 인정 전자 예방접종 증명이나 출입명부 앱 활용이 어려운 장애인 등은 종이로 된 접종 증명서나 예방접종 스티커를 사용할 수 있다. 종이 증명서는 보건소에서 발급 가능하다.접종을 받은 적 없는 코로나19 완치자는 격리 관할 보건소에서 받은 격리해제 확인서나 쿠브 앱의 전자 완치확인서로 방역패스를 인정받는다. 격리해제일로부터 180일까지 유효하다.코로나19 돌파감염 경험있는 2차 접종자는 접종 후 14일이 지나면 별도 유효기간 없이 방역패스 효력을 인정받는다. 이에 전자 증명 앱에 유효기간이 없는 접종 증명이 발급된다.시설운영자들에게도 전자출입명부 앱을 업데이트하지 않으면 실행이 불가능해 당일 영업 전에 앱을 업데이트해야 한다.청소년 방역패스는 오는 3월 1일 시행하는데 12~17세 연령층은 유효기간이 없다. 3차접종 권고 대상이 아니기 때문이다.미접종자나 3차접종을 받지 않은 방역패스 만료자는 48시간 내 발급받은 PCR(유전자증폭) 검사 음성확인서를 제시해야 방역패스 시설을 이용할 수 있다.의학적 사유로 백신을 맞지 못하는 접종 예외자는 진단서와 소견서를 가지고 보건소에 가면 방역패스 예외 확인서를 받을 수 있다.한편 방역패스 적용 시설은 총 17종이다. 초기에는 유흥시설 등(유흥주점, 단란주점, 클럽·나이트, 헌팅포차, 감성주점, 콜라텍·무도장), 노래(코인)연습장, 실내체육시설, 목욕장업, 경륜·경정·경마·카지노에 적용했다.그러다 지난해 12월 6일부터 식당·카페, 학원, 영화관·공연장, 독서실·스터디카페, 멀티방, PC방, 스포츠경기장, 박물관·미술관·과학관, 파티룸, 도서관, 마사지·안마소가 추가됐다. QR코드를 찍고 입장해야 하는 면적 3000㎡ 이상 백화점과 대형 쇼핑몰, 마트 등 전국의 '대규모 점포' 2003개소도 적용시설에 포함됐다. 백화점, 대형마트 등은 10일부터 방역패스 적용을 받는다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>2022.01.06.</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>시총 1위 탈환·리더십 증명…이재근 신임 KB국민은행장 과제로</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/241/0003183016?sid=101</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>[일간스포츠 권지예]   =     살림꾼, 전략통 등 능력자로 인정받으며 취임한 이재근 KB국민은행장의 어깨가 무겁다. 기존의 점포 폐쇄 기조를 유지하며 빅테크와의 경쟁에서 승리할 무기를 하루빨리 찾아야 하는 데다가, '좋은 리더'임을 증명해야 하기 때문이다.     실력파라는데…노조는 반대    5일 금융권에 따르면 지난 3일부터 이재근 은행장의 임기가 시작됐다. 임기는 2022년 1월부터 2년이다.     허인 전 은행장이자 현 KB금융지주 부회장의 바통을 이어받은 이 행장은 재무·전략·영업 등 그룹 내 핵심 요직을 두루 거친 실력파로 통한다.       이 신임 행장은 오랫동안 지주에서 살림꾼 역할을 맡아 왔다. 2015년 재무기획부장에 발탁됐고 2017년 상무로 승진한 직후 재무총괄(CFO)에 올랐다. 회계·투자설명회(IR) 등을 총괄하는 그룹의 프런트맨 역할을 해낸 이후에는 경영기획그룹 상무·전무를 거쳐 영업그룹 부행장까지 지냈다. KB국민은행 1000여 개의 점포 관리를 총괄하는 야전 사령관 역할까지 해낸 것이다.     계열사대표이사후보추천위원회(대추위)는 “빅 블러(산업 간 경계가 뒤섞이는 현상)의 심화 속에서 리딩 금융그룹으로의 확고한 위상 구축을 위해 시장 지위를 레벨업할 수 있는 역동적인 차세대 리더에 중점을 뒀다"고 설명했다.     '적임자' 코스를 밟아 온 듯한 이 행장이지만, KB국민은행 노동조합은 그의 리더십에 반대했다.        지난달 28일 노조는 여의도 KB국민은행 신관 앞에서 집회를 열고 이재근 당시 행장 후보자가 현장 경험이 부족하고 내부 평판이 좋지 않다고 주장했다.     이 행장의 영업점 현장 경험이 2년 반에 불과하고, 부행장으로 취임한 지난 2020년 한해에 무려 83개의 점포가 문을 닫았다는 것이다. KB국민은행은 지난해에도 62개 점포가 추가 폐쇄됐다.     또 과거 이 행장의 경영 태도도 지적했다. 노조에 따르면 영업점을 오전 출근 조와 오후 출근 조로 분리해 운영하는 '9 투 6 은행' 확대와 관련해 노사 합의에 따라 대상점을 선정해 진행해야 하지만, 이 행장이 합의를 거치지 않았다는 것이다.     노조 관계자는 "수평적 리더십으로 높은 신망과 지지를 받는다는 은행 측 주장은 거짓말"이라고도 했다. 그러면서 매년 진행하는 직원들의 경영진 평가 기록을 공개했다. 이 행장이 60점을 밑도는 등 낮은 평가를 받는 인물이라는 것이다.     노조 관계자는 "취임 전 (이 행장이) 노조에 찾아와 문제를 제기한 사안에 대해 해소를 위해 노력하겠다고 약속했다"며 "이행 여부를 지켜볼 것"이라고 말했다.    이재근 KB국민은행장이 취임식 직후 여의도영업부를 방문해 고객과 만남의 시간을 가지고 있다. KB국민은행 제공        이재근 "카뱅에 빼앗긴 시총 1위 반드시 복귀"     시끄러운 상황에서 이재근 행장은 공식 업무를 시작했다. 가장 먼저 그는 “카카오뱅크에 빼앗긴 ‘금융 시가총액 1위'로 반드시 복귀할 것”이라고 천명했다. 빅테크와의 경쟁에서 승기를 잡는 것을 첫 과제로 꼽은 것이다.       KB국민은행은 2019년과 2020년 각 2조4390억원, 2조3195억원의 당기순이익을 올리며 ‘리딩 뱅크’ 자리를 차지하고 있다. 하지만 점포 수를 급격히 줄이고 카카오·토스·네이버 등 빅테크가 금융 시장에서 자리를 잡아가는 앞으로의 상황이 녹록지만은 않다.       다시 말해 그동안 전국에 점포를 두고 소매 금융 영업 시장에서 우위를 점해온 KB국민은행 입장에서는 이런 현장을 버리고 있는 것이다. 은행을 이용하는 고객 입장에서는 '현장' 없는 정통 은행이라면, 더 편리하고 이자를 더 주는 곳을 찾아 떠날 가능성이 커진다.     앞서가는 빅테크를 쫓아 디지털 플랫폼에서 수익을 낼 방법도 강구해야 한다. 빅테크에 익숙한 차세대 소비의 주축 MZ세대(1980~2000년대 초반 출생)를 데려오기 위해 KB국민은행만의 무기도 찾아야 한다.       이 행장은 “경영환경 변화에 기민하게 대응하면서 강한 실행력으로 난관을 돌파하면 빅테크와의 플랫폼 경쟁에서도 확실히 승기를 잡을 수 있다”고 말했다.    권지예 기자 kwon.jiye@joongang.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>2022.01.13.</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>“수수료 75% 쏜다”… 토스인슈, 보험설계사에 파격 조건</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000774897?sid=101</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>토스인슈어런스가 원수사에서 받는 수수료의 75%를 보험설계사에 지급한다는 파격적인 조건을 내걸었다. 토스인슈어런스는 오는 2월부터 대면영업을 본격 시작한다./사진=토스“보험 원수사에서 받는 수수료의 75%를 드립니다.” 토스인슈어런스의 보험설계사 모집 공고에 게재돼 있는 내용이다. 종합 금융 플랫폼 토스를 운영 중인 비바리퍼블리카의 보험 계열사 토스인슈어런스가 오는 2월 대면영업 시장에 진출, 보험 판매 확대에 더 드라이브를 건다. 토스는 동종업계에서 높은 수준의 수수료를 조건으로 내걸었다. 13일 보험업계에 따르면 최근 토스인슈어런스는 대면 채널로 보험 사업 방향을 대폭 전환하기로 하고 보험설계사 모집에 나섰다. 대면 시장의 특성과 우수 설계사 영입을 위해 위촉직 형태로 모집, 올해 안으로 100명까지 확대한다는 계획이다. 기존 텔레마케팅(TM) 조직에서 활동했던 설계사 중 희망자는 대면설계사 및 지원업무로 전환 또는 관계사 전배 등으로 대부분 토스 내에서 재배치 할 예정이다. 토스인슈어런스는 오는 2월부터 대면영업을 본격 시작할 예정이다.토스인슈어런스는 지난 2년 동안 비대면 TM중심의 영업을 통해 보험업계 최고 수준의 고객만족도(NPS평균 90점이상) 달성하는 등 성과를 거둬왔다. 하지만 전체 보험시장의 90%를 차지하는 대면 채널에 참여하지 않고는 보험 시장의 혁신에 속도를 낼 수 없다고 판단하고 대대적인 대면 설계사 모집에 들어갔다. 토스인슈어런스는 토스를 통해 유입되는 안정적인 보험 상담 수요 및 최고수준의 대우를 통해 우수 설계사 영입하고 대면시장 혁신을 가속화 한다는 계획이다. 보험설계사에 대한 수수료율은 75%로 보험사에서 받는 수수료의 75%를 설계사에 지급하는 것이다. 토스 관계자는 “기존 대면채널에서 고객 불편이 발생하는 지점들을 찾아서 개선하며 차별화 해 나갈 것이다“고 전했다. 2018년 설립된 토스인슈어런스는 토스를 운영하는 비바리퍼블리카의 보험 전문 100% 자회사다. 토스보험서비스에서 지난해 5월 토스인슈어런스로 사명을 교체했다. 토스인슈어런스의 사업은 크게 두 가지다. 우선 비대면 보험 보장 분석 및 상담 서비스가 있다. 고객이 토스 앱 내 ‘내 보험 조회’ 서비스에서 보험 가입·보장 내역을 확인하고 추가로 설계사 상담을 받고 싶은 경우에 ‘내 보험 분석받기’를 누르면 텔레마케팅 보험분석매니저와 연결돼 데이터 기반의 세밀한 보장 분석과 적합한 상품 추천이 이뤄진다. 두 번째는 온라인 전용보험(CM)이다. 토스인슈어런스는 지난해 3월부터 온라인 전용 보험상품을 취급하기 시작했다. 지난해 2월 말까지는 모회사인 토스가 여행자보험과 자동차보험 및 운전자보험 등 미니보험을 취급했는데 3월부터 직접 판매하기 시작했다. 현재 토스인슈어런스는 기존 단기 보험상품을 포함해 각 보험사의 온라인 전용 상품으로 상품군을 확대하는 중이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>2022.01.05.</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>연초부터 줄잇는 희망퇴직…금융맨들 "수억 받고 나가자"</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004692059?sid=101</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>[교보생명, 신청자 319명 중 286명 퇴직 확정KB국민·신한·하나은행도 희망퇴직 접수 시작금융그룹 회장 "빅테크에 맞서 디지털 혁신"사측 "인력재편 불가피", 임직원 "새로운 도전"]정보통신기술(ICT) 기반 금융 플랫폼 기업인 빅테크의 공습에 맞서 레거시(전통) 금융회사들이 새해 벽두부터 인력 구조개편 작업을 서두르고 있다. 임인년 새해에도 디지털 전환(DX)이 금융권 최대 화두로 떠오른 상황이어서 작년에 이어 수천명이 새 일자리를 찾아 텃밭을 떠날 것이란 전망이 나온다. 교보생명은 입사 15년 이상 직원을 대상으로 시행한 상시 특별퇴직 신청자 319명 중 286명의 퇴직을 확정했다고 4일 밝혔다.  특별퇴직 신청자는 2016년 희망퇴직(460여명)에 이어 두 번째로 많았다. 퇴직자들에겐 4년치 월급에 최대 4000만원(자녀 장학금, 전직 지원금)을 추가로 지급한다. 퇴직 후 창업·전직 지원 프로그램에는 특별퇴직 확정자의 3분의2 이상인 200명이 신청했다고 한다.  조건이 어느 때보다 좋아 퇴직을 앞둔 고연령자가 아니더라도 제2의 인생을 설계하거나 새로운 도전에 나서려는 직원들이 몰렸다는 방증이다.  은행권에서도 신년 초입부터 인력 효율화 바람이 거세다.  지난해 말 우리은행과 NH농협은행에 이어 KB국민은행, 신한은행, 우리은행이 희망퇴직 신청 접수에 들어갔다. 하나은행은 고연령 직원들의 조기 전직 기회를 제공하는 한편 금융 환경 변화에 따른 인력 구조 효율화를 위해 임금피크와 준정년 특별퇴직을 한시적으로 확대 시행하기로 했다. 오는 7일까지 만 40세 이상 일반직원 중 만 15년 이상 근무자를 대상으로 '준정년 특별퇴직' 신청을 받는다. 특별퇴직자에겐 연령과 직급에 따라 27~36개월치 평균 임금과 자녀학자금, 의료비 등을 지급한다. 만 55~56세 직원들을 대상으로 임금피크 특별퇴직도 실시한다. 퇴직자들은 조건에 따라 수억원의 퇴직금을 받을 수 있다. 하나은행이 2020년 말 실시한 준정년 및 임금피크 퇴직엔 511명이 신청했다. 올해엔 새 터전을 찾아 회사를 떠나는 인원이 더 늘어날 전망이다. 신한은행도 부지점장 이상 일반직 중 1963년 이후 출생자, 근속 15년 이상 대상자를 대상으로 희망퇴직 신청을 받는다.  최대 36개월치 특별퇴직금을 지급한다. KB국민은행도 6일까지 희망퇴직 신청을 받고 있다. 1966~1971년생이 대상이다. 조건에 따라 23~35개월치 임금을 특별퇴직금으로 지급받는다. 학자금과 재취업 지원금을 주고 건강검진 지원, 재고용 기회도 부여한다.금융권 인력 재편은 '디지털 금융'이 대세로 떠오르면서 상시화하는 분위기다. 고객들의 금융 소비 환경이 비대면·디지털 방식으로 급속히 전환하면서 금융회사들은 전국에 깔아놓은 방대한 오프라인 영업망을 최대한 줄이거나 효율적으로 재배치해야 하는 상황이다. 금융회사 임직원들 사이에서도 최대한 좋은 조건을 받고 회사를 떠나 새로운 인생을 설계하려는 움직임이 많다. 창업을 하거나 인터넷전문은행 혹은 금융 플랫폼 기업으로 전직하는 경우가 많다. 회사와 직원의 입장과 이해관계가 일견 부합하는 셈이다.   금융권 인력 구조조정은 당분간 계속 이어질 공산이 크다. 주요 금융그룹은 올해 핵심 경영 전략 키워드로  '디지털 혁신'을 제시했다. 네이버와 카카오 등 ICT 기업의 금융권 공습과 토스 등 빅테크의 은행업 진출에 맞서기 위해 조직 구조와 영업 방식, 인력 구조를 디지털 중심으로 효율화하는 작업을 서두르겠다는 것이다. 전날 금융그룹 회장이 낸 메시지 중엔 "시장은 우리(레거시 금융회사)를 '덩치만 큰 공룡'으로 보고 있다. 공룡은 결국 멸종했기 때문"(김정태 하나금융그룹 회장)이라는 말이 나왔다. 변화와 혁신없이는 생존을 담보할 수 없다는 위기감을 가감없이 드러낸 것이다.  금융지주 회장들이 꺼낸 대안은 빅테크에 없는 종합 금융회사의 강점을 살리는 '디지털 퍼스트' 전략이었다. 작지만 강한 빅테크의 금융 시장 잠식에 맞서 종합 금융그룹의 오프라인 경쟁력을 디지털·온라인 전략과 결합해 '옴니채널' 전략으로 승부수를 던지겠다는 것이다. 시중은행 관계자는 "최근 금융권 인력 재편은 비용 효율화를 위해 사측에서 일방적으로 강제한 과거의 구조조정과는 성격이 다르다"며 "금융 환경 변화로 최근에는 '생존'을 위해 조직과 인력 구조를 재정비해야 한다는 공감대가 형성돼 있어 희망퇴직 움직임은 당분간 이어질 가능성이 크다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>2022.01.03.</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>유비벨록스, 마이데이터 타고 올해 영업익 80%↑-유안타</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005118488?sid=101</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>[이데일리 김인경 기자] 유안타증권은 3일 유비벨록스(089850)의 올해 영업이익이 지난해보다 80% 이상 증가할 것이라고 내다봤다. 투자의견과 목표주가는 제시하지 않았다. 허선재 유안타증권 연구원은 “유비벨록스는 B2B(기업대 기업)향 신용카드와 체크카드 등 스마트카드와 B2C(기업대 고객)향 블랙박스 제조 및 판매를 주력 사업으로 영위하는 사업자”라며 “국내 스마트카드 및 블랙박스 시장의 압도적 1위 업체이며 최근 사업적 시너지가 클 것으로 예상되는 마이데이터 사업을 추진하면서 중장기 성장에 대한 큰 그림을 완성했다”고 설명했다.그는 “스마트카드 부문에서의 탄탄한 금융사 네트워크를 갖춘데다 블랙박스 부문에서의 방대한 주행데이터를 활용해 마이데이터 기반의 금융 서비스를 제공하는 게 큰 그림”이라면서 “사용 가치가 높은 대량의 블랙박스 주행데이터를 확보한 국내 유일한 업체라는 점에 주목해야 한다”고 강조했다. 이를 통해 향후 고성장할 것으로 전망되는 마이데이터 시장에서 철저히 차별화된 서비스를 제공할 수 있을 것이란 전망이다. 이어 그는 “스마트카드 부문의 성장 요인은 토스뱅크 중심의 신규 고객사 확보와 KLSC(한국로컬스마트카드) 도입에 따른 시장 점유율 확대, 2022년 대선 소비진작 정책에 따른 최대 성수기 진입을 바탕으로 한다”라고 설명했다. 또 블랙박스 부문에서는 BMW중심의 B2B 글로벌 공급 물량이 확대하고 있고 타 전자제품의 매출액 확대가 예상되는데다 특히 글로벌 블랙박스 시장은 현재 개화 단계이기 때문에 향후 큰 폭의 실적 기여도 상승을 기대해도 좋다는 설명이다. 유비벨록스는 지난해 10월 마이데이터 본허가를 취득했다. 자산관리 플랫폼 ‘아차’를 통해 가입자 수 180만명을 확보한 피트니스 플랫폼 ‘트랭글’의 고객 데이터나 ’아이나비’ 블랙박스/내비게이션 주행데이터와 고객의 금융거래 마이데이터를 결합하여 맞춤형 금융 서비스를 제공할 것으로 전망된다. 그는 “해당 사업은 향후 신규 금융상품 개발, 비정형신용평가 서비스, 신사업 추진 등 다양한 사업으로의 확장성이 매우 클 것”이라고 기대했다. 이를 바탕으로 그는 올해 추정 매출액은 2021년보다 33.9% 늘어난 4045억원, 영업이익은 같은 기간 80.6% 증가한 425억원으로 제시했다. 허 연구원은 “현재 주가는 내년 예상 실적 기준 주가수익비율(PER) 7배 수준으로 현저히 저평가 중”이라면서 “향후 마이데이터 사업이 본격화하는 시점에는 유의미한 재평가가 이뤄질 것”이라고 덧붙였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>2022.01.05.</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>뱅킹만 쓸래도 증권까지 낀 토스앱 설치…'끼워팔기' 논란</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004767495?sid=101</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>"원치 않는 서비스 의무화 문제"시중은행·인터넷은행 민원 제기금융당국도 시스템 개선 검토토스 "원앱, 이미 허가 난 사항"  금융당국이 토스은행, 토스증권을 이용하기 위해 반드시 가입해야 하는 토스의 시스템 개선을 검토하고 있다. 이는 토스에 가입하지 않고 토스뱅크, 토스증권만 이용하고 싶어하는 금융고객의 선택권을 제한한다는 이유다. 마치 '금융상품 끼워팔기'와 비슷한 개념이 아니냐는 지적이다.   5일 금융권에 따르면 시중은행들과 인터넷은행들은 토스뱅킹이 본격 사업을 시작한 이후 금융당국에 민원을 제기한 것으로 알려졌다. 시중은행 관계자는 "토스가 원앱 전략으로 성공을 거두고 있지만 소비자들이 원하지 않는 서비스 가입을 의무화하는 것은 문제"라고 지적했다.   금융당국도 시중은행들이 이 같은 민원을 접수하고 면밀하게 검토 중인 것으로 알려졌다. 금융당국 관계자는 "시중은행이 제기한 민원을 면밀히 살펴보고 있다"고 전했다.   현재 토스뱅크, 토스증권을 사용하려면 토스에 가입을 해야 한다. 토스앱을 설치하고 가입해야만 그 안에 있는 은행, 증권업을 이용할 수 있는 시스템이다. 금융권 관계자는 "시스템적으로 가벼운 토스에서부터 무거운 은행, 증권으로 고객을 자연스럽게 연결하는 전략"이라고 전했다.   그러나 금융당국과 시중은행들은 토스뱅크, 토스증권만을 이용하려는 고객들의 선택권을 제한한다고 판단한다. 금융권 관계자는 "디지털 전략으로는 훌륭하지만 금융당국이나 금융소비자 입장에서는 끼워팔기와 같은 논란으로 확산될 수 있다"며 "토스가 금융당국의 권고대로 시스템을 개선하려면 쉽지 않은 작업이 될 것"이라고 전했다.   이에 대해 토스뱅크 관계자는 "원앱을 위해 금융당국과 충분한 사전 협의를 거쳤다"며 "논란의 소지가 있었다면 은행을 원앱으로 출범하지 못했을 것"이라고 말했다.   이뿐 아니라, 토스가 오픈뱅킹에서 제공했던 '금융 기관 일괄 연결'을 마이데이터에도 적용한 것을 두고 신용정보법 위반 논란도 나온다.   마이데이터는 사용자가 '알고하는 동의'를 이용해 직접 연결기관을 선택하도록 규정돼 있는데 토스는 전체 기관에 대한 선택 기능을 미리 제공해 마이데이터 규정을 위반했다는 것이다.   마이데이터 서비스 내 '알고하는 동의'와 기관연결 선택 기능은 개인신용정보 제공 동의를 핵심으로 하는 마이데이터의 핵심 기능이다. 기관 연결이 많아지면 한 번에 통합 조회해 볼 수 있는 자산이 늘어나므로 편리하지만 반대로 정보유출·보안사고 발생 시 피해도 커진다.   문제는 토스가 마이데이터 시범서비스 전 필수로 거쳐야 하는 기능적합성 심사에서는 현재와 같은 버전을 구현하지 않았다는 것이다.   토스는 지난주 신용정보원과 금융보안원으로부터 기능 수정을 요구받았다. 토스 관계자는 "시범운영 과정에서 일부 테스트를 한 것일 뿐 이날부터 전면 시행되는 마이데이터 서비스에는 동의 과정에서 기관을 선택할 수 있도록 프로세스를 개선했다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>2022.01.07.</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>토뱅發 인터넷은행 대출 전쟁…한도 늘리고 포트폴리오 확대</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0005830525?sid=101</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>케뱅, 신용대출 최대 2.5억…카뱅, 1분기 주담대 출시"시중은행은 총량규제 고려하면 공격적 영업 어렵다"서울 강남구 토스뱅크 본사 2021.10.5/뉴스1 © News1 박세연 기자(서울=뉴스1) 민선희 기자 = 제3호 인터넷전문은행 토스뱅크가 연초부터 대출 영업을 공격적으로 재개하면서 인터넷전문은행간 대출 경쟁에도 불이 붙었다. 인터넷은행들은 대출 한도를 늘리거나 여신 포트폴리오를 확충하는 등 고객 잡기에 나섰다.이같은 대출 전쟁에 신호탄을 쏜 곳은 토스뱅크다. 7일 금융권에 따르면 지난해 총량규제로 출범 1주일만에 대출을 중단했던 토스뱅크는 새해 1월1일부터 신규대출을 시작했다. 특히 토스뱅크는 금융당국의 대출 규제 강화 시점이 지난 3일부터였다는 점을 이용해 1~2일 이틀간 DSR(총부채원리금상환비율) 2단계를 적용하지 않고, 연봉 이상으로도 신용대출을 내주는 등 공격적인 영업을 한 것으로 나타났다. 토스뱅크는 1~2일 한도 조회 이전에 '1월3일부터 대출 한도가 줄고 금리가 달라질 수 있다'며 DSR 규제 강화에 대한 안내문도 게시했다. 이 때문에 규제 시행 이전에 미리 대출을 받아놓으려는 가수요가 토스뱅크에 몰렸고 한때 토스뱅크 애플리케이션(앱)의 대출한도 조회 서비스 접속이 지연되는 현상이 나타나기도 했다. 토스뱅크가 연초 흥행에 성공하자 케이뱅크도 맞불을 놨다. 케이뱅크는 지난 5일 신용대출 한도를 기존 1억5000만원에서 2억5000만원으로 높였다. 마이너스통장과 신용대출플러스 상품 한도도 1억원에서 1억5000만원으로 늘렸다.신용대출과 신용대출 플러스 상품을 이용하는 중저신용(KCB 820점 이하) 고객을 위한 이벤트도 이달말까지 진행한다. 3개월째 이자금을 납부하면 다음날 돌려주는 '이자캐시백'과 고객이 예기치못한 중대사고로 대출금을 갚지 못할 때 대신 상환해주는 '대출안심플랜' 등이다. 케이뱅크는 기존 아파트담보대출을 대환 뿐 아니라 신규까지 할 수 있게 하고 개인 사업자 전용 대출 상품도 내놓는다는 계획이다.카카오뱅크와 케이뱅크© 뉴스1카카오뱅크의 새해 대출 전략은 주택담보대출이다. 카카오뱅크는 1분기 중 아파트 전용 주택담보대출을 출시할 예정이며 출시 전 외부 고객을 대상으로 비공개 베타테스트를 진행한다. 또한 개인사업자 전용 대출상품도 내놓을 예정이다. 대신 새해에도 고신용자 대상 신용대출과 마이너스통장 신규 판매를 재개하지 않고 있다. 올해에도 가계대출 총량규제 적용을 받는데, 주택담보대출을 새로 내주면서 고신용자 신용대출까지 적극적으로 하면 총량규제 준수가 어려울 수 있다는 판단 아래 내린 결정이다. 특히 가계신용대출 대비 중·저신용자 신용대출 비중을 올해말 25%까지 끌어올려야 한다는 점도 영향을 줬다. 인터넷은행들간 대출 경쟁이 뜨거워지고 있지만 시중은행은 상대적으로 조용한 모습이다. 총량규제 등을 고려하면 시중은행들이 공격적으로 대출영업을 펼치기는 어렵다는 게 은행권의 반응이다.  시중은행 관계자는 "은행 입장에서도 지점 실적 등을 고려하면 연초에 여신을 늘리는 게 좋기는 하다"면서도 "올해 총량규제가 더 강화된 것을 고려하면 인터넷은행발 경쟁이 격화된다고 해도, 시중은행들이 적극적으로 대출영업을 하겠다고 나설 가능성은 매우 적다"고 내다봤다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>2022.01.05.</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>토스 "이재명·심상정, 정치기부금 간편 후원 서비스 등록"</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/215/0001007624?sid=101</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>이재명 더불어민주당 대선후보와 심상정 정의당 후보가 토스 '정치후원금 보내기' 서비스에 5일 등록됐다.토스는 이재명 후보와 심상정 후보가 등록을 마쳤으며, 윤석열 국민의힘 대선후보도 가까운 시일 내에 목록에 추가될 예정이라고 설명했다.토스의 '정치후원금 보내기' 서비스는 스마트폰 터치 몇 번이면 정치인, 또는 국내 특정 정당에 정치후원금을 보낼 수 있는 서비스로 지난해 7월 정식 출시했다.토스 측은 서비스 출시를 통해 이전까지 정치후원금을 기부하기 위해서는 복잡한 과정을 거쳐야했던 불편함을 해소했으며, 건전한 정치 기부 문화 활성화에도 기여해왔다고 설명했다.이승건 토스 대표는 "금융의 맥락을 활용해 사회적으로 의미있는 서비스를 고민하던 중, 이번 서비스를 선보이게 됐다"며 "더 많은 국민들이 소액 기부에 관심을 갖는 계기가 되길 기대한다"고 말했다.정치후원금은 1회 최대 120만원까지 가능하며 관련 법령에 따라 후원회 한 곳에 최대 연간 최대 500만원 한도까지 후원이 가능하다.또한 연말정산 시 정치후원금은 10만원까지 전액 세액공제가 가능하며, 10만원 초과분은 15%까지 종합소득산출세액에서 공제혜택이 제공된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>2022.01.01.</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>대기업·빅테크·사모펀드 합종연횡…‘빅 블러’ 심화될 것</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/353/0000041292?sid=101</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>━   새해 M&amp;A 시장 전망      83조원. 지난해 국내 인수합병(M&amp;A) 시장 규모다. 2012년 이후 연 50조원에서 90조원 사이의 안정적인 규모를 유지하던 국내 M&amp;A 시장 규모는 2020년 들어 46조원까지 쪼그라들었다. 코로나19의 전 세계적 확산 속에 자본시장이 공포에 휩싸이면서 M&amp;A 시장이 얼어붙으며 제대로 된 거래가 진행되지 못했기 때문이다. 2020년 하반기부터 빠르게 회복세를 보인 시장은, 지난해 완연히 회복했다.        올해 M&amp;A 시장은 어떨까. 결론부터 살펴보면 올해 M&amp;A 시장은 규모면에서 다시 주춤해 지난해 수준에서 크게 벗어나지 않을 것으로 예상된다. 오미크론 변이의 확산과 먹는 코로나19 치료제 개발 등 아직 확실하지 않은 외부 변수들이 많지만 미국을 중심으로 한 금리 인상 기조는 시장을 위축시킬 요소다. 그러나 대기업·빅테크의 투자 속에서 사모펀드의 약진이 기대돼 M&amp;A 시장에 활기를 부여할 것이다. 여기에 계속해서 성장 동력을 찾는 대기업과 빅테크들의 관심 속에 올해는 그 어느 때보다 경계가 사라진 합종연횡을 예고하고 있다.      올해 거시경제 변수 중에 한 가지 명확한 것은 미국의 금리 인상이 시작된다는 점이다. 오미크론 변종의 확산에 따른 충격이 올 수는 있지만, 물가 상승의 압박이 큰 상황이라 금리 인상은 기정사실로 받아들여지고 있다. 이는 M&amp;A 시장에 분명한 부정적인 요소로 작용할 가능성이 크다. 금리 인상의 여파는 고스란히 매수자의 자금 조달 과정에 부담으로 돌아온다. 이미 시장에 풀려 있는 유동성 자금은 여전히 풍부하다. 그러나 지난해 시장을 ‘과열’로 보고 자본시장에서 속도를 조절하려는 금융기관들이 늘어날 수밖에 없는 상황이다. 실제로 기준 금리 인상이 본격화되기 전인데도, 이미 M&amp;A를 위해 자금을 빌려주는 인수금융 시장의 금리는 코로나19 이전으로 돌아간 상태다.      이자 비용이 늘어나면 기업의 순이익이 감소할 수 있고, 동시에 유사 기업들의 PER(순이익 대비 주가 비율) 등 가지평가 지표도 높아질 수 있다. 올해 M&amp;A 시장의 거래 규모가 지난해 수준과 비슷할 것으로 예상하는 이유다. 긍정적인 부분도 없지 않다. 국내 대기업과 빅테크 기업들이다. 이들은 지난해 M&amp;A 시장에서 전면에 나섰다. 약 10조5000억원에 인텔의 낸드 사업부를 인수한 SK하이닉스가 대표적이다. 현대차는 보스턴다이나믹스 등 2곳(1조2000억원)을 인수하는 거래를 진행했다. 이마트는 이베이코리아 등 3건(3조9000억원)을, 넷마블은 스핀엑스 등 6건(2조8000억원)을 인수했다.      그래픽=이정권 기자 gaga@joongang.co.kr           국내 대표 빅테크 기업인 네이버와 카카오도 열심이다. 카카오는 래디쉬 등 무려 23건(1조1000억원)이나 인수하며 발 빠르게 움직였다. 네이버도 문피아 등 3건(9000억원)의 거래에 자금을 투입했다. 여기에 더해 요기요를 인수한 GS리테일, 엔데버를 인수한 CJ ENM, 인터파크를 인수한 야놀자, 타다를 인수한 토스, 그리고 이티카를 인수한 하이브 등도 M&amp;A 시장의 주인공을 자처했다. 친환경과 비대면 그리고 글로벌로 요약할 수 있는 성장 전략을 펼치는 데 있어 M&amp;A를 활용하기에 최적의 기회라는 판단이 있었던 것이다. 이런 흐름은 올해도 계속될 가능성이 높다. 빅테크들은 물론 대기업들까지 과감한 변신이 없이는 생존에 대한 걱정을 할 수 있다는 압박이 지속되는 상황이다. 게다가 지난해 대기업 상당수가 오프라인 자산을 팔고, 자회사의 기업공개(IPO)에 나서며 실탄을 충분히 쌓아 놓고 있는 상황인 점도 자금력을 뒷받침한다.      반면, 2020년까지 국내 M&amp;A 시장을 주도했던 사모펀드들은, 지난해 상당히 위축된 모습을 보였다. 대기업과 빅테크 기업들이 시장을 주도하자, 다소 관망하는 시간을 가졌던 것이다. 대신 시장의 호황을 이용해 보유 포트폴리오들을 매각하는데 집중하면서 성공적인 투자회수 사례들을 써내려갔다. 지난해 사모펀드들이 매수자로 나선 거래 중에 눈에 띄는 사례는 어피니티의 잡코리아 인수와 요기요 인수, MBK파트너스의 다나와 및 동진섬유 인수가 있다. 칼라일의 투썸플레이스 인수와 IMM의 한샘 인수도 이목을 끌었다. 주요 사모펀드 중 하나인 한앤컴퍼니는 남양유업 인수로 관심이 높아졌지만 거래를 두고 이견이 생기며 주춤한 상황이다. 테일러메이드를 인수한 센트로이드처럼 신규·중견 사모펀드들도 여전히 다양한 투자를 진행 중이지만, 전체 시장을 주도하기에는 역부족이다.      그러나 올해는 사모펀드들이 기존과 같은 경영권 인수는 물론 대기업, 빅테크들과의 공동 투자하는 거래들까지 대상을 확대하며 다시 전면에 나설 가능성이 높다. 사모펀드들이 기업 경영권 인수 뿐만 아니라 성장 기업의 소수지분에 투자하는 그로쓰(Growth) 투자 분야와 사모 대출 투자 분야로 확장에 나선 덕분이다. 또 소진하지 못한 투자 자금인 ‘드라이 파우터(Dry Powder)’까지 넉넉한 상황이다. 넉넉한 투자 여력은 대기업과 빅테크 사이의 경쟁과 협력 관계로 복잡하게 얽힐 것으로 예상된다. 올해 M&amp;A 시장은 어느 때보다 이른바 ‘빅 블러’(Big Blur·경계가 모호해지는 것) 현상이 더 심화될 전망이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>2022.01.09.</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>'삼성전자' 메타버스 등장하자 마나코인 '급상승'</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0002992655?sid=101</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>메타버스 플랫폼 '디센트럴랜드'에 삼성전자 미국법인이 가상 매장을 개설했다. 삼성 합류가 생태계 전반의 호재로 해석되면서 디센트럴랜드에서 쓰이는 가상자산 '마나(MANA)' 코인 시세가 급격히 상승했다.삼성전자 미국법인은 지난 6일(현지시간) 뉴스룸 공식 트위터 채널에서 가상 매장 '삼성 837X'를 개설했다고 밝혔다.이 가상매장은 실제로 미국 뉴욕시 워싱턴스트리트 837번지에 소재한 삼성전자 제품 체험 전시장 '삼성 837'을 가상세계로 옮겨놓은 장소다. 현실 세계처럼 각종 삼성 제품을 체험할 수 있고 공연 등 다양한 콘텐츠도 경험할 수 있다.삼성 837X는 △커넥티비티 극장 △지속가능성의 숲 △커스텀 스테이지 등을 갖췄다. 실제 오프라인 매장에서 DJ가 주최하는 라이브 댄스 파티를 혼합현실 형태로 즐길 수도 있다.가상 매장은 이벤트 기간 동안 한정적으로 운영한다. 방문객은 제한된 수량으로 발행하는 헬멧, 상의, 신발 등 대체불가토큰(NFT) 아이템을 퀘스트를 거쳐 획득할 수 있다.디센트럴랜드는 대표적인 메타버스 관련 프로젝트 중 하나다. 2차원 평면으로 구성된 공간에 3차원 캐릭터가 활동할 수 있도록 설계됐다. 물품 수요와 희소성에 따라 메타버스 내 NFT 아이템 가격이 천차만별이다.홍보 효과를 노린 글로벌 브랜드의 진출도 잇따르고 있다. 대표 사례가 지난해 코카콜라가 실시한 가상 루프탑 파티와 디센트럴랜드에서 착용 가능한 NFT 재킷 발행이다. 세계적인 경매 업체 소더비 경매장도 디센트럴랜드에 있다.디센트럴랜드에서 가상 부동산을 확보하거나 행사를 개최하려면 마나코인으로 디지털 재화를 획득해야 한다. 최근 메타버스와 NFT에 대한 주목도가 높아지면서 마나코인 시가총액은 7일 기준 약 7조원 규모로 늘어났다.삼성전자 합류 소식이 알려지면서 마나코인 가격이 급등했다. 업비트 기준 1개당 3500원에 거래되던 마나는 6일 자정 전후를 기점으로 가격이 30% 가깝게 상승했고 7일 오전 한때 4250원까지 치솟았다.디센트럴랜드 내 개점한 삼성 837X 가상매장. (이미지=디센트럴랜드)삼성전자는 NFT와 메타버스에 대한 관심을 지속 드러내고 있다. 지난 3일 세계 최대 IT 가전 전시회 CES 2022에서 신제품 TV에 NFT 플랫폼을 적용한 서비스를 선보였다. 별도 TV 애플리케이션(앱)으로 디지털 아트를 구매하거나 볼 수 있다.삼성전자 투자 자회사인 삼성넥스트는 대퍼랩스, 오픈씨, 엑시인피니티 등 NFT 관련 스타트업에 투자를 이어가고 있다.미셸 매토스 삼성전자 미국법인 부사장은 “메타버스는 물리·공간적 한계를 초월해 다른 방법으로는 불가능한 독특한 가상 경험을 할 수 있게 해준다”며 “우리는 혁신 DNA를 갖고 있으며 많은 사람이 급성장하는 가상세계를 경험하길 바란다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>2022.01.03.</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>토스뱅크, 새해 이틀간 규제공백 틈타 연봉보다 많은 대출 '논란'</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0005821915?sid=101</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>대출 재개하면서 이틀간 연봉제한·DSR 2단계 피해 영업규제공백 노린 꼼수 지적 나와…정당한 영업전략 반론도지난 1일 오전 11시 이후 토스뱅크 대출 영업이 재개되자 접속자가 몰리면서 올라온 안내문. © 뉴스1(서울=뉴스1) 송상현 기자 = 3호 인터넷전문은행 토스뱅크가 새해 신규 대출을 재개하면서 금융당국의 강화된 대출 규제의 적용시점이 1월3일부터라는 틈새를 이용해 1월1~2일 이틀간 공격적인 대출 영업을 한 것으로 나타났다. 은행권의 신용대출이 연봉 이내로 막힌 상황에서 유일하게 2배 가까운 한도를 적용한 것이다. 규제공백을 교묘하게 파고든 꼼수라는 지적이 있는 반면 정당한 영업전략이었다는 반론도 나온다. 3일 금융권에 따르면 토스뱅크는 1월1일 오전 11시 대출 영업을 재개하면서 3일부터 실시된 신용대출 연봉 이내 제한과 DSR(총부채원리금상환비율) 2단계를 적용하지 않았다.금융당국은 신용대출 한도를 연 소득 범위로 제한하는 것을 지난해 8월부터 구두로 유도하다가 올해부터 공문을 전달한 행정지도로 명확하게 했는데, 적용일이 3일부터였던 것이다. 즉, 원칙적으로 보면 1~2일은 이를 준수하지 않아도 되는 시기였다.  지난해말 토스뱅크는 올해부터 신용대출의 최고금리를 연 3%대 초반, 최대한도 2억7000만원으로 설정하면서 공격적인 영업을 예고했었다. 이 때문에 주요 커뮤니티에서는 토스뱅크의 한도가 높다는 점이 입소문을 타면서 수요가 몰렸고 토스뱅크 애플리케이션(앱)의 대출한도 조회 서비스 접속이 지연되는 현상이 잇따랐다. 인터넷 커뮤니티 등에는 '연봉보다 2배의 한도가 나왔다'라는 게시글을 심심찮게 찾아볼 수 있다. 대부분 은행은 지난해 8월부터 신용대출의 연 소득 제한을 수용했기 때문에 행정지도 적용 일자와 상관없이 새해에도 이 권고사항을 지켰다. 다만 지난해 총량관리 한도를 넘어서 영업 9일만에 대출이 중단된 토스뱅크는 이 권고의 수용 여부를 결정하지 않고 개점 휴업상태였다. 토스뱅크는 연소득 기준으로 대출금액을 정하는 DSR 2단계 규제가 1월3일부터 적용된다는 점도 활용했다. 지난해 7월 시행된 DSR 1단계는 전 규제지역 6억원 초과 주택을 대상으로 DSR을 40%로 적용됐지만 2단계에선 총 대출액이 2억원을 초과할 경우로 확대됐다. 전반적으로 돈 빌리기가 더 어려워진 것이다.이 때문에 토스뱅크는 앱 내 대출한도 조회 직전에 '1월3일부터 대출 한도가 줄고 금리가 달라질 수 있다'며 DSR 규제 강화에 대한 안내문을 게시했다. 이런 안내문은 커뮤니티 등을 통해 퍼지면서 미리 대출받아 놓자는 '대란급'의 가수요가 몰리는 현상으로 이어졌다.토스뱅크 관계자는 "오늘부터(3일)부터는 금융당국의 규제에 맞춰 대출이 나가고 있다"고 설명했다.이런 토스의 영업 행태에 대해선 금융권에선 '꼼수 영업'이라는 비판이 나온다. A은행 관계자는 "통상 당국의 공문이 영업일 기준으로 작성돼 나오는 만큼 금융당국도 생각지 못한 부분을 파고든 게 아닌가 싶다"며 "기존 은행권에선 감히 생각하기 힘든 꼼수"라고 평가했다. B은행 관계자는 "이틀간 영업을 더 해서 얼마나 얻겠다고 무리수를 뒀는지 이해하기 어렵다"며 "다른 은행과 형평성 차원에서도 맞지 않는다"고 말했다.제도를 잘 활용한 정당한 영업전략이었다는 평가도 있다. C은행 관계자는 "작년에 토스뱅크가 영업 10일도 안돼 대출이 막혀서 한이 맺혔던 것 같다"며 "허점을 잘 파고든 토스다운 전략이라고 본다"고 설명했다.금융당국 관계자는 토스뱅크가 지난 1~2일간 연봉 이상으로 신용대출을 해준 데 대해 "(사실 이라면) 약간 문제가 있다"며 사실 여부를 확인해보겠다고 말했다.지난 1~2일 토스뱅크 대출조회 직전에 게시된 안내문. DSR 2단계 규제로 3일부터 대출 조건이 나빠질 수 있다는 점을 안내하고 있다.© 뉴스1</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>2022.01.03.</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>방역패스 없으면 대형마트·백화점 못 간다</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/087/0000875816?sid=102</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>방역패스 없으면 대형마트·백화점 못 간다 사진=연합뉴스사회적 거리두기가 3일부터 다시 2주간 연장되고, 방역패스에 유효기간도 생긴다.방역 당국은 지난달 31일 오미크론 확산 추이와 병상 부족, 위중증 환자 증가 등을 고려해 이 같은 결정을 내렸다. 특히 방역 당국은 오미크론의 경우 델타와 비교해 확산 속도가 4배가량 빠른 것으로 분석했으며, 영업시간 제한을 밤 10시로 늦출 경우 확진자 수가 전국적으로 1월 말 1만8,000명대까지 증가할 가능성이 있는 것으로 보고 있다.전국 확진자 수가 7,000명을 넘은 지난달 8일 도내 확진자가 139명이었던 점을 감안할 때, 도내에서도 방역 역량의 한계인 150여명이 지속적으로 발생할 수 있는 수치다.이와 같은 예측에 따라 향후 2주간 강원도 내에서도 밤 9시 이후 영업제한, 5인 이상 집합제한 금지가 유지된다. 또 지난해 7월6일 이전 2차 접종까지 마친 접종자들은 추가 접종을 마쳐야 방역패스가 필요한 시설을 이용할 수 있다. 추가 접종을 하지 않았다면 3일부터는 식당, 영화관 등 방역패스가 필요한 시설 이용을 위해 음성증명서 등을 발급받아야 한다. 추가접종을 받은 경우 휴대폰에서 질병관리청의 예방접종 인증 전자증명서인 쿠브(COOV) 앱을 최신 버전으로 바꿔야 하고, 네이버와 토스 등 민간 전자출입명부 앱도 갱신해야 원활한 확인이 가능하다. 휴대폰 사용이 어려운 경우에는 주민센터에서 스티커를 발급받아 신분증에 붙일 수 있다. 오는 10일부터는 백화점·대형마트에서도 ‘방역패스'가 적용되고, 이날부터 방역패스 유효기간을 위반한 경우 과태료 또는 행정처분이 부과될 수 있다.청소년 방역패스는 올 3월1일부터 적용되고, 12~17세의 경우 3차 접종 대상이 아닌 만큼 유효기간은 따로 없다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>2022.01.06.</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>50만원 준다길래 면도했는데... 유튜버 “1원 보내다니, 고소하겠다”</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/023/0003664659?sid=102</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>유튜버 구제역. 왼쪽 사진이 수염을 밀기 전 영상 속 모습이고, 오른쪽은 수염을 민 후 모습이다. /유튜브										국내 유튜버가 생방송을 진행하면서 50만원을 주면 기르고 있는 수염을 밀겠다고 했다. 이에 한 시청자가 지불하겠다고 했고, 돈이 은행 계좌에 들어온 것을 확인한 유튜버는 수염을 밀었다. 그러나 실제로 들어온 금액은 단 ‘1원’이었다.6일 유튜버 구제역(본명 이준희)은 유튜브 채널 커뮤니티 게시판에 “지난 방송에서 ‘면도 50만 원’ 미션을 걸었고, 한 시청자가 50만원을 입금해 수염을 밀었다”며 “하지만 다시 한번 통장 내역을 확인해보니 입금자명이 ‘신협 50만원’이었고, (실제로는) 1원을 보냈다”고 했다. 입금자명만 보고 시청자가 50만원을 입금했다고 착각한 것이다.이어 “당시 은행 점검 중이라 계좌 조회가 되지 않아 토스로만 확인해 벌어진 실수”라며 “당신의 별 생각 없이 한 장난으로 인해 전 반년 동안 기른 수염을 밀었고, 수염은 둘째치고 고작 1원에 온갖 광대 짓 한 제가 너무나 치욕적이고 수치스럽다”고 했다. 또 “제가 사용 할 수 있는 모든 수단과 방법을 동원하여 당신을 고소하겠다”며 “뭐로 고소할지는 직접 고소장을 받아보라. 기분 상해죄는 아닐 것”이라고 했다.이를 본 네티즌들은 “1원을 보낸 사람이나 50만원에 수염을 밀겠다는 사람이나 비슷하다” “어떤 죄로 고소할지 궁금하다” “입금 확인 똑바로 하지 않은 유튜버도 잘못했다” “보이스 피싱이 아니라 보이스 왁싱이다” 등 재밌다는 반응을 남겼다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>2022.01.05.</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>[단독]토스, 마이데이터 통합인증 '명시적동의' 논란</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0002992134?sid=101</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>토스가 개인식별정보 전송을 위한 필수 조치인 통합인증거래 명시적 이용 동의 절차를 위반했다는 주장이 제기돼 논란이 일고 있다.5일 업계에 따르면 토스는 이날 16시 마이데이터 전면 시행을 앞두고도 인증절차에 대한 명시적 동의 절차 없이 사용자로부터 일괄 동의를 받았다.사용자가 마이데이터에서 기관 연결을 요청하면 '알고하는 동의' 과정 후 '통합인증거래 이용동의'를 거쳐야 한다.통합인증거래는 본인인증을 위해 개인식별정보인 CI 정보를 전송하기 위해 필수적인 절차다. CI 정보는 주민등록번호를 대체하는 식별값으로 사실상 온라인에서 주민번호를 대신해 본인인증에 사용되는 필수 정보다. 개인정보보호법상 인증 시 반드시 사용자로부터 명시적 동의를 받아야 한다.명시적 동의는 사용자가 동의 여부에 대한 의사를 표현할 수 있도록 직접 항목에 체크하는 방식을 뜻한다.토스의 통합인증거래 이용동의 화면 (자료=전자신문DB)국민은행의 통합인증거래 이용동의 화면 (자료=전자신문DB)본지 취재 결과 시중은행을 비롯한 대다수 마이데이터 사업자는 통합인증거래 과정에서 명시적 동의 절차를 구현했다. 반면 토스는 인증서 선택 화면에서 관련 문구 3줄만 넣어 암묵적 동의 방식으로 구현했다.통합인증거래 이용동의는 모두 필수 사항이다. 한 가지 항목이라도 동의하지 않으면 서비스 이용이 불가능하다. 토스는 이같은 특성을 이용해 명시적 동의 절차를 거치지 않고 간단한 암묵적 동의 화면으로 갈음했다. 사용자 입장에서는 마이데이터 이용 절차가 하나 줄어든 것이어서 쉽고 편하다고 느낄 수 있다.업계는 이같은 방식이 명백한 개인정보보호법 위반이라고 지적했다. 마이데이터 가이드라인 위배와 별도로 위법 행위에 해당한다고 봤다.금융위원회는 본지 지적으로 해당 문제를 인지하고 토스에 수정을 통보했다. 토스는 이에 “즉시 프로세스를 개선조치하겠다”고 밝혔다.토스는 마이데이터 전면 시행을 앞두고 서비스 연동 과정에서 위반 사례가 적발돼 비판을 받은 바 있다. 사용자가 일일이 선택해야 하는 연결기관 선택 기능을 일괄 연결로 제공해 뒤늦게 수정한 것이 대표적이다. 정보제공 시 거쳐야 하는 인증 과정에 간편 핀번호 입력 기능을 제공했다가 철회하기도 했다.업계 한 관계자는 “마이데이터 가입 절차가 워낙 까다로워 사용자가 어려워할 것을 예상하면서도 규정을 준수한 타 사업자들의 노력에 찬물을 끼얹은 행위”라고 지적했다.금융위원회 관계자는 “필수 동의절차를 거치지 않은 데이터는 추후 추가 동의절차를 받아야 할 것”이라고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>2022.01.03.</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>토스 앱서 '방역패스' 서비스 시작</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002243916?sid=105</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>매달 인증 절차 안거쳐도 돼토스 애플리케이션(앱)에서도 QR 접종증명서(방역패스) 서비스를 쓸 수 있게 됐다.3일 토스 운영사 비바리퍼블리카는 3차 접종 여부와 2차 접종 후 경과 기간을 확인할 수 있는 QR 방역패스 서비스를 제공한다고 밝혔다.종이로만 발급이 가능했던 코로나19 완치확인서, 예외확인서(의학적 사유로 인한 접종 예외) 관련 내용도 종이증명서 없이 QR 체크인만으로 증명할 수 있다.사용자는 토스 앱을 업데이트만 하면 새로운 QR 서비스를 바로 이용할 수 있다. 또 매월 인증 절차를 거치지 않아도 이용할 수 있다.토스 관계자는 "방역패스 유효기간 안내 뿐 아니라 해외 백신 접종 내역 등 다양한 증빙을 손쉽게 이용할 수 있는 편리한 서비스를 만들어 나가겠다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>2022.01.03.</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>대출문 열리지만 문턱 높아져…올해 대출 전략은?</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000270006?sid=101</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>가계대출 조이기에 나섰던 은행들이 새해가 되면서 다시 대출 문을 열었습니다. 하지만 대출 문턱은 더 높아집니다. 어떻게 하면 필요한 대출을 제때 받을 수 있을지 김성훈 기자와 자세히 알아보겠습니다. 먼저 은행들이 속속 중단했던 대출 상품 판매를 재개하고 있죠?네, 농협은행과 SC제일은행이 지난해 8월 부터 일부 중단했던 주택담보대출을 오늘(3일)부터 재개합니다.토스뱅크도 지난 1일부터 신용대출을 재개했는데요.이들 은행들은 지난해 대출 총량 한도가 조기에 소진하면서 대출 문을 좁혔는데요.해가 바뀌고 총량 한도가 재설정되면서, 대출 영업을 정상화한 겁니다.그런데 실제 소비자 입장에선 대출 받기가 여전히 어렵다고 느낄 수 있다는데, 무슨 얘기인가요?네, 먼저 대출 심사 기준이 깐깐해졌는데요.대출심사 시 차주의 상환능력을 따지는 총부채원리금 상환비율, DSR 적용 대상이 늘었습니다.이달부터 기준이 강화돼 총 대출액이 2억원이 넘는 경우에도 모든 대출을 합쳐 매년 원리금이 연 소득의 40%가 넘게 되면 추가 대출을 받을 수 없습니다.여기에 금융당국이 지난해 연 7%대였던 가계대출 증가율을 올해 4~5%로 낮추겠다는 목표를 세웠습니다.은행 등의 가계대출 공급량 자체가 줄어든다는 의미인데요.지난해 가계대출 증가액 추산치 110조원에 비교해 올해는 최대 97조원으로, 13조원 가량이 줄어들 것으로 전망됩니다.상황이 이렇다면, 대출을 조금이라도 더 받으려면 계획이 필요할 것 같은데요?네, 전문가들은 은행의 대출 총량 관리가 상대적으로 여유로운 매월이나 매분기 초에 대출 신청을 하라고 조언하고 있습니다.또 7월부터는 DSR 적용대상이 2억원에서 1억원으로 더 엄격해지는 만큼, 그 이전에 신청하실 때 대출을 약간이라도 더 받을 수 있습니다.여기에 예비비 목적의 신용대출은 줄이는 것이 좋고, 마이너스 통장의 경우 실제 사용금액이 아닌 한도가 총부채 원리금에 잡힌다는 점도 유념해야합니다.이자부담도 잘 따져봐야 하는데요.올해도 금리인상이 점쳐지는 만큼, 고정금리 상품이나 변동주기가 긴 변동금리 상품을 먼저 살펴볼 필요가 있다는 조언이 나옵니다.또 올해 승진 등으로 소득이 늘거나 신용도가 올라갔을 경우 금리인하요구권을 쓰면 이자 부담이 내려갑니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>2022.01.09.</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>[금융 플랫폼 대전] 원조 플랫폼 `네·카·토`, 몸집 불리기 가속화</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002715040?sid=101</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>'빅테크발 금융리스크 및 금융소비자 보호 이슈 점검' 발표 자료.    올해 은행업권과·빅테크 간 디지털 주도권 경쟁이 더욱 치열해 질 것으로 전망된다. 금융사는 저마다 신년사를 통해 '핀테크의 금융업 진출 가속화'를 올해 주요 화두로 꼽고 대응법을 강구하고 나섰다. 특히 올해부터 마이데이터 본 서비스가 시행됨에 따라 카카오페이와 네이버파이낸셜, 토스 등 핀테크사들과 금융사들의 선두 경쟁도 본격화됐다. 먼저 카카오는 2017년 7월 국내 2호 인터넷전문은행인 카카오뱅크를 출범한 이후 금융 시장에서 빠르게 사업을 확장해나가고 있다. 같은 해 4월에는 2014년 간편결제 서비스로 시작한 카카오페이를 독립법인으로 출범했고, 카카오페이는 2020년 2월에는 바로투자증권을 인수해 카카오페이증권을 출범했다. 카카오페이증권은 지난해 세 번의 유상증자를 단행, 올해부터 리테일 사업에도 뛰어들 전망이다. 카카오페이증권은 이달 말 MTS(모바일트레이딩시스템) 출시를 앞두고 있다.카카오페이는 올해 보험업에도 본격 진출한다. 2019년 7월 인바이유를 인수해 KP보험서비스를 출시한 카카오페이는 올해 디지털 손해보험사 가칭 '카카오페이손해보험' 설립을 앞두고 있다. 이를 위해 카카오페이는 지난해 12월 초 금융당국에 '카카오페이보험' 본인가를 신청한 상태다.카카오가 활발한 인수합병으로 금융업권에 진출했다면, 네이버는 금융사와의 제휴 등 우회 전략으로 금융업에 진출해왔다. 미래에셋캐피탈과 제휴를 통해 대출 서비스를 제공하거나, 미래에셋증권과 제휴를 통해 CMA통장인 '네이버통장'을 내놓는 방식이다.네이버는 2019년 11월 간편결제 사업부문인 네이버페이를 물적 분할해 금융 자회사 '네이버파이낸셜'을 신설했다. 네이버파이낸셜은 네이버의 쇼핑플랫폼 스마트스토어를 활용하는 온라인 판매자에 대해 '스마트스토어사업자(SME) 대출' 상품을 선보이며 대출 서비스를 시작, 2020년 금융권의 '신파일러' 확보 경쟁에 불을 지피기도 했다. 씬파일러란 금융 거래가 거의 없어 관련 서류가 얇은 금융 고객을 뜻하는 말로, 금융 이력이 부족한 사회초년생과 프리랜서 등이 해당된다.또 네이버파이낸셜은 2020년 6월 GA(법인보험대리점)형태의 'NF보험서비스'를 설립하고 보험업 진출도 준비 중이다. 2015년 간편 송금 서비스로 시작한 토스는 현재 토스뱅크와 토스증권, 토스인슈어런스 등 금융업권 전반으로 사업을 넓힌 상태다. 토스는 2018년 GA 토스인슈어런스를 설립해 보험업에 진출했다. 또 지난해 3월과 10월 토스증권과 국내 3번째 인터넷은행 토스뱅크를 출범해 증권업과 은행업에 뛰어들었다.이처럼 핀테크 3강의 금융권 진출이 가속화되는 가운데, 핀테크 기업의 종합지급결제사업자 허용은 난항을 겪을 전망이다. 금융당국과 국회는 최근 종합지급결제업을 신설하는 내용 등이 포함된 '전자금융거래법 개정안' 처리를 두고 고심 중이다. 종합지급결제업은 2020년 7월 금융당국의 '디지털금융 종합혁신방안'의 일환으로 추진됐다. 종합지급결제업이란 하나의 라이선스를 통해 △대금결제업 △자금이체업 △결제대행업 등 모든 전자금융업 업무를 영위하는 사업자를 의미한다. 그러나 최근 은행권을 중심으로 '빅테크 특혜' 지적이 제기되면서 전자금융거래법 개정안 처리가 보류됐다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>2022.01.04.</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>마이데이터 시범 서비스 종료…내일부터 전면 시행</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002563814?sid=101</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>업권별 마이데이터 주요 제공정보.ⓒ금융위원회[데일리안 = 부광우 기자] 내 손안의 금융비서로 불리는 마이데이터 서비스가 한 달 간의 예행연습을 마치고 전면 시행된다.금융위원회는 오는 5일 오후 4시부터 표준 응용프로그램 인터페이스(API) 방식을 통한 금융 마이데이터 서비스를 시행한다고 4일 밝혔다.이로써 본인신용정보관리회사는 보다 안전한 API 방식을 통해 개인신용정보 통합조회 서비스를 제공할 수 있게 된다. 마이데이터는 신용정보의 주체인 고객의 동의하에 은행이나 보험사, 카드사 등에 흩어져 있는 정보를 한 곳에 모아 소비자가 필요로 하는 맞춤형 서비스를 제공하는 사업이다.마이데이터 서비스 제공 사업자는 은행과 증권, 카드, 핀테크업계의 33개사다. 은행권에서는 KB국민·농협·신한·우리·기업·하나·대구·SC제일·광주·전북은행 등이 서비스를 운영한다. 금융투자업계에선 미래에셋·NH투자·키움증권·하나금융투자 등이, 카드 업계에선 KB국민·신한·하나·BC·현대·우리카드 등이 참여한다. 이밖에 카카오페이와 토스, 네이버파이낸셜 등 핀테크업체와 저축은행, 상호금융 업계 등도 서비스를 제공한다.나머지 마이데이터 사업자 21개사는 시스템과 애플리케이션 개발 등을 거쳐 올해 상반기 중사업에 동참할 예정이다.금융당국은 지난해 12월부터 한 달여간 마이데이터 서비스를 시범 운영하면서 드러난 개선 필요 사항을 보완했다. 중계기관의 처리 가능한 트래픽 양을 10배 이상 확대해 전산장애를 방지하고, 마이데이터 사업자에 연결되는 정보제공자를 늘려 인증수단을 추가하는 등 더욱 쉽게 본인인증 절차를 거칠 수 있도록 개선했다는 설명이다.마이데이터가 본격 시행되면 사업자가 고객을 대신해 금융사 사이트에 접속해 화면을 읽어내는 스크린 스크레이핑 방식은 전면 금지되고, 데이터 표준 API를 통해 금융기관 등에 흩어진 정보를 받게 된다.시행일부터 일부 대부업체를 제외한 대부분의 제도권 금융사 417곳의 정보를 받을 수 있으며, 국세 납세증명 자료도 조회할 수 있다. 현재 제공하지 않는 국세·지방세·관세 납부 명세나 건강보험, 공무원연금·국민연금 보험료 납부내역 등 공공정보는 올해 상반기 안에 추가 제공이 가능하도록 협의 중이다.금융당국은 마이데이터 특별대응반을 꾸려 특이사항을 실시간 모니터링하며 안정적인 서비스가 제공될 수 있도록 지속 점검할 예정이다. 마이데이터 서비스가 금융소비자보호법과 충돌할 수 있다는 우려에 대해선 금융규제 샌드박스 등을 통해 보완이 필요한 사항을 적극적으로 검토해 소비자 편익을 높이겠다고 강조했다.금융당국 관계자는 "마이데이터 서비스 시행으로 더욱 엄격해진 정보보호·보안 체계 속에서 소비자들이 안전하게 자산 관리를 할 수 있을 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>2022.01.06.</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>리스크 높지만 한 곳만 상장해도 '대박'...자산의 10% 이내 여유자금으로 투자</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/024/0000072530?sid=101</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>[투자의 뉴 패러다임] (5) 스타트업과 함께 성장하라스타트업 투자에 관심을 보이는 개인 투자자가 늘어난다. 사진은 비상장 기업 거래 플랫폼 K-OTC. 과거 스타트업 투자는 큰손이나 전문가 혹은 기관의 영역이라는 인식이 강했다. 요즘에는 개인 중에도 스타트업에 자금을 넣는 사람이 많다. ‘선(先)학개미’라는 신조어가 나왔을 정도다. 알짜 기업을 일찌감치 발굴해 투자하는 개인을 가리킨다.스타트업에 관심이 쏠리는 이유는 시장 성장이다. 몇 년 전까지만 해도 한국 창업 시장은 크게 관심받지 못했다. 하지만 우아한형제들, 쿠팡 등 벤처로 시작해 큰 기업으로 성장한 업체가 하나둘 나타나면서 스타트업을 바라보는 시선이 달라졌다. 공모주 열풍 역시 스타트업에 관심이 쏠리는 계기가 됐다. 증시 입성 직후 주가가 큰 폭으로 뛰는 공모주가 여럿 등장하자 잠재력이 큰 종목을 선점하려는 수요가 늘었다.손쉽게 비상장 주식을 사고파는 거래 플랫폼이 활성화된 것도 스타트업 투자 활성화에 기여했다. 2019년 서비스를 시작한 ‘증권플러스 비상장’은 2021년 8월 누적 다운로드 100만건을 넘어섰다. 2020년 12월 나온 ‘서울거래 비상장’에서도 야놀자, 비바리퍼블리카(토스) 등 우량 기업이라 평가받는 스타트업 주식이 활발하게 거래된다. 금융투자협회가 운영하는 장외 주식 거래 서비스 K-OTC 역시 성장세가 가파르다. 2021년 초부터 12월 28일까지 거래대금은 1조3920억원. 2020년 기록한 연간 최고 금액(1조2766억원)을 뛰어넘었다.개인투자조합을 통한 투자도 활발하다. 개인들이 자금을 모아 공동으로 신생 기업에 투자하는 방식이다. 출자 총액 1억원 이상, 출자자 1인당 100만원 이상, 조합원 수 49인 이하가 구성 요건이다. 한국엔젤투자협회에 따르면 국내 개인투자조합 수는 2019년 978개, 2020년 1437개, 2021년 11월 2114개로 가파르게 증가했다.증권사 리서치센터도 장외 주식 리서치를 강화하는 모습이다. DB금융투자는 ‘투자의 시대-비상장기업’ ‘비상장 투자여행’ 시리즈를 연재한다. KB증권 역시 ‘케이비 비상장 어벤져스’ 시리즈를 통해 유망 비상장 기업을 소개한다. 그간 직방, 가정간편식 제조사 프레시지 등을 다뤘다.스타트업 투자는 포트폴리오에 포함된 기업 중 한 곳만 상장해도 다른 곳에서 발생한 투자 손실을 상쇄하고도 남는 수익을 낼 수 있다. 김세영 PSX(서울거래 비상장 운영사) 대표는 “눈여겨본 기업이 산업을 어떻게 바꾸는지, 시장에서 평가하는 가치는 어느 정도인지 등을 꼼꼼하게 따져본 뒤 자금을 넣는다면 상장 주식보다 자산을 불리기에 더 좋다”고 설명한다. 하지만 고위험·고수익 투자법인 만큼 여유자금으로 분산 투자하라는 조언이 뒤따른다. 김세영 대표는 “스타트업 중에는 성공하는 곳보다 실패하는 곳이 더 많다. 악재가 부각되면 주식을 처분하기 어려워질 수 있다. 꼼꼼한 기업 분석, 분산 투자는 필수”라고 덧붙였다. 한국엔젤투자협회 측도 “자산의 10% 이내 여유자금으로 투자하라”는 의견이다.자금을 회수하기까지 오랜 기간이 걸린다는 것도 염두에 둬야 한다. 김재학 마이퍼스트에셋자산운용 대표는 “투자 후 5년 안에 상장하면 홈런, 7~8년 내에 상장하면 평타”라고 설명한다. 소액으로 시작해 천천히 투자 규모를 늘리라는 조언, 공신력 있는 벤처캐피털(VC)이 투자한 기업 위주로 포트폴리오를 구성하라는 조언도 새겨들음직하다.[본 기사는 매경이코노미 제2141호 (2022.01.05~2021.01.11일자) 기사입니다]</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>2022.01.04.</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>이야기모바일, 네이버·페이코·토스 인증서 도입</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004766523?sid=101</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>다양한 전자서명 인증 서비스 추가 도입하며 사용자 편의성 증진  큰사람커넥트의 알뜰폰 브랜드 ‘이야기모바일’이 전자서명 인증 서비스를 도입했다고 밝혔다.   기존 알뜰폰 사용자의 경우, 본인 인증 수단이 신용카드 및 범용 공인인증서로 제한되어 있어 신용카드를 소유하고 있지 않은 사용자는 별도의 비용을 지불한 후 범용 공인인증서를 발급받아야 하는 등 불편함이 있었다.   이에 이야기모바일은 네이버, 페이코 외에도 PASS, 토스 등의 다양한 전자서명 인증 서비스를 추가 도입하며 사용자의 편의성을 증진시켰다.   전자서명 인증 서비스는 비밀번호 입력 또는 생체 인식 등으로 손쉽게 인증이 가능하기 때문에 번거로운 절차를 거치지 않고도 온라인 가입과 셀프개통을 이용할 수 있다.   이야기모바일 관계자는 “최근 당사 알뜰폰 요금제에 대한 관심이 높아지고 있는 가운데 이번 간편 인증 서비스 도입으로 고객들의 편의가 대폭 개선되어 알뜰폰 가입에 대한 진입 장벽을 낮출 수 있을 것으로 기대된다.”라고 전했다.   한편, 큰사람커넥트는 1996년 설립 이후 SKT, LGU+, KT 3가지 통신사의 망을 임차하여 사용하는 MVNO 서비스를 진행 중이며 서울산업진흥원(SBA)의 하이서울브랜드로 선정된 바 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>2022.01.03.</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>3일부터 방역패스 유효제…만료자는 '딩동' 알림음</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/437/0000285379?sid=102</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>지난 2일 오후 서울 종로구의 한 식당에 방역패스(접종증명·음성확인제) 관련 안내문이 붙어 있다. 〈사진=연합뉴스〉        오늘(3일)부터 신종 코로나바이러스 감염증(코로나19) 백신 방역패스(접종증명·음성확인제) 유효기간 제도가 시행됩니다.      질병관리청에 따르면 오늘 0시부터 방역패스에 유효기간이 설정됐습니다. 유효기간은 코로나19 백신 접종 이후 180일까지이며 이 기간이 경과하면 방역패스를 인정받을 수 없습니다.      이에 따라 오늘 기준으로 지난 7월 6일 이전에 2차 접종을 완료한 사람들은 식당, 카페 등을 이용할 때 3차 접종을 받거나 PCR 검사 음성 확인서 등을 통해 감염 전파력이 없다는 사실을 증명해야 합니다.       질병관리청 중앙방역대책본부(방대본) 집계 결과를 보면 어제(2일)까지 방역패스 유효기간 만료 대상자 563만명 중 92%인 518만명이 3차 접종을 받았습니다. 4000명은 3차 접종 예약을 마쳤습니다.      나머지 43만 6000명은 3차 접종을 받지 않고 예약도 하지 않아 유효기간이 만료됩니다.      오는 9일까지는 계도기간이어서 방역패스 위반으로 과태료 등 행정 처분이 내려지지는 않습니다. 이후 오는 10일부터는 계도기간이 종료돼 유효하지 않은 방역패스로 다중시설을 몰래 이용하다 적발되면 과태료 10만원이 부과됩니다.    지난달 14일 점심시간 서울 중구 세종대로의 한 카페에서 시민들이 예방접종증명서(QR코드) 확인 받기 위해 줄을 서 있다. 〈사진=연합뉴스〉        바뀐 인증 시스템에 QR 코드를 인식시키면 유효기간 만료 여부에 따라 다른 알림음이 나옵니다. 현재는 '접종 완료 후 14일이 경과되었습니다'라는 안내 음성이 나오는데 앞으로는 유효기간이 남은 경우에만 '접종완료자입니다'라는 음성이 나옵니다.      6개월의 유효기간이 만료된 접종증명서를 찍으면 '딩동' 소리가 나옵니다.      3차 접종력과 2차 접종 후 경과일은 코로나19 전자예방접종증명(COOV·쿠브)뿐 아니라 네이버와 카카오, 토스 등 민간 플랫폼에서도 확인할 수 있습니다.시설관리자는 이용자의 방역패스를 확인할 때 이를 살펴야 합니다. 만약 방역패스를 소지하지 않았다면 시설 이용이 불가함을 안내해야 합니다. 또 시스템 개선에 맞춰 전자출입명부(KI-PASS) 앱을 업데이트해야 합니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>2022.01.05.</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>‘손안의 금융비서’ 기대 크지만… 과열경쟁·보안 우려도</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/021/0002498765?sid=101</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>마이데이터 서비스 시작업계 사활 걸고 고객 쟁탈전 일부선 가이드라인 위반 논란‘내 손안의 금융비서’인 마이데이터 서비스가 5일 정식 서비스를 시작했다. 33개 마이데이터 사업자가 응용프로그램인터페이스(API) 방식으로 서비스를 제공한다. 소비자는 맞춤형 금융서비스를, 사업자는 신성장 동력을 마련할 기회로 평가받지만 안착을 위해 풀어야 할 숙제가 여전하다는 평가가 나오고 있다. 과도한 경쟁으로 일부 업체는 금융당국의 가이드라인까지 위반하고 있는데 정작 보안문제, 오프라인과의 연계, 기존 서비스와의 차별화에서는 문제가 속출하면서 ‘반쪽짜리’ 서비스에 머물 수 있다는 우려도 제기된다.금융권에서는 마이데이터 사업을 계기로 ‘주거래 은행(금융사) 지위’를 가져올 수도 있다는 인식이 확산하면서 사활을 건 경쟁이 시작되고 있다. 이 과정에서 인터넷은행으로 진출한 금융플랫폼 ‘토스’는 고객들의 서비스 가입 절차를 구축하면서 금융당국이 정한 가이드라인을 위반해 논란을 부르기도 했다. 토스는 기존 고객들을 API 방식으로 연결하는 과정에서 사용자가 일일이 연결기관을 선택하도록 한 규정을 일괄 연결하도록 했다. 업계의 비판과 당국의 경고가 제기되면서 현재 관련 절차를 개선한 상태다.과당경쟁 양상을 보이고 있지만 정작 서비스 안착에 필요한 과제 수행은 더디다는 비판도 나온다. 마이데이터 서비스는 API 방식으로만 정보를 수집할 수 있어 정보 수집 과정에서의 보안 강화가 기대됐지만 오히려 시범 서비스 기간 보안 문제가 발생했다. 지난달 발생한 네이버파이낸셜의 정보누출 사태는 API 방식 서비스 과정에서 발생해 금융업계에서는 “엄격한 검증과 이중삼중의 견제 장치가 필요하다”는 평가가 나오고 있다.기존 서비스와 차별점이 미미하다는 점도 개선해야 할 부분이다. 현재의 마이데이터 서비스는 흩어진 금융정보를 한눈에 볼 수 있는데 그칠 뿐, 맞춤형 자산관리와 금융 컨설팅이 이뤄지긴 어려운 상황이다. 추가 서비스가 뒷받침되지 않으면 기존의 ‘오픈뱅킹’ 서비스와 차별성을 찾기 어렵다. 오프라인으로 확장성이 부족하다는 평가다. 고객들은 은행을 온라인과 오프라인 방식으로 모두 활용하는데 마이데이터 서비스는 온라인에 국한돼, 은행을 내점한 고객에는 아무런 영향을 미치지 않는다. 한 금융권 관계자는 “과열 경쟁에 따른 부작용도 이해하지만 해당 문제가 서비스 활용 방식에 제약을 가져오는 면도 있다”며 “종합적 자산관리를 할 수 있도록 앞으로 제도 개선을 해 나가야 할 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>2022.01.05.</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>[금융계 뉴트렌드]③ 신용 없어도 일단 쓰고 나중에 지불… MZ세대 겨냥한 후불결제</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000785071?sid=101</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>한 소비자가 미국 룰루레몬 온라인 홈페이지에서 요가복을 골라 장바구니에 담는다. 곧 주소 입력창이 뜨면 옆에서 ‘어떻게 결제하겠느냐’고 묻는다. 익숙한 신용카드사 이름 대신 페이팔 같은 간편결제 플랫폼이 보인다. 그런데 이전에 페이팔 아이콘이 있던 자리에는 생소한 이름이 보인다. ‘클라르나(Klarna)’와 ‘애프터페이(Afterpay)’다.클라르나(Klarna)와 애프터페이(Afterpay)는 둘 다 ‘선구매 후결제’ 서비스를 제공하는 핀테크 기업이다. 영어로는 ‘Buy Now, Pay Later’의 약자를 따 ‘BNPL’ 서비스라 불린다.소비자가 BNPL 방식으로 결제하면 결제 업체가 가맹점에 먼저 대금을 지불하고, 소비자는 여러 차례에 걸쳐 결제 업체에 돈을 갚게 된다.예를 들어 앞서 말한 룰루레몬에서 30만원짜리 요가복을 사고 싶지만 당장 돈이 없는 소비자라면, 클라르나나 애프터페이 같은 BNPL 결제 업체를 이용해 물건을 먼저 사면 된다. 대금은 소비자가 결제 버튼을 누르는 즉시 클라르나나 애프터페이가 가맹점에 전액 지급한다.전 세계적으로 BNPL 시장은 빠르게 성장하고 있다. /조선비즈DB        언뜻 들으면 “신용카드와 뭐가 다른데?”라고 생각할 수 있다. BNPL은 소비자 신용등급이 필요 없다. 발급과 한도 설정을 위해 까다로운 신용 조건을 요구하는 신용카드와 달리 18세 이상이면 누구나 이용할 수 있다. 또 신용카드로 할부 서비스를 이용하면 꽤 높은 할부 수수료가 붙지만, BNPL은 따로 수수료도 없다.BNPL 업체는 소비자에게는 신용등급을 묻지도 따지지도 않고, 심지어 수수료도 받아 챙기지 않는다. 대신 가맹점에서 높은 수수료를 받아 수익을 올린다. 보통 신용카드 가맹점 수수료가 1~2% 초반 수준이라면 BNPL 업체들은 가맹점 수수료를 5~7%까지 받는다.룰루레몬, 아디다스, 월마트 같은 가맹점들은 두 배가 넘는 수수료를 물어가면서도 BNPL 결제를 도입했다. 돈과 신용등급은 없지만, 구매 욕구만큼은 누구보다 강한 MZ세대(1980~2000년대 출생) 소비자들이 BNPL에 열광하기 때문이다. BNPL을 잡아야 MZ세대가 지갑을 연다는 뜻이다.특히 신종 코로나 사태 이후 주머니 사정이 어려워지자 MZ세대를 중심으로 BNPL 사용자는 급증하고 있다. 2005년 설립한 스웨덴의 BNPL 플랫폼 클라르나는 미국 내 2000만명을 포함해 전 세계에서 9000만명을 사용자로 확보하며 선두주자로 치고 나섰다.애프터페이는 호주를 중심으로 1000만명이 사용한다. 세계 최대 간편 결제 기업 페이팔이나, 전통적인 신용카드업계 강자 아메리칸익스프레스 같은 대기업들이 클라르나와 애프터페이를 뒤따라 갈 정도로 판이 바뀌었다.주요국 지폐들 사이로 가동 중인 클라르나 애플리케이션. /로이터연합뉴스        BNPL의 저력은 ‘전 세계 최대 쇼핑 행사’라는 블랙프라이데이에서도 드러났다. 댄 슐먼 페이팔 최고경영자(CEO)는 지난해 11월 “올해 블랙프라이데이 기간 BNPL 사용량이 지난해 같은 기간에 비해 400% 늘어났다”며 “블랙프라이데이 당일에만 75만 건이 넘는 BNPL 거래를 처리했다”고 밝혔다.다만 편리한 만큼 ‘빚’이라는 인식을 못 느끼게 하고, 갚을 능력을 넘어서는 소비를 부추긴다는 우려의 목소리도 나온다. 미국 자산관리 플랫폼 크레딧 카르마(Credit Karma) 조사에 따르면 BNPL 사용자 가운데 3분의 1은 결제 시기를 놓쳤고, 그중 72%는 신용점수가 하락한 것으로 나타났다.이미 미국 소비자금융보호국(CFB)은 BNPL 결제 업체 서비스가 가진 위험요인에 대한 조사에 들어갔다. 지난 16일 CFB는 “소비자들이 BNPL을 통해 빌린 돈을 제대로 갚을 수 있는 지 사실상 불확실하다”며 “BNPL 관련 규제와 공시제도 준수 여부, 업체들의 데이터 수집 등을 조사할 것”이라고 발표했다.미국 뿐 아니라 영국 역시 재무부가 앞장 서 업체들과 BNPL 규제안을 놓고 논의 중이다. 클라르나의 본고장인 스웨덴은 인터넷 홈페이지에서 직불카드나 신용카드에 앞선 결제수단으로 BNPL을 설정할 수 없도록 직접적인 규제에 나섰다.이에 대해 미국 경제 금융 전문 TV 채널인 CNBC는 전문가를 인용해 “앞으로 나올 관련 규제가 BNPL 성장성을 둔화시킬 수 있다”고 평가했다.그래픽=이은현        국내에서는 일부 빅테크사가 선제적으로 BNPL을 도입해 운영하고 있다. 그러나 미국만큼 폭발적인 반응은 아직 나타나지 않고 있다.네이버파이낸셜은 지난 4월부터 네이버페이 가입자 일부를 대상으로 ‘후불결제’를 시범 서비스 중이다. 월 최대 30만 원까지 네이버 스마트스토어 후불결제가 가능하다.쿠팡 자회사 쿠팡페이도 로켓와우 멤버십 회원 가운데 일부를 대상으로 ‘나중결제’ 서비스를 운영하고 있다. 월 50만 원 한도이며, 다음달 15일까지 일괄 지불하는 방식이다.카카오페이는 올해 안으로 충전금 없이 월 최대 15만 원까지 후불 결제가 가능한 모바일 교통카드를 출시할 계획이다. 토스뱅크는 내년 3월 중 관련 서비스를 선보이는 방안을 검토 중이다.고은아 하나금융경영연구소 수석연구원은 “BNPL 서비스는 소비자에 할부 이자나 수수료를 부과하지 않아 소비를 촉진시키는 반면, 가맹점에 높은 결제 수수료를 부과해 최종 상품 가격에 영향을 줄 수 있다”며 “서비스 이용자들의 채무상환 능력을 고려하지 않은 할부 거래를 원칙으로 하기 때문에 부채를 증가시켜 장기적으로 경제 기반을 흔들 수 있는 위험 요소를 감안해야 한다”고 조언했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>2022.01.04.</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>로톡, 법적 리스크 해소?...변협 "아직 끝나지 않아"</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/293/0000037513?sid=105</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>정재성 로앤컴퍼니 부대표가 경찰수사에서의 3가지 쟁점에 대해 설명하고 있다. (사진=온라인 기자간담회 갈무리)법률플랫폼 ‘로톡’을 운영하는 로앤컴퍼니가 ‘변호사법 위반’과 관련해 수사기관으로부터 세 번째 ‘무혐의’ 판정을 받은 것에 대해 ‘법적 리스크’가 해소됐다고 평가했다. 하지만 변호사단체는 아직 수사가 종결되지 않았고, 여전히 불법 소지가 다분하다는 주장이다.4일 오전 로앤컴퍼니는 온라인 기자간담회를 열고 지난달 31일 로톡 서비스의 변호사법 및 개인정보보호법 위반 혐의 고발 사건을 수사해온 서울경찰청이 로톡의 모든 혐의에서 ‘혐의 없음’이라 결론 짓고 수사를 종결한다는 불송치 결정을 내린 것에 대해 조목조목 설명하며 서비스의 합법성을 강조했다. 해당 수사는 지난 2020년 11월 이종엽 대한변호사협회(대한변협) 협회장과 김정욱 서울지방변호사회(서울변회) 회장이 로앤컴퍼니를 경찰에 고발한 데 따른 것이다. 쟁점은 크게 3가지였다. △로톡이 받는 광고비가 변호사법이 금지하는 중개·알선료인가 △로톡은 특정한 변호사를 소개하고 있는가 △형량예측 서비스는 변호사만이 할 수 있는 업무인가 등이다. 이에 대해 경찰은 각각 △로톡은 수임과 무관한 광고비만 수취 △로톡은 다양한 변호사 선택을 돕는 플랫폼 △리걸테크 기업도 형량예측 서비스 제공 가능 등으로 판단했다.첫 번째 쟁점과 관련해선 현재 로톡은 변호사로부터 수수료, 소개료, 상담료 등을 받지 않고 광고료만 받고 있으므로 이는 사건 수임의 대가가 아니라는 것이 경찰의 판단이다. 로톡을 변호사가 주체적으로 대중에게 홍보할 수 있는 ‘광고 매체’로 본 것이다. 두 번째 쟁점과 관련해서도 경찰은 로톡을 불특정 다수의 법률 소비자들이 불특정 다수의 변호사들을 검색해 이용하는 ‘다(多)대다(多)’ 구조의 ‘광고 플랫폼’으로 봤다. 더불어 광고 영역에서 노출되는 변호사 순서가 동일한 확률로 랜덤하게 노출되는 점을 고려해 특정 변호사를 소개해 주는 구조가 아니라고 봤다.마지막으로 고발인 측은 로톡의 형량예측 서비스를 ‘변호사법에서 금지하는 법률사무의 취급’이라고 주장했는데 경찰은 수십만 건의 판결문을 AI(인공지능) 기술로 통계 분석하는 것이 변호사 고유의 업무인 법률사무 취급으로 볼 수 없다고 판단했다. 해당 서비는 무료로 제공돼 ‘유상성’이라는 요건도 충족하지 않는다.이날 로앤컴퍼니는 이로써 그간의 ‘법적 리스크’가 해소된 것으로 평가했다. 수사기관으로부터 세가지 쟁점에 대해 무혐의 판정을 받았기 때문이다. 지난 2015년 서울변회와 2017년 대한변협이 로앤컴퍼니를 각각 고발했지만 모두 서울중앙지방검찰청이 ‘혐의없음’으로 불기소 처분한 바 있다. 여기에 변호사법 주무부처인 법무부가 그간 “로톡은 ‘광고형 법률 플랫폼’으로 현행 변호사법을 위반한 부분이 없다”고 여러 차례 밝혀왔다.정재성 로앤컴퍼니 부대표는 “단 한 번도 불법 플랫폼 판단을 받은 적 없다”면서 “대한변협이 그간 여러 차례 로톡을 불법 플랫폼으로 단정하는 건 합법의 역사를 무시하는 것”이라고 비판했다. 그러면서 “대한변협의 로톡 이용 변호사 징계도 로톡이 불법이라는 전제 하에 이뤄진 것이기 때문에 징계 근거의 정당성을 상실했다”면서 “앞으로 로톡을 불법 플랫폼이라 주장하면 법적 책임을 물을 것”이라고 강조했다.(사진=로톡)대한변협 "이의신청 예정...성급한 여론호도 부적절"하지만 이날 대한변협은 논평을 내고 지난달 31일 경찰의 로앤컴퍼니 불송치 결정에 대한 유감을 표명했다.대한변협은 먼저 이번 결정이 경찰의 수사 중 발생한 상급기관의 부적절한 의견 개진 등으로 공정하게 진행되기 어려운 상황이었다는 점을 지적했다. 법무부가 그간 로톡이 합법이라는 취지의 발언을 공개적으로 여러 차례 밝힌 것이 경찰 수사에 부당하게 혼선을 일으키는 내용일 수 있었다는 것이다.더불어 경찰의 결정이 금융상품 정보 제공과 관리 기능 등을 제공하는 카카오페이나 토스 등과 같은 금융플랫폼들이 겉으론 광고를 표방하지만 실질은 중개행위에 해당해 단순 광고 대행으로 볼 수 없다고 한 지난해 금융당국의 해석과 비교했을 때도 배치된다고 주장했다. 이에 관련 금융플랫폼들은 금융소비자보호법 위반 소지를 해소하기 위해 지난해 9월부터 금융상품 중개업체로 등록하고 영업을 해야 했다. 로톡 역시 광고를 표방하지만 ‘실질’은 중개를 위한 것으로, 광고료 명목으로 받는 비용이 사건 수임의 대가이기 때문에 변호사법을 위반한다는 것이다.광고료를 지불한 변호사를 ‘프리미엄 로이어(액티브 로이어)’라는 상단 광고 자리에 위치시킨 것 또한 금전을 지급한 변호사를 마치 능력이 탁월한 변호사처럼 소개해 소비자를 기망하는 것이라고 지적했다. 지난 2015년 검찰로부터 받은 무혐의 판단은 과거 로앤컴퍼니가 형량예측 등 위법성이 높은 서비스를 운영하지 않았던 시절이므로 지금과 단순 비교하기 어렵다고도 했다.이와 함께 로톡 서비스가 네이버 엑스퍼트 서비스와도 다르지 않다고 했다. 지난해 변호사법 위반 혐의로 고발된 네이버 엑스퍼트 서비스는 지난해 7월 경찰에서 불송치 결정을 받았지만, 지난달 2일 검찰에서 보완수사 요구 결정이 나온 바 있다. 이에 이날 기자간담회에서 로앤컴퍼니는 네이버 엑스퍼트는 각 변호사의 상담료에 대한 결제 수수료를 받는 것이고, 로톡은 정액 광고비만 수취하기 때문에 서비스가 다르다고 해명하기도 했다. 하지만 이에 대해서도 대한변협 측은 “정액 광고료도 ‘실질’은 판매 수수료나 수임 서비스 등을 광고료 명목으로 변호사로부터 선금 형식으로 받는 것”이라면서 “광고료를 아예 안 내면 법률 상담이나 선임기회를 얻지 못하니까 여전히 불법 소지가 다분하다고 보고 있다”고 전했다.대한변협은 또 로앤컴퍼니와 관련해 현재 수사가 진행 중인 별개의 형사사건이 있다며 로앤컴퍼니의 성급한 여론 호도가 검찰의 판단 등 이어질 수사에 적극 개입하겠다는 매우 부적절한 것이라고 비판했다. 관련 수사는 지난해 9월 청년변호사단체인 한국법조인협회가 로앤컴퍼니를 형사고발한 것을 말한다. 고발 내용은 로앤컴퍼니가 사업 존속이 어려움에도 중소벤처기업부 ‘예비 유니콘’에 선정됐다는 것이다.대한변협은 경찰의 이번 불송치 결정이 1차 판단일 뿐이라고 설명했다. 이에 해당 고발을 진행한 직역수호변호사단 측이 조만간 이의신청을 할 예정이다. 대한변협 관계자는 “불송치 결정됐다 하더라도 이의신청을 하면 검찰로 자동송치가 된다”면서 “이의신청을 예정하고 있어 종결된 사건이 아니다”고 못 박았다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>2022.01.03.</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>토스 "코로나19 방역패스 토스 QR에서 확인하세요"</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005024879?sid=101</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>토스가 새로운 QR 접종증명서(방역패스) 서비스를 제공한다고 3일 밝혔다.질병관리청의 방역패스 도입에 맞춰 오픈한 새로운 QR 서비스에서는 3차 접종(부스터) 여부, 2차 접종(얀센은 1차) 후 경과 기간 등을 확인할 수 있다. 특히, QR 화면에서 ‘접종완료 00일 경과' 메시지를 확인할 수 있어 방역패스 유효기간(접종 14일 이후부터 180일까지) 만료 이전에 부스터샷 접종 계획을 세울 수 있다.종이로만 발급이 가능했던 완치확인서, 예외확인서(의학적 사유로 인한 접종 예외) 관련 내용도 종이증명서 없이 QR 체크인만으로 증명할 수 있다. 기존 QR 에서는 출입 증명 목적의 백신 2차 접종 이력까지만 조회가 가능했다.사용자는 토스 앱을 업데이트만 하면 새로운 QR 서비스를 바로 이용할 수 있다.토스는 방역패스 계도기간이지만 좀 더 많은 사용자들이 빠르게 새로운 QR 체크인 서비스를 만나볼 수 있도록 전체 유저에게 서비스를 오픈했다. 빠르고 간편한 다중이용시설 출입을 위해 앱 실행 후 첫 화면 상단에서 QR 체크인 서비스를 손쉽게 이용할 수 있으며 위젯 기능도 제공하고 있다.토스 관계자는 “토스에서는 디지털 환경이나 앱 서비스에 익숙하지 않은 사용자라도 누구나 직관적으로 QR 서비스를 활용할 수 있도록 서비스를 고도화해 나가고 있다"며 “방역패스 유효기간 안내 뿐 아니라 해외 백신 접종 내역 등 다양한 증빙을 손쉽게 이용할 수 있는 편리한 서비스를 만들어 나가겠다"고 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>2022.01.10.</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>윤종규 KB금융 회장 "모바일뱅킹 플랫폼, 더 빠르고 간편해야 빅테크 이길 수 있다"</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004651189?sid=101</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>2022 금융리더에게 듣는다 - 윤종규 KB금융 회장카뱅보다 낮은 시총 인정하고최신 기술로 플랫폼 혁신해야자산관리·상담기능 접목 땐 승산“자산과 이익 규모에서 많은 격차가 있음에도 불구하고 KB금융보다 인터넷전문은행이 시장에서 더 높은 평가를 받고 있다. 시장의 이런 냉정한 평가를 겸허하게 받아들여야 한다.”윤종규 KB금융지주 회장은 새해를 이런 ‘반성문’으로 시작했다. 고객과 임직원, 주주에게 전하는 신년사를 통해서다.KB금융은 고객 수(3600만 명), 총자산(650조원), 순이익(작년 3분기 누적 3조7700억원) 등에서 카카오뱅크(총자산 35조원, 순이익 1700억원)보다 훨씬 앞서고 있다. 그런데 기업 가치(시가총액)는 24조336억원(1월 10일)으로 카뱅 24조2806억원보다 적다. 한때 그 격차가 10조원 이상이었지만 최근 카뱅 주가가 떨어지면서 크게 좁혀졌다.윤 회장의 반성문에서 ‘카뱅 주가가 고평가돼 있다’나 ‘KB금융이 저평가돼 있다’는 논리로 시장의 평가를 외면하지 않겠다는 의지를 읽을 수 있다. KB금융은 지난해 연간으로 4조원이 넘는 순이익을 거둔 것으로 추정된다. 사상 최대 규모이지만 그룹 안팎에서는 ‘최후의 만찬’이 될 수 있다는 위기감도 돌고 있다.카뱅에 이어 올해부터는 케이뱅크와 토스뱅크의 대대적인 침공이 예고돼 있다. 전열을 정비한 케뱅과 토뱅은 연초부터 낮은 가격(저금리)의 신용대출로 KB금융의 안방을 정조준하고 있다. 카뱅은 조만간 100% 비대면 주택담보대출을 내놓는다. 인터넷은행 3인방의 공세에 가장 큰 타격을 받는 곳이 바로 소매금융의 리딩뱅크인 국민은행이다. 대형 은행이 사이좋게 나눠먹었던 ‘파이’는 자연스럽게 줄어들 것이다. 5대 은행이 ‘과점 형태’로 장악하고 있는 시장 판도에 지각변동이 불가피하다.윤 회장은 지난 7일 그룹 상반기 경영전략회의에서 ‘넘버원 금융플랫폼’ 비전을 언급하며 ‘3S(simple, speedy, secure)’를 강조했다. 인터넷은행에 대응하기 위해 모바일뱅킹 플랫폼을 “더 신속하게 간편하고 안전하게 만들어야 한다”는 것이다. KB금융의 간판 플랫폼 ‘KB스타뱅킹’ 가입자는 현재 1170만 명. 전체 온·오프라인 고객 3600만 명의 절반에도 못 미친다. 카뱅 가입자는 1800만 명에 이른다.윤 회장은 “디지털 세상으로 변하고 있는데 전통 은행들이 빅테크, 나아가 글로벌 빅테크와의 경쟁에서 이길 수 있느냐는 물음을 저를 포함해 모든 임직원에게 던진 것”이라고 설명했다. 그는 “고객 중심 디지털플랫폼 제공을 통해 3600만 고객이 KB금융그룹 안에서 편리하게 원스톱 서비스를 이용할 수 있게 해야 한다”고 말했다. 인터넷은행이 갖지 못한 ‘자산관리 서비스’와 오프라인 상담 기능까지 모바일에 접목하면 빅테크와의 경쟁에서 충분히 승산이 있다는 게 윤 회장 생각이다.윤 회장의 비전이 성과를 내려면 가시밭길을 뚫어야 한다. 무엇보다 거대 조직의 디지털 전환이다. 플랫폼 기술은 뛰어난 개발자 수백~수천 명을 투입하면 성과가 곧바로 나온다. 하지만 디지털 환경에서 1만5000명 은행 직원의 생산성을 끌어올리기는 쉽지 않다. 툭하면 ‘행장 물러나라’고 소리치는 강성 노조가 버티고 있다. 노조 동의 없이는 인력 재편이 어려운 데다, 무턱대고 구조조정을 밀어붙일 수도 없다. 적자 점포 폐쇄도 지방자치단체와 정치권 등 외부 눈치를 봐야 한다. 윤 회장은 “디지털 적응을 위해 전사적으로 ‘리스킬-업스킬(reskill-upskill)’ 운동을 펼칠 계획”이라며 “소통과 협업을 통해 학습하는 조직문화를 정착시키겠다”고 강조했다.장진모 마켓부문장 겸 금융부장</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>2022.01.07.</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>'50만원' 준다길래 면도했는데 '1원' 줬다…유튜버 "고소하겠다"</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004693205?sid=102</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>유튜버 구제역 면도 전과 후 /사진=유튜브 채널 구제역유튜버 구제역(본명 이준희)이 실시간 방송사기 피해를 주장하며 "모든 수단과 방법을 동원해 고소하겠다"고 밝혔다.구제역은 지난 6일 자신의 유튜브 채널 커뮤니티 게시판에 "지난 라이브 방송에서 '면도 50만 원' 미션을 걸었고 원빈이라는 닉네임을 사용하는 시청자가 50만 원을 입금했기에 수염을 밀었다"며 "하지만 다시 한번 통장 명세를 확인해보니 입금자명이 '신협 500000'이었고 1원을 보냈다"고 적었다.이어 "그 당시 은행 점검 중이라 계좌 조회가 되지 않아 토스로만 확인해 벌어진 실수"라고 덧붙였다.구제역은 "당신의 별 생각 없이 한 장난으로 인해 반년 동안 기른 수염을 밀었고 수염은 둘째치고 고작 1원에 온갖 광대짓 한 게 너무나 치욕적이고 수치스럽다"며 "사용 할 수 있는 모든 수단과 방법을 동원해 당신을 고소하겠다"고 밝혔다.이어 "뭐로 고소할지는 직접 고소장을 받아보라"며 "기분 상해죄는 아닐 것"이라고 했다.그러면서 "보이스왁싱을 당했다"며 해당 내용으로 콘텐츠를 제작하겠다는 계획도 공개했다.구제역은 "최근 들어 많은 개인 방송하는 분들이 나처럼 리액션 '먹튀'를 당하는 경우가 종종 발생하고 있다"며 "리액션 '먹튀'가 처벌 대상인지 알아보기 위해 법률 전문 채널 유튜브 채널을 운영하는 변호사와 함께 방송을 진행한다"고 전했다.한편 구제역이 당한 이른바 '1원 사기'는 지난해 5월 숙박비로 1원만 보내고 수십만 원을 환불받는 형태로 악용되기도 했었다. 은행 앱으로 계좌이체 할 때 송금자 이름 대신 액수를 적어도 상관없는 점을 이용했다.유튜버 구제역이 면도를 조건으로 입금받은 내역 화면. 송금자 이름에 금액이 써 있고 실제 입금된 금액은 1원이다. /사진=유튜브 채널 구제역</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>2022.01.06.</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>[기업] 토스, 10억 원 규모 스타트업 경진대회 개최</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/052/0001686371?sid=101</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>모바일 금융서비스 토스는 투자 유치금 10억 원 규모의 스타트업 경진 대회 '파운드'를 개최한다고 밝혔습니다.토스는 국내외에서 유망한 예비 창업가와 스타트업 기업을 발굴하고 스타트업 생태계에 활력을 불어넣기 위해 대회를 마련했다고 설명했습니다.참가 신청은 오는 23일까지 대회 홈페이지에서 할 수 있습니다.※ '당신의 제보가 뉴스가 됩니다'[카카오톡] YTN 검색해 채널 추가[전화] 02-398-8585[메일] social@ytn.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>2022.01.10.</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>어르신, 금융앱 못 쓰면 年 180만원 손해 봐요</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/023/0003665156?sid=101</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>65세 부부 月생활비 90% 달해은행 수수료 더 내고 보험도 비싸인터넷은행 예금땐 年이자 37만원 더 받아							경기도 고양시에 사는 김영례(71)씨는 평소 알던 보험설계사를 통해 가입한 자동차보험(연간 보험료 82만원)을 몇 년째 연장하고 있다. 1년에 6000㎞ 정도 운행하기 때문에 주행거리만큼 보험료를 내는 인터넷보험사 캐롯손해보험의 ‘퍼마일’ 상품에 가입했다면 연간 34만원 정도를 아낄 수 있다. 김씨는 이런 보험이 있는지도 모른다.서울 월계동에 사는 차철홍(76)씨는 급할 때 집 근처 ATM(현금자동입출금기)을 자주 이용한다. 거래하는 은행이 아니라 낮에는 700원, 은행 영업시간 이후에는 1000원 수수료를 문다. 인터넷뱅크는 ATM 수수료가 무료다. 부의금을 보낼 경우 은행 창구에서는 타행 이체로 건당 2000원을 받지만, 간편 송금 서비스 업체인 ‘토스’로 송금하면 무료다. 매월 두세 번꼴인 경조사 때마다 수수료를 물지 않아도 된다.서울 시내에 주요 은행 ATM(자동화기기)가 나란히 설치되어 있다. /연합뉴스										9일 본지가 ‘보통 한국인’의 금융 생활을 토대로 예금, 송금, 대출 등 7개 항목에서 오프라인 창구를 이용하는 경우와 온라인 서비스를 활용하는 경우를 비교했더니 연간 최대 180만원 차이가 나는 것으로 집계됐다. 은행 예금 금액, 수수료 횟수 등에 따라 개인별로 차이가 날 수 있지만, 상당한 금액을 손해 보는 것이다.180만원은 지난해 국민연금연구원이 계산한 65세 이상 1인 가구 월 생활비(130만원)보다 많고, 부부 월 생활비(210만원)의 약 90%에 달하는 돈이다. 금융 앱 등 온라인 서비스를 활용할 수 있다면 한 달 치 생활비가 생긴다는 계산이 나온다.집 근처 은행 지점이나 ATM만 이용하는 고령층 창구족과 디지털 금융 서비스를 이용하는 온라인족의 이자 수익, 수수료 부담 등 금융 비용 격차는 갈수록 더 벌어지고 있다. 특히, 인터넷전문은행, 온라인 간편송금업체, 온라인 대출중개업체 등 금융과 IT를 융합한 핀테크 업체가 등장하면서 격차가 더 빠르게 커지는 중이다.단적인 예로, 보통예금 이자의 경우 인터넷전문은행에서 온라인으로 가입하면 은행 지점 창구에서 가입할 때보다 연간 이자가 37만원 많다. 시중은행 평균 이자는 연 1.51%인데, 인터넷은행은 연 2%로 높다. 가구당 평균 저축액 7632만원을 기준으로 계산하면 시중은행은 연간 이자가 115만원이고, 인터넷은행은 152만원이다.◇인터넷은행, 온라인 송금 업체 등 이용도 낮아인터넷전문은행은 지점이 없고, 직원도 적어 시중은행보다 이자를 높여줄 수 있지만, 고령층은 수십 년 거래해 익숙해진 시중은행만 이용하는 경향이 있다. 신용대출 금리도 인터넷은행이 낮다. 한국은행에 따르면, 은행의 연평균 신용대출 금리는 평균 5.16%지만, 토스뱅크의 경우는 최저 연 3.31%다. 케이뱅크의 ‘직장인 신용대출’은 최저 연 3.76%다. 과거에는 금리 비교를 위해 ‘발품’을 팔아야 했지만, 요즘은 대출 비교 플랫폼 ‘핀다’에서 1분이면 52개 제휴 금융사 상품 가운데 금리가 낮고, 한도가 많은 최적의 대출 상품을 조회할 수 있다./그래픽=김성규										송금 역시 은행 지점만 이용하는 사람이 수수료 손해를 본다. 매달 10번, 한 번에 10만~100만원을 다른 은행 계좌로 이체한다면 1년에 24만원이 든다. 반면, 토스 앱 이용자는 금액이나 횟수에 상관없이 무료다. 꼭 인터넷은행이 아니어도 시중은행 모바일 앱만 이용해도 이런 비용을 줄일 수 있다.◇각종 온라인 할인에서도 격차 커져스마트폰으로 최대 10% 할인 구매할 수 있는 서울사랑상품권은 판매가 시작되면 10분 만에 발행 물량이 동이 날 정도로 인기를 끌고 있다. 사용 금액의 30%를 연말정산에서 소득공제로 돌려받을 수 있고, 사용처(소상공인 가맹점)도 식당, 카페, 학원 등으로 다양해졌다. 서울시가 지난해 1~9월 결제 현황(6990억원)을 분석해보니 30~40대의 결제 비율이 78%에 달했다. 반면, 60대 이상이 쓴 금액은 4%에 그쳤다. 페이코 등 서울사랑상품권을 구매할 수 있는 14개의 앱 중 하나를 스마트폰에 깔아야 구매와 결제가 가능해 고령층에게는 진입 장벽이 높다. 한 금융권 관계자는 “고령층이 썼다는 4%에는 월 구매 한도를 피해 3040세대가 부모 계정을 이용해서 구입한 경우가 상당수에 달할 것”이라고 했다.매달 고정적으로 지출되는 아파트 관리비(85㎡ 전국 평균 월 19만9750원)도 신세계상품권을 최고 7% 통신사 할인으로 구매해 쓱(SSG)페이로 충전해 납부하면, 은행에서 낼 때보다 연간 16만7800원이 줄어든다.스마트폰 앱이나 인터넷 사이트 등을 능숙하게 활용하는 젊은 층은 이자를 더 받거나, 비용을 낮출 수 있는 방법이 다양해지고 있지만 앱이라는 단어조차 익숙지 않은 고령층들은 손해를 보고 있는 셈이다. 디지털 활용 능력에 따라 정보 격차와 비용 격차가 커지는 ‘디지털 디바이드(digital divide)’ 현상이 심해지는 것이다.한국갤럽의 작년 3월 조사에 따르면, 응답자 가운데 1년 이내에 모바일 뱅킹 서비스를 이용한 경험이 있는 사람이 60대 이상은 남자 25%, 여자 22%에 불과했다. 다른 연령대에선 모바일 뱅킹 경험자가 90% 안팎이었다. 금융위원회 산하 비영리법인인 시니어금융교육협의회 관계자는 “노인들은 디지털 금융에 대한 심리적 장벽이 큰 데다 자식들이 부모의 보이스피싱 피해를 우려해 아예 스마트폰에 금융 앱을 깔지 못하게 하는 경우도 많다”며 “부모가 배우려는 의지가 있다면 옆에서 적극적으로 도와주는 게 중요하다”고 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>2022.01.10.</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>[2022 빅블러시대] 돈이 아니라 데이터 좆는 금융권, 빅블러 현상 가속</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002116783?sid=105</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>빅블러는 변화의 속도가 빨라지면서 존재하던 것들의 경계가 뒤섞이는 현상을 뜻한다. 코로나19 팬데믹 확산과 디지털 전환 가속화로 전세계에서 산업 간 경계가 허물어지는 빅블러 현상이 두드러지고 있다. 게임 룰이 바뀌고, 산업을 주도하는 기업이 달라지고, 비즈니스 영역 구분이 모호해졌다. 한국도 이에 빠르게 대응해 빅블러 시대 글로벌 주도권을 선점해야 한다는 목소리가 커지고 있다. 이와 관련 &lt;디지털데일리&gt;는 2022년 임인년을 새해를 맞아 IT 기업들의 합종연횡·신시장 개척 등 위기 대응 전략을 살펴보고 변화에 대응하는 모습을 조명한다. &lt;편집자주&gt;[디지털데일리 이상일기자] “은행 서비스는 필요하지만 은행은 아니다(Banking is necessary, banks are not)” 1994년 당시 마이크로소프트 회장이었던 빌 게이츠의 말이다.  이로부터 11년이 지난 2015년, 세계 최대 투자은행 중 하나인 골드만삭스의 로이드 블랭크페인 회장은 “골드만삭스는 정보기술(IT) 회사”라고 밝혔다. 한국에선 2018년 10월 하나금융 김정태 회장이 “미래의 하나금융그룹은 데이터를 활용해 고객에게 최고의 경험을 선사하는 ‘데이터 기반 정보회사’가 되어야 한다”며 디지털 비전을 선포했다. 지난 25년간 금융권은 상전벽해 수준으로 변화해왔다. IT기술의 발달과 함께 금융사 자체의 경쟁력도 커졌으며 서비스도 다변화됐다. 특히 우리나라는 금융공동망이라는 유례없는 은행권 공동 지급결제시스템을 중심으로 송금과 ATM 이용에 있어 글로벌 시장에서도 편의성 면에선 인정받기도 했다. 하지만 이는 은행, 증권, 보험, 카드 등 금융업 라이선스를 받은 금융사 위주의 폐쇄적인 생태계에 한정된 것이었다. 간편 송금으로 대변되는 토스의 등장과 인터넷전문은행인 케이뱅크, 카카오뱅크, 토스뱅크의 금융업 진출로 인해 금융 소비자들은 기존 금융사 DNA와 다른 기업이 금융시장에 뛰어들었을 때 보다 더 간편하고 편리한 서비스가 가능하다는 것을 경험했다. 여기에 전 세계적으로 불어닥친 핀테크 열풍과 블록체인, 가상자산, 대체 불가능한 토큰(NFT)와 같은 새로운 디지털 자산의 등장은 금융사 중심의 지급결제 시스템에도 변화를 일으키고 있다. 여기에 코로나19라는 초유의 상황은 우리나라는 물론 전세계의 비대면 생태계를 가속화하는데 일조했다. 금융사들 입장에서도 대면거래, 대면영업이라는 전통적인 방식에서 벗어나 온라인 환경에서의 경쟁이 불가피해진 상황이다. 무엇보다 네이버, 카카오 같은 플랫폼 기반의 빅테크 업체들의 금융시장 진입은 기존 금융권을 긴장시키고 있다. 막강한 사용자 기반과 편의성, IT와 디지털을 무기로 금융은 물론, 유통, 물류, 서비스에 이르기까지 영향력을 확대하는 상황에서 빌 게이츠의 말대로 ‘은행 없는 은행 서비스’가 가능한 시대에 까지 이르렀기 때문이다. 이러한 탈 은행, 금융 물결은 국내에서도 본격화되고 있다. 은행과 타 업종간의 경계가 무너지는 ‘빅블러’ 현상이 가속화되고 있는 상황이다. 은행연합회가 서울 중구 소재 은행회관에서 개최한 ‘디지털 시대의 금융 겸업주의’ 세미나에서 김광수 은행연합회회장은 “많은 ICT기업이 금융업에 진출해 혁신을 주도해나가면서 ICT·금융간 경계가 흐릿해지는 빅블러 현상도 나타나고 있다”며 “특히 빅테크 플랫폼의 경우 원래 수행하던 ICT·유통·통신·여행 등 다양한 생활밀착형 서비스와 금융을 융합한 생활금융 서비스를 제공하고 있고, 그 결과 시장으로부터 기존 대형 금융회사보다 더 높은 평가를 받고 있다”고 말했다. 이처럼 금융권의 빅블러는 테크기업의 금융시장 진출로 가속화되고 있다. 투이컨설팅 박소연 선임은 “구글, 아마존, 애플, 알리바바, 삼성전자 등과 같은 IT 공룡 기업들이 빅블러 현상을 주도하고 있다. 앞선 IT기술을 바탕으로 대규모 고객네트워크 기반의 플랫폼 비즈니스 모델로 성공하고 있다. 플랫폼을 통하여 고객을 점유하고, 모든 것을 팔 수 있는 기반을 확보했기 때문”이라고 밝혔다.금융사들의 업권을 넘어서는 사업 시도도 이어지고 있다. 최근 우리은행은 편의점 세븐일레븐과 제휴를 맺고 우리WON뱅킹에서 편의점 상품을 주문, 배달해 주는 'My편의점'을 시작했다. 신한은행은 배달앱 '땡겨요'의 시범 서비스를 지난달 22일 오픈했다. 엔씨소프트는 KB증권과 넥슨은 신한은행과 협력하기도 했다. 게임과 금융서비스가 본격적으로 만나 경계를 허물고 있는 상황이다. 금융당국의 빅블러 가속화를 위한 행보도 본격화되고 있다. 금융당국은 금융여건 변화를 감안해 ‘업무범위 확대’ 등 금융업권별 제도 정비에 나섰다. 이를 통해 은행의 원활한 신사업 진출, 종합재산관리자 역할 강화 등을 위해 업무범위 확대를 추진하는 한편 플랫폼사업 등 부수업무 범위 확대 검토, 신사업 규제샌드박스 활용 지원등에 나설 계획이다.  다만 금융권의 빅블러 현상은 아직은 초기 단계에 불과하단 지적이다. 특히 4대 금융그룹과 대형 금융사들이 얼마만큼 효과적으로 새로운 융합 서비스에 대응할 수 있을지 관심이다. 빅테크 기업에 대응하기 위해선 민첩성 있는 조직 구성과 사업 의사결정이 일어나야 하는데 고질적인 금융사의 의사결정 구조는 문제다.하지만 올해 초 주요 금융기업들이 조직개편을 통해 조직의 의사결정을 빠르게 하고 신사업 진출에 속도감을 부여하는 방향을 추진하고 있어 올 한해 금융사들의 움직임을 주목해야 한다는 관측도 나온다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>2022.01.03.</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>카카오뱅크 '100% 비대면 주담대' 내놓는다</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004648550?sid=101</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>공격 전략 펼치는 인터넷은행연내 개인사업자 대출도 진출케이뱅크, 한도 3억 파킹통장토스, 신용대출 전면 재개‘족쇄’가 풀린 인터넷전문은행 3사가 새해 벽두부터 공격적인 경쟁에 나섰다. 인터넷은행은 지난해 하반기 금융당국의 가계대출 총량 규제에 발이 묶여 대출을 아예 중단하거나 중·저신용자에 한해 제한적으로 내줬다. 은행의 양대 축인 수신과 여신이 균형 있게 돌아가지 못했던 것이다. 해가 바뀌어 은행별 대출 할당량이 초기화되면서 정상 영업이 가능해졌다.케이뱅크와 토스뱅크는 지난 1일 신용대출 판매를 일제히 재개했다. 토스뱅크는 신용대출, 마이너스통장 등 모든 대출상품 신청을 다시 받고 있다. 금리는 최저 연 3.31%, 한도는 최대 2억7000만원(연 소득 범위 내)이다. 금리와 한도 모두 대형 시중은행에 비해 “경쟁력 있다”는 평가다. 특히 상환 능력이 충분한데도 은행에서 퇴짜를 맞는 ‘건전한 중·저신용자’를 적극 흡수한다는 전략이다. 중·저신용자는 신용점수가 코리아크레딧뷰로(KCB) 기준 820점 이하인 사람으로, 옛 신용등급으로는 4등급 이하에 해당한다. 이들에게 2금융권보다 연 6~8%포인트 낮은 금리로 대출을 공급한다는 구상이다.토스뱅크는 대출 정상화를 계기로 업계 안팎에서 제기된 ‘역마진’ 우려를 씻어낼 수 있을 것으로 기대하고 있다. 토스뱅크는 수시입출금식통장에 은행권 최고 수준인 연 2% 금리를 주고 있다. 중금리 대출로 안정적 수익을 확보해 예금에 두둑한 이자를 얹어주는 선순환 구조를 완성한다는 복안이다.케이뱅크도 작년 11월 중단한 고신용자 대상 마이너스통장 판매를 이달 1일 재개했다. 최근 케이뱅크는 수신상품 경쟁력을 높여 ‘머니 무브’에 나선 시중자금을 끌어들이는 데 공들이고 있다. 케이뱅크는 지난달 예·적금 금리를 최대 0.6%포인트 인상했다. 기준금리 상승분(0.25%포인트)보다 높고 카카오뱅크의 예·적금 금리 인상분(최대 0.4%포인트)도 앞질렀다. 파킹통장 ‘플러스박스’의 예치 한도는 은행권 최대인 3억원으로 늘렸다.카카오뱅크는 올 1분기 비대면 주택담보대출을 출시하고, 개인사업자 등을 대상으로 한 기업대출 시장에도 연내 진출하기로 했다. 다만 고신용자 대상 신용대출 중단 조치는 당분간 유지할 방침이다. 카카오뱅크는 지난해 10월부터 신규 신용대출은 중·저신용자에게만 내주고 있다. 정부의 가계부채 관리 정책에 부응하는 취지에서 중신용자 대출 확대에 최우선 순위를 두기로 했다는 설명이다.인터넷은행 중 가입자가 가장 많은 카카오뱅크(3분기 말 기준 1740만 명)가 주택·기업대출 분야에 뛰어들면 상당한 파장이 예상된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>2022.01.03.</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>DSR 규제 앞두고 대출수요 몰린 토스뱅크…일각선 '꼼수영업' 지적도(종합)</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005025076?sid=101</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>대출 재개 토스뱅크, 이틀간 '대출 조회' 서비스 마비낮은 금리·높은 한도…DSR 규제 강화 전 가수요 영향 분석새해를 맞아 주요 은행의 대출 문이 하나둘 열리는 가운데, 신생 인터넷은행인 토스뱅크에 대출 실수요자들이 대거 몰리고 있다. 모든 은행 중 가장 낮은 금리와 높은 한도를 제공해 돈이 필요한 이들의 구미를 당긴 것이다. 특히 차주 단위 총부채원리금상환비율(DSR) 규제 강화를 앞두고 대출을 미리 받아 놓자는 ‘가수요’도 상당한 것으로 분석된다. 다만 주요 은행의 신용대출 한도가 연 소득 이내로 제한된 가운데 토스뱅크가 규제 공백을 틈타 '꼼수 영업'에 나섰다는 지적도 제기된다.3일 금융권에 따르면 토스뱅크 애플리케이션(앱)의 대출한도 조회 서비스가 이달 1일 오전 11시부터 2일까지 수시로 마비되는 현상이 벌어졌다. 이는 지난해 10월 중단됐던 신용대출 영업이 이달부터 본격 재개됨에 따라 대출한도를 조회하려는 직장인 등 대출 실수요자가 대거 몰린 영향이다.실제 주요 재테크·부동산 커뮤니티 등에서는 토스뱅크 신용대출 상품이 입소문을 타고 있다. 어느 은행보다 쉽고 빠르게 또 낮은 금리와 높은 한도로 대출을 받을 수 있다는 점에서다. 토스뱅크의 신용대출은 연 3%대 초반 금리에 최대 2억7000만원의 한도를 자랑한다.특히 이달 1일부터 2일까지는 DSR 1단계를 적용받는 마지막 기간인 탓에 조금이라도 유리한 조건에서 대출을 받고자 하는 수요가 더 컸던 것으로 보인다. 지난해에 이어 올해도 대출 문턱이 갈수록 높아질 것을 예상해 가능할 때 미리 대출을 받아두는 가수요가 발생했다는 뜻이다.올해부터 시행되는 강화된 DSR 규제는 본격적인 적용일이 이날부터다. 이에 따라 이달 1일에서 2일까지 대출을 실행한 이들은 DSR 1단계를 적용받았지만, 이날부터 대출을 실행할 경우 DSR 2단계를 적용받게 된다. DSR 2단계는 총대출액 2억원 이상 차주에게 DSR 40%를 적용한다. 토스뱅크 대출한도 조회 서비스 안내문에도 DSR 2단계로 3일부터 한도가 달라질 수 있다는 점이 명시돼 있다.토스뱅크 신용대출은 신생 은행답게 공격적이라는 평가가 차주들 사이에서 나온다. 주요 재테크 커뮤니티 등에선 자신의 연봉을 초과하는 대출 후기도 쉽게 찾아볼 수 있다. 금리도 대부분 3%대 중후반에서 4%대로 무난했다는 평이다. 낮은 금리와 높은 한도가 대출 실수요자들의 구미를 확실히 당긴 것으로 확인되는 부분이다.다만 일각에선 토스뱅크가 금융당국의 규제 공백을 교묘하게 파고든 꼼수 영업을 했다는 비판도 나온다. 이날부터 은행의 신용대출 한도가 연 소득 이내로 제한되는 행정 지도가 시행됐는데 이에 앞서 지난 1~2일 사이에 지나치게 공격적인 영업에 나섰다는 지적이다. 실제 재테크 커뮤니티 등에는 자신의 연봉보다 훨씬 많은 한도를 받았다는 이들이 적지 않다. 토스뱅크와 달리 주요 시중은행은 지난해 하반기부터 신용대출 한도를 연 소득 이내로 제한해 판매 중에 있다.한편 올해 대출을 희망하는 소비자는 시중은행보다 인터넷은행이 좀 더 유리할 것으로 예상된다. 가계부채 총량규제서 인터넷은행이 비교적 자유롭기 때문이다. 주요 시중은행은 분기별 한도 설정 등 대출 문턱이 새해 들어 오히려 더 높아진 것으로 보인다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>2022.01.04.</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>내일부터 '내 손안의 금융비서' 마이데이터 전면 시행</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0012896499?sid=101</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>5일부터 33개 사업자 참여…"안전하게 자산 통합 관리" LG유플러스 마이데이터 시범서비스 '디키타카' [LG유플러스 제공. 재판매 및 DB 금지]     (서울=연합뉴스) 오주현 기자 = 한 달간의 시범 서비스를 선보인 본인신용정보관리업(마이데이터) 서비스가 내일(5일)부터 전면 시행된다.    금융위원회와 금융감독원은 5일 오후 4시부터 안전한 표준 응용프로그램 인터페이스(API) 방식을 통해 금융 마이데이터 서비스를 시행한다고 4일 밝혔다.    마이데이터는 흩어진 개인 신용정보를 한곳에 모아 보여주고 재무 현황·소비 습관을 분석해 금융상품을 추천하는 등 자산관리와 신용관리를 도와주는 서비스다.     이날 기준 은행, 증권, 카드, 핀테크 업계의 33개 사업자가 서비스를 제공한다. 은행업계에서는 KB국민·농협·신한·우리·기업·하나·대구·SC제일·광주·전북은행 등이 서비스를 운영한다.    금융투자업계에선 미래에셋·NH투자·키움증권과 하나금융투자 등이, 카드 업계에선 KB국민·신한· 하나· BC· 현대·우리카드 등이 참여한다.     이 밖에도 카카오페이, 토스, 네이버파이낸셜 등 핀테크·정보기술(IT) 업체와 저축은행, 상호금융 업계 등도 서비스를 제공한다.     나머지 마이데이터 사업자 21개사는 시스템과 애플리케이션 개발 등을 거쳐 올해 상반기 중으로 사업에 동참할 예정이다.    금융당국은 지난해 12월부터 한 달여간 서비스를 시범 운영하면서 드러난 개선 필요 사항을 보완했다고 밝혔다.금융위원회[금융위원회 제공]앞서 지난달 29일 일부 핀테크사는 NH농협은행과 일부 금융사에 요청한 표준 응용프로그램 인터페이스(API) 정보를 제대로 받지 못하는 현상을 겪기도 했다.    금융당국은 중계기관의 처리 가능한 트래픽 양을 10배 이상 확대해 전산장애를 방지하고, 마이데이터 사업자에 연결되는 정보제공자를 늘려 인증수단을 추가하는 등 더욱 쉽게 본인인증 절차를 거칠 수 있도록 개선했다고 설명했다.    마이데이터가 5일부터 본격 시행되면, 사업자들이 고객을 대신해 금융사 사이트에 접속하고 화면을 읽어내는 '스크린 스크레이핑'(screen scraping) 방식은 전면 금지된다.     사업자들은 데이터 표준 API를 통해 금융기관 등에 흩어진 정보를 받게 된다.    시행일부터 일부 대부업체를 제외한 대부분의 제도권 금융회사 417곳의 정보를 받을 수 있으며, 국세 납세증명 자료도 조회할 수 있다.    금융당국은 현재 제공하지 않는 국세·지방세·관세 납부 명세나 건강보험, 공무원연금·국민연금 보험료 납부내역 등 공공정보는 올해 상반기 안에 추가 제공이 가능하도록 협의 중이라고 덧붙였다.    금융당국은 마이데이터 서비스 시행으로 더욱 엄격해진 정보보호·보안 체계 속에서 소비자들이 안전하게 자산 관리를 할 수 있을 것으로 기대했다.    소비자들은 많은 정보를 빠르고 편리하게 통합 조회하면서 맞춤형 자산·재무관리를 누릴 수 있게 될 것으로 전망된다. 금융데이터 (PG)[홍소영 제작] 일러스트    마이데이터 사업자 측면에서도 안정적인 사업기반을 확보할 수 있고, 다양한 정보를 받아 서비스 혁신 기반을 다질 수 있다는 장점이 있다.    금융당국은 '마이데이터 특별대응반'을 꾸려 특이사항을 실시간 모니터링하며 안정적인 서비스가 제공될 수 있도록 지속 점검할 예정이다.    또 마이데이터 서비스가 금융소비자보호법과 충돌할 우려가 제기된 데 대해선 금융규제 샌드박스 등을 통해 보완이 필요한 사항을 적극적으로 검토해 소비자 편익을 높이겠다고 밝혔다.    viva5@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>2022.01.05.</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>새해 인뱅의 신용·주담대 공습…3색 전략 ‘승부수’</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000270467?sid=101</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>국내 인터넷전문은행들이 새해 대출 총량 목표치가 재설정되면서 공격적인 대출 영업을 벌이고 있습니다. 국내 1호 인터넷은행 케이뱅크는 오늘(5일)부터 신용대출 한도를 최대 2억 5천만원까지 확대했습니다.신용대출 3종(신용대출, 마이너스통장 대출, 신용대출 플러스)에 대해 각각 1억원, 5천만원, 5천만원씩 상향 조정했습니다.이에 따라 '신용대출'은 기존 1억 5천만원 한도에서 최대 2억 5천만원까지, '마이너스통장 대출'과 '신용대출 플러스'는 기존 1억원에서 1억 5천만원까지 각각 늘었습니다.특히 '신용대출 플러스'를 통해 개인사업자와 같이 근로소득자가 아닌 경우에도 신청이 가능하도록 해 대출문을 넓혔습니다. 또 기존에 이용하는 대출이 있더라고 추가 한도 내에서 대출을 받을 수 있도록 했습니다.지난해 10월 출범한 토스뱅크도 지난 1일부터 대출을 재개했습니다. 앞서 토스뱅크는 출범 9일 만에 금융당국의 대출 총량 한도를 소진해 대출 영업을 중단한 바 있습니다. 이에 새해 가계대출 빗장이 풀리자마자 대표 상품에 3%대 초반 대출금리와 최고 대출 한도 2억 7천만원의 조건을 내걸고 영업에 나섰습니다. 특히 연휴에도 영업이 가능한 인터넷은행의 강점을 활용해 지난 3일 DSR2단계 규제가 시행되기 전인 1일과 2일 이틀 동안 고객을 끌어모았습니다두 은행 모두 시중은행보다 한도는 늘리고 대출금리는 낮춘 상품으로 시장 공략에 나선 것입니다. 가입자 수 1위 카카오뱅크는 주택담보대출에 새해 승부수를 띄웠습니다. 카카오뱅크는 올 1분기 인터넷전문은행 최초의 주택담보대출 출시를 앞두고 지난 3일 실거래 테스트에 들어갔습니다. 주택담보대출은 가계대출 중 가장 큰 비중을 차지하고 있는 만큼 은행권 전반에 적지 않은 영향을 줄 것으로 예상되고 있습니다.이에 대비 시중은행들은 기존 상품을 비대면화하는 디지털 전환을 강화하고 있습니다.인터넷 은행 중 케이뱅크는 과거 대환대출용 주택담보대출 상품을 올해 안에 신규대출까지 확대할 계획입니다.이정환 한양대 경제금융학부 교수는 "가계대출에서 큰 부분인 주택담보대출을 놓칠 수 없는 시장으로 판단한 것"이라며 "기존 시중은행들이 대출총량규제로 인해 상대적으로 대출에 소극적인 상황이 오히려 기회가 될 수 있다"고 했습니다.올해 중저신용자 대출 목표치는 카카오뱅크와 케이뱅크가 각각 25%, 토스뱅크는 42%입니다.카카오뱅크는 지난해 말부터 실시한 고신용자 대출 중단을 당분간 유지할 계획이고, 케이뱅크와 토스뱅크는 CSS(신용평가모형) 고도화를 통해 중·저신용자 비중을 달성할 방침입니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>2022.01.02.</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>3일부터 방역패스 유효기간 적용…앱 업데이트 필요</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0001931935?sid=102</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>유효기간은 2차접종 14일 경과한 날부터 180일지난해 7월 6일 이전에 접종완료 후 3차접종 안 했다면 ‘만료’[123rf][헤럴드경제=조용직 기자] 백신 추가 접종을 유도하기 위해 3일부터 방역패스(접종증명·음성확인제)에 ‘유효기간’이 생긴다.2일 방역당국에 따르면, 방역패스의 유효기간은 코로나19 백신 2차접종(얀센 접종자는 1차접종) 후 14일이 지난 날부터 6개월(180일)까지다. 유효기간이 임박한 사람은 3차접종을 해야 방역패스 효력을 유지할 수 있다. 따라서 지난해 7월 6일 이전에 기본접종을 완료한 사람이 추가접종을 하지 않았다면 3일부터 영화관 등 방역패스 적용 시설을 이용할 수 없다.청소년 방역패스는 오는 3월 1일부터 시행하는데, 12∼17세는 방역패스 유효기간을 적용받지 않는다. 12∼17세는 3차접종 권고 대상이 아니기 때문이다.방역패스 유효기간은 일주일(3∼9일) 계도기간을 거쳐 시행된다. 따라서 방역패스 유효기간 위반으로 인한 과태료나 행정처분은 10일부터 부과된다.유효기간은 예방접종 인증 전자증명서인 ‘쿠브(COOV)’ 애플리케이션(앱)에서 확인할 수 있다. 2차접종 후 14일이 지나면 ‘14일 경과’ 표시가, 180일이 지나면 ‘유효기간 만료’ 표시가 뜬다.카카오, 네이버, 토스, PASS 등 민간 전자출입명부 앱도 업데이트하면 해당 정보를 확인할 수 있다.의학적 사유로 백신을 맞지 못하는 접종예외자는 진단서와 소견서를 지참하고 보건소에 가면 방역패스 예외 확인서를 받을 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>2022.01.12.</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>케이뱅크, '업비트 의존도' 탈피 등 과제 산적…IPO 흥행할까?</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/629/0000126804?sid=101</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>12일 금융투자업계에 따르면 케이뱅크는 이달 중 증권사의 제안서를 받아 다음달 주관사단을 선정할 계획이다. /케이뱅크 제공가상자산 시장 변동·정부 대출 규제 대비 등 '과제' 국내 1호 인터넷은행 케이뱅크가 IPO(기업공개) 일정에 본격 시동을 걸었다. 장외 몸값 8조 원에 이르는 케이뱅크가 흑자전환 기세 등에 힘입어 IPO 흥행에도 성공할지 시선이 쏠린다.12일 금융투자업계에 따르면 케이뱅크는 최근 국내외 주요 증권사에 코스피 상장을 위한 입찰제안서(RFP)를 발송했다.지난해 실적 개선으로 흑자 전환이 유력해지자 상장 주관사 찾기에 나서는 등 연내 코스피 상장을 위해 팔을 걷은 것이다. 케이뱅크는 이달 중 증권사의 제안서를 받아 다음 달 주관사단을 선정할 계획이다.지난 2017년 4월 출범한 케이뱅크는 자본확충 규제로 인해 맞이해야만 했던 '사실상 개점휴업' 상황을 종식했다. 지난해 7월 인터넷은행 역대 최대 규모인 1조2500억 원의 유상증자에 성공하면 서다.이후 케이뱅크는 가상자산 거래소인 업비트와 실명확인 계좌발급 제휴를 통해 가파른 성장세도 이뤄냈다. 2020년 말 219만 명이던 가입고객은 지난해 말 717만 명까지 늘어났다. 11개월 전 대비 480만 명이나 증가한 수치다.이에 자산도 급증해 같은 기간 여신은 2조9900억 원에서 7조900억 원으로, 수신은 3조7500억 원에서 11조3200억 원으로 커졌다. 지난해 3분기까지 누적 84억 원의 흑자를 기록하면서 첫 연간 흑자 전환을 앞두고 있다.케이뱅크는 사상 첫 흑자 전환 타이밍을 발판 삼아 발 빠른 상장에 나선 모양새다. 또한 금융당국의 빅 테크 규제가 본격화되기 전이면서 금리 상승기를 맞아 은행들의 순이자마진이 개선되고 있는 타이밍 등을 고려한 것으로 보인다. 회사는 당초 이르면 2023년께 IPO에 나설 예정이었다.케이뱅크는 업비트와 실명확인 계좌발급 제휴를 맺어 고객 유입에 효과를 누렸지만, '업비트 의존성' 탈피가 IPO 흥행을 위한 과제로 꼽힌다. 사진은 서울 강남구 업비트 라운지 전광판에 비트코인 시세가 표시된 모습. /이동률 기자그러나 일각에선 케이뱅크가 급성장한데 힘을 실어 준 '업비트 제휴' 효과에 한계가 있어 IPO 흥행이 어려울 수 있다는 시각이 나온다.케이뱅크는 지난해 상반기 업비트와의 제휴로 효과를 누렸지만 이는 암호화폐 열풍에 힘입은 수신 성장세로, 일시적 효과일 수 있다는 지적이다. 업비트가 케이뱅크뿐만 아니라 타 은행과 제휴를 확대한다면 수신액이 줄어들 가능성도 있다. 실제로 업비트 운영사 두나무는 최근 우리금융지주 잔여지분 매각에 참여해 1% 지분을 확보했다. 우리은행을 포함한 다른 은행들과 공동사업이나 제휴에 관해 긍정적인 입장을 밝히기도 했다.수신액과 여신액 차이가 큰 점도 불안요소로 꼽힌다. 지난 2020년 말 수신액과 여신액 차이는 약 7566억 원가량이었지만 1년 새 4조2300억 원으로 벌어졌다. 수신 증가폭이 여신 증가폭 대비 크게 앞서가며 불균형이 나타나는 것이다.또한 금융당국의 가계대출 규제가 강해지고 있다는 외부적 요소도 있다. 앞서 토스뱅크는 가계대출 총량관리로 인해 출범 9일 만에 대출을 시행하지 못해 운영에 큰 어려움을 겪었다.전배승 이베스트투자증권 연구원은 "인터넷은행의 경우 시중은행과 달리 기업여신 취급이 제한되고 (설립 초기 제시한 목표에 따라) 중금리 대출 의존도가 높아질 수밖에 없어 가계대출 억제에 따른 부정적 영향이 불가피하다"고 설명했다.최근 카카오뱅크 주가가 하락 중인 점도 케이뱅크 몸값 책정에 부정적인 요소로 작용할 가능성이 있다. 카카오뱅크는 현재 카카오의 실적 악화 전망과 경영진 주식 매도 이슈 등에 휘말리며 11일 상장 후 처음으로 5만 원선이 무너졌다. 카카오뱅크의 시총은 한때 45조 원에 달했지만 4개월 만에 절반 가까이 증발했다. 같은 업종 타사의 기업가치는 IPO시 공모가를 산정하는데 참고되며, 주가가 힘을 잃는 등 업종 내 경쟁사의 기대감이 낮아지면 함께 저평가될 가능성이 있다.한 금융업계 관계자는 "케이뱅크는 가상자산 시장 침체 우려 및 업비트 의존도 해소 등이 과제"라며 "정부 대출 규제 등 시장 성장이 제한되는 분위기가 커질 경우 역시 기대치를 상당 부분 낮출 수 있어 다방면으로 대비한 IPO 준비에 나설 것으로 보인다"고 말했다.한편, 업계는 케이뱅크의 상장 후 기업가치가 10조 원에 달할 것으로 내다보고 있다. 케이뱅크는 장외시장에서 1주당 2만 원 초반대에 거래되면서 시총 규모가 7조~8조 원 수준으로 형성돼 있다.더팩트는 24시간 여러분의 제보를 기다립니다.▶카카오톡: '더팩트제보' 검색▶이메일: jebo@tf.co.kr▶뉴스 홈페이지: http://talk.tf.co.kr/bbs/report/write</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>2022.01.04.</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>'내 손안의 금융비서' 마이데이터 서비스 5일 전면 시행… 33개사 참여</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0005823789?sid=101</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>개인 맞춤형 금융서비스 시대 열려…21개사는 상반기 참여자산관리 서비스 한판 승부…금융사 417개 정보 활용 가능© News1 DB(서울=뉴스1) 송상현 기자 = '내 손안의 금융비서'로 불리는 마이데이터(본인신용정보관리업) 서비스가 5일 전면 시행된다. 은행, 카드, 핀테크 등 모든 금융업계가 '자산관리 서비스' 부문에서 한판 승부를 벌이게 된 것이다. 마이데이터는 은행, 보험사, 카드사 등 기존 금융회사와 관공서, 병원 등에 흩어진 개인신용정보를 기반으로 맞춤형 금융서비스를 제공하는 것을 말한다. 이 서비스를 이용하면 금융자산은 물론이고 자동차, 부동산 등 비금융자산, 심지어 카드사 포인트까지 한 눈에 확인할 수 있고 개인에 맞는 재테크 프로그램을 제공받게 된다. 금융당국은 오는 5일 오후 4시부터 33개 사업자들이 응용프로그램인터페이스(API) 방식으로만 마이데이터 서비스를 제공한다고 4일 밝혔다. 이들 업체는 지난해 12월1일부터 순차적으로 시범운영에 참여한 바 있다.33개 참여사는 KB국민·농협·신한·우리·기업·하나·대구·SC제일·광주·전북 등 10개 은행, 키움·하나금융투자·NH투자·미래에셋증권 등 4개 금융투자사, KB국민·신한·하나·BC·현대·우리 등 6개 카드사, 뱅크샐러드·핀크·쿠콘·카카오페이·토스·네이버파이낸셜·NHN페이코·민앤지·SK플래닛·핀다 등 10개 핀테크사, 웰컴저축은행, 농협중앙회, 나이스평가정보 등이다.당초 지난 1일부터 전면 시행 예정이었으나 연말·연초 근무인력 부족 등으로 인해 순연됐다. 5일에 서비스를 제공하지 않는 21개사는 올해 상반기 중 참여할 예정이다.일부 대부업체 등을 제외한 제도권 금융사 417개사의 정보는 5일부터 마이데이터 서비스를 위해 제공된다. 국세청 국세 납세증명을 제외한 국세·지방세·관세 납세내역 및 건강보험, 공무원연금·국민연금 보험료 납부내역 등 공공정보는 올해 상반기 중 제공되도록 협의 중이다.이번 마이데이터 서비스 시행으로 본격 시행 이전보다 정보보호·보안체계 심사가 강화됐다. 스크래핑 금지, 기능 적합성 심사 및 보안취약점 점검 의무화 등을 통해 종전보다 안전한 통합조회·관리를 할 수 있다. 종전에는 일부 대형 금융권 정보에 머물렀다면 앞으론 전 금융권은 물론 통신·공공·전자상거래내역도 활용할 수 있어 효과적인 맞춤형 자산·재무 관리를 할 수 있게 됐다. 또한 스크래핑 방식에 비해 통합조회 속도가 약 10배 빨라진다. 마이데이터사업자 측면에선 더 많은 정보 제공자로부터 정보를 받게 돼 서비스 혁신 및 다양한 비즈니스 모델 창출을 할 수 있게 된다. 금융데이터산업 측면에선 데이터 개방을 통해 핀테크사 등에 정보취득 기회를 제공하는 등 데이터 독점 문제를 해소하고 금융산업 내 경쟁과 혁신을 촉진하게 됐다. 금융당국은 당분간 `마이데이터 특별대응반`을 통해 특이사항을 실시간으로 모니터링해 안정적인 서비스가 제공될 수 있도록 할 계획이다. 소비자 편의제고 등을 위해 일부 미반영된 퇴직연금(DB·DC), 계약자-피보험자가 다른 보험정보, 카드 청구 예정 정보 등 금융권 정보 및 빅테크 정보 등도 관련 업권 협의 등을 거쳐 올해 지속적·적극적으로 개방을 추진할 계획이다. 정보제공자의 부담 등을 고려해 불필요한 트래픽이 유발되지 않도록 합리적인 과금 체계도 검토한다. 또한 금융권이 오픈 파이낸스와 생활형 종합금융플랫폼으로 확대·성장해 나갈 수 있는 토대도 마련할 예정이다.금융당국 관계자는 "소비자 보호를 전제로 마이데이터 산업의 지속가능한 발전을 위해 경쟁 등 시장상황, 추가 허가신청 수요 및 소비자 편익 증대 등을 종합적으로 고려하겠다"며 "신규 허가심사 방향 및 부수업무 확대 등의 문제도 적극 검토해 나갈 것"이라고 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>2022.01.03.</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>"유비벨록스, 블랙박스 주행데이터 가진 유일한 업체… 저평가"-유안타</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004648085?sid=101</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>투자의견, 목표가 제시 안 해이미지=유비벨록스유안타증권은 3일 유비벨록스에 대해 주가가 현저히 저평가된 상태라고 진단했다. 블랙박스 주행데이터를 확보한 유일한 업체인 만큼 마이데이터 사업이 본격화될 때 유의미한 주가 재평가가 이뤄질 것이라고 전망했다. 투자의견과 목표주가는 제시하지 않았다.이날 허선재 유안타증권 연구원은 보고서를 내고 "국내 스마트카드와 블랙박스 시장의 압도적 1위 업체인 유비벨록스는 최근 사업적 시너지가 클 것으로 예상되는 마이데이터 사업을 추진하면서 중장기 성장에 대한 큰 그림을 완성했다"라며 "스마트카드 부문에서의 탄탄한 금융사 네트워크, 블랙박스 부문에서의 방대한 주행데이터를 활용해 마이데이터 기반의 금융 서비스를 제공하는 것"이라고 말했다.특히 허 연구원은 사용가치가 높은 대량의 블랙박스 주행데이터를 확보한 국내 유일 업체라는 점에 주목했다. 이를 통해 향후 고성장할 것으로 전망되는 마이데이터 시장에서 차별화된 서비스를 제공할 수 있을 것이란 전망이다.본업도 '잘 하고 있다'는 평이다. 허 연구원은 "스마트카드 부문의 성장 요인은 토스뱅크 중심의 신규 고객사 확보, 한국로컬스마트카드(KLSC) 도입에 따른 점유율 확대, 올해 대선 소비진작 정책에 따른 최대 성수기 진입 등에 기인한다"라며 "블랙박스 부문에서는 BMW 중심의 B2B 글로벌 공급 물량 확대, 기타 전자제품의 매 출 액 확대가 예상된다"고 말했다. 특히 글로벌 블랙박스 시장은 현재 개화 단계인 만큼 향후 큰 폭의 실적 기여도 상승을 기대해도 좋다고 덧붙였다. 작년 10월 말 본허가를 획득한 마이데이터 사업과 관련해서도 전망이 밝은 편이다. 허 연구원은 "자산관리 플랫폼 '아차' 내에서 가입자 수 180만명을 보유한 피트니스 플랫폼 '트랭글'의 고객 데이터와 '아이나비이나비' 블랙박스 내비게이션 주행데이터, 고객의 금융거래 마이데이터를 결합해 맞춤형 금융 서비스를 제공할 것으로 보인다"며 "이 사업은 향후 신규 금융상품 개발, 비정형 신용평가 서비스, 신사업 추진 등 다양한 사업으로의 확장성이 매우 클 것으로 예상한다"고 밝혔다.허 연구원은 올해 예상 매출액은 전년 동기 대비 33.9% 늘어난 4045억원으로 전망했다. 같은 기간 영업이익은 80.6% 증가한 425억원으로 내다봤다.그는 "실적 향상의 근거는 '토스뱅크와 KLSC 사업에 따른 스마트카드 물량 확대'와 'BMW향 글로벌 블랙박스 공급 개시' 등이다"라며 "내년 예상 실적 기준 PER은 현재 7배로 본업의 실적 고성장을 감안했을 때 주가는 현저히 저평가돼 있다고 본다"고 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>2022.01.02.</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>방역패스 유효기간 지나면 ‘딩동’ 소리…3일부터 적용</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/028/0002573896?sid=102</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>작년 7월6일까지 2차접종자 일괄 만료일주일 계도기간 거쳐 10일부터 과태료쿠브(COOV) 앱 등 미리 업데이트 해둬야지난달 31일 서울의 한 대형마트에서 QR코드 출입 체크를 하고 있는 시민. 연합뉴스오는 3일부터 ‘방역패스 유효기간’이 적용된다. 코로나19 백신 2차접종 후 14일이 지난 날부터 6개월(180일)까지다. 단, 기본접종이 1차접종인 얀센 백신을 접종한 사람은 1차접종일을 기준으로 한다. 지난해 7월6일을 포함해 그 전에 화이자·모더나 등 2차접종, 얀센 1차접종을 완료한 사람의 방역패스가 3일 일괄 만료된다.방역패스는 코로나19 확산을 막기 위해 실내 다중이용시설 이용자를 대상으로 접종증명서나 PCR음성확인서 등 확인을 의무화한 제도다. 방역패스 유효 기간이 만료되면, 미접종자와 마찬가지로 유흥시설, 식당·카페, 노래연습장 등 방역패스 적용 시설을 이용할 수 없다. 3차접종(얀센은 2차접종) 방역패스는 접종 즉시 인정된다. 방역패스 유효기간은 3일부터 9일까지 일주일간의 계도기간을 거쳐 시행된다. 따라서 방역패스 유효기간 위반으로 인한 과태료나 행정처분은 10일부터 부과된다. 과태료는 관리·운영자 300만원 이하(1차 150만원, 2차 이상 300만원), 위반한 개인 10만원 이하다.예방접종 유효기간은 전자증명서인 쿠브(COOV)앱이나 카카오, 네이버, 토스 등 전자출입명부 플랫폼을 통해 확인할 수 있다. 당초 방역패스 유효기간은 쿠브앱에서만 확인이 가능했지만 지난달 30일 시스템 개선에 따라 전자출입명부 플랫폼에서도 3차 접종력 및 2차접종 후 경과일을 확인할 수 있다. 2차접종 후 180일이 지나면 ‘유효기간 만료’ 표시가 뜬다. 질병관리청은 유효기간 적용이 시작되는 3일이 되기 전 자주 사용하는 전자출입명부 플랫폼 앱을 미리 업데이트할 것을 권고했다. 카카오톡 전자출입명부 시스템에서 1월3일 유효기간 적용에 따른 접종 정보 업데이트를 안내하고 있다. 장현은 기자 mix@hani.co.kr3일부터는 2차접종 후 180일 이내 또는 3차접종을 받은 경우, 큐아르(QR) 스캔 시 ‘접종 완료자입니다’라고 음성이 안내된다. 미접종자 또는 유효기간이 만료된 경우 ‘딩동’ 소리가 나온다. 이 경우 시설 관리자는 유전자분석(PCR) 음성 결과 또는 코로나19 완치, 의학적 사유로 인한 적용 예외 여부 등을 확인해야 한다. 청소년 방역패스는 오는 3월1일부터 시행하고, 계도기간 한달을 거쳐 4월부터 본격 적용한다. 다만, 추가접종 대상이 아닌 만 12∼17살은 방역패스 유효기간을 적용받지 않는다. 이들 청소년은 2차접종 후 14일이 경과된 날부터 유효기간 만료일 없이 접종증명 효력이 인정된다. 새해 생일이 지나면 만 12살이 되는 2010년생 청소년 가운데 1, 2월생은 4일 0시부터 사전예약 누리집(ncvr.kdca.go.kr)을 통해 예약할 수 있으며, 예약일로부터 7일 이후의 날짜로 접종일을 선택할 수 있다. 2010년생 사전예약대상자는 추후 2월 이후 출생자로 확대될 예정이다. 올들어 새로 접종대상이 된 2010년생은 청소년 방역패스를 적용받지 않는다. 생일이 지난 2010년생만 접종이 가능하기 때문에, 이들에게 방역패스를 적용할 경우 식당이나 학원 등에서 생일을 일일이 확인해야 하는 어려움이 있어 적용대상에서 제외됐다.방역당국은 3일 기준 방역 패스 유효기간 만료 대상자 중 92.2%가 3차접종 완료 또는 예약 상태라고 밝혔다. 만료 대상자 563만명 중 92%인 약 518만명이 3차접종을 마쳤고, 0.2%에 해당하는 약 1만4천명이 접종을 예약한 상황이다.한편, 정부는 이달 2일까지로 예정됐던 사회적 거리두기 강화 조처를 2주간 연장하기로 지난달 31일 발표한 바 있다. 전국 사적모임 4인, 다중시설 운영 시간 밤 9∼10시 제한 등의 조치 등이 16일까지 그대로 유지된다. 단, 영화관·공연장 이용시간을 9시까지 입장~자정 전 상연·공연하는 것으로 완화하는 등 일부 방역수칙이 변경된다. 아울러 그간 방역패스 예외 시설로 형평성 논란이 제기됐던 대형마트·백화점·농수산물유통센터에 대해서도 방역패스를 적용하기로 했다. 이들 시설 중 3000㎡ 이상인 곳은 10일부터 방역패스를 시행하되, 계도기간을 거쳐 17일부터 단속한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>2022.01.12.</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>DB손해보험, 직급 2단계로 통합… “책임·수석으로 불러줘”</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000774418?sid=101</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>DB손해보험이 임원 이하 일반 직원의 직급을 간소화 하며 수평적인 문화 구축에 들어갔다. 7단계였던 직급을 2단계로 축소한 것이다. 사진은 DB손보 강남 사옥./사진=DB손보DB손해보험(DB손보)이 임원 이하 일반 직원의 직급체계를 2단계로 줄였다. 기존 ‘사원·대리·과장·차장·부장’의 직급을 없애고 ‘책임·수석’으로 운영한다는 것이다. 빅테크(대형 IT기업)·핀테크의 참여로 금융 영역 다툼이 치열해지는 가운데 수평적인 문화를 도입해 혁신을 꾀하겠다는 발상이다. 11일 보험업계 따르면 DB손보는 지난 3일부터 기존 사원, 주임, 대리, 과장, 선임과장, 차장, 부장에 이르는 7단계의 수직형 직급체계 대신 책임·수석의 2단계 체계를 적용하기로 했다. 책임은 기존의 사원·주임, 수석은 대리·과장·선임과장·차장·부장에 해당된다. 임원의 경우 담당, 상무, 부사장, 사장 직급을 그대로 유지한다. DB손해보험 관계자는 "과거 연공 중심 직급체계에서 역할 중심으로 직급을 간소화 했다"며 "기대효과는 수평적 유연한 기업문화 정착 및 공정한 평가를 통한 성과주의 강화를 기대하고 있다"고 말했다. 연차별로 보면 책임의 경우 입사 1년차부터 최대 4년차까지, 수석은 5년차 이상 임원 전까지다. 내부적으로도 직급이 아니라 성과에 따른 대우를 기대할 수 있게 됐다. 수석 중에서 부서장 경우 파트장 직책을 부여한다. 직급과 연공서열을 중시하던 기존 인사 제도에서 탈피, 능력만 있다면 우대하겠다는 취지다. 전사적인 직급체계 단순화는 보험권에서 파격적인 시도라는 평가다. 현재 한화생명과 교보생명, 현대해상, 메리츠화재 등 주요 보험사들은 수직적인 직급 체계를 고수하고 있다. 주요 보험사 중에서는 삼성화재(선임·책임·수석)와 삼성생명(프로)만 각각 수평적인 직급체계를 유지하는 중이다. 중소 보험사에서는 지난해 7월 신한라이프가 7월 대리·과장·차장 등 기존 직급을 없애고 관리자급(부부장급) 이상은 '수석', 그 이하는 '매니저' '프로' 등 호칭을 도입했다. 최근 보험사들은 빅테크와 핀테크 기업들이 금융 영토를 확장하면서 위기의식이 커졌다는 게 업계 얘기다. 이들 기업은 수평적인 직급 체계와 유연한 사고를 무기로 새로운 서비스를 꾸준히 내놓고 있다. 보고 체계가 단순하니 사업 추진 속도도 훨씬 빠르다. 카카오뱅크·페이에서는 영어 이름으로 부르고, 핀테크 업체인 토스는 서로 이름 뒤에 ‘님’을 붙여 부른다. 보험업계 관계자는 “직급체계 단순화로 수평적 조직문화와 업무 전문성 강화를 기대하는 보험사들이 속속 나타나고 있다”고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>2022.01.05.</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>지난해 두배 늘어난 서학개미... 올해 몸집 더 커지나</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/081/0003242645?sid=101</t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>지난해 해외주식투자 열풍이 불며 ‘서학개미’ 몸집이 크게 늘어난 것으로 나타났다. 국내 증시의 박스권 장세 및 미 증시의 상승세로 인한 디커플링(탈동조화 현상)이 장기화 되면서 올해도 국내에서 눈을 돌려 해외주식에 투자하는 서학개미는 더욱 늘어날 것으로 점쳐진다.새해 첫 거래일인 3일(현지시간) 미국 뉴욕증권거래소(NYSE)의 입회장에서 트레이더들이 업무를 보고 있다. 이날 뉴욕증시의 다우지수와 S&amp;P500지수는 종가 기준으로 사상 최고치를 경신했다.뉴욕 AP 연합뉴스5일 한국예탁결제원에 따르면 지난해 예탁원을 통한 미국 주식 결제대금은 3700억 4650만달러(약 443조 4637억원)로 집계됐다. 전년 1781억 4812만달러(약 213조 4927억원) 대비 두배 이상 늘어난 수치다.이 기간 미국 주식 보관 잔액도 지난해 677억 7870만달러(약 81조 2260억원)로 전년 373억 3529만달러(약 44조 7426억원) 대비 두배 가까이 늘었다. 지난해 미국 주식의 보관 잔액은 전체 해외주식 거래의 약 86.9%를 차지했다.올해도 이같은 미국 주식시장 투자 열기는 이어질 전망이다. 국내 증시가 지난해 세계 주요 20개국(G20) 중 최하위 수준의 수익률에 그친 반면 미국시장은 지난해 연말 시작된 ‘산타랠리’가 연초까지 이어지고 있는 까닭이다. 실제로 새해 첫 거래일이었던 지난 3일(현지시간) 뉴욕 증시는 일제히 최고기록을 경신했다. 특히 서학개미의 ‘최애주‘인 애플은 장중 시가총액 3조달러를 돌파하며 기록을 세웠고, 테슬라 주가도 13.5% 증가했다.여기에 지난해 금융당국이 해외주식 소수점 거래 서비스를 허용하면서 해외주식 투자의 문턱이 낮아지게 된 것도 긍정적인 영향을 줄 것으로 보인다. 이같은 분위기에 발맞춰 인터넷증권사들도 속속 해외주식거래 서비스를 선보이는 추세다. 토스증권은 지난달부터 해외주식거래 서비스를 시작했고, 카카오페이증권도 이달 말 국내외 주식시장에 투자할 수 있는 MTS(모바일트레이딩시스템)를 선보인다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>2022.01.10.</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>매년 큰 시장 열렸던 금융권 M&amp;A, 올해는?</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/648/0000005784?sid=101</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>금융지주에 빅테크도 적극 나선 M&amp;A금융 M&amp;A 이끈 KB·신한, 올해는 내실 집중유일한 '큰손' 우리금융…관건은 '매물'그동안 인수합병(M&amp;A)으로 몸집을 불려온 금융권이 올해에는 한박자 쉬어갈 가능성이 점쳐진다. 주요 인수주체였던 금융지주들이 수년 동안 다수의 M&amp;A를 통해 사업 포트폴리오를 완성한데다가 시장에 나온 마땅한 매물도 없다는 이유에서다.그나마 큰 장이 선다면 주인공은 우리금융지주가 될 것으로 전망된다. 손태승 우리금융지주 회장이 올해 비은행 포트폴리오 확대 의지를 강력하게 피력하면서다.금융지주에 빅테크도 M&amp;A로 몸집 불렸다지난 2015년 이래로 금융권은 매년 크고 작은 M&amp;A가 진행됐다. 인수 주체는 주로 금융지주들이었다. 은행에 쏠려있는 수익구조 다변화 차원의 시도였다.굵직한 M&amp;A로는 KB금융지주의 LIG손해보험, 현대증권, 푸르덴셜생명 인수, 신한금융지주의 오렌지라이프 인수, 우리금융지주의 아주캐피탈 인수, 하나금융지주의 더케이손해보험 인수 등이 대표적이다. 금융지주의 이야기만은 아니다. 최근 몇년새 본격적으로 금융권으로 진출하고 있는 빅테크 기업 역시 금융사 M&amp;A를 통해 사업 포트폴리오를 다변화하고 있다. 바로투자증권을 인수한 카카오페이와 LG U+의 PG사업부를 인수한 토스(비바리퍼블리카)가 주인공이다.금융지주 관계자는 "M&amp;A의 경우 절차가 완료된 이후 순이익이 즉각 지주에 반영되는 등 즉시 전력으로 활용할 수 있다는 장점이 커 금융지주들이 적극적으로 나선 측면이 있다"고 설명했다.실제 지난 2019년 신한금융지주는 3조4035억원의 순익으로 3조3118억원을 기록한 KB금융지주를 따돌리고 리딩금융그룹 타이틀을 차지하는 데 성공했다. 당시 오렌지라이프가 신한금융지주에 안겨준 순익 1621억원이 결정적인 역할을 했다. 이듬해에는 KB금융이 반대로 푸르덴셜생명 인수 효과를 누렸다. 2020년 KB금융지주는 3조5023억원의 순익으로 3조4146억원이었던 신한금융지주를 제치고 리딩금융그룹 타이틀을 탈환했다. 푸르덴셜생명이 안겨준 557억원이 신한금융을 따돌리는데 효자 노릇을 했다. '큰손' KB·신한, 올해는 '내실' 집중할 듯 금융권에서는 올해의 경우 예년과 같은 M&amp;A 열풍은 크지 않을 것으로 보고 있다. 일단 가장 적극적으로 M&amp;A 시장을 노크해온 KB금융지주와 신한금융지주는 이미 전 금융권을 아우르는 비은행 포트폴리오를 마련한 만큼 내실을 다지는 데 집중할 가능성이 높다. KB금융지주는 푸르덴셜 생명 인수를 끝으로 그동안 약점으로 지목돼 오던 생명보험 부분 강화에 성공하며 전 금융권을 아우르는 사업 포트폴리오를 완성했다.신한금융지주도 지난해 BNP파리바카디프손해보험을 인수하며 유일한 빈자리였던 손해보험업권 진출을 목전에 뒀다. 신한금융지주 입장에서 비은행 포트폴리오 강화를 위해서는 손해보험회사의 안착이 우선과제라는 평가다. 신한금융 관계자 역시 "올해 상반기중 BNP파리바카디프손해보험의 자회사 편입을 마무리 하고 디지털 손해보험업권에 진출하는 데 집중할 것으로 보고있다"고 설명했다. 다른 금융지주 관계자는 "그동안 금융권 M&amp;A 시장은 KB금융지주와 신한금융지주가 나서서 이끌어 온 측면이 있다"며 "두 금융지주가 비은행 포트폴리오를 완성한 만큼 올해는 M&amp;A에 적극 나서지 않을 것으로 보인다"고 말했다. 손태승 우리금융지주 회장.유일한 큰 손 우리금융…관건은 '매물'그나마 올해 금융권 M&amp;A 시장이 선다면 주인공은 우리금융지주가 꼽힌다. 지주체제로 전환했지만 여전히 은행에 기대는 비중이 높아서다. 실제 지난해 3분기 기준 우리금융지주의 순익중 우리은행이 기여한 비중은 82.6%에 달한다.일단 우리금융은 지난해까지 상대적으로 스몰딜 위주에 나서왔지만 올해는 돈을 풀 준비가 돼 있다. 지난해 금융감독원으로부터 내부등급법 승인을 받으면서 M&amp;A에 나설 자금 여력이 커져서다. 금융권 추산으로는 6조2000억원의 실탄이 마련돼 있다. 손태승 우리금융지주 회장 역시 M&amp;A에 적극 나서겠다는 의지를 내비쳤다. 손태승 우리금융 회장은 최근 신년사를 통해 "보다 적극적인 비은행 포트폴리오 확대를 추진하면서 동시에 비은행 자회사의 괄목할 성장을 이끌겠다"고 말했다.금융권에서는 우리금융지주가 M&amp;A에 나설 경우 핵심 비은행 계열사로 꼽히는 증권사와 보험사 인수에 나설 것으로 보고 있다. 다만 무게추는 증권사에 조금 더 실려있다는 게 금융권의 판단이다. 금융지주 한 관계자는 "현재 MG손해보험, KDB생명, 동양생명 등의 매각설이 나오고 있지만 이 회사들을 즉시전력감으로 삼기에는 한계가 있다"며 "보험업계 전체로 봤을 때 새로운 회계기준 IFRS17과 K-ICS가 도입된다면 인수 후에 더 많은 자금을 투입해야 되는 상황"이라고 설명했다.관건은 매력적인 증권사 매물이 나올 것이냐다. 현재 IB(투자은행)업계에서는 SK증권, 유안타증권, 이베스트투자증권 등 중·소형 증권사가 시장에 나올 가능성이 있는 매물로 거론된다.우리금융 관계자는 "일단 증권사가 시장에 매물로 나올 경우 적극적으로 인수에 검토할 것"이라면서도 "최적의 시나리오는 중·대형 증권사 인수지만 매물이 없다면 소형 증권사 인수 이후 우리종합금융과의 합병, 신규 증권사 설립 등 다양한 방법을 검토하고 있다"고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>2022.01.04.</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>"흩어진 금융정보 한 눈에"…마이데이터 내일부터 전면 시행</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/215/0001007361?sid=101</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>한 달간의 시범 서비스를 선보인 본인신용정보관리업, 마이데이터 서비스가 내일(5일)부터 전면 시행된다.금융위원회와 금융감독원은 5일 오후 4시부터 안전한 표준 응용프로그램 인터페이스(API) 방식을 통해 금융 마이데이터 서비스를 시행한다고 4일 밝혔다.마이데이터는 흩어진 개인 신용정보를 한곳에 모아 보여주고 재무 현황·소비 습관을 분석해 금융상품을 추천하는 등 자산관리와 신용관리를 도와주는 서비스다.은행, 증권, 카드, 핀테크 업계의 33개 사업자가 서비스를 제공한다.은행업계에서는 KB국민·농협·신한·우리·기업·하나·대구·SC제일·광주·전북은행 등이 서비스를 운영한다.금융투자업계에선 미래에셋·NH투자·키움증권과 하나금융투자 등이, 카드 업계에선 KB국민·신한· 하나· BC· 현대·우리카드 등이 참여한다.이 밖에도 카카오페이, 토스, 네이버파이낸셜 등 핀테크·정보기술(IT) 업체와 저축은행, 상호금융 업계 등도 서비스를 제공한다.올해 상반기 중으로 21개 사업자가 추가로 사업에 동참할 예정이다.앞서 지난달 29일 일부 핀테크사는 NH농협은행과 일부 금융사에 요청한 표준 응용프로그램 인터페이스(API) 정보를 제대로 받지 못하는 현상을 겪기도 했다.금융당국은 지난해 12월부터 한 달여간 서비스를 시범 운영하면서 드러난 개선 필요 사항을 보완했다고 밝혔다.구체적으로 중계기관의 처리 가능한 트래픽 양을 10배 이상 확대해 전산장애를 방지하고, 마이데이터 사업자에 연결되는 정보제공자를 늘려 인증수단을 추가하는 등 더욱 쉽게 본인인증 절차를 거칠 수 있도록 개선했다.마이데이터가 5일부터 본격 시행되면, 사업자들이 고객을 대신해 금융사 사이트에 접속하고 화면을 읽어내는 '스크린 스크레이핑' 방식은 전면 금지되고 사업자들은 데이터 표준 API를 통해 금융기관 등에 흩어진 정보를 받게 된다.시행일부터 일부 대부업체를 제외한 대부분의 제도권 금융회사 417곳의 정보를 받을 수 있으며, 국세 납세증명 자료도 조회할 수 있다.아울러 금융당국은 현재 제공하지 않는 국세·지방세·관세 납부 명세나 건강보험, 공무원연금·국민연금 보험료 납부내역 등 공공정보는 올해 상반기 안에 추가 제공이 가능하도록 협의 중이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>2022.01.03.</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>토스, 마이데이터 가입 절차 개선…업계 반발에 부랴부랴 수정</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0005822390?sid=101</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>금융당국 "마이데이터 사업자 상생해야…반복시 대가" 경고강남구 토스 본사 모습. 2021.6.9/뉴스1 © News1 박세연 기자(서울=뉴스1) 민선희 기자,서상혁 기자 = 금융플랫폼 '토스'가 오는 5일 마이데이터(본인신용정보관리업) 전면 시행을 앞두고 논란이 됐던 '고객 정보 이용 동의' 등 관련 절차를 개선했다. 토스의 마이데이터 서비스 가입 절차가 '마이데이터 가이드라인'에 위배된다는 업계의 불만이 금융당국에 접수되면서 한발 물러선 것이다. 금융위원회는 마이데이터 사업자간 상생을 강조하며 마이데이터 가이드라인 위반 등의 행태는 바람직하지 않다고 경고한 것으로 전해졌다.3일 금융권에 따르면 토스는 마이데이터 서비스 시행을 앞두고 기존 고객들을 API방식으로 연결하면서 사용자가 일일이 선택해야 하는 연결기관 선택 기능을 일괄 연결로 제공했다. 금융당국은 마이데이터 사용자가 '알고하는 동의'를 이용해 직접 연결기관을 선택하도록 규정하고 있는데, 토스는 전체 기관을 확인 없이 일괄적으로 선택할 수 있도록 한 것이다. 또한 정보전송 요구시 '정기적 전송 동의'도 선택사항이어야 하나 필수항목으로 넣었던 것으로 확인됐다. 본인인증 과정도 문제가 됐다. 일부 회원에게는 정보제공시 거쳐야할 인증서 선택지로 토스인증서만 보인 것으로 전해졌다. 마이데이터 사업자는 사설인증서와 공동인증서를 모두 인증수단으로 제공해야 한다. 또한 토스는 1회 공동인증 후 재인증을 토스 핀번호나 생체인증을 통해 할 수 있도록 설계했는데 이부분도 토스가 인증서 비밀번호를 활용하려는 것 아니냐는 문제제기가 있었다. 토스는 이와 관련해 금융당국으로부터 시정 요구를 받았고, 지난주말부로 문제를 모두 시정한 것으로 확인됐다. 금융당국 관계자는 "문제된 부분들은 전부 개선한 것으로 확인했다"고 밝혔다. 토스 관계자도 "시범기간 중 일부 절차에 누락됐던 부분을 바로 수정했다"며 "불편함이 없도록 금융당국, 제공기관들과 잘 소통하겠다"고 밝혔다. 앞서 금융위는 토스 관련 논란이 이어지자 지난주 마이데이터 특별대응반 회의에서 '이런 행태는 바람직하지 않고, 반복될 경우 향후 정책에도 잘못된 행위들에 대한 대가가 반영돼야하지 않을까 생각한다'며 강력하게 경고한 것으로 전해졌다. 금융위 관계자는 "마이데이터는 사업자간 서로 상생해야 소비자들도 완결성 있는 혜택을 받을 수 있는 사업이니 소비자들의 불편함이 없도록 사업자간 잘 소통해야한다는 취지에서 이야기한 것"이라고 밝혔다. 그러나 업계에선 토스가 정당하지 못한 방법으로 고객을 끌어 모았으니, 해당 고객의 가입은 무효라는 주장까지 나온다. 업계 관계자는 "엄연히 가이드라인이 존재하는 라이선스 사업임에도, 규칙을 지키지 않았다"며 "정당하지 않은 방법으로 고객을 끌어모았으니, 해당 고객들에게 가입할지 말지 다시 선택권을 부여해야 한다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>2022.01.04.</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>중금리대출 재개… 인뱅 대출 유치전 치열해진다</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002714356?sid=101</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>카카오뱅크를 비롯한 인터넷은행들이 연초 중저신용자 대출 확대에 열을 올리고 있다. 카카오뱅크 제공    금융당국이 올해 중금리대출을 대폭 늘리면서 인터넷 전문은행의 대출 유치전이 치열해질 전망이다. 인터넷은행들은 주택담보대출·개인사업자대출 등 신규 상품 개발 및 고객 유치 전략을 세우고 있다.4일 금융권에 따르면 당국은 올해 중금리대출 공급액을 지난해보다 3조 많은 35조원으로 늘렸다. 이에 케이뱅크·카카오뱅크·토스뱅크는 당국에 제출한 목표치를 맞추기 위해 실수요자 중심 대출을 확대하는 등 움직임을 보이고 있다.앞서 인터넷은행들은 2023까지 중저신용자 대상 대출 목표치를 제출한 바 있다. 카카오뱅크의 중저신용자 대상 대출 목표치는 2021년말 20.8%, 2022년말 25%, 2023년말 30%다. 케이뱅크는 2021년말 21.5%, 2022년말 25%, 2023년말 32%의 목표치를 제시했다. 토스뱅크는 2021년말 34.9%, 2022년말 42%, 2023년말 44%를 목표치로 파격적인 수치라는 평가가 나온다. 중저신용자는 신용점수 KCB 기준으로 820점 이하인 차주들을 말한다.카카오뱅크는 먼저 고신용자에 대한 대출을 취급하지 않기로 했다. 카카오뱅크는 자체 대출 신청 데이터에 통신정보 등을 반영해 머신러닝 방법으로 개발한 새 신용평가모형으로 신용점수 820점 이하 대출 신청 고객의 신용평가 변별력을 확보했다. 또 지난해 출시한 중신용플러스 대출과 중신용비상금 대출로 대출 가능 고객 범위를 KCB 신용점수 기준 600점대에서 500점대로 확대하기도 했다.관계자는 "지난해 카카오뱅크의 중신용대출을 받기 전 비은행권 대출이 있던 고객 10명 중 6명은 대출금 전부 또는 일부를 고금리 대출을 상환하는데 사용했다"며 "평균 7~30점 가량 신용점수가 상승했다"고 설명했다.또 카카오뱅크는 1분기 내로 주택담보대출 상품을 출시할 예정이다. 지난 3일엔 실제 상품을 이용할 외부 이용자를 선정해 대출 절차를 시행해보는 비공개 베타테스트(CBT)에 나선다고 밝히기도 했다. 카카오뱅크는 외부 이용자 대상 CBT 완료 이후 주담대 상품을 내놓을 전망이다.올해 중저신용자 대출 목표치 25%를 제시한 케이뱅크도 100% 비대면 개인사업자대출 상품 출시를 검토하고 있다. 관계자는 "케이뱅크는 자체신용평가시스템(CSS) 고도화를 통해 중저신용자의 폭을 늘려나갈 예정"이라고 말했다. 케이뱅크 이용자는 지난해 말 기준 717만명으로 1년새 498만명 늘어났다.인터넷은행중 가장 높은 중저신용자대출 비중(33%)을 기록한 토스뱅크는 이달 1일부터 대출을 재개하며 문을 활짝 열었다. 대표상품인 '토스뱅크 신용대출'은 연 3%대 초반 금리에 최대 2억7000만원의 한도다. 또 마이너스통장, 비상금대출을 운영하고 있다. 중도상환수수료는 없다. 토스뱅크는 올해도 자영업자 또는 1300만 금융이력부족자 등의 신용점수 하락 요인을 줄이고 신용도 개선 기회도 제공할 계획이다. 토스뱅크는 '토스뱅크 대출한도' 서비스를 통해 한도가 나오면 대출을 신청할 수 있다. 또 주택담보대출을 취급하고 있진 않지만 'DSR 대출한도 계산기', '주택담보대출 찾기' 등을 통해 대출 가능 한도와 취급 금융기관을 연결하는 등 서비스 개발에도 만전을 기하고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>2022.01.02.</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>“미리 앱 업데이트 해야”...내일부터 방역패스 유효기간 적용</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/081/0003241769?sid=102</t>
-        </is>
-      </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>방역패스 의무화가 시작된 13일 오전 서울 서대문구 연세대학교 중앙도서관 입구에서 한 학생이 코로나19 예방접종 증명서를 보여주고 있다.오늘부터 식당·카페 등에서 방역패스 확인을 하지 않으면 이용자, 운영자 모두에게 과태료를 물린다. 2021.12.13 연합뉴스오는 3일부터 방역패스에 ‘유효기간’이 생긴다.2일 방역당국에 따르면 방역패스의 유효기간은 코로나19 백신 2차접종(얀센 접종자는 1차접종) 후 14일이 지난 날부터 6개월(180일)까지다.유효기간이 임박한 사람은 3차접종을 해야 방역패스 효력을 유지할 수 있다. 3차접종을 받은 즉시 효력이 생긴다.따라서 지난해 7월 6일이나 그보다 전에 기본접종을 완료한 사람이 추가접종을 하지 않았다면 3일부터 영화관 등 방역패스 적용 시설을 이용할 수 없다.청소년 방역패스는 오는 3월 1일부터 시행하는데, 12∼17세는 방역패스 유효기간을 적용받지 않는다. 12∼17세는 3차접종 권고 대상이 아니기 때문이다.방역패스 유효기간은 일주일(3∼9일) 계도기간을 거쳐 시행된다. 따라서 방역패스 유효기간 위반으로 인한 과태료나 행정처분은 10일부터 부과된다.부산학원연합회, 정부의 학원 방역패스 적용 항의 집회. 연합뉴스유효기간은 예방접종 인증 전자증명서인 쿠브(COOV) 애플리케이션(앱)에서 확인할 수 있다. 2차접종 후 14일이 지나면 ‘14일 경과’ 표시가, 180일이 지나면 ‘유효기간 만료’ 표시가 뜬다.질병청은 유효기간 적용이 시작하는 3일이 되기 전에 미리 업데이트해두는 게 좋다고 강조했다.전자 증명서 사용이 어려운 장애인은 종이로 된 접종증명서나 예방접종스티커를 사용할 수 있다. 종이 증명서는 보건소에 신청해 발급받을 수 있다.앞서 중앙방역대책본부(방대본)는 “국민들께서는 (질병청이 관리하는) 쿠브(COOV) 앱 및 카카오, 네이버 등 주로 사용하시는 전자출입명부 앱을 업데이트 해주시길 바란다”고 밝혔다.식당·카페, 실내체육시설, 영화관 등 방역패스가 적용되는 시설을 이용하려는 접종자들은 카카오나 네이버, 토스, PASS앱(SKT, KT, LG) 등을 활용하면 된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>2022.01.06.</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>대출한파 맞은 은행들 대안신용평가 개발 몰두</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002714798?sid=101</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>은행이 비금융 데이터를 활용한 대안신용평가모델로 중·저신용자의 대출 기회를 늘리고자 하고 있다. 신한은행 배달앱 '땡겨요' 사업자 대출. 신한은행 제공    지난해에 이어 가계대출 총량 관리 기조가 계속되면서 은행들이 생활금융 데이터를 통한 신용평가모델(CSS) 개발에 열을 올리고 있다. 중·저신용자를 비롯해 대출자의 다양한 재정능력을 평가해 실수요자 대출 기회를 넓히겠다는 취지다.6일 금융권에 따르면 우리·하나은행은 일부 상품에 대안신용평가모델을 운영 중이고 국민·신한은행은 모델 개발을 추진하고 있다. '대안신용평가'란 '대체정보'로 불리는 비금융정보를 활용해 신용을 평가하는 방식이다. 우리나라는 KCB(코리아크레딧뷰로)·NICE(나이스)라는 국민 신용점수가 있고 시중은행은 대부분 1등급부터 9등급까지 등급에 따라 금리를 차등 적용한다. 이러한 방식은 대출자의 신용능력을 정교하게 파악하기 어렵다는 단점이 있다.대안신용평가모델 운영은 세계적인 추세로 이미 카카오뱅크·케이뱅크·토스뱅크와 같은 인터넷 전문은행과 국내 많은 핀테크·빅테크 업계는 생활금융 데이터를 활용한 CSS 고도화에 나선 상태다. 혁신금융서비스 일환으로 은행권 최초 배달앱 '땡겨요'를 출시한 신한은행은 라이더 대출에 이은 '땡겨요 사업자 대출'을 출시해 데이터 수집에 나섰다. '땡겨요 사업자 대출'은 '땡겨요'에 입점한 개인사업자 고객을 대상으로 대출한도는 신한은행 계좌로 입금되는 매출데이터를 분석해 최대1천만원까지 가능하다. 신한은행은 앞으로도 가맹점과 라이더의 월평균 매출 정보를 수집해 대안평가모델을 개발할 예정이다. 관계자는 "배달은 대부분 카드결제로 이뤄져 식당 매출 현황 등을 파악할 수 있다. 오는 14일 땡겨요 앱이 본격적으로 시행되면 서울, 경기도 등으로 서비스 지역을 확대하면서 데이터가 쌓일 거다. 그 데이터를 이용한 상품 등을 진행하려고 한다"고 말했다.국민은행도 최근 대안신용평가모델 개발을 위한 업체 용역 공고를 냈고 올해 상반기중 시스템을 구축하겠다는 계획이다. 이재근 신임 국민은행장은 "CSS를 정교화해 7·8등급 고객도 발굴할 수 있느냐가 앞으로 은행 간 성과 차별화 요소가 될 것"이라고 언급하기도 했다.우리은행은 일찌감치 BC카드사 가맹점 정보를 활용한 '비대면 개인사업자 신용평가모형'을 도입했다. 해당 모형은 지난해 7월 개인사업자 대출에도 적용돼 매출 정보가 좋음에도 불구하고 업력이 짧거나 금융회사 거래가 없어서 은행권 대출이 어려웠던 우량 개인사업자의 자금 공급이 가능해졌다. 또 네이버파이낸셜과 협업한 '스마트스토어 대출'에도 관련 모형이 적용 중이다.하나은행도 입출금 통장 거래 내역을 활용한 신용평가모델을 운영 중이다. 카카오뱅크는 교보생명·문고·증권과 업휴 제휴를 통해 도서 구매 이력 데이터 등을 기반한 대안신용평가모델을 개발할 계획이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>2022.01.03.</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>대출문 열리지만 문턱 높아져</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0010924386?sid=004</t>
-        </is>
-      </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>[서울=뉴시스] 권창회 기자 = 새해 가계대출 총량 한도가 재설정되면서 대출을 중단했던 일부 시중은행의 대출 창구가 다시 열리고 있다. NH농협은행은 3일부터 주택담보대출을 비롯해 전체 가계대출을 정상화한다. 출범 9일 만에 대출 한도 소진으로 신규 대출을 중단했던 토스뱅크도 이달부터 대출 영업을 시작했다. SC제일은행도 지난 8월부터 판매를 잠정 중단했던 신규 주담대 상품을 다시 선보인다. 사진은 3일 오후 서울 중구 NH농협은행 본점의 대출상담 창구 모습. 2022.01.03. kch0523@newsis.com[사진 영상 제보받습니다] 공감언론 뉴시스가 독자 여러분의 소중한 제보를 기다립니다. 뉴스 가치나 화제성이 있다고 판단되는 사진 또는 영상을 뉴시스 사진영상부(n-photo@newsis.com)로 보내주시면 적극 반영하겠습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>2022.01.06.</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>417개사 금융정보, 하나의 앱으로 모아본다</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/382/0000954803?sid=101</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>내 손안의 금융비서 ‘마이데이터’ 시대 개막은행·핀테크사 등 공식 서비스 시작금융업체들, 고객 유치에 사활 걸어원하는 정보만 전송하는 방식 장점자산 정보 유출에 대한 우려 시선도‘내 손안의 금융비서’인 마이데이터 서비스가 기대와 우려 속에 5일 전면 시행됐다. 배우 정호연이 모델로 나선 신한은행의 마이데이터 서비스 ‘머니버스’(위쪽)와 안무가 아이키가 모델로 출연한 하나은행의 마이데이터 서비스 ‘하나 합’ CF 영상. 사진제공 l 신한은행·하나은행 ‘내 손안의 금융비서’로 불리는 마이데이터(본인신용정보관리업) 서비스가 5일 오후 4시 정식 서비스를 시작했다. 33개 사업자가 API(응용프로그램 인터페이스) 방식으로 서비스를 제공했다. 소비자는 맞춤형 금융서비스를 제공받고, 사업자는 신성장 동력을 마련할 기회를 얻어 양측 모두에게 긍정적이라는 평가다. 반면 일각에서는 개인 금융정보 보안, 업체 간 과열경쟁 등 풀어야 할 과제에 대한 우려의 목소리도 나온다. ● 금융정보 한데 모아 맞춤형 금융 서비스 마이데이터는 개별 기관·기업에 흩어져 있는 금융정보를 한데 모아 보여주고, 사용자의 빅데이터를 분석해 맞춤형 금융 서비스를 제공하는 사업이다. 그동안 예·적금 계좌잔액, 주식 보유수량, 보험 정보, 카드 청구금액, 통신료 납부내역 등을 확인하려면 해당 기관의 앱을 각각 켜야 했지만, 이제는 하나의 앱에서 한눈에 확인할 수 있게 된 것이다. 이처럼 하나의 앱에서 금융업무를 처리할 수 있기에, 사실상 모든 금융업체들이 사활을 걸고 달려들고 있다. 고객의 선택을 받지 못하면 그간 쌓아온 주거래은행과 같은 지위를 한순간에 잃을 수 있기 때문이다. 과거 계좌이동제와 오픈뱅킹 도입 이상의 치열한 경쟁이 벌어질 것이라는 관측도 나온다. 이날 마이데이터 공식서비스를 제공한 사업자는 KB국민·NH농협·신한·우리·IBK기업·하나·대구·SC제일·광주·전북은행 등 10개 은행, 키움·하나금융투자·NH투자·미래에셋증권 등 4개 금융투자사, KB국민·신한·하나·BC·현대·우리카드 등 6개 카드사, 뱅크샐러드·핀크·쿠콘·카카오페이·토스·네이버파이낸셜·NHN페이코·민앤지·SK플래닛·핀다 등 10개 핀테크사, 웰컴저축은행, 농협중앙회, 나이스평가정보 등 총 33개사다. 이들 사업자들은 417개 제도권 금융사의 정보를 활용한 맞춤형 금융서비스를 소비자에게 제공한다. 본 허가를 획득한 54개사 중 나머지 21개사는 관련 시스템 구축과 앱 개발 등을 거쳐 상반기 중 참여할 예정이다. 예비 허가를 받은 9개사는 본 허가 이후인 하반기에 동참할 것으로 보인다. ● 긍정적 효과 기대 속에 우려의 시선 공존 기존 스크래핑 방식 대신 데이터가 오가는 전용도로 개념의 API 방식이 의무화되는 게 특징이다. 스크래핑 방식은 고객의 포괄적 동의를 근거로 외부 기관에서 데이터를 한 번에 긁어오는 것이다. 사업자가 고객 정보를 광범위하게 수집할 수 있다는 문제가 있다.  반면 API방식은 소비자가 원하는 정보만 선택해 전송요구를 할 수 있는 장점이 있다. 정보 유출 등 사고 시 책임소재도 명확하며 스크래핑 방식보다 조회 속도도 빠르다.  금융권은 다방면에서 마이데이터의 긍정적 효과를 기대하고 있다. 기존 금융사와 핀테크는 마이데이터 서비스를 통해 고객을 묶어두면서 금융플랫폼으로 입지를 굳힐 수 있다. 또 마이데이터를 통해 얻은 데이터로 자체 신용평가모형을 고도화하고 자체 데이터의 경쟁력도 높일 것으로 기대한다.  반면 우려의 시선도 공존한다. 네이버파이낸셜은 지난달 28일 100여 명의 자산 정보를 타 이용자에게 노출하는 사고를 냈고, 일부 핀테크사는 29일 NH농협은행과 일부 금융사에 요청한 API 정보를 제대로 받지 못하는 이상 현상을 겪기도 했다.  금융위원회는 당분간 마이데이터 특별대응반을 통해 특이사항을 실시간으로 모니터링할 계획이다. 금융위원회 측은 “정보제공자의 부담 등을 고려해 불필요한 트래픽이 유발되지 않도록 합리적인 과금체계를 검토하는 등 적극적으로 제도개선을 추진할 것”이라며 “안정적인 서비스 제공은 물론, 소비자 정보보호와 보안에 한 치의 차질도 발생하지 않도록 지도할 예정”이라고 했다. 정정욱 기자 jjay@donga.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>2022.01.02.</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>대출 문 열렸지만 한도 준다…"분기초 1·4·7·10월 유리"</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0005819234?sid=101</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>새해 대출 일제히 재개…DSR 2단계·총량규제로 한도 팍팍올해 분기별 한도관리…연초나 분기초에 신청하는 게 유리서울 시내 한 은행 영업점 대출창구 모습. 2021.12.27/뉴스1 © News1 민경석 기자(서울=뉴스1) 서상혁 기자 = 새해 가계대출 총량 한도가 새롭게 부여됨에 따라 은행과 2금융권 금융회사들이 대출 창구를 열기 시작했다. 다만 금융당국이 가계부채 관리 차원에서 올해부터 소득기준 대출규제인 차주별 총부채원리금상환비율(DSR) 강도를 높이면서 대출자들이 체감하는 대출 한도는 지난해보다 줄어들 것으로 전망된다. 여기에 금융회사별 총량 한도도 줄어든 상황이라 대출 중단 사태가 재현될 가능성도 배제할 수 없다.은행권 관계자들은 대출을 받는다면 매분기 '초반'을 노리라고 조언한다. 금융당국이 올해부터 분기별로 총량관리를 점검할 예정인 만큼 금융회사들의 대출 취급 태도가 분기초보다 분기말이 훨씬 깐깐할 것으로 예상되기 때문이다.2일 금융권에 따르면 KB국민은행은 오는 3일부터 전세자금대출과 부동산담보대출의 우대금리를 0.2~0.3%p(포인트) 인상한다. 우리은행도 우리아파트론 등 부동산담보대출의 우대금리를 0.3~0.5%p, 신용대출 10종 상품의 우대금리도 0.1~0.6%p 올린다. 농협은행은 1일부터 '신잔액코픽스 주담대'를 제외한 나머지 주택담보대출 판매를 재개했다. 우대금리는 다른 은행과 마찬가지로 되살리는 쪽으로 가닥을 잡은 상태다.인터넷전문은행인 토스뱅크와 케이뱅크도 지난 1일부터 신용대출과 마이너스통장 등 신규 대출 취급을 재개했다. 다만 카카오뱅크는 총량 관리 차원에서 올해도 고신용자 대상 신규 신용대출 영업을 중단했다.2금융권도 속속 대출 문을 연다. 상호금융권인 농협중앙회, 수협중앙회, 신협중앙회는 3일부터 준조합원, 비조합원 대출 등 가계대출의 문을 다시 연다. 새마을금고중앙회는 아직 재개 시점을 확정하지 못했다. 보험업권에선 삼성화재가 주택담보대출 판매를 재개한다. KB손해보험과 DB손해보험은 아직 재개 시점을 정하지 못했다. 저축은행업계도 심사 문턱을 예년 수준으로 낮출 예정이다.◇차주별 DSR 2단계 시행에 총량규제 강도 더 강해져…대출 한도 감소 불가피대출은 재개되지만 금융당국의 강화된 가계대출 규제로 차주들이 받을 수 있는 대출 한도는 지난해보다 줄어든다. 먼저 올해부터 차주별 총부채원리금상환비율(DSR) 규제 2단계가 시행된다. 이에 따라 총 대출액이 2억원을 넘는 대출자는 연간 원리금 상환액이 연소득의 40%를 넘으면 은행에서 대출을 받을 수 없다. 오는 7월부터는 총대출액 기준이 1억원으로 강화된 3단계 규제가 적용된다.예를 들어 연소득 4000만원에 대출이 하나도 없는 무주택 세대주가 서울에서 6억원짜리 집을 살 경우 지난해까지는 주택담보대출비율(LTV)을 최대 60%까지 인정받아 주담대로 3억6000만원을 빌릴 수 있었다. 여기에 연봉 수준인 4000만원을 신용대출로 받으면 총 4억원을 빌리게 되는 셈이다.DSR 2단계가 적용되는 올해부터는 상황이 다르다. 연봉 4000만원의 경우 DSR 40%를 적용하면 연간 원리금상환액이 1600만원(월 133만원)을 넘을 수 없다. 주담대 만기를 최장 30년(금리 3.5%)으로 잡아도 3억원 밖에 대출이 안 된다. 종전 대출한도보다 1억원 줄어드는 것이다.특해 올해부터 카드론도 차주별 DSR에 포함된다. 2금융권의 차주별 DSR 적용 비율도 올해부터는 50%로 지난해 60%보다 강화됐다.금융회사별로 부여된 가계대출 총량도 지난해보다 줄었다. KB국민·신한·하나·우리·NH농협 등 5대 은행의 올해 가계대출 증가율 목표치는 지난해 5~6%대보다 낮은 4%대로 잠정 결정된 것으로 전해진다. 시중은행 고위 관계자는 "10월말 증가율을 기준으로 잡은 수치라서 지난해말 결산이 끝나면 추가 조정을 진행하는 것으로 안다"며 "조정 과정에서 더 줄어들 가능성이 높다"고 말했다.지난해 5대 은행의 가계대출 연간 취급액은 42조원, 12월말 기준 가계대출 잔액은 712조원으로 추정된다. 5대 은행의 올해 가계대출 증가율 목표치 평균값을 4.5%로 가정하면 올해 한도는 약 32조원 정도다. 지난해보다 10조원 줄어든 수치다. 2금융권의 총량 역시 감소했다. 저축은행의 올해 가계대출 증가율 목표치는 14.8%로 지난해 21.1% 대비 크게 깎였다. 지난해 총량을 맞추지 못한 업체들의 경우 10% 초반의 목표치를 받은 것으로 알려졌다. 카드사는 지난해와 동일한 6~7%를 받았지만 캐피탈사는 3~4%p 깎인 6~7%를 받았다. 보험업계는 지난해 4.1% 대비 0.1%포인트(p) 줄어든 4.0%으로 잠정 결정됐고 상호금융권은 은행권 수준에서 정해질 전망이다.◇ "대출 받는다면 매분기 '초반'이 유리…집 구매 계획있다면 '고금리 대출' 대환"은행권 대출 전문가들은 지난해와 같이 은행권이 대출 창구를 막을 가능성에 대비해 되도록 '연초'와 '매 분기 초반'을 노리라고 조언한다. 금융당국이 올해부터 분기별로 총량 준수 여부를 점검할 계획이라 은행들이 연말과 분기말로 갈수록 보수적으로 대출을 취급할 가능성이 있기 때문이다. 시중은행 관계자는 "주택담보대출의 경우 차주마다 이사 시기가 달라 원하는 시기에 대출을 신청하지 못할 수 있지만 신용대출의 경우 되도록이면 총량에 여유가 있는 연초나 분기초에 신청하는 게 유리할 것으로 본다"고 설명했다.만약 주택을 구입할 예정이라면 보다 낮은 금리의 신용대출로 갈아타거나 상환하는 게 유리하다. 원리금을 줄여야 DSR 수치를 낮출 수 있기 때문이다. 은행 관계자는 "연소득을 갑자기 늘리기 어려운 만큼 고금리 신용대출을 갖고 있다면 낮은 금리로 대환하는 게 좋다"며 "마이너스통장을 갖고 있다면 차라리 한도를 해지하는 것도 방법"이라고 말했다.한편 신용점수가 820점(KCB 기준) 이하의 중·저신용자는 올해 큰 무리없이 대출을 받을 수 있게 될 전망이다. 금융당국은 취약차주 보호를 위해 중저신용자 대출에 대해선 가계대출 총량 한도에서 제외하는 방향으로 업계와 논의하고 있다.특히 중·저신용자 비중 목표치를 부여받은 인터넷전문은행들이 다양한 마케팅을 진행할 전망이다. 카카오뱅크와 케이뱅크는 지난해 '중·저신용자 이자 감면 이벤트'를 진행했는데, 올해도 진행 여부를 두고 검토 중이다. 카카오뱅크와 케이뱅크는 올해말까지 전체 가계 신용대출에서 중저신용자 대출 비중을 25%로 맞춰야 한다. 지난해 9월말 기준 각각 13.7%, 13.4%로 부진했다. 토스뱅크는 중·저신용자 대출 비중을 42%로 맞춰야 한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>2022.01.06.</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>금융업계 핀테크 열풍 새해에는 더 거셀 듯</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002244291?sid=105</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>[2022년 전망⑩- 금융 DT] 소매금융 고객 접점 확보 사투코로나19가 2년째 기승을 부리면서 IT업계에도 많은 지각변동이 일어났다. 비대면과 원격근무에 이어 메타버스가 새로운 키워드로 떠올랐다. 이런 상황은 2022년에도 당분간 계속될 전망이다. 물론 2022년 경제를 지배할 다른 키워드도 적지 않다. 대통령 선거를 비롯해 여러 변수들이 내년 IT 경기에도 영향을 끼칠 것으로 예상된다. 지디넷코리아는 '2022년 전망' 시리즈를 통해 IT 주요 분야별 경기를 전망한다. '은행은 지금처럼 운영될 수 있을까.'은행은 물론이고 전 금융사와 핀테크가 하는 고민 중 하나다. 이미 은행 지점은 줄어들고 있으며 이에 따른 불편 사례도 속속 나오고 있다. 지난해 신한은행의 월계동 지점 폐쇄를 둘러싼 주민 간 은행 갈등은 은행의 점포 효율화 전략이 은행의 판단대로만 진행될 수 없다는 점을 보여준 사례이기도 했다. 은행 본연의 자금 중개 기능을 수행하기 위한 사회적 책무를 함께 고려해야 한다는 제3자의 목소리도 경청해야 한다는 여론을 무시할 수 없기 때문이다.새해 은행을 둘러싼 환경은 은행업 성장에 우호적이지만은 않다. 스몰 라이선스와 마이데이터(본인 신용정보 관리업)으로 소매(리테일) 금융의 패권을 빼앗길 수도 있는 상황이다. 이 때문에 은행은 영업점이 아닌 모바일이 대세가 된 만큼 플랫폼 전략과 비금융서비스를 확장하며 플랫폼을 맹렬히 추격 중이다.(사진=이미지투데이)제판분리 가속화...막을 수 없어은행업은 핀테크와 다양한 기업의 금융업 진출로 소매 금융의 접점의 지배력이 약화되고 있다. 대출을 받기 위해 여러 은행 지점을 돌아다니기보다는 한 플랫폼에서 대출 상품을 비교해주면 그 곳서 대출을 받는 행위가 자연스러워진 것이 한 예다. 은행 모바일 뱅킹을 통해 이체하기보다는 토스나 카카오페이와 같은 전자금융업자 서비스를 택하기도 한다.고객 접점의 이탈은 은행의 제판(제조-판매)의 분리를 가속화하고 있다. 은행은 상품을 팔기 위해 방대한 영업점 조직을 활용했지만 이 효과가 감소하고 있다. 2021년 3분기 신한은행의 경우 수신 상품의 디지털 채널 비중이 68.4%, 여신 상품은 61.0%로 2018년 수신(55.2%), 여신(39.8%)에서 대폭 늘어났다.모바일로 옮겨 간 고객 접점을 확대하고 제판분리를 막기 위해 자체 플랫폼으로 고객을 끊임없이 유입시켜야 한다. 그러나 한 은행만의 서비스를 위한 모바일 뱅킹에 접속하기보다는 다양한 금융 서비스를 누릴 수 있는 플랫폼에 유입되는 고객이 더 많다. 2021년 3분기 기준으로 신한은행 모바일 뱅킹의 월간 활성화 이용자 수는 953만명이지만 같은 기간 카카오페이의 월간 활성화 이용자 수는 2천44만명이다.스몰 라이선스·디파이, 업태 바꿀 가능성 高현재 아직 국회 문턱을 넘지 못한 전자금융거래법(전금법) 개정안은 금융업을 흔들어놓을 가능성이 높다. 고객으로부터 돈을 받아 이를 다른 고객에게 빌려주는 '여신 창출'이라는 근간의 기능을 하지 않더라도 이체나 자금 중개 등 은행의 일부 기능만을 대신해줄 수 있는 스몰 라이선스가 이 개정안에 포함됐기 때문이다.(사진=이미지투데이)특히나 최근 기술력을 보유한 기업을 바탕으로 한 블록체인의 활용도 확대는 은행의 자금 중개 기능까지도 위협하고 있다. 개인 간 개인, 특정 그룹 간 거래를 꼭 은행이라는 기관을 거치지 않고도 거래의 신뢰성을 확보할 수 있다 보니 중개자의 역할도 축소될 가능성이 높아진 것이다.다만, 대체불가토큰(NFT)이나 디파이(De-Fi)에 관한 규제가 체계적이지 않다는 점은 변수다. 금융은 자금이 움직이는 만큼 자금의 이동 경로, 출처가 중요한만큼 규제당국 입장서는 전통적인 금융업에 기댈 수 밖에 없다.은행 특화 서비스·비금융으로 경쟁 구도 개편은행은 소매 금융은 신기술을 접목하며 비용을 줄이며 동시에 빅테크가 하지 못하는 특화 서비스를 개발하는데 주력하고 있다. 그 대표적인 예가 인공지능(AI) 기반 은행원과 온·오프라인 채널 간 협업을 꾀하는 옴니채널이다. 고객으로부터 들어오는 방대한 데이터를 자동화 처리하고 이를 통해 불완전판매를 막는 기술 구축에도 힘을 쏟고 있다. 은행은 플랫폼과 비교해 '더 안정성 있고 신뢰도 높은 거래'를 제공한다는 포지셔닝을 지속적으로 구축하는 것이다.또 금융당국이 은행의 비금융서비스 진출을 일부 허용한 만큼 은행의 비금융서비스 제공도 은행의 경쟁력을 좌우할 시험대가 될 것으로 점쳐진다. 신한은행은 배달 서비스를 KB국민은행은 부동산과 자동차 등을 미래의 성장동력으로 키워나가겠다는 계획이다.기업 금융은 빅테크가 진출하지 못하는 만큼 은행은 소매보다 기업 금융의 경쟁력도 강화하고 있다. 기업 금융은 소매 금융에 비해 규모가 큰 데다 디지털화가 덜 이뤄져 있기 때문에 기업 금융의 디지털 전환을 가장 잘, 먼저 이뤄낸 은행이 승기를 가져갈 것으로 관측된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>2022.01.03.</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>코로나19 접종증명 유효기간 오늘부터 적용…2차 접종 180일 지나면 효력 상실</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/056/0011187310?sid=102</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>다중이용시설 등을 이용할 때 필요한 코로나19 접종증명에 대해, 오늘(3일)부터 유효기간이 적용됩니다. 이에 따라 2차 접종 후 180일이 지난 사람은 방역패스의 효력이 사라지며, 3차 접종을 받으면 접종일부터 바로 방역패스를 사용할 수 있습니다.  방역패스가 유효하지 않은 경우 전자명부 인식 때 '딩동' 소리가 나게 되며, 시설 관리자는 출입 제한 등의 조치를 취해야 합니다.  코로나19 예방접종증명서(COOV) 스마트폰 앱을 비롯해, 카카오와 네이버 등 전자출입명부 앱에서 2차 접종 후 경과일과 3차 접종력을 확인할 수 있습니다.  시스템 개선으로 카카오ㆍ네이버 뿐만 아니라 토스, PASS앱, KI-PASS 앱에서도 3차 접종력과 2차 접종 후 경과일 확인이 가능합니다. 당초 종이로만 발급하던 코로나19 완치확인서, 방역패스 예외확인서도 전자 형태로 발급받을 수 있습니다. 3차 접종자의 경우 본인의 접종정보를 직접 갱신해야 합니다. 갱신하지 않으면 오늘부터 시설 이용을 위해 QR코드를 스캔할 때 미접종자로 인식될 수 있습니다. 시설 운영자들이 사용하는 KI-PASS앱은 오늘 0시 기준으로 자동 업데이트될 예정입니다.[사진 출처 : 연합뉴스]■ 제보하기▷ 카카오톡 : 'KBS제보' 검색▷ 전화 : 02-781-1234▷ 이메일 : kbs1234@kbs.co.kr▷ 뉴스홈페이지 : https://goo.gl/4bWbkG</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>2022.01.09.</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>[금융 플랫폼 대전] `대세` NFT 발행·타은행 대출나선 은행권… 빅테크와 달라야 산다</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002715041?sid=101</t>
-        </is>
-      </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>우리은행, 블록체인 플랫폼 구축NFT·멀티자산 지갑 등 서비스하나은행, 부동산 관련 상품내놔업계 "기존 빅테크와 차별성이 관건"은행의 플랫폼 사업 진출이 활발해지면서 핀테크와 경쟁이 본격화될 전망이다. 연합뉴스    은행의 디지털 전환 가속화 흐름에 따라 금융 플랫폼을 둘러싼 빅테크·핀테크와 은행권 간의 경쟁이 본격화되고 있다. 그동안 생활금융 데이터 확보 면에서 빅테크에 뒤처졌다는 평을 받았던 은행은 다양한 분야로 사업영역을 확장하면서 '디지털 금융 플랫폼'으로 변화를 꾀하고 있다. 네이버·카카오·토스 등의 빅테크는 제휴와 원앱 등의 플랫폼 기능을 강화하면서 금융업으로 사업 영역을 확장하고 있다.혁신금융서비스를 통해 빅테크와 핀테크의 금융권 진출에 우호적이었던 금융당국은 고승범 금융위원장 취임 이후 '동일기능·동일규제' 원칙을 강조하면서 빅테크·핀테크에 대한 규제 강화 움직임을 보이고 있다. 그에 힘입어 은행권은 플랫폼 사업 강화에 나선 상황이다.먼저 우리은행은 '블록체인 플랫폼'을 구축했다. '블록체인 플랫폼'은 블록체인 기술을 활용해 결제, 인증, 자산 관리 등 각종 거래에서 개인정보를 안전하게 보호하며, 거래의 신뢰성과 투명성을 보장할 수 있는 네트워크 환경을 말한다.우리은행은 '블록체인 플랫폼'을 통해 스테이블 코인인 '우리은행 디지털화폐(WBDC, WooriBank Digital Currency)'와 디지털 자산의 소유권을 증명할 수 있는 대체불가능토큰(NFT, Non Fungible Token) 발행이 가능하고, 송금과 결제에 이용할 수 있는 '멀티자산지갑'등 다양한 서비스에 활용하게 된다.하나은행은 지난해말 프롭테크 전문기업 점프컴퍼니와 업무협약을 통해 프롭테크 플랫폼 사업에 도전장을 내밀었다. 프롭테크란 부동산과 기술의 합성어로 인공지능(AI), 빅데이터, 블록체인 등 첨단정보기술(IT)을 결합한 부동산 서비스 산업을 말한다.이번 협약을 통해 하나은행은 점프컴퍼니㈜의 플랫폼 '점프' 서비스를 이용하는 중소기업과 개인사업자들을 위해 지식산업센터 등 상업용 부동산에 대한 중도금·잔금대출 등의 금융서비스를 제공하기로 했다.또한 상업용 부동산 임대 관리의 편의성 제고를 위한 임대료 자동납부 전용 기업카드를 개발하여 제공하는 등 다양한 제휴 사업에도 협력한다. 부동산과 관련한 중소기업 및 개인사업자 동향 정보를 수집해 사업자 대출 등 상품 개발에 나설 수도 있다.우리은행이 지난 5일 시중은행 중 유일하게 서비스를 시작한 '원스톱 연계대출 서비스'도 이목을 끌고 있다. 모바일 앱을 통해 우리은행 개인 신용대출을 받지 못한 고객에게 우리카드·우리금융캐피탈 등 우리금융그룹 계열사뿐만 아니라 웰컴저축은행·SBI저축은행·한국투자저축은행 등 제휴사의 대출 상품을 안내한다. 하나은행도 연계대출 서비스 출시를 검토 중이다.다만 관건은 기존 빅테크·핀테크와의 차별성이 될 것으로 보인다. 카카오뱅크와 케이뱅크는 이미 연계대출 서비스를 제공하고 있다. 토스 뱅크도 'DSR 계산기'를 통해 은행별 주담대 금리를 안내하고 있다. 업계 관계자는 "은행들이 플랫폼 사업을 부수적인 것이라 생각하지 않고 적극 나서야 경쟁력을 확보할 수 있다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>2022.01.05.</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>[2022 가계대출]①열린 대출 '문', 여전히 높은 '문턱'</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/648/0000005698?sid=101</t>
-        </is>
-      </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>시중은행, 신년맞아 가계대출 취급 재개DSR규제 등 문턱 높아…금리도 상승 기조지난해 말 막혔던 은행권 가계대출의 문이 다시 열렸다. 해가 바뀌면서 금융당국이 정했던 가계부채 총량 관리의 기준이 바뀌자 은행들이 판매를 재개하고 있다.하지만 문턱은 더 높아졌다. 2억원 이상 고액에는 새로 도입된 차주별 DSR(총부채원리금상환비율)이 적용되면서 기대할 수 있는 대출 한도는 크게 줄었다. 금리마저 상승기로 접어들면서 이자 부담은 갈수록 높아질 것이란 예상이다. /사진=이명근 기자 qwe123@다시 열린 대출 문  해가 바뀌면서 그동안 가계대출 취급을 중단했거나 우대금리 등을 축소하며 보수적으로 가계대출을 취급하던 은행들이 대출 취급 업무를 다시 재개했다. 지난해 9월부터 금융당국의 가계대출 총량 관리에 동참하기 위해 신규 취급을 중단했던 농협은행도 대출을 다시 시작했다. 출범 9일 만에 대출을 접어야 했던 토스뱅크 역시 새해 첫 영업일인 지난 2일부터 대출 상품을 판매하기로 했다.일부 시중은행들은 우대금리도 다시 부활시키고 있다. 실제 KB국민은행, 우리은행 등은 지난해 일부 신용대출 상품 취급 과정에서 배제했던 우대금리를 적용하고 있다. 특히 금융당국이 실수요자 대출로 분류했던 전세대출의 경우 최대 1.0%의 우대금리를 제공한다.은행 영업점 관계자는 "새해 들어 대출 문의를 위해 내방하는 고객들이 많아졌다"며 "그동안 영업점 별로 정해졌던 한도가 다시 풀린데다가 본부 차원에서 대출 재개 방침이 내려오면서 지난해 하반기 대비 분위기가 달라졌다"고 설명했다.열리긴 열렸는데…지난해와 다른 대출은행들이 일제히 대출의 문을 열어두긴 했지만 문턱은 예년에 비해 높은 편이다. 빌릴 수 있는 한도가 크게 줄었을 뿐만 아니라 금리 역시 상승기로 접어들고 있어서다. 당장 지난 3일부터 적용된 DSR 규제가 대출 문턱을 크게 높히는 역할을 했다. 금융당국은 올해 1월부터 2억원 이상 대출을 받을 경우 DSR 40%를 적용하기로 했다. DSR은 대출 차주의 연간원리금상환액을 소득으로 나눠 계산한다. 예를 들어 연 소득이 4000만원인 직장인이 기존 대출이 없다는 가정 아래 DSR 40%를 만족하는 원리금상환액은 133만원 수준이다.통상 2억원 이상 빌리는 대출이 주택담보대출이라는 점을 고려하면 만기 25년, 금리 3% 수준에 약 3억원까지 대출이 가능하다.종전에는 규제지역의 주택 구매시 LTV 40%가 우선시 됐다. 9억원 이하의 집을 구매하기 위해 주택담보대출을 빌릴 경우 3억6000만원까지 대출을 기대할 수 있었다. 하지만 이제는 6000만원 가량이 줄어들게 된 셈이다.신용대출의 경우는 은행들이 자체적으로 나서 한도를 연소득 이내로 줄였다. 지난해 유행했던 마이너스 통장 1억원과 신용대출 1억원은 더이상 찾아보기 힘들다. DSR의 기준점을 넘어서는 신용대출은 아예 상품자체가 사라졌다.은행 관계자는 "DSR 도입의 핵심은 기존에 대출이 있는 경우 다른 대출을 받기가 상당히 어려워졌다는 점"이라며 "과거에는 여러 금융기관에서 대출을 받아 필요한 금액을 맞추는 '영끌'이 가능했지만 이제는 모든 업권 대출 원리금상환액이 기준이 된다"고 설명했다.단순 한도만 줄어든 것이 아니다. 한국은행이 기준금리 인상에 나서면서 전체적인 금리가 상승하고 있다. 같은 금액을 빌리더라도 이자부담이 커진다는 의미다. 한국은행은 지난해 두차례에 걸쳐 기준금리를 인상, 현재 기준금리는 1.00% 수준이다.은행이 대출 상품을 취급하며 벤치마킹하는 지표금리도 상승세다. 신규취급액 코픽스 금리는 지난해 5월 0.82로 최저점을 기록한 이후 지난해 11월 1.55%까지 오르며 최고치를 경신했다.이에따라 은행권 대출 금리도 상승했다. 지난해 1월 상단이 3.0% 수준이었던 주택담보대출과 신용대출 금리는 지난해 12월말 기준 4.60~5.00%선까지 1%포인트 이상 올랐다.이 관계자는 "대출 취급이 다시 재개되기는 했지만 한도는 줄어들고 금리가 오르면서 부담이 커진 측면이 있다"고 말했다.하반기, 대출 더 힘들다은행권에서는 하반기 대출 문턱이 더 높아질 것이라는 전망도 나온다. 당장 7월부터는 2억원 이상의 대출에 적용됐던 차주별 DSR 규제가 1억원 이상 대출로 확대된다.DSR 40%는 같지만 기준금액이 낮아진다. DSR이 연간소득을 분모로 하기 때문에 소득이 낮다면 고액 대출을 받기가 어려워질 가능성이 높다.실제 올해 6월까지 1억9000만원까지 대출을 빌릴 경우 DSR 40% 규제가 적용되지 않아 소득이 상대적으로 낮더라도 신용점수 등이 높을 경우 대출이 가능했다. 하지만 7월부터는 1억원 이상에 DSR 40%가 적용되기 때문에 소득이 뒷받침되지 않으면 이전만큼 대출이 어려울 수 있다.추가 금리인상도 대기중이다. 이주열 한국은행 총재는 올해 신년사에서 "통화정책의 완화정도를 조정하겠다"며 이를 예고한 상태다. 시장에서는 한국은행이 올해 총 두차례에 걸쳐 기준금리를 1.50%까지 올릴 것이란 관측이 나온다.은행 여신관리본부 관계자는 "고액의 대출을 받아야 하는 경우 변동금리 상품을 받은 이후 차후 혼합형(고정금리)으로 갈아타는 전략을 세워야 한다"며 "목돈이 생길 경우 신용대출 등 변동금리 대출 상품을 우선적으로 갚아나갈 필요가 있다"고 조언했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>2022.01.13.</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>금융은 직장인만?…첫 금융생활은 중·고생부터</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0001937260?sid=101</t>
-        </is>
-      </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>CEO “금융앱은 쉽고 직관적이어야”국내 빅테크·핀테크사 대표들은 MZ세대들이 중·고등학교 재학 시기에 금융을 처음 접하고 있는 것으로 보고 있다. 이에 빅테크·핀테크들은 모바일 환경에 익숙한 MZ세대들을 위해 UI(사용자 인터페이스), UX(사용자 경험)의 직관성을 높여 사용자 편의성을 높이는데 집중하고 있다.헤럴드경제가 빅테크·핀테크 대표이사(CEO) 20명을 대상으로 MZ세대의 금융생활에 대해 진행한 설문조사에서 CEO 20명 중 16명이 첫 금융생활을 시작하는 나이로 미성년자를 꼽았다. 중학생(14~16세), 고등학생(17~19세)이 각각 7명으로, 전체 중 70%를 차지했다. 14세 미만이라고 응답한 CEO도 2명이나 됐다. 최근 부모들이 자녀들의 증권계좌를 개설해주는 등 조기 경제교육에 대한 관심이 커지면서 MZ세대들이 금융을 접하는 시기가 미성년까지 내려간 것으로 풀이된다. 이들 대표들은 또 금융업에 일찍 눈뜨는 MZ세대를 고객으로 유치·유지하기 위해 자체 어플리케이션(이하 앱)에서 ‘직관적 UI에 따른 편의성’을 가장 중요한 요소로 들었다.MZ세대들이 40대 중반 이상의 연령대에 비해 상대적으로 자산 규모가 크지 않은 점에 주목, 기존 금융앱들이 상품 소개나 현금성 보상 등 이벤트에 집중하고 있는 것과는 달리 모바일 환경 최적화를 강조하며 MZ세대들이 앱을 사용하는데 어려움이 없도록 하는데 초점을 맞추고 있다.카카오페이는 증권과 연계해 하나의 앱에서 주식, 펀드 투자까지 가능한 플랫폼을 활용해 기존 투자앱이 은행, 증권사별로 분리돼 있는 금융그룹에 비해 사용자편의를 높였다. ‘매도, ’매수‘와 같은 용어 대신 ’사기‘, ’팔기‘ 등 쉬운 용어를 사용하고, 상품 소개 방식도 카톡 문답 형식을 적용해 텍스트 중심의 기존 금융앱과 차별화해 가독성을 높이고 사용자가 직관적으로 이해할 수 있도록 앱 내부 콘텐츠를 개발하고 있다. 토스증권은 정확한 종목명을 모르더라도 브랜드나 제품 등의 키워드로 종목을 찾을 수 있는 검색 기능을 적용해 MZ세대 ‘주린이’(주식, 어린이의 합성어)를 위한 서비스를 제공하고 있다. 예를 들어 ‘새우깡’을 검색하면 ‘농심’, ‘구글’을 검색하면 ’알파벳에 대한 투자 정보를 제공하는 식이다. 이태형 기자</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>2022.01.03.</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>[포켓이슈] '딩동', 입장 못합니다…방역패스 톺아보기</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0012895408?sid=103</t>
-        </is>
-      </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>(서울=연합뉴스) 오늘부터 '방역패스(접종증명·음성확인제) 유효기간'이 적용됩니다. 지난해 7월 6일을 포함해 그 전에 화이자·모더나 등 2차접종, 얀센 1차접종을 완료한 사람의 방역패스가 일괄적으로 만료돼 방역패스 효력이 없어집니다.    유효기간이 만료된 앱 화면을 인식기에 대면 '딩동' 소리가 나오는데, 이 소리가 나면 방역패스 적용시설에 입장할 수 없습니다. 반면 유효기간이 남은 경우  '접종 완료자입니다'라는 음성이 나옵니다.    방역패스 적용 시설은 대규모 점포, 영화관·공연장, 유흥시설, 노래연습장(동전 노래방 포함), 실내체육시설, 목욕장업, 경륜·경정·경마·카지노, 식당·카페, 학원, 독서실·스터디카페, 멀티방, PC방, 실내 스포츠경기장, 박물관·미술관·과학관, 파티룸, 도서관, 마사지업소·안마소 등 17곳인데요.    백화점, 대형마트 등 면적 3천㎡ 이상 대규모 점포는 이달 10일부터 방역패스를 시행하되 계도기간을 거쳐 17일부터 단속합니다.    코로나19 백신 2차접종 후 14일이 지난 날부터 6개월(180일)까지가 유효기간으로 인정됩니다. 기본접종이 1차접종인 얀센 백신을 접종한 사람은 1차접종일을 기준으로 합니다.    유효기간은 예방접종 전자증명서인 쿠브(COOV)앱이나 카카오, 네이버, 토스 등 전자출입명부 플랫폼을 통해 확인할 수 있는데요. 2차접종 후 14일이 지나면 '14일 경과' 표시가, 180일이 지나면 '유효기간 만료' 표시가 뜹니다.    다만 쿠브 앱을 업데이트해야 3차접종 이력과 2차접종 후 며칠이 지났는지를 쉽게 확인할 수 있습니다.    카카오앱의 경우, 3차접종 정보와 접종증명 유효기간이 연계된 최신 버전 QR코드 화면에서 '유효한 접종증명'을 뜻하는 파란색 테두리와 함께 QR코드가 나타나며, 하단에 2차접종 후 경과일이 표시됩니다.    QR코드 주위에 파란색 테두리나 접종 후 경과일이 보이지 않는다면 전자출입명부 앱을 최신 버전으로 업데이트해야 합니다. 접종정보를 갱신하지 않은 3차 접종자는 QR코드를 스캔할 때 미접종자로 안내돼 시설 이용이 어려워질 수 있습니다.    질병관리청은 유효기간 적용이 시작되는 3일이 되기 전 자주 사용하는 전자출입명부 플랫폼 앱을 미리 업데이트할 것을 권고했습니다.    방역패스 유효기간 위반으로 인한 과태료나 행정처분은 10일부터 부과되는데, 과태료는 관리·운영자의 경우 300만원 이하(1차 150만원, 2차 이상 300만원), 위반한 개인은 10만원 이하입니다.    청소년 방역패스는 오는 3월1일부터 시행하고, 계도기간 한 달을 거쳐 4월부터 본격 적용합니다. 12∼17세는 3차접종 권고 대상이 아니기 때문에, 이들은 방역패스 유효기간을 적용받지 않습니다.    전자 증명서 사용이 어려운 장애인은 종이로 된 접종증명서나 예방접종스티커를 사용할 수 있는데요. 종이 증명서는 보건소에 신청해 발급받을 수 있습니다.    돌파감염 등 코로나19 감염력이 있는 2차접종 완료자는 접종 후 14일이 지나면 별도 유효기간 없이 방역패스 효력을 인정받습니다. 이 경우 전자증명 앱에 유효기간이 없는 예방접종 증명서가 발급됩니다.    의학적 사유로 백신을 맞지 못하는 접종예외자는 진단서와 소견서를 지참하고 보건소에 가면 방역패스 예외 확인서를 받을 수 있습니다.인교준 기자 황지원 인턴기자    kjihn@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>2022.01.03.</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>암 예방부터 시력보호, 피부 건강까지...슈퍼푸드 걱오일</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/296/0000053553?sid=103</t>
-        </is>
-      </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>[사진=게티이미지뱅크]영양성분이 워낙 뛰어난 탓에 '천국에서 내려온 과일', '천국의 과일', '천상의 열매'라 불리는 슈퍼푸드가 있다. 항암성분이 워낙 풍부해 타임지와 미쉐린가이드는 물론, 의학 및 영양학 연구 저널에서 여러 차례 다룬 걱(Gac)이다. 아열대기후에서 자라는 열대과일로 걱(Gac) 또는 게욱(Geuk)이라고도 불린다.  카로티노이드 계열 항산화제 라이코펜은 활성산소를 억제하고 각종 암을 예방해준다. 학술지 실험생물학의학저널(Experimental Biology and Medicine)에 게재된 연구에 따르면, 일주일에 2~4인분의 토마토스소스를 섭취하자 전립선암 위험이 35% 감소했다. 또 다른 연구에서는 라이코펜이 유방암과 전립선암을 억제하며, 심장질환 위험을 낮추고 콜레스테롤 저하에 기여한다고 밝혀졌다.  질병의 90% 원인은 활성산소다. 활성산소를 없애는 것으로 많이 알려진 항산화 비타민이 바로 비타민E인데, 라이코펜은 비타민E의 100배 이상 효능을 갖추고 있다. 라이코펜은 심장 질환 및 노화와 관련된 안질환(age-related eye problems) 발생 위험도 크게 낮춰준다. 이 밖에도 라이코펜은 남성의 전립선 건강, 피부 노화 방지, 혈당 강하 및 심장 기능과 혈액순환 촉진 효과를 발휘하는 것으로 알려져 있으며, 항산화력은 베타카로틴보다 2배가량 높다. 남성 불임 예방, 류마티스성 관절염과 폐 질환 예방에도 효과를 보인다.  미국 터프츠대의 장(Zhang) 박사는 "라이코펜은 모든 원인으로 인한 사망률을 18% 낮추고 암으로 인한 사망률을 54% 줄였다"고 말했다.  라이코펜은 붉은색을 띠는 채소와 과일에 풍부하다. 그동안 토마토가 라이코펜 대명사로 알려졌지만, 걱에는 라이코펜이 토마토의 76배 이상 들어있다. 걱에는 라이코펜 이외에도 여러 영양성분이 함유되어 있다. 베타카로틴은 당근의 10배 이상, 지아잔틴은 옥수수의 40배 이상, 비타민C는 오렌지의 60배 이상 많다. 이 외에도 루테인, 베타크립토잔틴, 알파토코페롤, 알파카로틴, 오메가 3•6•9, 필수 불포화지방산, 프로비타민A, 비타민B•E, 폴리페놀, 플라보노이드, 트리테르페노이드 사포닌, 올레오놀산, 알파스피나스테롤, 인지질, 식이섬유, 각종 미네랄 등 많은 영양성분을 함유하고 있다.  함유량이 아무리 높아도 체내에 제대로 흡수되지 못하면 효과가 확연히 떨어진다. 하지만 슈퍼푸드 걱에는 오메가3와 같은 불포화지방산이 많아 체내 흡수율도 뛰어나다. 라이코펜의 체내 흡수율은 토마토의 18배 이상, 베타카로틴의 체내 흡수율은 당근의 45배 이상이다. 여러 연구에서 혈중 라이코펜, 혈중 베타카로틴이 높아야 한다는 점을 보여준다.  특히, 라이코펜과 같은 카로티노이드의 영양성분은 단일성분으로 섭취할 때보다 다른 영양성분과 함께 먹을 때 더 효과적인 만큼 슈퍼푸드 걱에는 장점이 많다는 것을 알 수 있다.  ◆ 걱의 다양한 건강 효능  [사진=게티이미지뱅크]라이코펜이 풍부한 덕분에 걱은 대장암, 폐암, 전립선암 및 생식기암 예방에 도움이 된다. 항산화 물질이 풍부해 심장혈관 건강을 유지해주며 눈건강에 좋은 루테인과 지아잔틴이 다량 함유되어 있다. 백내장 발병을 늦추고 야맹증과 노년기 황반변성 예방 및 증상 완화에 도움을 준다.  걱에 많이 들어있는 식이섬유는 콜레스테롤 수치를 관리하는 데 도움이 된다. 나쁜 콜레스테롤 수치를 낮추고 산화돼 동맥을 막는 플라그(Plaque) 현상을 방지한다. 또한 걱에는 철분의 체내 흡수를 돕는 비타민C와 적혈구 생산에 필수인 철분이 풍부하다. 빈혈이 있는 어린이가 걱을 섭취한 이후 헤모글로빈이 많이 증가했다는 내용의 연구 결과도 있다.  여러 연구에 따르면, 걱은 우울증과 싸울 수 있는 힘을 준다. 셀레늄을 비롯해 다양한 비타민과 미네랄이 풍부해 신경조직 기능을 최적화, 우울증을 예방할 수 있다. 위산을 낮춰 위궤양 위험을 줄여주며, 활성 항박테리아 성분이 포함돼 있어 설사 증상을 완화한다.  걱은 활력과 장수의 과일로도 잘 알려져 있다. 비타민E를 포함해 미네랄, 항산화제를 포함하고 있어 피부 건강에도 좋다.  ◆ 걱 어떻게 섭취해야 할까?  걱은 동남아시아 그중에서도 베트남 토착 식물이다. 태국과 라오스, 캄보디아, 중국, 인도와 같은 열대지역에 주로 서식한다. 중국에서는 천년 넘게 약재로 사용됐으며 임신부와 아이들을 위한 영양보충 식재료로 많이 쓰였다. 기온이 높은 지역에서 주로 재배됐지만, 걱의 영양학적 효과가 널리 알려지면서 미국과 호주에서도 재배된다.  다만, 걱의 항암효과를 다룬 논문에 따르면, 베트남 북부•중부•남부, 태국, 호주 중에서 베트남 북부에서 재배된 걱이 가장 좋은 평가를 받았다. 가령 베트남에서 재배된 걱(평균 710g)이 태국의 걱(평균 438g)보다 크며, 가종피(Aril/아릴)를 더 많이 가지고 있었다. 걱의 가종피에는 전체 지방산의 22%가 집중됐는데 지방산에는 올레산과 리놀레산 등이 들어있어 라이코펜의 체내 흡수율을 높인다. 비닐하우스에서 재배된 걱과 열대지방이지만 추운 겨울을 지낸 걱의 항암성분(파이토케미컬)의 차이는 다를 수 밖에 없기 때문이다.  호주의 로열멜버른공과대의 티엔(Tien) 박사는 "베트남 중부와 북부지역에서 재배한 걱이 영양성분이 많고 항암효과가 강력하다"고 말했다.  라이코펜과 같은 카로티노이드 영양성분은 과일이나 채소로 직접 섭취하기보다 오일로 먹어야 체내에 더 효과적으로 흡수된다. 특히 항산화 성분은 공기 중 산화에 민감하다. 캡슐 및 PTP포장으로 된 제품의 오일로 선택하는 것이 좋으며, 자외선에 노출되지 않게 잘 보관해야 된다.  해외에서 캡슐 타입의 걱오일 제품이 유통되는 경우도 많지만, 저가의 원료와 혼합한 것인지 말린 걱에서 오일을 추출한 것인지 확인할 필요가 있다. 말린 걱에서 오일을 추출하면 라이코펜과 같은 영양성분이 60%에서 최대 97%까지 손실되기 때문. 꼭 '생과'에서 추출한 걱오일인지 확인할 필요가 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>2022.01.03.</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>“딩동” 울리면 입장 불가…오늘(3일)부터 방역패스 유효기간 적용</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/022/0003653667?sid=102</t>
-        </is>
-      </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>사진=연합뉴스    3일부터 방역패스(코로나19 백신 접종증명·음성확인제) 유효기간 제도가 시행된다.   이에 따라 식당과 카페를 포함한 방역패스 의무 적용 17종 시설 출입 시 유효한 방역패스가 있어야만 이용 가능하다.   질병관리청에 따르면 이날 0시부터 방역패스에 유효기간이 설정됐다.   유효기간은 2차 접종 이후 180일까지이며, 이 기간이 경과하면 유효한 접종으로 인정받을 수 없다.   이날 기준으로 지난해 7월 6일이나 그보다 전에 기본접종을 마쳐 이날로 180일이 지났지만, 아직 추가접종을 하지 않았다면 영화관 등 방역패스 적용 시설에 입장할 수 없게 된다.   질병관리청 중앙방역대책본부(방대본) 집계 결과를 보면 전날까지 방역패스 유효기간 만료 대상자 563만명 중 92%인 518만명이 3차 접종을 받았다. 1만4000명은 3차 접종 예약을 마친 상태다.   나머지 43만6000명은 3차 접종을 받지 않고 예약도 하지 않아 유효기간이 만료된다.   오는 9일까지는 계도기간이어서 방역패스 위반으로 과태료 등 행정 처분이 내려지지는 않는다.   10일부터는 계도기간이 종료돼 유효하지 않은 방역패스로 다중시설을 몰래 이용하다 적발되면 과태료 10만원이 부과된다.   이 중 상점·마트·백화점 등 대규모 점포의 방역패스 적용은 10일부터 시행하고, 16일까지 계도기간을 부여한다.   이용자가 다중시설 출입시 QR코드로 방역패스를 스캔하면 유효한 방역패스일 경우 "접종완료자입니다"라는 음성 안내가 나온다. 반면 유효하지 않은 방역패스이면 "딩동" 알림음만 울린다.   3차 접종력과 2차 접종 후 경과일은 코로나19 전자예방접종증명(COOV·쿠브)뿐 아니라 네이버와 카카오, 토스 등 민간 플랫폼에서도 확인할 수 있다.   3차 접종자는 앱을 업데이트한 후 본인의 접종정보를 직접 갱신해야 한다. 갱신하지 않으면 3차 접종력이 입력되지 않아 기본접종 이후 유효기간 6개월이 만료된 것으로 잘못 인식될 수 있다.   코로나19 완치자의 경우 격리해제일로부터 180일까지 방역패스가 인정된다. 보건소에서 격리해제서를 발급받거나 쿠브 앱을 통해 전자 완치 확인서로 증명 가능하다.   시설 운영자들이 사용하는 KI-PASS앱은 이날 0시 이후 업데이트를 해야 한다. 업데이트하지 않는 경우 앱 실행이 불가하다.   올해부터는 고령층을 포함해 사전예약 후 7일 뒤부터 접종을 받을 수 있다.   단 의료기관 예비명단 또는 SNS 당일신속예약 등을 통해 잔여백신을 접종할 경우 사전예약없이 당일 접종이 가능하다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>2022.01.03.</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>토스뱅크, 연초 '꼼수' 대출 논란…틈새 노려 연봉 이상 신용대출?</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000270139?sid=101</t>
-        </is>
-      </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>[토스뱅크 기업로고 사진 (자료=토스뱅크)]인터넷 은행 토스뱅크가 신규 대출 판매를 다시 시작하면서 대출 규제의 틈새를 노려 연봉 이상 한도로 신용대출을 내줬다는 논란이 일고 있습니다.오늘(3일) 금융권에 따르면 토스뱅크는 강화된 총부채원리금상환비율(DSR) 규제 적용시점이 오늘*3일)부터라는 점을 이용해 지난 1일부터 이틀간 신용대출 한도를 연봉 이내로 제한하지 않았습니다.일반적으로 은행권에서는 신용대출이 연봉 이내로 막힌 상황에서 2배 가까운 한도를 적용한 것입니다.무엇보다 금융당국이 올해부터 신용대출 한도를 연 소득 범위로 제한하는 것을 공문으로 전달한 바 있어 토스뱅크가 규제를 어긴 것이 아니냐는 지적이 나옵니다.다만, 규제 적용일이 3일부터였기 때문에 1월 1일과 2일은 토스뱅크가 공격적인 영업 전략을 펼쳐도 문제가 없다는 반론도 나옵니다.  앞서 토스뱅크는 올해부터 신용대출의 최고금리를 연 3%대 초반으로, 최대 한도는 2억 7000만원으로 설정하면서 막혀있던 대출 문을 열겠다고 예고한 바 있습니다.토스뱅크의 대출 재개 소식에 실제로 대출한도 조회 서비스 접속도 지연됐고, 소비자들 사이에서는 한도가 연봉보다 2배 가까이 나왔다는 주장도 나왔습니다.토스뱅크 관계자는 "일반 직장인의 경우 해가 넘어가며 연봉 인상분이 반영된 것으로 보인다"라며 "중·저신용자의 경우도 중금리 대출 확대 기조에 따라 연봉보다 많이 대출이 나갔을 수 있다"라고 말했습니다.이어 "2배 가까이 대출이 나간 경우는 없다"라며 "고의적으로 DSR 규제를 지키지 않으려 한 영업행위는 없었다"라고 설명했습니다.금융당국은 토스뱅크가 지난 이틀간 연봉 이상으로 신용대출을 해준 데 대해 정확한 사실관계 확인에 나서기로 했습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>2022.01.04.</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>디지털금융 전환 애먹는 시중은행</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004904268?sid=101</t>
-        </is>
-      </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>"개발자 태부족" 73%…"조직문화 경직" 61%비대면 영업에 마이데이터에개발자 수요 느는데 공급부족인재 몰리는 인터넷銀과 달리은행은 개발자 무덤으로 불려◆ 2022 신년기획 금융리더 100인에게 듣는다 ① ◆  디지털혁신(DX) 전쟁의 최일선에 있는 전사들은 개발자들이다. 하지만 우수한 개발 인력을 양성하려면 많은 시간과 비용이 든다. 연봉을 올려준다고 해도 금융권 전체의 수요를 충당하기 쉽지 않다는 얘기다.매일경제신문사 설문조사에 응한 국내 금융리더 100인은 디지털 금융 전환의 가장 큰 걸림돌로 '기술력·인력 부족'을 꼽았다. 응답자 중 73.0%가 이같이 답했다. 이어 경직된 조직문화(61.0%), 관련 정책 및 일관성 부재(59.0%) 등이 뒤를 이었다. 우선 개발자에 대한 수요가 너무 많다. 국내 은행들의 유통 채널이 '비대면 디지털'로 넘어가면서 이에 대응하기 위한 인력 수요가 한꺼번에 몰리고 있다. 올해 본격 시행되는 '마이데이터' 서비스 개발 및 확장을 위한 추가 수요도 만만치 않다. 가장 적극적인 곳은 본격적으로 사업을 확장하며 몸집을 불리고 있는 인터넷은행들이다. 올해는 시중은행들도 고급 개발자 구인에 나서면서 인재 확보 경쟁은 더욱 치열해질 전망이다. 수요는 폭발적으로 늘어나지만 개발자 공급은 태부족이다. 특히 시중은행은 '개발자들 무덤'으로 불릴 만큼 기피 성향이 강하다. '기술력·인력 부족' 못지않은 걸림돌로 꼽힌 경직된 조직문화가 원인이다. 시중은행들이 다른 정보기술(IT) 기업에 비해 연봉을 아주 많이 주는 것도 아닌 데다, 높은 연봉을 받고 들어가도 보수적인 분위기 때문에 하고 싶은 일을 못하고 커리어를 망칠 수 있다는 우려가 많다. 이직이 활발한 개발자들은 직장을 정할 때 연봉도 고려하지만, 그곳에서 유망한 프로젝트를 진행하며 향후 도움이 될 커리어를 만들 수 있는지도 중시한다. 이 때문에 안정성과 보안이 중요해 시키는 것만 할 수 있고, 새로운 서비스를 만들기 힘든 은행의 보수적인 문화는 개발자들이 기피하는 대상이다. ◇ 응답자 소속 기관(업권별 가나다순) 경남은행, 광주은행, 부산은행, 수출입은행, 신한금융지주, 신한은행, 우리금융지주, 우리은행, 하나금융지주, 하나은행, BNK금융지주, DGB금융지주, DGB대구은행, IBK기업은행, JB금융지주, KB국민은행, KB금융지주, KDB산업은행, NH농협은행, NH농협지주, SC제일은행, 메리츠화재, 미래에셋생명, 삼성생명, 삼성화재, 신한라이프, 한화생명, 한화손해보험, 현대해상, DB손해보험, 롯데카드, 삼성카드, 신한카드, 우리카드, 하나카드, 현대카드, BC카드, 하나캐피탈, 현대캐피탈, 삼성자산운용, 신한금융투자, 한국거래소, 한국투자증권, 한화투자증권, KB증권, NH투자증권, 웰컴저축은행, 페퍼저축은행, 하나저축은행, OK저축은행, SBI저축은행, 국제금융센터, 금융연구원, 금융투자협회, 보험개발원, 보험연구원, 생명보험협회, 서민금융진흥원, 손해보험협회, 신용보증기금, 신협중앙회, 여신금융협회, 예금보험공사, 은행연합회, 저축은행중앙회, 카카오뱅크, 케이뱅크, 토스, 네이버파이낸셜, 두나무, 디셈버앤컴퍼니, 뱅크샐러드, 빗썸, 카카오페이, 코빗, 핀크</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>2022.01.02.</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>英 몬조 지분도 품은 텐센트···'디지털금융 제국' 구축 가속</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004003376?sid=104</t>
-        </is>
-      </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>펀딩에 1억달러 투자 등 사업 포트폴리오 다각화[서울경제] 중국 빅테크 기업 텐센트가 영국 인터넷은행 스타트업인 몬조 지분을 인수했다. 텐센트는 이미 아르헨티나와 프랑스 등의 핀테크 기업에도 공격적인 투자를 해왔다. 막강한 자금력을 앞세워 문어발식 확장에 나서면서 글로벌 디지털금융 분야에서 ‘텐센트 제국’을 만들고 있다는 분석이 나온다.1일(현지 시간) 파이낸셜타임스(FT)에 따르면 텐센트는 몬조 펀딩에 참여해 지분을 일부 인수했다. 아부다비 그로스펀드가 주도한 5억 달러 규모의 펀딩 라운드 중 텐센트의 투자 규모는 1억 달러로 알려졌다. 펀딩 소식이 알려진 후 몬조의 기업가치는 45억 달러(약 5조 3,500억 원)로 상승했다. 지난 2005년 설립된 몬조는 ATM카드와 스마트폰 앱으로 운영되는 핀테크 스타트업이다. 개인투자자들을 위한 주식 투자 및 암호화폐 거래 플랫폼 등을 운영한다는 계획을 가졌다.텐센트는 몬조가 아직 스타트업에 불과하지만 이 기업의 미래 가치와 시너지 효과를 내다보고 거액 투자에 나선 것으로 풀이된다. 앞서 텐센트는 아르헨티나의 모바일결제 애플리케이션 우알라에 이어 프랑스판 ‘토스’로 알려진 스타트업 콩토와 리디아, 남아프리카공화국의 디지털금융 스타트업 타임 등의 지분도 확보했다.텐센트의 이 같은 행보는 핀테크 기술을 선점하기 위한 것이라는 분석이다. FT는 “중국 정부가 위챗 등 기술 서비스에 대한 감시를 강화하자 텐센트가 유니콘(기업가치 10억 달러 이상의 비상장사) 기업 투자를 앞세워 금융 분야 등으로 포트폴리오를 다각화하는 전략을 택하고 있다”고 분석했다.텐센트는 이런 방식으로 이미 게임과 미디어 시장에서 우위를 차지하고 있다. 지난해 상반기에는 소니와 마이크로소프트(MS), 영국의 게임 개발 업체 서모그룹 등 게임 관련 21개 기업에 투자했으며 2019년에는 엔터테인먼트·미디어 영역에 총 125차례나 집중 투자했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>2022.01.12.</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>온투법 시행 1년… P2P업체 38개사로</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004771198?sid=101</t>
-        </is>
-      </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>대출 2조5000억으로 절반 줄어  273개까지 난립했던 P2P업체는 온라인투자연계금융업(온투업) 시행 1년간 38개사로 정리됐다.   법 통과 전 4조2000억원 규모였던 누적 대출금액은 법 시행 후 2조5000억원 가량으로 절반으로 줄어든 것으로 계산됐다.   전문가들은 법 시행으로 소비자 안전장치는 마련됐지만 산업 관점에선 제자리걸음 수준이라며 발전을 위해서는 정부가 규제를 해소해 줘야 한다고 봤다.   한국금융소비자보호재단 윤민섭 박사는 12일 한국핀테크산업협회가 '온라인투자연계금융법 시행 1년, 평가와 발전방향' 토론회에서 발제자로 나서 온투업법 시행 1년을 이같이 평가했다.   윤 박사는 "온투업법 시행으로 P2P연계등록대부업체 중 많은 수가 걸러졌고 누적 대출금액과 상환금액도 점점 늘어나고 있다"고 봤다. 그 이유로는 주택담보대출 등 기존 금융권 대출 한도 규제가 높아지면서 중금리 시장으로 풍선효과가 나타나고 있다는 점을 들었다. 다만 2조5000억원 중 70%가 부동산담보대출에 쏠려 온투업법 제정 취지인 공급망 금융의 역할이 제한되고 있다고 그는 강조했다. 또 전체 대출 규모 역시 2018년 말 4조2000억원에서 절반 수준으로 줄어들었다고 그는 봤다.   법무법인 세종 황현일 변호사는 "온투업법 시행 이후 P2P 금융의 필수 기법인 자동분산 투자가 중단됐고, 토스나 뱅크샐러드 등 플랫폼을 통한 투자자 모집 역시 막혔다"며 "사모펀드의 개인신용P2P 투자도 금지되고 있으며 기관투자자의 투자도 금지됐다"고 소개했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>2022.01.11.</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>[주간투자동향] 번개장터, 820억 원 규모의 투자 유치</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/020/0003405053?sid=105</t>
-        </is>
-      </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>바야흐로 스타트업 시대입니다. 2010년부터 시작한 국내 스타트업 열풍은 지난 10년 동안 급속도로 성장했습니다. 대한민국은 어느새 유니콘 기업 11개를 배출한 세계 5위 스타트업 강국으로 자리매김했는데요. 쿠팡, 우아한형제들, 야놀자, 블루홀 등 경쟁력을 갖춘 스타트업이 우리 실생활 속으로 파고들었고, 지금 이 순간에도 성공을 꿈꾸는 수많은 스타트업이 치열한 경쟁 속에서 도전하고 있습니다. 이에 IT동아는 이러한 국내 스타트업의 현장을 [주간투자동향]으로 정리해 제공합니다.번개장터, 820억 원 규모의 투자 유치번개장터가 820억 원 규모의 투자를 유치했다. 이번 투자는 신한금융그룹 외에 기존 투자자인 프랙시스캐피탈, 에이티넘인베스트먼트, 미래에셋캐피탈 등이 후속 투자했으며, 신규투자자로 시그나이트파트너스가 참여했다. 참고로 번개장터는 지난 2020년 4월 BRV캐피탈매니지먼트, 미래에셋벤처투자, 미래에셋캐피탈, 베이스인베스트먼트-에스투엘파트너스, 타임와이즈인베스트먼트 등으로부터 560억 원 규모의 투자를 유치한 바 있다.출처: 번개장터 홈페이지번개장터의 2021년 기준 누적 가입자 수는 1,700만 명이며, 연간 거래액은 1조 7,000억 원을 달성했다. 지난해 12월 안전결제 서비스 ‘번개페이’ 월간 거래액은 330억 원을 기록했으며, 포장 택배 서비스는 같은해 12월 서울 전역으로 확장했다.번개장터는 스니커즈 커뮤니티 ‘풋셀’, 중고 골프용품 플랫폼 ‘에스브릿지’, 착한텔레콤 중고폰 사업부문을 인수하고, 중고 의류 셀렉트 샵 ‘마켓인유’에 투자하며, 브랜드 중심 취향 중고거래 앱 서비스를 강화했다. 또한, 지난해 더현대서울과 코엑스몰에 한정판 스니커즈 카테고리를 선보인 오프라인 공간 ‘BGZT Lab by 번개장터’를 시작으로 역삼 센터필드에 명품 컨셉 스토어 ‘BGZT Collection by 번개장터’를 오픈했다.역삼 센터필드에 오픈한 명품 컨셉 스토어 ‘BGZT Collection’, 출처: 번개장터번개장터는 이번 투자를 통해 패션, 디지털, 레저 등 카테고리 내 브랜드 중심 서비스를 강화하고, 안전 결제와 배송 서비스 경쟁력을 확보하며, 명품을 포함하는 중고 인증 서비스를 개발할 계획이다. 인재 영입과 육성에도 집중 투자할 예정이다.번개장터 이재후 대표는 “번개장터는 브랜드 중심으로 앱을 개편하고, 번개페이, 포장택배, 오프라인 컨셉 스토어 등 쉽고 편안한 중고거래 서비스를 제공하기 위해 노력했다”라며, “번개장터는 누구나 취향을 가지고 있다는 믿음 하에 고객이 새로운 취향을 발견하고, 중고거래할 수 있는 환경을 만드는 데 집중하겠다”라고 말했다.딜리셔스, 540억 원 규모의 시리즈C 투자 유치딜리셔스가 설립 10주년을 맞이해 개최한 기자 간담회를 통해 540억 원 규모의 시리즈C 투자 유치를 전했다. 이번 투자는 스톤브릿지벤처스, 산업은행, DSC인베스트먼트, 유안타인베스트먼트, 스마일게이트인베스트먼트 등 국내 투자사 13개이 참여했다. 누적 투자 유치 금액은 795억 원이다.왼쪽부터 딜리셔스 김준호 공동대표, 장홍석 공동대표, 조현동 이사, 출처: 딜리셔스동대문은 반경 10km 내에서 디자인, 제작, 유통 등의 거쳐 3일만에 신상품을 제작하는 패션 클러스터다. 하지만, 50년 넘게 직접 매장을 방문하거나 사입삼촌(도매 의류 주문과 배송을 대행하는 사람)을 통한 상품 구매, 수기 장부, 현금 결제 등을 진행했다. 딜리셔스는 이러한 도소매 거래 방식을 디지털로 전환해 업무 효율성과 편의성을 높이고자 서비스를 시작했다.이러한 문제점을 해결하고자 딜리셔스는 2013년 ‘신상마켓’을, 2020년 ‘딜리버드’를 선보였다. 신상마켓은 도소매 사업자가 거래처 관리, 주문, 결제, 배송 등을 제공하는 서비스이며, 딜리버드는 B2B2C 방식의 풀필먼트 서비스다.2013년부터 서비스를 시작한 딜리셔스의 누적 거래액은 2020년 12월 기준 2조 원을 돌파했다. 2021년 거래액은 5,723억 원으로 전년 대비 36% 증가했다. 주요 사업은 신상마켓이다. 신상마켓에 가입한 후 활발하게 거래하는 도매 매장은 1만 1,000개로 동대문 전체 도매 매장 중 80% 이상이다. 활성화된 소매 매장은 12만 개다.딜리셔스 주요 성과 지표, 출처: 딜리셔스재방문율은 도매 사업자 93%, 소매 사업자 90%를 기록했다. 신상마켓의 하루 평균 거래 건수는 2만 4,000건이며, 이를 시간으로 환산하면 5초당 1건에 해당한다. 소매 사업자가 신상마켓에 입점한 도매 매장을 거래처로 신청한 누적 횟수는 2,334만 건이다.도매 사업자가 신상마켓에 등록한 누적 상품 수는 7,684만 건으로 1개 매장 당 약 7,000여 상품을 등록한 수치다. 소매 사업자가 도매 상품에 대해 ‘찜(좋아요)’을 클릭한 누적 횟수는 2억 7,917만 건이며, 월 평균 체류 시간은 288분이다.딜리셔스는 이 같은 경험을 바탕으로 해외 패션 시장에 진출할 계획이다. 해외 진출 첫 번째 시장은 일본이다. 일본 패션 시장은 동대문과 같은 생산 및 유통 인프라 없고, 소매 사업자를 위한 플랫폼 등이 없다. 이에 딜리셔스는 하반기부터 일본 패션 소매 사업자들을 확보하고 육성할 계획이다. 또한, 플랫폼만으로 거래할 수 있는 표준 시스템을 제공할 수 있도록 기술을 고도화하고, 풀필먼트 시설을 확충해 물류까지 진행할 예정이다.버넥트, 300억 원 규모의 시리즈B 투자 유치산업용 XR 기술과 솔루션을 제공하는 버넥트가 300억 원 규모의 시리즈B 투자를 유치했다. 이번 투자는 스틱벤처스, 롯데벤처스가 신규 참여했으며, 전략적투자자(SI)로 ㈜한화가 합류했다. KTB네트워크, KB인베스트먼트, KDB산업은행 등 기존 투자사도 함께 참여했다.출처: 버넥트버넥트는 오스트리아 비엔나의 연구센터와 국내 기술연구소를 중심으로 XR 원천 기술과 XR 개발 플랫폼 SDK(Software Development Kit)를 자체 확보했으며, 이를 통해 다양한 산업용 XR 솔루션과 제품을 공급하고 있다. 이번 투자를 통해 확보한 자금으로 산업용 XR 에코시스템 구축, 우수 인재 확보, 제품 차별화, 글로벌 시장 진출을 위한 마케팅 등에 활용할 계획이다.버넥트 하태진 대표는 “이번 시리즈B 투자 유치를 통해 버넥트의 기술력과 성장 가능성을 다시 한번 입증했다”라며, “투자금을 활용해 시장 경쟁력을 제고하고, 올해 말 기술 특례를 추진해 1~2년 안에 기업 공개 일정을 마무리하겠다”라고 강조했다.지난 2016년에 설립한 버넥트는 현재 XR 다자간 원격 협업 솔루션과 실감형 콘텐츠 제작 솔루션을 LG화학, 삼성전자 등 39개 대기업과 계열사, 한국전력공사, 한국공항공사 등 27개 공기업에 공급하고 있다. 100여 건 이상의 프로젝트를 진행한 바 있으며, 107건의 지식재산권과 36건의 수상실적, 나이스 기술신용평가(NICE TCB)에서 ‘매우 우수’에 해당하는 TI-2등급의 기술신용평가 인증을 받은 바 있다.패스트레인, 120억 원 규모의 시리즈B 투자 유치국내 피부시술 정보 플랫폼 ‘여신티켓’을 운영하는 패스트레인이 120억 원 규모의 시리즈B 투자를 유치했다. 이번 투자는 기존 투자사인 대교인베스트먼트, IMM인베스트먼트, 아이비케이캐피탈, 메이플투자파트너스, 마그나인베스트먼트, 나이스투자파트너스 등이 후속 투자했으며, 우리은행, 유안타인베스트먼트, 신한벤처투자, 한국투자파트너스 등이 신규 투자사로 참여했다. 누적 투자 유치 금액은 171억 원이다.출처: 패스트레인여신티켓은 전국 약 4,300개의 피부과 시술 종류, 비용, 후기 등을 제공하는 피부시술 정보 플랫폼이다. 2017년 출시 후 누적 앱 다운로드 140만 건, 누적 회원가입자 30만 명, 누적 시술후기 35만 건을 기록했다.여신티켓은 이번 투자 유치를 바탕으로 앱 고도화와 온오프라인 인프라 강화, 뷰티 분야 신사업 제품 개발 준비 등에 나설 계획이다. 또한, 공격적인 마케팅을 통해 피부시술 시장 플랫폼 영향력을 강화할 예정이다.패스트레인 손승우 대표는 “여신티켓의 지난 성과를 통해 피부시술 시장 성장성을 투자자들이 높게 평가한 것이라고 생각한다”라며, “이번 투자 유치를 통해 우수 인재를 영입하고, 여신티켓의 기술 경쟁력 강화에 노력할 것”이라고 말했다.푸드팡, 110억 원 규모의 시리즈B 투자 유치온라인 식자재 B2B 플랫폼을 운영하는 푸드팡이 110억 원 규모의 시리즈B 투자를 유치했다. 이번 투자는 KDB산업은행, 하나은행, IBK 기업은행, SBI인베스트먼트 등이 참여했다. 누적 투자 유치 금액은 총 160억 원이다.푸드팡은 식당 점주가 앱으로 식자재와 식당 운영에 필요한 물품을 주문하면, 서울과 부산의 도매시장(가락시장 등)에서 무료로 새벽에 배송해주는 서비스다. 야채, 과일, 축/수산, 공산품 등 1만 1,000여 개 상품의 도매시장 시세를 매일 제공하며, 품질 불만족시 100% 교환/환불할 수 있는 편의도 제공한다.출처: 푸드팡지난 2018년 앱 출시 이후 서울, 부산에서 5,000개 이상의 식당이 가입했으며, 2021년 11월 기준 월 매출액은 20억 원 이상이다. 푸드팡은 이번 투자를 통해 도매시장을 바탕으로 ‘신선 FMFC(Fresh Micro Fulfillment Center)’를 확충할 계획이다.푸드팡 공경율 대표이사는 “이번 투자를 통해 서비스 고도화 및 사업 확대를 위한 성장동력을 확보했다. 앞으로 도매시장 중심으로 디지털 신선 물류시스템을 구축하고 빅데이터, 시세 예측 등 기술 개발에도 투자할 계획”이라며, “식당을 경영하기 위한 필수 플랫폼으로 성장할 것”이라고 전했다.소프트베리, 80억 원 규모의 시리즈A 투자 유치친환경 모빌리티 충전 플랫폼을 서비스하는 소프트베리가 80억 원 규모의 시리즈A 투자를 유치했다. 이번 투자는 SK㈜, 현대자동차 제로원 등 5개사가 참여했다. 소프트베리는 이번 투자를 통해 충전 서비스뿐만 아니라 충전소 데이터를 바탕으로 B2B 영역의 API 사업 등을 확대할 계획이다.소프트베리는 전기차 충전 정보 앱 ‘EV Infra(이브이 인프라)’를 운영하고 있다. 이브이 인프라는 전국 8만 7,000대 이상의 전기차 충전소 위치와 상태 등의 정보를 실시간 제공한다. 또한, 한국전력공사, GS칼텍스, 에스트래픽 등 3개사가 운영하는 충전기에서 간편 결제를 이용할 수 있는 회원회원카드를 발급하고 있다. 이브이 인프라 앱 다운로드 수는 30만 건 이상이며, 월간 이용자 수는 7만 3,000명이다. 소프트베리는 올해 상반기 환경부와 시스템을 연동할 계획이다.이브이 인프라, 출처: 소프트베리지난 2017년 설립한 소프트베리는 국내 기업들과 전기차 충전 관련 사업을 협력하고 있다. 이브이 인프라 앱을 통해 전기차 운전자 데이터를 보유하고 있어 카카오, 현대자동차 등에 API를 제공했으며, SK텔레콤 탄소 마일리지 사업을 비롯해 SK에너지, SK렌터카, 현대자동차, GS칼텍스, 롯데렌탈 등과 업무 제휴한 바 있다.최근에는 SK온과 업무 협약을 맺고, 이브이 인프라 앱 이용자 대상으로 전기차 배터리 진단 시범 서비스를 시작했다. 또한, 지난해 전력거래소가 발간한 ‘전기차 및 충전기 보급·이용 현황 분석’ 책자 발간 시 분석 데이터를 제공했다.소프트베리 박용희 대표는 “이번 투자 유치를 통해 투자사와의 시너지를 도모하고, 소프트베리가 확보한 사용자 데이터를 활용해 다양한 B2B 사업을 전개할 것”이라며, “전기차 운전자에게 양질의 정보를 제공하고, 전기차 충전 편의성을 높이기 위해 이해관계자들과 전기차 충전 생태계를 구축하는 데 최선을 다할 것”이라고 말했다.솜씨당컴퍼니, 40억 원 규모의 시리즈A 투자 유치솜씨당컴퍼니가 40억 원 규모의 시리즈A 투자를 유치했다. 이번 투자는 스프링캠프와 쿨리지코너인베스트먼트, 캡스톤파트너스, 라이트하우스컴바인인베스트 등이 참여했다. 스프링캠프와 쿨리지코너인베스트먼트는 앞서 각각 시드 투자와 프리-시리즈A 투자 참여했었다.솜씨당컴퍼니는 취미여가 플랫폼 ‘솜씨당’을 서비스하는 스타트업이다. 2022년 1월 기준, 솜씨당 누적 앱 다운로드는 100만 건을 기록했으며, 솜씨당 내 개설 클래스는 2만 5,000개, 활동 작가는 1만 2,000명을 확보했다.솜씨당은 사용자가 원하는 곳에서 필요한 준비물을 받고 온라인으로 클래스에 참여하는 '솜씨키트'와 이를 활용한 기업 대상 B2B 서비스 '라이브클래스'로 비대면 서비스를 선보였다. 코로나19 초기인 2020년 3월 첫 선을 보인 라이브클래스는 현재까지 300개 기업의 3만 5,000여 임직원이 참여했다. 지난해 솜씨키트 판매량은 2020년 대비 280%, 솜씨당컴퍼니 거래액은 전년 대비 306% 성장했다.출처: 솜씨당컴퍼니솜씨당은 이번 투자 유치를 바탕으로 올해 온라인과 오프라인을 연결하는 시스템 구축에 나선다. 위치 기반 검색으로 사용자가 설정한 관심지역 주변에서 참여할 수 있는 클래스와 공방 정보를 제공하고, 클래스 지역 맛집과 카페 정보를 공유하는 커뮤니티 '취미(味)로드'도 선보일 계획이다. 지난해 서울과 부산에 오픈한 오프라인 복합문화 공간도 전국 곳곳으로 확대할 예정이다.솜씨당컴퍼니 정명원 대표는 "이달 말 서비스를 리뉴얼해 다양한 클래스와 콘텐츠를 제공할 것"이라며, "전국의 수많은 오프라인 콘텐츠와 온라인을 결합한 취미여가 플랫폼으로 성장하겠다"라고 말했다.널리소프트, 40억 원 규모의 시리즈A 투자 유치인공지능 기반 세금신고 서비스 ‘SSEM’을 운영하는 널리소프트가 40억 원 규모의 시리즈A 투자를 유치했다. 이번 투자는 D3 쥬빌리파트너스, 스마일게이트 인베스트먼트, 미래에셋 벤처투자, KTB 네트워크 등이 참여했다.출처: 널리소프트SSEM은 부가세와 종합소득세 신고를 쉽고 편리하게 제공해 개인사업자와 프리랜서 등 이용자가 절세 및 비용 절감할 수 있도록 돕는 서비스다. 널리소프트 천진혁 대표는 “SSEM을 통해 많은 사용자가 편리하게 비용을 절감할 수 있도록 서비스를 확장할 것”이라고 말했다.어메이징브루잉컴퍼니, 카카오인베스트먼트로부터 30억 원 규모의 투자 유치수제맥주 스타트업 어메이징브루잉컴퍼니가 카카오인베스트먼트로부터 30억 원 규모의 투자를 유치했다. 어메이징은 투자 유치금을 브랜드 강화, 마케팅, 신제품 개발 및 출시 등에 사용할 계획이다.작년 어메이징 매출은 코로나19 상황임에도 오뚜기와 협업해 선보인 ‘진라거’의 흥행에 힘입어 전년 대비 2배 가량 늘었다. 2022년에는 온라인 판매할 수 있는 지역 특산주 및 무알코올 맥주 등으로 분야를 확대할 예정이다.출처: 어메이징브루잉컴퍼니현재 어메이징브루잉컴퍼니는 이천 제2브루어리를 건설 중에 있다. 제2브루어리를 완공하면 기존 생산량의 5배 수준인 월 750톤 규모의 생산력을 확보할 수 있으며, 이를 통해 증가세인 수출 수요에 대응할 계획이다.카카오인베스트먼트는 “어메이징브루잉컴퍼니는 다양성과 품질이라는 수제맥주의 가치를 구현하는 스타트업이며, 아직 경쟁업체 대비 인지도는 낮은 편이다. 충분한 마케팅을 활용하면 성장할 것이라고 확신해 투자했다”라고 전했다.아이에스에이테크, 24억 원 규모의 프리-시리즈A 투자 유치제트컨버터 클라우드 재해 복구 및 자동 마이그레이션을 개발한 아이에스에이테크가 24억 원 규모의 프리-시리즈 A 투자를 유치했다. 이번 투자는 기존 투자사인 플래티넘 기술투자가 후속 투자했으며, 에스벤처스, 블리스바인벤처스 등이 신규 투자자로 참여했다. 누적 투자 유치 금액은 34억 원이다.출처: 아이에스에이테크아이에스에이테크는 지난 2016년 미국 실리콘밸리에 북미 법인 ‘ZCONVERTER, INC.’를 설립했다. 현지에서 오라클 클라우드 등으로부터 기술을 인정받아 이들과 협력해 북미 기업에 제트컨버터 클라우드 마이그레이션 및 재해 복구 구독 서비스를 공급하고 있다. 또한, 네이버, 카카오, NHN, KT 클라우드 등 국내 클라우드 서비스 기업과도 파트너 관계를 강화하고 있다.아이에스에이테크 민동준 대표는 “이번 투자를 통해 확보한 자금은 제트컨버터 클라우드 사업 확장 및 기술 지원 강화를 위한 인재 유치 및 양성에 활용할 예정이다”라고 말했다.비바퍼블리카, 10억 원 규모의 스타트업 경진 대회 개최모바일 금융서비스 ‘토스’를 운영하는 비바리퍼블리카가, 투자 유치금 10억 원 규모의 스타트업 경진 대회 ‘FOUND’를 개최한다. 이번 대회는 국내외 예비 창업가와 스타트업을 발굴하고, 스타트업 생태계에 활력을 불어넣기 위해 마련했다. 경연대회명인 ‘FOUND’는, 풀어야할 문제를 ‘발견했다’는 의미와, 회사를 ‘설립했다’는 의미를 동시에 지니고 있다.출처: 비바퍼블리카참가 신청은 1월 23일까지 대회 홈페이지를 통해 할 수 있다. 예비 창업자나 기존 스타트업 모두 지원할 수 있다. 지난 12월 시작한 사전 신청을 통해 이미 600여팀이 참여의사를 밝혔다.비바퍼블리카는 1월말 서류 심사를 통해 본선 진출팀을 선정, 3~4월 본선을 치러 최종 우승팀 3곳을 선정할 예정이다. 최종 우승팀에게 총 10억 원 규모의 투자를 차등 진행하며, 대회 종료 후 성장을 위한 코칭 및 파트너십 등의 혜택을 제공할 계획이다.동아닷컴 IT 전문 권명관 기자 tornadosn@donga.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>2022.01.10.</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>지앤넷, "병원에서 '우리카드' 사용하고 보험금 청구하세요"</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004693894?sid=101</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>[지앤넷, 카드사 중 처음으로 '우리카드'와 서비스 제휴]의료정보전송 플랫폼 전문기업 지앤넷(대표 김동헌)이 우리카드와 제휴를 맺고, 우리카드 모바일 앱(애플리케이션)에서 '실손보험빠른청구' 서비스를 시작했다고 10일 밝혔다.이번 제휴는 지앤넷이 카드사 앱에 보험금 청구 서비스를 연동한 첫 사례다. 우리카드 앱을 이용하는 고객이 지앤넷의 의료기록 조회·전송 서비스 '구디' 플랫폼에 가입한 병원을 다녀왔을 경우, 청구 서류 없이도 보험금을 청구할 수 있다. 앱 내 라이프 탭에서 '의료비 간편청구' 메뉴를 클릭하면 된다. 물론 병원 및 약국에서 발급받은 서류와 영수증이 있다면 사진 청구도 가능하다.지앤넷 측은 "고객은 병원에서 우리카드로 결제하고 보험금을 바로 청구할 수 있다"면서 "보험금 청구를 잊거나 미루지 않는다는 게 장점"이라고 말했다. 이어 "우리카드는 고객이 선택한 보험사에 따라 추가로 맞춤 안내도 진행할 계획"이라고 덧붙였다. 김동헌 지앤넷 대표는 "카드사와의 제휴로 고객이 병원을 다녀온 시점에 보험금 청구를 바로 안내할 수 있어 편의성이 커졌다"면서 "우리카드뿐만 아니라 다른 카드사들도 서비스 오픈을 준비 중"이라고 말했다. 이어 "카드 결제 시 고객에게 청구 안내를 바로 보내거나, 병원 및 약국에서 결제와 동시에 별도 절차 없이 보험금을 자동으로 청구할 수 있다"면서 "이번 우리카드와의 연동은 지앤넷이 의료정보전송 서비스를 고도화할 수 있는 전환점이 될 것"이라고 덧붙였다. 지앤넷의 '실손보험빠른청구'는 현재 의료비, 약제비, 치과 보험금 청구를 지원하고 있다. 그동안 4대 시중은행 및 지방은행을 비롯해 토스, 보맵, 카드사, 보험 및 금융서비스사 등 35개가 넘는 기업과 제휴를 맺었다. 국내 주요 5개 EMR(전자의무기록) 사와 협력, 1만1000여개 이상의 병·의원을 대상으로 실손보험빠른청구 연동 모듈도 배포했다. 사진제공=지앤넷</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>2022.01.10.</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>[2022 빅블러시대] 지금 이 순간, 플랫폼은 ‘슈퍼앱’으로 향한다</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002116780?sid=105</t>
-        </is>
-      </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>빅블러는 변화의 속도가 빨라지면서 존재하던 것들의 경계가 뒤섞이는 현상을 뜻한다. 코로나19 팬데믹 확산과 디지털 전환 가속화로 전세계에서 산업 간 경계가 허물어지는 빅블러 현상이 두드러지고 있다. 게임 룰이 바뀌고, 산업을 주도하는 기업이 달라지고, 비즈니스 영역 구분이 모호해졌다. 한국도 이에 빠르게 대응해 빅블러 시대 글로벌 주도권을 선점해야 한다는 목소리가 커지고 있다. 이와 관련 &lt;디지털데일리&gt;는 2022년 임인년을 새해를 맞아 IT 기업들의 합종연횡·신시장 개척 등 위기 대응 전략을 살펴보고 변화에 대응하는 모습을 조명한다. &lt;편집자주&gt;   [디지털데일리 최민지기자] 앱 하나로 소비자가 원하는 다양한 서비스를 누리는 ‘슈퍼앱’, 이는 국내를 넘어 글로벌 플랫폼 트렌드다.    대표적인 슈퍼앱 ‘그랩’은 동남아시아 차량공유서비스로 시작해 금융, 유통, 배달 등으로 서비스를 확장하며 데카콘(기업가치 10조원 이상 스타트업)으로 기록됐다. 그랩뿐 아니라 위챗, 알리페이, 고잭 등은 결제, 배송, 소셜네트워크서비스(SNS) 등 다양한 기능을 포괄한 슈퍼앱으로 이름을 올렸다.      이같은 현상은 한국에서도 빠르게 퍼지고 있다. 빅테크 플랫폼사를 비롯해 모빌리티, 여행, 이커머스, 금융 등 다양한 산업 내에서 슈퍼앱 플랫폼 전략이 본격적으로 펼쳐지고 있다. 기업은 새로운 서비스와 시장에 진출해 더 많은 고객을 확보하고 사용자는 개별 앱 다운로드 필요 없이 기존 앱 내에서 다양한 서비스를 편리하게 즐길 수 있기 때문이다.    국내 대표 플랫폼 네이버와 카카오톡을 들여다보자. 네이버와 카카오는 이미 수년전부터 신사업 확장을 꾀하면서 지금의 슈퍼앱 모습을 갖추기 위해 부단히 노력했다. 그 결과, 앱 하나에서 검색부터 쇼핑, 결제, 콘텐츠 등을 모두 제공할 수 있게 됐다.    이제 이용자는 네이버 앱을 열어 상품을 검색 후 네이버페이로 주문하고, 원하는 식당을 예약할 수 있다. 카카오톡에서는 메시지 전달뿐 아니라, 카카오페이로 송금하고 원하는 공연을 예매할 수 있다.    네이버와 카카오뿐만이 아니다. 유니콘 기업(기업가치 1조원 이상 스타트업)과 스타트업도 슈퍼앱으로 확장하기 위해 분주하다.    모빌리티앱은 슈퍼앱 격전지다. 카카오T는 택시호출, T맵은 내비게이션, 쏘카는 차량공유 1위 서비스다. 그러나, 종합 모빌리티 플랫폼을 지향하며 경쟁을 피할 수 없게 됐다. 이들 모두 렌터카, 주차, 전기자전거, 자율주행, 도심항공교통(UAM)에 이르기까지 이동 전반의 주도권을 차지하기 위해 신사업을 펼치고 있다. 앱 하나로 운전자‧비운전자 할 것 없이 모든 고객의 이동 수요를 충족시킬 수 있도록 한다는 복안이다.   모텔‧호텔 예약으로 시작했던 여행앱은 이제 교통과 여행지에서 즐길거리 등을 포함한 여가 전반을 위한 슈퍼앱을 목표로 한다. 이와 관련 야놀자는 국내외 숙박과 레저뿐 아니라, 레스토랑, 항공‧철도‧렌터카와 같은 교통에 이르기까지 여행을 위한 모든 서비스를 통합 제공한다. 여기에 더해 최근 인터파크를 인수하며 해외여행뿐 아니라 ‘공연’ 강점까지 갖추게 됐다. 여기어때 또한 숙박 예약에 머물지 않고 레저와 티켓, 렌터카, 맛집 등을 서비스하고 있다.    배달주문 앱은 영역을 넓히고 있다. 이커머스 경계로 넘어오는 모습이다. 배달의민족(이하 배민) 운영사 우아한형제들 김범준 대표는 “더이상 배민은 음식배달 앱이 아니다”라며 이커머스 플랫폼으로 진화하겠다고 밝힌 바 있다. 음식이나 식재료 주문뿐 아니라 생필품까지 배송할 수 있도록 했다. 최근엔 뷰티‧패션‧라이프스타일 브랜드가 입점한 배민스토어까지 시범 운영하고 있다.    삼성SDS ‘홈IoT사업팀’ 인수를 추진하는 직방은 종합 프롭테크 기업을 목표로 한다. 부동산 중개 앱에서 벗어나 수리‧보수, 청소‧컨시어지 등 주거와 관련된 다양한 영역을 다루겠다는 설명이다. 오늘의집 또한 인테리어 콘텐츠‧커머스뿐 아니라 리모델링 시공‧중개‧수리‧설치에 이어 이사 서비스까지 제공하는 슈퍼앱을 표방한다.    금융권에서도 슈퍼앱 바람이 불었다. 카카오뱅크와 토스처럼 기존 흩어진 앱들을 통합한 금융 슈퍼앱을 내놓겠다는 전략이다. 이를 위해 고승범 금융위원장은 금융그룹이 하나의 슈퍼앱을 통해 다양한 서비스를 제공하는 디지털 유니버설 뱅크가 가능하도록 제도를 개선하겠다고 지난해 10월 밝힌 바 있다. 이에 KB국민은행은 ‘KB스타뱅킹’ 앱을 개편해 6개 계열사 서비스를 한 곳에 모았고, 우리은행도 ‘우리WON뱅킹’에 우리페이를 도입, 은행‧카드‧보험‧통신‧부동산 정보까지 통합한다.   지난 3일 이재근 KB국민은행장은 취임사를 통해 “금융뿐 아니라 고객 일상생활을 아우르는 슈퍼앱으로 진화시켜 비대면에서 혁신적 금융 서비스를 제공하는 디지털 유니버설 뱅크 완성도를 높여가겠다”고 발언했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>2022.01.12.</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>'금융주 지각변동' 5개월 만에 웃은 윤종규…'대장주 교체' 카뱅→KB금융</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004907874?sid=101</t>
-        </is>
-      </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>윤종규 KB금융그룹 회장이 지난 7일 비대면으로 열린 '2022년 상반기 경영전략회의'에서 임직원들과 소통하고 있는 모습. [사진 제공 = KB금융그룹] KB금융그룹이 카카오뱅크에 넘겼던 '금융대장주' 자리를 탈환했다. 이에 저평가된 기업가치를 마음의 짐으로 여겼던 윤종규 KB금융그룹 회장과 올해 취임한 이재근 KB국민은행장도 웃게 됐다. 투자자들의 관심도 실적, 금리 인상, 오너리스크 등 금융주 판도로 모이고 있다. 12일 한국거래소에 따르면 KB금융그룹은 이날 오후 1시 기준 전장 대비 1400원(2.33%) 상승한 주당 6만1400원을 터치했다. 전날(6만원)에 이어 이틀 연속 52주 최고가를 경신했다. 같은 시각 카카오뱅크는 전일보다 200원(0.40%) 오른 주당 4만9550원에 거래되고 있다. 전날(4만9350)에 비하면 소폭 반등했지만 여전히 5만원대를 밑돌고 있다. 최고가(9만4400원)와 비교하면 반 토막났다. 동시에 지난해 8월 상장 이후 최저 수준이다.시가총액 순위도 바뀌었다. 지난 10일 기준 카카오뱅크와 KB금융은 각각 13위와 14위에 랭크돼 있었다. 다음 날인 11일에는 KB금융그룹과 카카오뱅크가 각각 12위와 14위로 장을 마쳤다. 현재 KB금융그룹과 카카오뱅크는 각각 12위와 15위를 나타내고 있다. 나날이 한 계단씩 멀어지고 있는 셈이다.윤종규 회장은 지난 3일 신년사를 통해 "자산과 이익 규모에서 많은 격차가 있음에도 불구하고 '리딩금융그룹'보다 인터넷전문은행이 투자시장에서 더 높은 평가를 받고 있다"며 "냉정한 평가를 겸허하게 받아들이고 금융 플랫폼 기업으로서 우리가 얼마나 가치 있고 잘 준비된 조직인지 증명하자"고 아쉬워했다. 이재근 행장은 "KB금융지주가 금융업종 시총 1위라는 본래의 위치로 반드시 복귀할 수 있을 것으로 믿는다"는 포부를 드러낸 바 있다.두 사람의 꿈은 생각보다 빨리 이뤄졌다. KB금융그룹이 사상 최초로 당기순이익 '4조원 클럽'에 가입하면서다. KB금융그룹은 지난해 4조4553억원의 순이익을 거둘 것으로 추산된다. 전년(3조4550억원)과 비교해 29% 가까이 증가하면서, 신한금융그룹과 약 2000억원 차이로 리딩뱅크를 수성할 수 있을 것으로 점쳐진다.여기에 본격적인 기준금리 인상 구간에 들어서면서 수익성이 좋아질 것이라는 기대감도 주가에 반영됐다. 미국 연방준비제도(Fed)가 연내 금리를 네 차례에 걸쳐 올릴 것으로 관측되면서, 한국은행 금융통화위원회도 현행(1%) 대비 0.25%포인트 상향한 1.25%로 금리 조정을 단행할 가능성이 커졌다. 예대마진을 확대할 수 있는 은행업종이 최대 수혜주로 꼽히는 만큼 외국인투자자들도 지난해 12월 28일부터 하루도 빠짐없이 KB금융그룹의 주식을 순매수했다. 외국인 지분율도 70%대를 달성했다. 박혜진 대신증권 연구원은 "KB금융그룹의 작년 한 해 이익은 4조4000억원을 넘어섰고 자기자본이익률(ROE)은 9.6%으로 주가가 역사적 고점이었던 지난 2017년과 유사한 수준이 될 것으로 예상한다"며 "자본 여력이 가장 우수한 금융지주로 현물 배당 외 전향적인 배당 정책이 기다려진다"고 말했다.반면 카카오뱅크의 분위기는 심상치 않다. 카카오뱅크는 지난해 9월 말일까지 누적순이익 1679억원을 기록하면서 전년 같은 기간(859억원)보다 개선된 모습을 보였다. 하지만 상장 이후인 3분기 순이익만 분리하면 520억원으로 시장전망치를 30% 이상 하회한 어닝쇼크였다. 뱅킹서비스 애플리케이션 이용자 수도 토스에게 밀렸다. 지난해 말 기준 토스가 1397만4762명의 이용자를 확보하면서 카카오뱅크(1317만154명)를 제쳤다. 카카오뱅크가 장점으로 내세웠던 플랫폼 경쟁력도 잃고 있다는 우려가 나온다. 모회사인 카카오가 각종 규제에 대한 돌파구를 좀처럼 제시하지 못하고 있는데다가 형제회사인 카카오페이가 경영진의 스톡옵션 대량 매각 사태로 노동조합 및 주주들과 대치하고 있는 것도 투자시장의 질책을 받고 있다. 또 케이뱅크의 기업공개(IPO) 예고도 카카오뱅크의 주가에 부정적인 영향을 미쳤다는 진단이다. 코스피시장에 상장된 유일한 인터넷은행에게 부여했던 밸류에이션이 희석될 수밖에 없다는 이유다.공모가 산정 당시 거론됐던 몸값 고평가 논란도 또다시 고개를 들었다. 증권시장 데뷔 당시 카카오뱅크의 시총은 33조원대였다. 같은 날 KB금융그룹의 시총은 21조원대였다. 증권가에서도 카카오뱅크에 대한 기대치를 낮추고 있다. 글로벌 투자은행(IB) 골드만삭스는 최근 카카오뱅크의 투자의견을 중립에서 매도로 하향했다. 목표주가도 8만2000원에서 5만2000원으로 조정했다. 그에 앞서 교보증권도 적정 주가로 5만9000원을 제시했다.박신영 골드만삭스 연구원은 "정부가 부동산 시장과 가계 대출 증가 단속에 나서고 있다"며 "고객의 대출 중단과 모기지 상품의 출시 연기로 카카오뱅크의 성장세가 둔화될 것으로 추정한다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>2022.01.04.</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>이용호 “망신주기식 ‘딩동’ 방역패스, 국민 인권침해 작정했나”</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/123/0002263797?sid=100</t>
-        </is>
-      </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>임산부 등 미접종자에 대한 일상생활 구제방안 마련 촉구“접종 마친 임산부 1%도 안 돼... 딩동 소리, 탁상행정이자 인권 침해”현직 의사 등 제기한 방역패스 집행정지 심문 오는 7일 열려 ◆…지난 7일 오후 국회 국민의힘 회의실에서 입당원서를 제출한 뒤 소감을 밝히는 이용호 의원.&lt;사진=연합뉴스&gt;이용호 국민의힘 공동선대위원장은 방역당국이 오는 10일부터 식당과 까페, 학원뿐만 아니라 대형마트와 백화점까지 방역패스 적용을 확대하기로 한 것에 대해 "국민들의 인권침해를 하려고 작정했나"라고 비판했다.   이 위원장은 4일 입장문을 통해 "방역패스는 무조건 밀어붙일 일이 아니다. 백신 부작용 우려 때문에 백신을 접종하지 못한 임신부와 투병 환자 등에 대한 충분한 고려 후 추진하느냐"며 "방역당국이 밝힌 지난해 12월 9일 기준 백신 1차 접종을 마친 임산부는 2087명(1.5%)이고 2차 접종까지 마친 임신부는 1175명(0.84%)에 불과하다. 임신부가 약 14만명인데 접종완료자는 1%도 안 되는 수치"라고 주장했다.   이어 "또 복용 중인 약물이 있거나 기존 질환 때문에 백신 부작용이 우려되는 미접종자 역시 마찬가지"라며 "이들은 가족도 못 만나고 꼭 필요한 생활물품 구입 등 최소한의 활동만 하며 버티고 있눈데 이제는 대형마트까지 방역패스를 확대한다고 하니 이마저도 못 갈 상황"이라고 했다.   그러면서 "방역당국은 감기약도 함부로 못 먹는 임신부, 백신 부작용이 우려되는 환자들의 목소리를 들어야 한다"라고 강조했다.   그러고는 "'딩동' 소리로 망신주기식의 방역패스 확대는 그야말로 탁상행정이자 인권침해"라면서 "국민의 일상생활을 보장하는 대안이 우선 제시되어야 할 것이다"라고 말했다.   ◆ 3일부터 만료자는 '딩동' 알림음... 다중이용시설 출입도 제한   질병관리청에 따르면 지난 3일 0시부터 방역패스에 유효기간이 설정됐다. 유효기간은 코로나19 백신 접종 이후 180일까지이며 이 기간이 경과하면 방역패스를 인정받을 수 없다.   이에 따라 3일 기준으로 지난 7월 6일 이전에 2차 접종을 완료한 사람들은 식당, 카페 등을 이용할 때 3차 접종을 받거나 PCR 검사 음성 확인서 등을 통해 감염 전파력이 없다는 사실을 증명해야 한다.   질병관리청 중앙방역대책본부(방대본) 집계 결과를 보면 지난 2일까지 방역패스 유효기간 만료 대상자 563만명 중 92%인 518만명이 3차 접종을 받았다. 4000명은 3차 접종 예약을 마쳤다.   나머지 43만 6000명은 3차 접종을 받지 않고 예약도 하지 않아 유효기간이 만료된다.   오는 9일까지는 계도기간이어서 방역패스 위반으로 과태료 등 행정 처분이 내려지지는 않는다. 이후 10일부터는 계도기간이 종료돼 유효하지 않은 방역패스로 다중시설을 몰래 이용하다 적발되면 과태료 10만원이 부과된다.   바뀐 인증 시스템에 QR 코드를 인식시키면 유효기간 만료 여부에 따라 다른 알림음이 나온다. 현재는 '접종 완료 후 14일이 경과되었습니다'라는 안내 음성이 나오는데 앞으로는 유효기간이 남은 경우에만 '접종완료자입니다'라는 음성이 나온다.   그러나 6개월의 유효기간이 만료된 접종증명서를 찍으면 '딩동' 소리가 나온다. ◆…방역패스에 '유효기간' 적용 지난 2일 오후 서울 종로구의 한 식당에 방역패스(접종증명·음성확인제) 관련 안내문이 붙어 있다.&lt;사진=연합뉴스&gt;또 방역당국은 지난 3일 0시부터 백신 접종완료 후 6개월이 지나 부스터샷(3차 접종)을 맞지 않거나 48시간 내 발급받은 PCR(유전자증폭검사) 음성확인서를 제시하지 않으면 영화관 등 다중이용시설 출입을 제한하기로 했다.   기존 방역패스(접종증명·음성확인제) 적용시설은 ▲유흥시설 등(유흥주점, 단란주점, 클럽(나이트), 헌팅포차, 감성주점, 콜라텍‧무도장) ▲실내체육시설 ▲노래(코인)연습장 ▲목욕장업 ▲경륜‧경정‧경마/카지노(내국인) ▲식당‧카페 ▲학원 등 ▲영화관‧공연장 ▲독서실‧스터디카페 ▲멀티방 ▲PC방 ▲스포츠경기(관람)장(실내) ▲박물관‧미술관‧과학관 ▲파티룸 ▲도서관 ▲마사지업소‧안마소 등이었으나 오는 10일부터 3000㎡ 이상인 대규모 상점·마트·백화점 등도 방역패스 적용이 추가된다.   방역패스를 위반하면 감염병예방법에 따라 과태료가 부과된다. 과태료는 시설 이용자와 관리자(사업주) 모두에게 부과되는데 이용자는 10만원, 사업주는 1차 150만원, 2차 위반 때는 300만원이다.   사업주에게는 과태료 이외에도 행정처분도 내려진다. 1차 위반 때는 영업정지 10일, 2차 20일, 3차 때는 3개월간 운영 중단 명령을 내릴 수 있다. 4차 위반 시 시설 폐쇄도 가능하다.   3차 접종력과 2차 접종 후 경과일은 코로나19 전자예방접종증명(COOV·쿠브)뿐 아니라 네이버와 카카오, 토스 등 민간 플랫폼에서도 확인할 수 있다.   시설관리자는 이용자의 방역패스를 확인할 때 이를 살펴야 하고 만약 방역패스를 소지하지 않았다면 시설 이용이 불가함을 안내해야 한다. 또 시스템 개선에 맞춰 전자출입명부(KI-PASS) 앱을 업데이트해야 한다.   방역당국은 미접종자 감염 양상이 줄고 이로 인해 위중증·치명률이 낮아진다면 저위험시설부터 방역패스의 적용을 해제할 예정이라 밝혔다.  ◆ "실효성 없는 방역패스로 미접종자 기본권 침해" 현직 의사 등 반발   한편, 현직 의사 등이 정부의 방역패스(접종증명·음성확인제) 조치에 반발해 신청한 집행정지 심문이 7일 열린다.   4일 법조계에 따르면 서울행정법원 행정4부(한원교 부장판사)는 조두형 영남대 의대 교수 등 1천23명이 보건복지부 장관과 질병관리청장 등을 상대로 낸 방역패스 처분 집행정지 신청에 대한 심문기일을 오는 7일 진행한다.   집행정지란 행정청의 처분으로 복구할 수 없는 큰 피해를 볼 우려가 있을 때 처분의 집행이나 효력을 임시로 막는 조치다.   재판부는 이날 방역패스 적용으로 인한 권리 침해 등에 관한 양측의 입장을 확인한 뒤 집행정지 여부를 결정할 예정이다. ◆…지난 3일 서울 한 식당 입구에 방역패스 안내문이 붙어 있다.이날부터 방역패스 6개월 유효기간이 적용된다. 지난해 7월 6일 전에 기본접종 후 추가접종을 하지 않았다면 방역패스 적용 시설에 입장할 수 없다.&lt;사진=연합뉴스&gt;앞서 정부는 신종 코로나바이러스 감염증(코로나19) 확산세를 막겠다며 백신 접종을 마쳤거나 진단검사에서 음성 판정을 받았음이 확인돼야 식당과 카페, 학원 등 공중시설 출입을 허용하는 조치를 시행했지만, 이미 백신 접종률이 90%를 웃도는 상황에서 실효성 없는 방역패스로 미접종자들의 기본권을 침해한다는 반발이 제기됐다.   원고들은 "정부가 미접종자에 대해 사회생활 시설 전반 이용에 심대한 제약을 가하는 방식으로 임상시험도 제대로 거치지 않은 코로나19 백신 접종을 사실상 강요해 중증 환자와 사망자를 양산하고 있다"며 지난달 31일 방역패스 적용 처분을 취소하라는 행정소송을 내고 집행정지도 신청했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>2022.01.13.</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>중진공 인천청년창업사관학교 입교생 모집</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004771917?sid=101</t>
-        </is>
-      </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>40명 선발, 보조금 최대 1억원 지원  【파이낸셜뉴스 인천=한갑수 기자】 중소벤처기업진흥공단 인천지역본부는 13일부터 2월 4일까지 2022년도 인천 청년창업사관학교 12기 입교생을 모집한다고 13일 밝혔다.   인천청년창업사관학교 올해 모집규모는 40명으로 인천지역본부는 바이오·의료, 스마트물류, 제조-ICT 융복합 분야 기업을 우선 선발할 계획이다.   최종 선발된 창업자는 총 사업비의 70% 이내, 최대 1억원의 정부보조금과 창업 공간 제공, 시제품 제작 관련 인프라, 실무교육, 기술·마케팅 전문가의 밀착코칭, 판로개척 등 초기 창업기업에게 필요한 다양한 지원을 받을 수 있다.   청년창업사관학교는 유망 창업아이템과 혁신기술을 보유한 우수 창업자를 발굴해 창업 전 단계를 패키지로 지원하는 사업으로, ‘토스’와 같은 유니콘 기업을 배출하는 등 대한민국 청년 기술창업의 대표 양성소로 자리매김하고 있다.   2011년 개교 이후 현재까지 5842명의 청년창업가를 배출했으며 5조768억원의 누적 매출성과와 1만7823명의 신규 일자리를 창출했다. 인천청년창업사관학교는 2018년 개교 이래 165명의 창업가를 발굴 육성했다.   인천 청년창업사관학교 입교 희망자는 2월 4일 오후 2시까지 케이(K)-스타트업 누리집을 통해 신청하면 된다.   지원요건은 만 39세 이하의 창업 3년 이내 청년창업가로 현재 사업장 소재지 기준 수도권 및 강원 권역 기업을 대상으로 한다.   김양호 인천지역본부장은 “혁신적인 아이디어와 기술을 보유하고 도전의식을 갖춘 청년창업기업이 인천창업사관학교를 통해 유니콘 기업을 향한 꿈을 꿀 수 있도록 적극적으로 지원할 것” 이라고 말했다. #창업 #바이오 #ICT #제조 #중진공 #의료 #스마트물류 #인천청년창업사관학교 #융복합</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>2022.01.06.</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>제도권 진입한 P2P, 올해 성장의 원년될까 [더 머니이스트-최수석의 헬로 P2P]</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004649723?sid=101</t>
-        </is>
-      </c>
-      <c r="E192" t="inlineStr">
-        <is>
-          <t>한경닷컴 더 머니이스트P2P시장 규모 2023년 10조 전망연 10% 수준 고수익·편리성 등 장점이미지=게티이미지뱅크4차산업혁명이 진행되면서 핀테크가 각광받고 있습니다. 간편결제의 카카오페이와 네이버페이, 간편송금의 토스 등이 대표주자로 떠오르고 있고 가상자산과 로보어드바이저 산업도 발전하고 있습니다. 이러한 핀테크 물결 속에서 스마트폰과 PC를 통한 비대면 온라인 투자 'P2P'는 정기예금 금리의 5배가 넘는 두 자리 숫자 수익률을 제공하면서 코인투자 등과는 차별화된 안정성을 제공해 투자시장의 핵심으로 떠오르는 중입니다.P2P 투자는 자금이 필요한 사람이 금융권에서 충분한 자금을 확보하지 못하는 경우에 금융권을 통하지 않고 P2P 금융사가 투자자로부터 스마트폰과 PC 등을 통해 온라인으로 자금을 모아서 대출을 해주는 새로운 금융기법입니다. 연 10%에 달하는 높은 수익률을 투자자에게 제공하면서 언제 어디서나 365일 24시간 스마트폰을 통하여 온라인으로 자금을 모집할 수 있는 게 특징입니다.증권사 리서치센터에서 발표한 자료에 따르면 우리나라의 P2P 투자시장은 2017년의 1조3000억원 대비 2023년에는 10조2000억원으로 6년 만에 최대 7.8배 성장할 것으로 예상할 정도입니다. P2P 투자가 투자자에게 어떠한 수익성과 상대적인 안정성, 편리성을 가져다주기에 이렇게 급성장할 것이라고 예측되는 것일까요?이미지=한국 P2P금융 시장규모 전망수익성 측면에서 P2P 투자는 다른 투자수단을 압도합니다. 연 10% 수준의 고수익을 자랑하면서 투자하는 시점에 투자수익률이 제시되고 상환시점까지 그 수익률이 유지됩니다. 물론 이런 수익률은 원리금이 보장되지 않습니다만, 대체로 P2P 금융사의 연체율은 한자리수 미만으로 나타나고 있습니다.  투자 소득에 대한 '정상과세'가 수익성 제고에 한 몫 합니다. 개인이 투자한 상품에 대한 소득에 대해 기존에는 비영업대금에 의한 이익으로 27.5%를 과세했는데 이제는 은행 이자소득 과세처럼 15.4%로 정상과세하게 되는 겁니다. 이러한 정상과세로 투자자들이 연이율 10% 상품에 투자했을 경우 세후수익률에서 연 1.21%포인트 만큼 더 받게 되며 이는 은행 정기예금 이자율만큼 더 받는 것이 됩니다. 만약 1억원을 투자한다고 보면 연 121만원을 더 받게 된다는 것입니다. 두번째는 P2P 투자가 온라인 투자(온투)로 바뀌고 P2P 업권이 제도금융권으로 진입하면서 투자환경이나 P2P 업권에 대한 신뢰도가 좋아져 P2P 투자시장이 크게 성장할 것이라는 점입니다. 과거에는 P2P금융법이라는 온라인투자연계금융업법이 준비되지 않은 상태에서 P2P가 시장에 등장했습니다. 미숙한 금융기법으로 자금을 모으고 대출하는 사업자가 나오면서 심사분석 미흡으로 인한 연체가 많이 발생됐습니다. 그리고 투자금 돌려막기와 투자금 유용, 폐업 등의 금융사고가 발생하면서 P2P 투자시장의 신뢰를 잃었던 게 사실입니다.금융당국에서는 2017년 2월 'P2P대출 가이드라인'을 만들고 계속 수정 시행해 투자자와 대출자 보호에 나섰습니다. 하지만 법적 강제력이 없는 가이드라인으로는 일탈행위를 막기 어려워 온라인투자연계금융업법이라는 독자법률을 세계 최초로 만들고 작년 8월 27일부터 본격 시행하게 된 것입니다. 투자자 입장에서는 금융당국의 금융규제 틀 속에서 P2P상품이 출시, 관리되면서 안심투자 환경이 조성되고 이에 따라 P2P 투자에 대한 신뢰도가 높아진다는 장점이 생겼습니다. 세번째는 투자의 편리성입니다. 대다수 국민들이 사용하는 스마트폰이나 PC를 통해 언제 어디서든 대출을 받을 수 있는 편리성을 가지고 있습니다. 금융산업 중에서 투자와 대출산업이 갖는 막강한 시장 장악력을 살펴볼 때 이러한 시공간의 제약을 받지 않는 편리성은 P2P 금융이 향후 온라인 비대면 금융의 수혜시장이 될 것으로 전문가들이 예측하고 있습니다.네번째로는 P2P 투자가 법적 안정성을 갖춘 온라인 투자로 바뀌게 되면서 이해관계자인 투자자와 대출자(차주), P2P금융사, 국가 경제적으로 선순환 상승작용을 일으킨다는 점입니다. P2P 금융사들이 주요 취급하는 투자상품인 소상공인 매출채권 유동화(매출망금융), 주택담보대출, 신용대출 상품들을 통해 대출자에게는 금융의 공백을 메꾸면서 가뭄의 단비와 같은 역할을 하게 됩니다. 이러한 대출자에게 자금을 제공하는 투자자에게는 중위험 중수익을 거둘 수 있는 매력적인 재테크 수단이 되면서 국가의 부를 확장시킬 수 있게 됩니다. P2P투자는 제도권 금융상품으로 진입하게 됐습니다. 그만큼 올해를 기점으로 쉽고 편리한 고수익 재테크 수단으로서 투자시장에 큰 물결을 일으킬 것으로 보입니다.&lt;한경닷컴 The Moneyist&gt; 최수석 헬로펀딩 대표"외부 필진의 기고 내용은 본지의 편집 방향과 다를 수 있습니다."독자 문의 : thepen@hankyung.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>2022.01.04.</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>규제 빼줘도 외면받는 중저신용자 대출… 은행들 올해는 늘릴까</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004766772?sid=101</t>
-        </is>
-      </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>부실채권 위험에 은행 몸 사려지난해 자체 목표량도 미달성금리 상승기 여신 수익 등 보장한도 예외로 비중 늘릴지 미지수  올해 고신용자 대출 증가가 제한되면서 시중은행들이 중저신용자 대출을 늘릴 것으로 전망됐지만 가능성이 높지 않다는 지적이 나온다. 은행들 입장에선 중저신용자 대출이 아니어도 금리 상승기 여신 수익이 보장된 데다 굳이 부실채권 위험을 떠안을 필요도 없어서다. 당국이 중저신용자 대출에 대해 한도 예외라는 인센티브를 주겠다고 밝혔지만 큰 유인책이 되기는 어렵다는 지적이다.   4일 금융당국과 금융업계에 따르면 정부가 대출 총량 규제를 강하게 밀어붙였던 지난 해에도 시중은행이 스스로 세운 중저신용자 대출 목표는 최대한 인정한다는 입장을 취했으나 시중은행들 중 단 한 곳도 스스로 세운 목표를 달성하지 못한 것으로 파악됐다.   금융위원회는 올해 업무보고에서 중저신용자 대출은 실수요 대출로 분류하고 이를 한도에서 예외로 하는 것을 인센티브로 설정했지만 사실은 지난해에도 같은 방식으로 운용했던 셈이다.   지난해와 올해 감독 당국이 총량 관리에 포함한 대출은 중저신용자 대출이다.   당초에는 당국이 중저신용자 대출을 관리 목표치에 전액 반영하려고 했으나 중간에 시중은행이 세운 목표만큼은 전액 인정해주기로 방침을 바꿨다. 지난 해 당국이 가계부채 총량 관리를 밀어붙이면서 시중은행들이 해당 한도 내에서는 중저신용자 대출을 할 수 없다고 불만을 제기해서다.   한 은행권 관계자는 "지난해에 중저신용자 대출을 포함해 부채 총량을 8%까지 늘리겠다고 허락 받은 은행이 있는데 실제로는 고신용자 위주로 대출했다"며 "이 은행은 올해 중저신용자 대출 목표와 관련해서도 당국의 조정을 받은 걸로 안다"고 말했다.   이처럼 은행들이 중금리대출에 소극적인 이유는 위험에 비해 수익성이 낮기 때문이다. 시중 은행 관계자는 "우량고객이 주 고객층인 은행으로선 중금리대출이 리스크만 크고 수익사업은 되지 못한 것"이라며 "은행들이 금융당국에 못이겨 울며겨자먹기로 중금리 상품을 내놓긴 했지만 적극적인 움직임은 보이지 않는 모습"이라고 전했다. 게다가 금융당국이 제시한 중금리대출에 대한 인센티브도 은행을 유인하기엔 부족하다는 지적도 있다.   또한 은행이 금융당국의 대출조이기와 기준금리 인상 속에서도 고신용자의 대출 수요가 날로 치솟아 굳이 중금리대출까지 나설 이유가 적은 것도 작용하고 있다.   일단 은행들은 올해도 중저신용자 대출을 더 늘릴 뜻을 피력하고 있지만 결과는 미지수다.   국민은행은 신임 이재근 은행장이 나서 "내년에는 (신용등급) 7등급 이하인 저소득층 고객에게는 한도가 열려 있어 성장 기회로 탐색해야 한다"고 말했다.   국민은행은 이를 위해 신용평가모델 개발 조직을 부서로 격상하고, 대안 신용평가모델 활용 전담팀을 구성했다. 가계대출 총량 규제가 강화되면서 중저신용자 대출을 확대하기 위한 노력의 일환으로 풀이된다.   신한, 하나, 우리은행도 신용평가모형(CSS) 고도화 작업에 착수했다. CSS를 정교화해 상환능력이 있는 중저신용 고객군을 찾아내 부실화를 최대한 줄이겠다는 뜻이다.   한편 지방은행과 인터넷은행 등 중금리 대출 비중이 높은 은행들은 올해 이 비율을 최대한 인정을 받는 것으로 알려졌다. 올해 카카오뱅크와 케이뱅크의 중저신용자 대출 목표치는 각각 25%, 토스뱅크는 42%다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>2022.01.07.</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>카카오, 인재 유출 본격화?… 보험사들 '파격 조건'으로 모신다</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000772846?sid=101</t>
-        </is>
-      </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>보험사들이 카카오에 근무하는 디지털 인재를 조만간 영입할 예정이다. 이 중에는 지난해 보험사에서 카카오로 이직한 직원도 상당수 포함될 것으로 전망된다./사진=이미지투데이“디지털 역량을 높이기 외부 인재를 포함해 내부 출신 기용도 늘려나갈 것.”한 생명보험사(생보사) 고위 관계자의 전언이다. 올 상반기 생보사들이 디지털 전환을 서두르기 위해 디지털 관련 인력 채용에 본격 나선다. 이미 일부 생보사들은 카카오, 토스 등 외부 인재 영입을 비공식적으로 추진하고 있다. 심지어 지난해 카카오 등으로 이직한 직원을 다시 영입하려는 생보사도 있는 것으로 알려졌다. 올해 디지털 전환을 본격화하려는 보험사들은 이들에게 연봉 인상과 인센티브 등 파격 조건을 제시할 예정이다.  7일 보험업계에 따르면 교보생명과 미래에셋생명 등 생보사들은 조만간 디지털 관련 부서에서 근무할 외부 직원 영입을 추진 중이다. 최고경영자(CEO)가 올해 주요 경영화두로 디지털화를 강조하면서 관련 부서에서 근무할 인원을 충원해야 한다고 판단한 것이다. 한 생보사 관계자는 “카카오페이나 토스 등에서 인재를 영입하는 것도 추진할 것”이라며 “외부에만 의존하진 않고 내부에서도 발탁하는 식이 될 것”이라고 설명했다. 앞서 카카오페이는 지난해 6월 금융위원회로부터 디지털손해보험업 본인가를 앞두고  손해보험사로서 사업능력을 인정받기 위해 보험 관련 인력을 대거 채용한 바 있다. 지난해 카카오페이는 개발자를 비롯해 지원부서 인력 300명을 채용했다. 비대면 종합금융플랫폼을 지향하는 기업인만큼 채용할 인력의 대다수는 개발자였으며 이들 중 100여명은 보험 관련 인재였다. 여기에는 교보생명을 포함해 국내 주요 생보사 및 손보사 인재도 상당히 포함된 것으로 전해졌다. 기존보다 많은 연봉을 보장하는 것은 물론 스톡옵션까지 제공한다는 소식에 카카오로 이직을 선택한 것이다. 생보사 관계자는 “카카오가 수평적인 문화를 구축했다는 점도 보험사 직원들의 이직에 큰 이유로 작용했다”고 설명했다. 올해 보험사들은 지난해에 이어 디지털화를 화두로 제시했다. 지난해에는 디지털화를 위한 기반을 구축했다면 올해는 구체화 한다는 전략이다. 아직 디지털 보험 시장은 초기 단계로 평가받고 있다. 보험연구원에 따르면 지난해 1분기 기준 손해보험사의 온라인 보험 판매 비중은 6.46%로 나타났다. 같은 기간 생명보험사는 0.5%를 기록했다. 보험사들은 디지털화로 고객의 편의성을 높일 수 있을 뿐만 아니라 일부 상품에서 발견되던 위험 유형을 파악해 손실을 줄일 수 있을 것으로 보고 있다. 한 생보사 관계자는 “MZ세대(1980년대 초~2000년대 초 출생한 세대)를 붙잡고 디지털 시장을 개척하는 것이 보험사 주요 사업 중 하나가 될 것”이라고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>2022.01.02.</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>"미리 앱 업데이트 하세요" 내일부터 방역패스 유효기간 적용</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/437/0000285339?sid=102</t>
-        </is>
-      </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>지난해 12월 14일 인천의 한 음식점에서 쿠브 앱이 정상 작동되는 가운데 시민들이 식사를 기다리고 있다. 〈사진=연합뉴스〉        내일(3일)부터 방역패스에 유효기간이 생깁니다.      오늘(2일) 방역당국에 따르면 오는 3일부터 적용되는 방역패스 유효기간은 신종 코로나바이러스 감염증(코로나19) 백신 2차 접종 뒤 14일이 지난 날로부터 6개월까지입니다.      방역패스 효력을 유지하기 위해서는 3차 접종을 해야 합니다. 3차 접종을 할 경우 즉시 효력이 발생합니다.      유효기간은 쿠브(COOV) 애플리케이션에서 확인할 수 있습니다. 2차 접종 뒤 14일이 지났을 경우 '14일 경과'라는 설명이 뜹니다. 180일이 지나면 '유효기간 만료'라는 안내가 나옵니다.      질병관리청은 쿠브 앱을 업데이트해야 3차 접종을 했는지, 2차 접종 뒤 얼마나 지났는지 쉽게 확인할 수 있다며 유효 기간이 적용되는 오는 3일 이전에 미리 업데이트할 것을 권장했습니다.    방역패스 의무화가 시작된 지난해 12월 13일 점심시간, 서울 시내의 한 식당을 찾은 손님이 질병관리청 쿠브(COOV·전자예방접종증명서) 애플리케이션 오류 발생으로 백신 접종 증명을 하지 못하고 있다. 〈사진=연합뉴스〉        앞서 지난달 13일에는 방역패스 단속이 시작되면서 앱에 접속자가 몰려 먹통 사태가 발생한 바 있습니다. 원활하게 이용하기 위해서는 미리 업데이트하는 것이 좋습니다.      카카오나 네이버, 토스 등 민간 전자출입명부 앱도 업데이트를 하면 유효기간을 확인할 수 있습니다.      전자 증명서 사용이 어려운 장애인은 종이로 된 접종증명서나 예방접종스티커를 활용하면 됩니다. 종이 증명서는 보건소에 신청해 발급받을 수 있습니다.      방역패스가 적용되는 다중이용시설은 대규모 점포, 영화관·공연장, 유흥시설, 노래연습장, 실내체육시설, 목욕탕, 식당·카페, 학원, 독서실·스터디 카페, 멀티방, PC방, 실내 스포츠경기장, 박물관·미술관·과학관, 파티룸, 도서관 등입니다. 백화점이나 대형마트 등 면적 3천㎡ 이상 대규모 점포는 오는 10일부터 방역패스가 적용됩니다.      미접종자가 방역패스 시설을 이용하기 위해서는 48시간 이내에 발급받은 PCR(유전자증폭검사) 음성확인서를 제시해야 합니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>2022.01.01.</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>"인뱅으로 대출 수요 몰리나"… 토스뱅크, 오늘 오전 11시부터 신용대출 재개</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000770678?sid=101</t>
-        </is>
-      </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>금융당국이 올해 가계부채 관리를 대폭 강화하는 가운데 토스뱅크가 오늘 오전 11시부터 신용대출을 내준다./사진=토스금융당국이 올해 가계부채 관리를 대폭 강화하는 가운데 토스뱅크가 오늘 오전 11시부터 신용대출 영업을 재개한다.시중은행의 가계대출 문턱이 높아질 것으로 전망되는 가운데 인터넷전문은행은 시중은행보다 상대적으로 느슨한  대출규제를 받아 대출 수요가 몰릴 것으로 전망된다.1일 금융권에 따르면 토스뱅크는 365일 24시간 운영하는 인터넷전문은행 특성상 내년 1월 1일 오전 11시부터 신용대출 영업을재개한다.신용대출 최저금리는 연 3% 초반이고 최대 한도는 2억7000만원이다.토스뱅크는 이번 대출영업 재개를 통해 고객들에게 '내 한도 조회' 서비스 클릭 한번으로 맞춤형 한도와 금리를 제공할 방침이다. 고객들은 사용한 만큼만 이자를 부담하는 '토스뱅크 마이너스 통장', 최대 300만원 한도의 '토스뱅크 비상금 대출'을 필요에 맞게 선택할 수 있다.앞서 토스뱅크는 지난해 10월 5일 출범했지만 대출 수요가 급격히 몰리면서 대출총량 한도인 5000억원을 9일만에 모두 소진해 같은 달 14일부터 신규 대출을 중단한 바 있다. 토스뱅크를 비롯한 인터넷은행은 일반 시중은행보다 가계대출 총량관리 규제를 다르게 적용받는다. 시중은행의 올해 가계대출 증가율 목표치는 4%대로 지난해(5~6%대)보다 축소됐다. 반면 토스뱅크는 세자릿 수의 목표치를 부여받은 것으로 전해졌다.이는 시중은행에 비해 인터넷은행의 자산규모가 크게 적은 점을 감안한 조치로 풀이된다. 고승범 금융위원장은 지난달 30일에도 "새로 출범하는 인터넷은행 토스뱅크, 케이뱅크 등은 여건이 (시중은행과) 다르다"며 "그런 부분을 고려해 (대출 한도를) 다르게 결정하겠다"고 말했다.은행권 관계자는 "신용대출을 받을 경우 DSR 규제 범위 내에선 시중은행보다 인터넷은행에서 대출 한도가 더 나올 가능성도 있다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>2022.01.02.</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>쿠브·카톡·네이버 업데이트하세요…3일부터 방역패스 유효기간 적용</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/241/0003182181?sid=102</t>
-        </is>
-      </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>[일간스포츠 권오용]       3일부터 방역패스(접종증명·음성확인제)에 유효기간이 생긴다. 예방접종 인증 전자증명서인 쿠브 앱을 비롯해 네이버, 카카오톡, 토스, PASS 등 민간 전자출입명부 앱을 미리 업데이트해야 불편없이 식당 등을 출입할 수 있다.      2일 방역당국에 따르면, 방역패스의 유효기간은 코로나19 백신 2차 접종(얀센 접종자는 1차 접종) 후 14일이 지난 날부터 6개월(180일)까지다.    유효기간이 임박한 사람은 3차 접종을 해야 방역패스 효력을 유지할 수 있다. 3차 접종을 받은 즉시 효력이 다시 생긴다.    방역패스 유효기간은 3∼9일까지 일주일간 계도기간을 거쳐 시행된다. 유효기간 위반으로 인한 과태료나 행정처분은 10일부터 부과된다.    유효기간은 쿠브 앱에서 확인할 수 있다. 2차 접종 후 14일이 지나면 '14일 경과' 표시가, 180일이 지나면 '유효기간 만료' 표시가 뜬다.   쿠브 앱를 업데이트해야 3차 접종을 했는지 여부와 2차 접종 후 며칠이 지났는지를 확인할 수 있다. 식당 등 다중이용시설을 방문하기 전에 미리 업데이트해야 현장에서 빠르게 QR코드 인식으로 출입이 가능하다.      네이버, 토스, PASS 등 민간 전자출입명부 앱은 최신 버전으로 업데이트한 후 접종 정보를 갱신한 경우에만 3차 접종력을 확인할 수 있다.    \카카오톡은 3차 접종 정보와 접종증명 유효기간이 연계된 최신 버전 QR코드 화면에서는 '유효한 접종증명'을 뜻하는 파란색 테두리와 함께 QR코드가 나타나며, 하단에 2차 접종 후 경과일이 표시된다. 접종을 완료했음에도 QR코드 주위에 파란색 테두리나 접종 후 경과일이 보이지 않으면 전자출입명부 앱을 최신 버전으로 업데이트해야 한다.    방역패스가 적용되는 시설 운영자도 KI-PASS 앱을 업데이트하지 않으면 3일부터 앱 실행이 불가능해지기 때문에 앱을 최신 버전으로 갱신해야 한다.    3일부터 유효기간이 남은 앱 화면을 인식기에 대면 '접종 완료자입니다'라는 음성이 나오고, 유효기간이 만료된 경우에는 '딩동' 소리가 나며 입장할 수 없다.      미접종자가 방역패스 시설을 이용하려면 48시간 내 발급받은 PCR(유전자증폭검사) 음성확인서를 제시해야 한다.  권오용 기자 kwon.ohyong@joongang.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>2022.01.12.</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>'비상장 투자'에 눈 돌리는 동학개미…눈여겨보는 종목은?</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/629/0000126918?sid=101</t>
-        </is>
-      </c>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>12일 금융투자협회에 따르면 지난해 장외주식(K-OTC) 시장의 연간 거래대금은 1조3982억 원으로 역대 최대치를 기록했다. /더팩트 DBK-OTC 연간 거래대금 2년 연속 1조 원 돌파 최근 2년 새 IPO(기업공개) 시장이 주목받기 시작하면서 비상장 주식 투자에 대한 관심도 함께 커지고 있다. 올해 들어 박스권 장세가 이어지고 있어 투자 수익률을 높이고자 하는 개인투자자들로부터 비상장 기업 투자 확대 현상이 지속될 것으로 보인다.12일 금융투자협회에 따르면 지난해 장외주식(K-OTC) 시장의 연간 거래대금은 1조3982억 원으로 역대 최대치를 기록했다.2020년에는 1조2766억 원을 기록해 비상장 주식 연간 거래대금은 2년 연속으로 1조 원을 넘어섰다.비상장 시장은 공모주 투자에 대한 관심이 확대되며 함께 커졌다. 상장 후 주가가 크게 뛸 것으로 기대감이 모이는 비상장주식을 선제적으로 보유해 높은 공모주 수익률을 얻으려는 투자자들이 많아지면 서다. 공모 시장에 대한 유동성이 많아지고 상장에 나서는 기업 수도 많아지며 IPO 시장 규모 역시 꾸준히 성장했다.상장 기대감이 점쳐지는 기업들의 경우 장외주식시장에서 가격이 크게 뛰기도 한다. 비상장 주식거래 플랫폼 '증권플러스 비상장'에 따르면 야놀자는 미국 증시 상장 기대감에 지난해 230% 넘게 상승했다. 토스를 운영하는 비바리퍼브리카는 210% 넘게 올랐다.금융투자협회 관계자는 "미래 유망 투자처로 주목받는 비상장 주식에 대한 투자자들의 관심 증대로 거래 규모가 지속적인 증가세를 보였다"고 설명했다.더불어 최근 플랫폼의 거래 안정성이 강화되고 비상장 종목에 대한 증권사의 리서치도 확대되면서 투자 접근성과 난이도가 개선되기도 했다.코스콤이 운영 중인 비상장주식 마켓 플랫폼 '비마이유니콘', 피에스엑스가 운영하는 '서울거래 비상장' 등은 최근 투자자 보호조치와 거래 편의성 등을 보완했다. 국내 증권사 중에서는 KB증권과 신한금융투자, DB금융투자, 이베스트투자증권 등이 비상장 기업과 벤처 기업을 분석하는 보고서를 발행하고 있다.올해도 IPO 시장이 활발할 것으로 예상되는 가운데 비상장 주식 시장에 대한 관심과 투자가 늘어날 것으로 전망된다. /증권플러스 비상장 홈페이지 갈무리올해도 기업가치가 조 단위인 대어급 기업들이 대거 상장에 나서는 등 IPO 시장이 활발할 것으로 예상되는 가운데 비상장 주식 시장에 대한 관심과 투자가 늘어날 것으로 전망된다.증권플러스 비상장에 따르면 12일 기준 인기 키워드를 통해 나타난 관심 상위 업종은 핀테크, 메타버스, 제약·바이오, 온라인 서비스다.매수 및 매도 신청 건수로 살펴본 거래가 활발한 상위 항목은 △온페이스게임즈(3만4000건) △지엔티파마(3만2258건) △두나무(1만8000건) △한국코러스(1만4832건) △빗썸코리아(1만2000건) △현대엔지니어링(2210건) △아레스(567건) 등이다.다만, 비상장 주식 종목의 경우 정보 비대칭성으로 인해 상대적으로 위험요소가 높다는 점은 투자 시 유의할 점으로 꼽힌다.한 금융투자업계 관계자는 "비상장 주식은 기업 재무와 경영활동 등 구체적인 내용이 공개되지 않아 정보 접근성이 떨어진다"며 "또한 정규 주식시장 대비 투자자 보호가 약하고 거래량 부족 등으로 거래 시 어려움을 겪을 수 있어 손실 사례도 이어지고 있다"고 설명했다.더팩트는 24시간 여러분의 제보를 기다립니다.▶카카오톡: '더팩트제보' 검색▶이메일: jebo@tf.co.kr▶뉴스 홈페이지: http://talk.tf.co.kr/bbs/report/write</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>2022.01.10.</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>갈 곳 잃은 돈…예금 10조 늘고 대출 4천6백억 줄었다</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000271057?sid=101</t>
-        </is>
-      </c>
-      <c r="E199" t="inlineStr">
-        <is>
-          <t>금리인상과 증시 불안 등 금융시장 불확실성이 커지면서 갈 곳 잃은 돈이 은행으로 몰리고 있습니다. KB국민·신한·하나·우리·NH농협 등 국내 5대 시중은행의 지난달 말 기준 요구불예금 잔액은 659조7362억원으로, 전달보다 9조9897억원이 늘었습니다. 요구불예금은 원할 때 언제든지 은행에서 찾을 수 있는 초단기 예금으로, 대기성 자금으로도 불립니다. 은행의 요구불예금은 코스피가 3000선을 처음으로 돌파하고 가상자산 투자 열풍이 불었던 지난해 1월 말에는 576조551억원까지 쪼그라들었습니다.그러다가 하반기 들어 증시 흐름이 주춤해지고 가상자산 가격이 폭락하면서 다시 몸집이 불었습니다. 여기에다 지난해 말 시중 은행권의 수신금리 인상 움직임도 예적금으로 자금이 몰리는 한 요인으로 꼽힙니다.지난해 11월25일 한국은행이 기준금리를 인상하면서, 시중은행의 예적금 금리는 1.57%로 상승했습니다.지난달부터 카카오뱅크와 케이뱅크, 토스뱅크등 인터넷은행들의 1년만기 정기예금 금리는 1.8~2%를 기록하고 있습니다.반면, 시중금리 인상과 금융당국의 대출 규제 강화 움직임 속에서 '영끌'과 '빚투' 열기가 시들해지며 대출은 주춤한 모습입니다.5대 시중은행의 지난 6일 기준, 가계대출 잔액은 708조5909억원으로 지난달말보다 4619억원이 줄었습니다. 신용대출은 845억원, 주택담보대출은 2054억원이 감소했습니다.투자 열기가 한풀 꺾인 데다가 시중 금리 인상과 집값 하락 흐름, 대출규제 강화 등이 영향을 미친 것으로 풀이됩니다. 이처럼 예금이 늘고 대출은 줄어드는 자금 흐름은 한동안 이어질 것이란 전망이 나옵니다. 김소영 서울대 경제학과 교수는 "미국의 통화 긴축과 인플레이션 등으로 불확실성이 커지면서 위험자산으로 향했던 자금이 안전한 예금으로 이동하는 것 같다"면서 "관망세 속에 요구불예금이 쌓이다가 기준금리 인상이 현실화되면 은행의 정기예금쪽으로 자금 이동이 두드러질 것"이라고 말했습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>2022.01.03.</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>BNK·DGB 등 지방금융그룹, 새해 수도권 공략에 박차</t>
-        </is>
-      </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0001932200?sid=101</t>
-        </is>
-      </c>
-      <c r="E200" t="inlineStr">
-        <is>
-          <t>BNK, 수도권영업본부 총괄책임자 상무로 격상…빅테크와의 제휴로 모바일 부문 강화DGB, 서울 사옥에 대형 전광판 운영해 브랜드 인지도 제고…거점 지점 중심으로 영업 강화[헤럴드경제=이태형 기자]지역 기반의 지방금융그룹이 새해에는 수도권 공략에 나선다. 지역 사업을 공고히 하면서도 서울·경기 등 수도권 영업 강화를 통해 사업 외연을 넓힌다는 계획이다. 인터넷은행과 빅테크기업의 등장 등으로 금융환경이 급격하게 변하면서 지방금융사들도 디지털전환을 통한 체질 개선이 절실하기 때문으로 풀이된다.3일 금융권에 따르면 BNK금융그룹의 부산·경남은행은 기존 서울영업본부를 수도권영업본부로 명칭을 변경하고 총괄책임자를 상무대우에서 상무로 격상시켰다. 이를 통해 서울과 경기권을 대상으로 영업 확장을 추진할 계획이다.이와 함께 토스, 카카오페이 등 다양한 플랫폼 사업자를 비롯해 금융권, 비금융권 마이데이터 사업자와의 제휴를 확대해 리테일영업을 전면 비대면화하는 모바일 진출 전략도 추진한다.비은행 계열사인 BNK캐피탈은 서울, 경기 등 수도권을 대상으로 한 IB금융 및 신기술금융 영업 강화를 위해 IB본부를 서울 여의도에 신설했다. 이와 함께 기존 오토금융, 소매금융, 산업금융, 기업금융 등을 지속적으로 강화해 갈 계획이다.BNK투자증권은 비대면채널 영업 확대를 위해 디지털채널팀을 신설할 예정이다. 현재 부·울·경지역에 집중하고 있는 리테일영업은 시장지위가 일정 궤도에 올라서면 수도권지역으로 확대할 계획이다.BNK금융그룹 관계자는 “급변하는 금융환경에 적절히 대응하고 경영 효율성을 높이기 위한 조직개편을 단행하고 디지털 금융의 수요에 탄력적으로 대응함으로써 수도권 사업도 탄력을 받을 것”이라고 말했다.부산시 남구 BNK금융그룹 본사 전경.[BNK금융그룹 제공]DGB금융그룹은 지난달 30일부터 서울 중구 DGB금융센터에 옥외전광판을 운영한다. 수도권에서 취약한 DGB, IM뱅크(모바일뱅킹) 등 그룹 브랜드 인지도를 제고하기 위해 지난해 초부터 사옥 리모델링에 맞춰 설치 작업에 착수해 운영을 시작했다.DGB금융그룹 관계자는 “유동인구가 많은 서울 중심의 위치적 특성을 살림으로써 수도권 영역을 확장해 지역적 한계를 극복하고 브랜드 인지도를 제고하기 위한 노력의 일환”이라며 “전광판을 통해 브랜드를 지속 노출하고 양질의 콘텐츠 영상으로 이목을 집중시켜 홍보 효과를 극대화할 것”이라고 말했다.그룹 계열사인 DGB대구은행은 기존 서울지역의 3개 영업점 외에 2015년 반월공단지점 개설을 시작으로 화성지점, 인천지점 등 수도권에 5개 거점 지점을 개설하고, PRM(Professional Relationship Manager)센터 등을 통해 수도권 영업을 강화하고 있다.2020년부터 시작한 개인지점장은 지난해 전년 대비 두 배 이상 확대하는 등 서울과 수도권 지역의 영업을 지속적으로 강화할 예정이다. 지역적 한계를 넘어서고 IM뱅크를 알리기 위해 다양한 채널을 활용하는 방안도 추진한다.서울 중구 DGB금융센터 전광판 전경.[DGB금융그룹 제공]</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>2022.01.04.</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>5일부터 ‘내 손안의 금융비서’ 마이데이터 전면 시행</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000784938?sid=101</t>
-        </is>
-      </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>한 달간의 시범 서비스를 선보인 본인신용정보관리업(마이데이터) 서비스가 5일부터 전면 시행된다.마이데이터 서비스가 도입되면 금융소비자는 자신의 신용정보를 한 곳에서 편하게 확인하고 관리할 수 있게 된다.        금융위원회와 금융감독원은 5일 오후 4시부터 안전한 표준 응용프로그램 인터페이스(API) 방식을 통해 금융 마이데이터 서비스를 시행한다고 4일 밝혔다. 마이데이터는 흩어진 개인 신용정보를 한곳에 모아 보여주고 재무 현황·소비 습관을 분석해 금융상품을 추천하는 등 자산관리와 신용관리를 도와주는 서비스다.이날 기준 은행, 증권, 카드, 핀테크 업계의 33개 사업자가 서비스를 제공한다. 은행업계에서는 KB국민·농협·신한·우리·기업·하나·대구·SC제일·광주·전북은행 등이 서비스를 운영한다. 금융투자업계에선 미래에셋·NH투자·키움증권과 하나금융투자 등이, 카드 업계에선 KB국민·신한· 하나· BC· 현대·우리카드 등이 참여한다. 이 밖에도 카카오페이, 토스, 네이버파이낸셜 등 핀테크·정보기술(IT) 업체와 저축은행, 상호금융 업계 등도 서비스를 제공한다. 나머지 마이데이터 사업자 21개사는 시스템과 애플리케이션 개발 등을 거쳐 올해 상반기 중으로 사업에 동참할 예정이다.금융당국은 지난해 12월부터 한 달여간 서비스를 시범 운영하면서 드러난 개선 필요 사항을 보완했다고 밝혔다. 앞서 지난달 29일 일부 핀테크사는 NH농협은행과 일부 금융사에 요청한 표준 응용프로그램 인터페이스(API) 정보를 제대로 받지 못하는 현상을 겪기도 했다.금융당국은 중계기관의 처리 가능한 트래픽 양을 10배 이상 확대해 전산장애를 방지하고, 마이데이터 사업자에 연결되는 정보제공자를 늘려 인증수단을 추가하는 등 더욱 쉽게 본인인증 절차를 거칠 수 있도록 개선했다고 설명했다. 마이데이터가 5일부터 본격 시행되면, 사업자들이 고객을 대신해 금융사 사이트에 접속하고 화면을 읽어내는 ‘스크린 스크레이핑’(screen scraping) 방식은 전면 금지된다. 사업자들은 데이터 표준 API를 통해 금융기관 등에 흩어진 정보를 받게 된다.시행일부터 일부 대부업체를 제외한 대부분의 제도권 금융회사 417곳의 정보를 받을 수 있으며, 국세 납세증명 자료도 조회할 수 있다. 금융당국은 현재 제공하지 않는 국세·지방세·관세 납부 명세나 건강보험, 공무원연금·국민연금 보험료 납부내역 등 공공정보는 올해 상반기 안에 추가 제공이 가능하도록 협의 중이라고 덧붙였다.금융당국은 마이데이터 서비스 시행으로 더욱 엄격해진 정보보호·보안 체계 속에서 소비자들이 안전하게 자산 관리를 할 수 있을 것으로 기대했다. 소비자들은 많은 정보를 빠르고 편리하게 통합 조회하면서 맞춤형 자산·재무관리를 누릴 수 있게 될 것으로 전망된다.마이데이터 사업자 측면에서도 안정적인 사업기반을 확보할 수 있고, 다양한 정보를 받아 서비스 혁신 기반을 다질 수 있다는 장점이 있다. 금융당국은 ‘마이데이터 특별대응반’을 꾸려 특이사항을 실시간 모니터링하며 안정적인 서비스가 제공될 수 있도록 지속 점검할 예정이다.또 마이데이터 서비스가 금융소비자보호법과 충돌할 우려가 제기된 데 대해선 금융규제 샌드박스 등을 통해 보완이 필요한 사항을 적극적으로 검토해 소비자 편익을 높이겠다고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/기사데이터/토스/엑셀파일/news(토스, 2022.01.01~2022.01.15).xlsx
+++ b/기사데이터/토스/엑셀파일/news(토스, 2022.01.01~2022.01.15).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1705,1256 +1705,6 @@
         </is>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>2022.01.12.</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>지난해 뱅킹 앱 사용자 수 1위 토스…카카오뱅크 2위</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0012912697?sid=105</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>모바일인덱스 '2021년 모바일 앱 랜드스케이프' 리포트쿠팡, 작년 5월 16일 일간 사용자 수 1천만명 돌파 토스뱅크[토스뱅크 제공](서울=연합뉴스) 최현석 기자 = 토스가 지난해 국내 뱅킹서비스 앱 중 가장 많은 이용자를 확보한 것으로 집계됐다.     12일 모바일 빅데이터 플랫폼 아이지에이웍스가 데이터 분석 솔루션 '모바일인덱스'를 통해 분석해 발표한 보고서에 따르면 토스는 지난해 4월 사용자 수(MAU) 1천241만7천108명을 기록하며 카카오뱅크(1천233만7천935명)을 제치고 뱅킹 서비스 앱 사용자 수 1위에 올랐다.        토스는 이후 9개월 연속 1위를 유지했다.     작년 12월 기준으로는 토스가 1천397만4천762명으로 가장 많았고 카카오뱅크(1천317만154명)가 2위였다.    이어 KB국민은행 스타뱅킹(1천36만2천569명)이 1천만명대를 기록하며 3위를 차지했고 신한 쏠(948만8천829명), NH스마트뱅킹(884만3천456명) 순이었다.모바일인덱스 '2021년 모바일 앱 랜드스케이프' 리포트[아이지에이웍스 제공]    유료 구독형 온라인 동영상 서비스(OTT) 업종에서는 '넷플릭스'가 꾸준히 업계 1위를 유지했다.     국산 앱인 쿠팡플레이는 작년 12월 사용자수가 11개월 전보다 590% 급증했으며 웨이브와 티빙도 각각 13%와 58% 늘었다.     패션 앱 중에서는 퀸잇의 이용자 증가세가 눈길을 끌었다.    40대 사용자 중심으로 급성장한 '퀸잇'은 작년 12월 MAU 144만9천259명으로 같은해 1월 17만2천973명 대비 738% 급증했다.    쇼핑 앱 쿠팡은 작년 5월 16일 일간 사용자 수가 1천만명을 돌파했으며 작년 12월 27∼30일에도 하루 1천만명대를 기록했다. 쿠팡 사용자들은 1인당 월평균 127.13분, 14.31일 앱을 이용하는 것으로 나타났다.    작년 12월 MAU 기준으로 메이크업·화장품 업종에서는 '올리브영'이 큰 격차로 1위를 기록했다. 음원 서비스 앱 업종에서는 '멜론'이 1위 자리를 확고히 한 가운데 3위 '유튜브 뮤직'의 성장세가 두드러졌다.    아이지에이웍스는 작년 일평균 4천만대의 모바일 기기에서 나온 20억건 데이터를 AI 알고리즘으로 분석해 '2021년 모바일 앱 랜드스케이프' 보고서를 발표했다.모바일인덱스 '2021년 모바일 앱 랜드스케이프' 리포트[아이지에이웍스 제공]    harrison@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>2022.01.13.</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>'지성일관'의 신념, 총독부가 글 일부 삭제 [김삼웅의 인물열전 / 민족대표 33인 박동완 평전]</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/047/0002338933?sid=100</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>[김삼웅의 인물열전 / 민족대표 33인 박동완 평전 25] 항일정신과 민족의식이 남달랐던 박동완 지사        ▲  민족대표 박동완            ⓒ 자료사진   박동완의 사유체계나 행동반경을 꿰뚫는 하나의 준칙이 있다면 그것은 '지성일관(至誠一貫)'이 아닐까 싶다. "지극한 정성으로 한결같다"는 의미에서, 그는 매사에 정성스럽고 처음과 마지막이 다르지 않았다.  믿음의 생활이나 민족문제와 관련한 활동에서 변색하거나 퇴색하지 않았다. 이같은 일관성은 하와이에서 소천할 때까지 지속되었다. 기독교적인 소명의식과 3ㆍ1혁명을 주도한 역사적 사명의식에서 비롯되고 그 정신이 꾸준히 작동한 것이다. '지성일관'을 주제로 논설을 쓰기도 하였다. 일제가 조선인 우민화정책을 펴면서 한국기독교를 점유하고자 온갖 수단방법을 동원하고 그 일환으로 일본 조합교회를 국내로 끌어들여 한국교회를 흡수하려는 공작이 진행되었다. 이같은 시기인 1922년 당시 기독청년회 기관지 &lt;청년&gt;의 편집인 한석원이 박동완을 비롯하여 길선주ㆍ김창준ㆍ박희도ㆍ신석구ㆍ이필주ㆍ정춘수 등 기독교계 민족대표 7인을 포함 저명인사 20인의 글을 모아 &lt;종교계제명사강연집&gt;을 간행하였다. 일제의 한국기독교 말살책에 대응하여 한국기독교의 정체성을 지키려는 시도였다.              ▲  3.1혁명 33인 기록화            ⓒ 자료사진   박동완은 여기에 &lt;지성일관&gt;이란 주제의 글을 실었다. 총독부의 검열과정에서 일부 내용이 삭제당하기도 했다."박동완은 헤라클레이토스식의 만물은 유전하며 진리 또한 고정될 수 없다는 사고를 정면으로 논박하고 하나님의 말씀은 시공을 초월하여 모든 사상과 행위의 절대적인 잣대(Criterion)가 된다는 항존적 진리관을 천명했다." (주석 11) 그는 이 글에서 기독교인들은 영구한 진리를 탐구할 것을 강조한다. 이 대목이 검열과정에서 일부 삭제되었다.첫째로 우리가 잇는 도(道)는 이것이 과연 영구히 변함이 없는 진리냐 하는 것을 연구하여야 할 것입니다. 아무 연구도 없이 예수교에 뛰어들어오는 사람은…(삭제 부문) 그렇지만 고심참담한 이것이 진리일 것입니까? (중략) 머리가 떨어지는 한이 있더라도 그것을 변하지 아니할 것입니다. 둘째로는 나의 언행 즉 나의 말과 나의 행실이 과연 하느님의 뜻에 적합한가 하는 것을 확실히 깨닫는 것입니다. 이것이 하느님의 뜻에 적합하다는 확실한 믿음이 있을 것 같으면 무엇이라 책할지라도 그것을 변할 것이 아닙니다.(중략) 자기가 이 진리 위에 섰다 할 것 같으면 무슨 방해라든지 무슨 고장을 말하더라도 관계할 것 없이 앞으로 진행할 것뿐입니다. 혹 동리에서 절교를 당할지라도 해야 할 것입니다. 그러다 자기가 죽은 후에는 절교하였던 촌락 사람들이 자기의 무덤 앞에 화환을 드리며 실로 의로운 사람이었다, 참 사람이었다는 마음으로 칭찬할게 명백한 일입니다. 오늘 우리 조선사회에서 자기가 믿는 바를 이루겠다는 신령한 사람들이 많이 일어나기를 고대하는 것입니다.(현대문 정리) (주석 12) '진리'는 "목이 떨어지는" 즉 목이 잘리더라도 지켜야 한다는 것, 그리고 설혹 이웃에서 절교를 당하더라도 의를 지켜 수행하면 사후(역사)에라도 반드시 평가를 받게 된다는 의지이고 격려였다. 당시의 참혹한 상황에서 에둘러 쓴 글이지만 혼과 맥이 통하는 내용이다. 때문에 총독부의 칼날이 이를 놓치지 않았을 것이다.    박동완은, 하나님의 말씀인 성경은 참과 거짓, 선과 악, 정의와 불의를 구분짓는 유일불변의 잣대라고 천명했고 한국 기독교인들이 순교적인 자세로 하나님의 말씀을 수호하여 실천할 것을 호소했다. 성경을 항존적 진리로 중언하여 권위를 높인다고 해서 결코 신자들의 자유가 억압받거나 박탈되는 것은 아니다. 오히려 성경의 권위가 강조될수록 삶이 지닌 난제들을 해결할 수 있는 가능성이 향상되며 다양한 난관을 극복함으로써 참, 선, 정의가 역동적으로 고조되고 행복한 삶을 영위할 수 있게 된다. 박동완은 이 항존적 진리를 한국사회 후손들에게 길이 전수함으로써 향후 한국 땅에 하나님의 공의가 실현되고 의롭고 평화로운 날이 도래할 것을 고대했다. 민족대표 33인 중 한 분으로 항일정신과 민족의식이 남달랐던 그는 한국 기독교인들이 하나님의 말씀 위에 바르게 서기를 소망했고 하나님께서 은혜를 베푸셔서 한국의 장래를 이끌어주실 것을 염원했다. (주석 13)주석11&gt; 안수강, &lt;박동완 목사의 항존적 진리관 분석&gt;, 한국실천신학회, &lt;신학과 실천&gt;, 69호, 2020.12&gt; 앞의 책 글, 재인용.13&gt; 앞의 책.덧붙이는 글 | [김삼웅의 인물열전 / 민족대표 33인 박동완 평전]는 매일 여러분을 찾아갑니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>2022.01.03.</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>새해 대출창구 열렸지만 '높아진 문턱'</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0010924389?sid=004</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>[서울=뉴시스] 권창회 기자 = 새해 가계대출 총량 한도가 재설정되면서 대출을 중단했던 일부 시중은행의 대출 창구가 다시 열리고 있다. NH농협은행은 3일부터 주택담보대출을 비롯해 전체 가계대출을 정상화한다. 출범 9일 만에 대출 한도 소진으로 신규 대출을 중단했던 토스뱅크도 이달부터 대출 영업을 시작했다. SC제일은행도 지난 8월부터 판매를 잠정 중단했던 신규 주담대 상품을 다시 선보인다. 사진은 3일 오후 서울 중구 NH농협은행 본점의 대출상담 창구 모습. 2022.01.03. kch0523@newsis.com[사진 영상 제보받습니다] 공감언론 뉴시스가 독자 여러분의 소중한 제보를 기다립니다. 뉴스 가치나 화제성이 있다고 판단되는 사진 또는 영상을 뉴시스 사진영상부(n-photo@newsis.com)로 보내주시면 적극 반영하겠습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>2022.01.05.</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>케이뱅크, 신용대출 한도 2.5억원까지 확대</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004004455?sid=101</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>토스뱅크도 최대 2.7억으로 늘려[서울경제] 인터넷전문은행이 새해 벽두부터 시중은행 대비 낮은 금리와 넉넉한 한도를 내세우며 공격적인 대출 영업에 나서고 있다. 토스뱅크는 최대 2억 7,000만 원까지, 케이뱅크는 최대 2억 5,000만 원까지 신용대출을 내준다.케이뱅크는 5일부터 신용대출 한도를 1억 5,000만 원에서 2억 5,000만 원으로 1억 원 상향 조정한다. 최저 금리는 연 3.77%다. 케이뱅크의 신용대출은 직장인 대상 상품으로 6개월 이상 재직 중이고 연소득 2,000만 원 이상인 근로소득자라면 누구나 이용할 수 있다. ‘원리금 균등 분할상환’ ‘만기 일시 상환’ 중 본인에게 유리한 방식으로 선택이 가능하다.필요할 때마다 꺼내 쓸 수 있는 ‘마이너스통장(한도대출)’과 개인사업자가 이용할 수 있는 ‘신용대출 플러스’도 각각 1억 원에서 1억 5,000만 원으로 증액한다.이로써 케이뱅크는 지난해 10월 가계대출 총량 관리를 위해 축소했던 대출 한도를 모두 원상 복구했다. 앞서 케이뱅크는 지난해 11월 중단했던 고신용자(KCB 기준 820점 초과)의 마이너스통장 신규 취급을 올해 1월 재개한 바 있다.케이뱅크 관계자는 “2022년 새해를 맞아 차별화된 개인신용평가시스템(CSS) 모형으로 중·저신용 고객을 확대하는 한편 실수요자 중심의 대출을 위해 힘쓰겠다”고 말했다.토스뱅크 역시 해가 바뀌면서 다시 신용대출 영업을 시작했다. 이날 기준 최저 금리는 연 3.30%, 최대 한도는 2억 7,000만 원이다. 하나은행(최저 금리 연 3.44%, 최대 한도 1억 5,000만 원) 우리은행(최저 금리 연 3.33% 최대 한도 2억 원) 등과 견줘 경쟁력이 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>2022.01.01.</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>뉴질랜드, 흡연 청정국 되나…담배 판매 영구 금지 추진</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/296/0000053534?sid=103</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>[사진=게티이미지뱅크]인구 500만 명인 남반구의 섬나라 뉴질랜드는 담배판매를 영구 금지시키기 위한 구상을 발표했다. 이 나라의 아예사 베랄 보건부장관은 지난 9일(현지시간) 기존의 흡연자에겐 흡연권리를 계속 보장하되 2023년 현재 15세 이하인 사람은 평생 전자담배를 포함한 모든 담배를 못 사게 하는 법안을 도입하겠다고 발표했다. 이 금지는 영구적이기 때문에 앞으로 10년, 20년, 30년 후 흡연자는 자연적으로 줄어들 수밖에 없게 만들어 완벽한 흡연청정국을 만들겠다는 것이다.  모든 나라는 흡연이 건강에 해롭다며 금연운동을 펼치긴 하지만 뉴질랜드처럼 전면적 금연 제도를 도입한 나라는 없었다. 전대미문의 제도를 도입하려는 뉴질랜드의 사례가 인구가 더 많은 나라에서도 적용 가능할까? 미국 건강의학 웹진 '헬스 데이'는 담배 제조업체의 로비력이 막강한 미국에서 전국적 단위에선 힘든 일이 될 것이지만 지방자치단체 차원에서 이같은 조치를 도입한 곳이 있다면서 불가능하지만 않다고 30일(현지시간) 보도했다.  미국 매사추세츠주 보스턴 인근 인구 5만5000명 가량의 작은 도시 브루클라인은 2019년 연령별 금연법을 통과시켰다. 올해 9월부터 적용되기 시작한 이 법은 2000년 1월 1일 이후 태어난 사라이 이 도시에서 어떤 종류의 담배 내지 전자담배를 구입하는 것을 불법으로 규정했다. 올해 21세 이하의 사람은 평생 담배를 구입할 수 없게 된 것이다.  브루클라인의 시도가 미국 내 표준이 될까? 아직은 예측하기 어렵다. NBC 뉴스의 보도에 따르면 현재 브루클란인의 성인 중 흡연자는 7% 미만이다. 이는 전국 및 전 세계 흡연자 비율보다 훨씬 낮은 수치이다. 미국 질병통제예방센터(CDC)에 따르면 2019년 미국 성인 중 흡연자의 비율은 14%다. 세계보건기구(WHO)의 같은 해 통계에 따르면 전 세계 성인 6명 중 1명(약 13억)꼴로 흡연자이다.  미국의 금연운동 전문가들은 브루클라인과 뉴질랜드의 점진적 금지조치가 의지만 있다면 충분히가 가능하다고 말한다. 미국 뉴욕주 최대 의료법인인 노스웰 산하 '건강을 위한 담배통제센터'의 패트리샤 폴란 소장은 1964년 미국 보건장관이 흡연과 폐암의 관련성을 인정한 첫 보고서를 발표한 이래 담배규제는 여러 면에서 상당한 성과를 거둬왔다며 이렇게 밝혔다. 이런 규제조치에는 담배세 대폭 인상, 담배 구매 연령의 인상, 흡연금지구역의 확대가 포함된다.  폴란 소장은 "수 십 년 전만 해도 많은 담배 규제 정책들이 시행이 불가능하다고 생각했지만 한때 흡연이 이뤄지던 비행기, 병원, 식당, 직장에서 흡연과 담배광고의 TV방송이 금지됐다"면서 "흡연자의 75%가 금연하고 싶은데 못하고 있는 상황을 고려하면 연령제한을 통해 전면적 금연을 단계적으로 취하는 것이 불가능한 것만은 아니다"라고 밝혔다. 하지만 미국의 경우 담배업체의 로비력이 워낙 막강한데 담배판매로 얻는 세금을 포기하지 못하는 몇몇 주 때문에 뉴질랜드와 같은 강력한 금연법을 도입하는데 시간이 걸릴 것으로 예측했다.  미국폐협회(ALA) 대변인인 파나지스 갈리아토스 존스홉킨스대 담배치료클리닉 원장 역시 뉴질랜드식 점진적 흡연금지법 도입이 이론적으론 아무런 문제가 없다고 밝혔다. 다만 그런 대규모의 금연법이 성공하기 위해서는 젊은 층에게 흡연이 더 이상 매력적이지 않은 습관으로 인식시키기 위한 일치된 캠페인이 선행돼야 한다고 밝혔다. 또 현재의 흡연자가 금연할 수 있게 도와주는 효과적 프로그램이 동반돼야 한다는 것. 다만 그 과정에서 흡연자에 대한 부정적 낙인을 찍는 차별행위는 없어야 한다고 주의를 환기시켰다. 폴란 소장은 "대부분의 흡연자는 담배 가게를 보면 흡연충동을 느끼기 때문에 오랜 시간이 걸리더라도 (흡연충동을 일으키는) 그 방아쇠 자체를 없애야 한다"고 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>2022.01.02.</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>새해 은행 대출 창구 다시 열리지만...체감 장벽은 더 높아진다</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/469/0000650391?sid=101</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>은행권 대출 재개하고 우대금리 부활시켰지만강화된 총량규제로 한도는 지난해보다 더 줄어DSR규제로 적용 차주 늘어 "여전히 대출 힘들 것"지난달 31일 서울의 한 시중은행 창구의 모습. 연합뉴스새해 시중은행들의 가계대출 총량 한도가 '리셋(재설정)'되면서 대출을 전면 중단했던 일부 시중은행의 대출 창구가 다시 열리고 있다. 대출 한도에 여유가 생긴 은행들은 우대금리 부활을 통해, 대출 금리 인하도 시도하고 있다. 계속해서 늘어난 시중 대출 수요를 흡수하기 위해서다.하지만 새해부터 총부채원리금상환비율(DSR) 규제 강화 등으로  대출 한도자체는 지난해보다 더 줄어들 수 있어, 소비자들이 대출 여건이 개선됐다고 느끼기는 여전히 어려울 것으로 보인다.대출 창구 열리고, 우대금리 부활 2일 금융권에 따르면, 지난해 가계대출 관리 강화로 중단됐던 일부 은행의 대출 창구가 다시 열리게 됐다. 연간 단위로 설정되는 은행별 대출 총량 목표치가 새해를 맞아 재설정됐기 때문이다. 지난해 시중은행 중 가장 먼저 대출 창구를 닫았던 NH농협은행은  3일부터 전체 가계대출 상품 판매를 재개한다. 지난해 출범 9일 만에 대출 한도 소진으로 신규 대출을 중단했던 토스뱅크도 이달부터 대출 영업을 시작했다. 사라졌던 대출 우대금리도 속속 부활하고 있다. 우대금리 부활은 대출 금리 인하로 이어져 대출 창구 문턱을 낮추는 효과로 연결된다. KB국민은행은 3일부터 주택담보대출(주담대) 상품의 우대금리를 최대 0.3%포인트제공하기로 했다. KB국민은행은 앞서 지난 9월 가계부채 관리 조치에 따라 해당 상품의 우대금리를 없앤 바 있다. 우리은행 역시 신용대출과 주담대 상품의 우대금리를 최대 0.6%포인트까지 인상했다. 월 평균 약 1조 줄고… DSR 규제 강화대출이 재개되고, 우대금리가 다시 살아났지만 대출 희망자들이 체감하는 대출 장벽은 오히려 지난해보다 더 높아질 수 있다는 우려도 나온다. 가계대출 총량 증가율 목표치가 지난해보다 더 빡빡해진 데다, DSR 등 대출 규제 역시 더 강화됐기 때문이다.금융당국은 올해 가계대출 총량 증가율 목표치를 4, 5% 수준으로 설정했는데, 이는 지난해(5, 6%대)보다 더 줄어든 수준이다. 올해 증가율 목표치를 4.5%(중간값)로 가정하면, 5대 시중은행(KB국민·신한·하나·우리·NH농협은행)의 올해 예상 월 평균 가계대출 취급액은 2조6,000억 원에 그칠 전망이다. 이는 지난해 대비 1조 원가량 적은 수치다. 은행들이 줄어든 대출 총량 규제를 맞추기 위해서 차주별 대출 한도를 더 줄일 수 있다는 얘기다.올해부터 강화되는 DSR 규제 강화도 차주별 대출 한도 감소에 영향을 줄 수밖에 없다. 이달부터는 DSR 규제 2단계 시행으로 총 대출액 2억 원 초과 시 은행권에 갚아야 하는 원리금은  연 소득의 40%를 넘을 수 없다.예를 들어 연소득 4,000만 원인 무주택 차주가 서울에서 6억 원짜리 주택을 구입할 경우 지난해까지는 최대 3억6,000억 원까지 대출이 가능했다. 그러나 이달부터는 대출 만기를 최장 30년(금리 3.5%)까지 잡아도 최대 한도는 3억 원에 그친다.게다가 올해 7월부터 DSR 3단계가 시행되면 총 가계대출액이 1억 원을 초과하는 모든 차주는 DSR 규제 대상에 포함된다. 전체 차주 30%(593만 명)의 대출 한도가 줄어든다는 뜻이다.시중은행 관계자는 "새해에는 전세대출이 가계대출 한도에 다시 포함되고 기준금리 인상 가능성도 높은 상황"이라며 "대출 전면중단 사태는 없겠지만, 고객들이 체감하는 대출 장벽은 그 어느 때보다 높을 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>2022.01.11.</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>토스 "MZ공략" vs 카카오페이 "대중화"</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004770519?sid=101</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>조준점 달리 잡는 신생 증권사토스, 청소년 비대면 서비스 등 가입자 비중 높은 MZ세대 집중카카오페이, 카카오톡 기반 전 연령층 목표 외연확장 시동 온라인 플랫폼을 기반으로 성장한 토스증권, 카카오페이증권 등 신생 증권사의 전체 가입자 수가 1000만명을 넘어섰다. 양 증권사 모두 투자 접근성을 높이는 데 주력했으나 연령별 소구 전략에서는 차이를 보였다.   11일 토스증권에 따르면 지난해 12월말 기준 토스증권 가입자 수는 405만9000명으로 집계됐다. 지난해 6월말 가입자 수 350만8000명에 비해 55만1000명(15.7%) 가량 늘어난 것이다.   카카오페이증권 가입자 수도 빠르게 증가하고 있다. 지난 2020년 2월 출범한 뒤 지난해 3·4분기말까지 518만명이 가입했다. 출범 한 달 만에 계좌 개설자가 50만명을 돌파했고, 이후 1년 반 동안 10배로 확대된 것이다. 추이를 고려할 때 600만명을 넘어섰을 가능성도 있는 상황이다.   카카오페이증권은 펀드 최소 투자금을 1000원으로 낮추고 1원 단위 투자까지 가능한 '동전 모으기' 등 신규 투자 서비스도 제공하고 있다. 이달엔 MTS 출시도 앞두고 있다.   가입자가 급증하고 있지만 이들 두 증권사가 타깃으로 삼는 투자자 층에선 차이가 나타났다.   토스증권은 2030 가입자를 공략 중이다. 토스증권 가입자 중 20~30대는 꾸준히 60% 중반대 비율을 유지하고 있다. 지난해 6월말 20대와 30대는 총 229만9000명으로 전체 가입자(350만8000명)의 66%를 차지했다. 12월말 기준으로도 이 비율은 65%를 기록하며 큰 변동이 없었다.   토스증권은 지난달 만 14세 이상, 만 19세 미만 청소년 대상 비대면 계좌 개설 서비스도 내놨다. 금융당국이 법적 검토에 들어가면서 잠정 중단됐으나 공략하고자 하는 연령층은 확인됐다는 평가다. 20~30대 수요가 많은 해외주식 서비스도 지난달 개시됐다.   토스증권 관계자는 "고객 60% 이상이 2030 투자자로, 입문자도 MTS를 이용할 수 있도록 했다"며 "토스증권 정체성은 유지하되, 숙련된 투자자들이 필요로 하는 기능들을 강화하며 만족도를 점차 높여나갈 계획"이라고 설명했다.   반면 카카오페이증권은 2030세대 보다는 전 연령대를 타깃으로 하고 있다.   지난해 3·4분기말 기준 가입자 518만명 중 20대, 30대는 각각 28%(145만명), 27%(139만명)였다. 2020년 3월 두 연령층의 합계 비율은 68%였으나 그해 9월 60%로 줄어들더니 1년 만에 그 수치가 55%로 하락한 셈이다. 대신 40~50대 비율은 같은 기간 27%, 34%, 45%로 줄곧 늘며 가입자가 연령별로 고르게 증가하는 모습이다.   카카오페이증권 관계자는 "전 국민이 이용하는 카카오톡을 기반으로 투자를 해본 적 없거나 자본시장 이해도가 높지 않은 사용자들도 손쉽게 접근할 수 있도록 했다"며 "간접투자 상품인 펀드를 오픈해 투자 경험을 쌓게 하고, 이후 MTS를 개시해 주식까지 포트폴리오를 넓힐 방침"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>2022.01.04.</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>“계급장 떼고 다붙어”…저축은행들, 새해 ‘MZ세대 참여' 확산되나</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005119437?sid=101</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>OK저축은행, ‘주니어보드’2기 진행 예정직원들 제안으로 만든 ‘아이디어 경영’의견 제안 자유로운 수평적 소통 ‘눈길’[이데일리 황병서 기자] 웰컴저축은행이 지난해 7월 선보인 ‘웰뱅 모두페이 통장’. 해당 금융 상품은 MZ세대(밀레니얼+Z세대)가 주로 사용하는 토스, 카카오페이, 네이버페이 등의 간편결제 서비스에 해당 통장을 연동해 사용하면 최대 연 3% 금리를 제공하는 방식으로 짠 테크족 사이에서 인기를 끌었다. 특히 간편결제 계좌이체 실적이 10만원 이상이면 우대금리를 적용하는 터라 가입 기준도 까다롭지 않은 편이다. 웰컴저축은행 관계자는 “이 상품의 탄생에는 90년생 직원의 아이디어가 있었다”며 “해당 직원이 친구들과 생활방식을 비교하다 간편결제를 많이 쓰는 공통점이 보여 상품에 대한 기초 아이디어를 내부 공모전에 제출해 만들어졌다”고 말했다.(이미지=이미지투데이)“내부 공모전부터 리버스 멘토링까지”…저축銀, MZ세대 참여 가속화 저축은행들은 올해도 MZ세대 고객과의 소통을 확대하는 쪽으로 기업경영 방향을 잡을 계획이다. 디지털 금융의 주 고객층인 MZ세대 공략이 중요해졌기 때문이다. 이를 위해 MZ세대 직원의 아이디어를 적극 활용하고 있다. 3일 저축은행업계에 따르면 JT저축은행은 지난해 11월부터 한달간 직원들을 대상으로 업무 개선을 위한 아이디어 제안 공모를 진행해왔다. 지난달 중순 아이디어 접수를 마감했으며, 올해 선보일 수 있는 실현 가능한 아이디어를 분류하고 있다. JT저축은행 관계자는 “젊은 직원들의 시각에서 바라본 회사의 지속 가능한 발전 방향과 트랜드에 민감한 그들의 아이디어를 토대로 시장 변화에 선제적으로 대응해 나가기 위해서 내부 공모전을 열었다”고 설명했다.앞서 웰컴저축은행은 2018년부터 임직원을 대상으로 매 분기 ‘스마트혁신상’이란 내부 공모전을 진행하고 있다. 해당 공모전은 크던 작던 업무를 개선하고 개량해 효율을 올릴 수 있는 아이디어를 제공하는 직원에게 포상을 제공하는 방식이다. 웰컴저축은행 관계자는 “스마트혁신상에 수상된 다수의 직원이 선임직원보단 주임, 계장 등의 주니어 직원이 다수”라면서 “양식이 별도로 없이 각자의 아이디어를 써서 올리면 된다”고 설명했다. OK저축은행은 지난해 8월 신입사원으로 구성된 차세대리더 협의체 ‘주니어 보드’ 1기를 만들었다. 지난해 이어 올해도 선발된 신입사원을 대상으로 주니어보드 2기를 구성할 계획이다. 이 협의체는 월 1회 직접모여 조직문화와 업무환경 개선에 대한 토론을 진행하는 방식이다. 주니어보드 1기를 통해 매주 금요일마다 복장을 자유롭게 입고 출근할 수 있는 ‘캐주얼 데이’를 만들어 본사와 지역 센터부터 순차적으로 도입하고 있다. 선배가 후배를 가르치는 기존 멘토링의 반대 개념인 ‘리버스 멘토링’을 지난해 연말 1기 신입직원들이 경영진 앞에서 진행하기도 했다.전체 인구의 약 35%가 MZ세대…“기존 저축은행에 거부감 적어”저축은행업계가 MZ세대 직원들을 기업 경영에 적극 기용하는 것은 반대로 MZ세대 이용자 층을 공략하기 위해서다. 이는 금융권의 주요 소비자 층으로 올라선 MZ세대를 무시할 수 없게 됐기 때문이다. 통계청의 2019년 인구총조사에 따르면 MZ세대에 해당하는 인구는 약 1797만명으로 전체 인구의 34.7%를 차지할 만큼, 주요 소비층으로 떠올랐다. 여기에 이들 세대는 저축은행들에 대한 거부감이 기성세대들과 비교해 적은 편이라는 것이 업계 설명이다. 저축은행 업계 관계자는 “기성세대의 경우 저축은행을 바라볼 때 2금융권이어서 안전성이 떨어진다든가, 저축은행 사태 등이 떠올라 적극적으로 활용하는 사람이 적다”면서도 “이들 세대들의 경우 예금자 보호가 5000만원까지 보호되면 2금융권도 상관없이 돈을 투자할 의향이 많은 것으로 파악하고 있다”고 말했다. 또 다른 저축은행 업계 관계자도 “금융의 디지털화가 심화할수록 이들 세대들을 통한 금융상품 가입이 현저하게 높아지고 있다”면서 “시중은행들과 경쟁하려면 이들 세대의 적극적인 가입을 유도할 필요가 있다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>2022.01.13.</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>[금융포커스] “쉬면서 일해요”… 확산하는 ‘워케이션’ 바람</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000786874?sid=101</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>업무와 휴식 ‘두 마리 토끼’를 잡을 수 있는 워케이션  토스, 핀다 등 핀테크 뿐 아닌 기존 금융회사도 도입  비대면 문화 확산하면서 앞으로 확장 가능성 커        최근 핀테크사를 위주로 휴식과 업무를 병행할 수 있는 ‘워케이션’ 도입이 늘고 있다. 워케이션이란 업무(work)와 휴가(vacation)의 합성어로, 휴식을 취하며 업무를 볼 수 있는 근무 형태를 의미한다. 핀테크 기업 토스, 핀다에 이어 전통 금융회사인 한화생명(088350)도 비슷한 시스템을 운영 중이다.경상남도 남해군에 위치한 토스 워케이션 장소 '남해 워크플레이스'의 모습. /토스 제공        이 같은 ‘워케이션 바람’은 신종 코로나 바이러스 감염증(코로나19)이 불러온 새로운 변화 중 하나다. 코로나19 이후 비대면 업무가 확산하면서 관련 업무 환경에 대한 수요가 늘어나고 있기 때문이다.글로벌 통계조사 기업 ‘스태티스타(Statista)’에 따르면 코로나19 이후 원격근무를 경험한 비율은 지난해 15%에서 74%로 59%포인트(p) 증가했다. 또한 고용노동부 조사에 의하면 2020년 기준 한국 기업의 절반 정도가 재택근무를 하고 있으며, 코로나19 종식 이후에도 52% 기업이 재택근무를 희망하는 것으로 나타났다.토스는 지난해 11월 경상남도 남해군과 협업해 유휴공간 한 곳을 숙소 겸 사무실로 만들었다. 토스는 팀원 7명을 파일럿(pilot) 형태로 2주간 함께 근무하며 생활할 수 있도록 했다. 남해군은 토스와 같은 핀테크 기업을 지역에 유치함으로써 청년 소멸 문제를 해결하고, 토스는 직원들에게 쉬면서 업무를 볼 수 있는 환경을 조성한다는 계획이다.이들이 벤치마킹한 사례는 일본의 카이야마다. 카이야마는 도쿄에서 600km 떨어진 소도시로, 2000년대 초반만 하더라도 인구 6000명 중 50%가 60대 이상인 대표적인 고령화 도시였다. 그러나 현재는 예술가들과 IT 업계 근무자들이 주목하는 곳으로 거듭났다. 자연에서 휴식을 취하니 업무도 잘 될 뿐만 아니라 직원들의 스트레스 또한 낮아졌다.토스 역시 비슷한 효과를 거두었다. 2주간 체험을 마친 토스 직원들의 평균 만족도는 10점 만점에 7점 이상으로 높았다. 이정연(32)씨는 “10점 만점에 10점을 주고 싶다”며 “업무 공간에서 한 발자국만 나가면 바다가 있다는 점이 힐링에 도움이 됐다”고 전했다. 안지영(33)씨 역시 “마당에 나가도 인터넷이 돼 큰 불편함이 없었다”며 “자연환경 덕에 업무로 인한 스트레스가 줄었다”고 말했다.핀다도 비슷한 프로그램을 준비 중인데, 토스와 다르게 직원이 머물 장소를 정해두지 않았다. 인터넷이 되고 팀원들과 소통할 수 있는 공간이라면 자택·호텔 어디든 워케이션 활용이 가능하다. 대상자는 입사 1년차 이상의 직원들이다.또 연차마다 다녀올 수 있는 워케이션 기간도 다르다. 1년차는 1주일, 2년차는 2주일을 쓸 수 있는 식이다. 핀다에서 근무한 지 3년 됐다는 A씨는 “이번 휴가는 워케이션 3주일을 붙여 제주도 ‘한 달 살이’를 해 볼 예정”이라고 전했다. 핀다 관계자는 “와이파이만 된다면 어디서든 근무가 가능해 한국과 시차가 비슷한 해외로 나갈 계획을 가진 직원들도 있다”고 말했다.한화생명이 지난해 7월 강원도 양양에 도입한 '리모트 워크플레이스'의 모습. /한화생명 제공        한화생명은 지난해 7월부터 ‘리모트 워크플레이스(Remote Workplace)’를 도입했다. 직원들이 본사가 아닌 새로운 곳에서 일하면서 창의적인 아이디어를 도출할 수 있도록 돕는 것이 프로그램의 골자다.한화생명은 강원도 양양에 위치한 한 호텔에서 바다를 보며 일할 수 있도록 업무 환경을 조성했다. 루프탑이나 도서관 형태의 카페도 자유롭게 이용할 수 있도록 했다. 퇴근 후엔 요가, 명상 등의 프로그램도 참여할 수 있다.한화생명 관계자는 “7월 중순부터 8월 중순까지 양양 워크플레이스를 운영해 본 결과, 업무에 별 차질이 없었고 직원 만족도 또한 높았다”고 말했다. 한화생명 신사업부문에서 근무하는 B(26)씨는 “퇴근 후 해변을 산책하고 주말에는 서핑도 즐길 수 있어서 좋았다”며 “새로운 업무 분위기로 인해 산뜻함 또한 느낄 수 있었다”고 했다.앞으로도 관련 제도는 확대 시행될 예정이다. 토스는 행정사항 등 정비를 마치고 2차 파일럿 도입 시기를 논의 중이다. 한화생명은 강원도 양양 외에 제주도, 강원도 정선 등에 사무실을 마련한다는 계획이다. 핀다는 올해 상반기에 전 직원 70명 중 대상자 25명 가운데 희망자를 받아 워케이션을 보낼 방침이다. 핀다 관계자는 “올해 상반기에 처음 시행되는 만큼, 반응을 보고 부족한 부분은 채워나갈 것”이라고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>2022.01.07.</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>“ ‘커넥티드 카 소프트웨어’ 깊은 매력…기업 분위기 SW개발사처럼 바뀌어”</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0001934607?sid=101</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>현대차, 미래인재 육성 박차권해영 현대자동차그룹 인포테인먼트개발실장(상무)은 어렸을 때부터 컴퓨터에 관심이 많았다. 권 상무는 초등학교 때 컴퓨터 게임을 하고 싶어 부모님을 졸라서 8비트 컴퓨터를 얻었다. 하지만 당시 아버지가 사주신 컴퓨터는 게임 타이틀이 많았던 ‘애플II’, ‘MSX’ 기종이 아닌 ‘교육용’으로, 게임을 하려면 컴퓨터 잡지에 실린 ‘BASIC’과 기계어로 된 게임 코드를 직접 입력해야만 했다. 그는 이 같은 놀이를 통해 자연스럽게 프로그래밍을 배우게 됐다.대학 시절에는 학교 선배의 부탁으로 ‘주유소 재고관리 프로그램’을 만들며 소프트웨어 개발에 매력을 느꼈다. 권 상무가 졸업을 앞둔 1999년에는 닷컴(.com)이 ‘뜨는’ 시절이었다. 고가의 IBM AIX, HP UX 대신 저가의 x86 서버에 리눅스 운영체제(OS)를 사용하는 회사가 많았다. 그는 당시 많이 사용하던 저가용 ‘알짜 리눅스’에 궁금한 점이 있어 제작사인 ‘리눅스원’에 이메일 문의를 했다가 그 길로 리눅스원에 입사하게 됐다.권 상무는 서버가 감당할 수 있는 수준에서 접속자 수를 늘리고자 서비스 구조와 OS를 고치거나, 장애가 발생했을 때 빠른 시간 내에 데이터를 복구하는 일 등을 하며 이 분야에서 경험치를 쌓았다. 이후 2003년 현대차그룹으로 자리를 옮겨 ‘텔레매틱스’ 소프트웨어 개발을 시작으로 자동차 소프트웨어만의 매력을 알게 됐다. 그는 특히 커넥티드 카 소프트웨어는 남다른 매력이 있다고 강조했다.권 상무는 “지금까지 적지 않은 분야의 소프트웨어 개발을 해왔지만, 카 클라우드와 연결하고 차량의 데이터를 분석하고, 하드웨어를 제어·연동하는 커넥티드 카 소프트웨어는 그만의 깊은 매력이 있다”고 말했다.그의 최근 고민은 ‘인재 영입’이다. 이른바 유망한 정보·기술(IT) 기업인 ‘네카라쿠배당토(네이버·카카오·라인·쿠팡·배달의민족·당근마켓·토스)’가 공격적으로 소프트웨어 인력을 채용하면서, 소프트웨어 개발자를 구하는 일이 어려워졌다.권 상무는 “현대차그룹이라고 하면 완성차 제조 산업의 정점인 기업이라 당연히 기계 중심일 것이라 생각하는 사람들이 많다”며 “하지만 이제는 전자·IT 회사처럼 소프트웨어 개발이 중요한 요소로 바뀌고 있고, 그에 따라 개발 프로세스와 기업 분위기도 소프트웨어 개발사처럼 바뀌고 있다”고 말했다.정의선 현대차그룹 회장 역시 그 어느 때보다 ‘소프트웨어 원천기술 확보’에 힘을 싣고 있다. 정 회장은 소프트웨어 기술을 바탕으로 자율주행, 로보틱스, 도심항공모빌리티(UAM) 등 미래사업 영역에서 스마트 솔루션을 제시하고 있다. 현대차그룹이 미래 인재 육성에 공격적으로 나서는 이유다. 김지윤 기자</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>2022.01.07.</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>50만원 받고 턱수염 민 유튜버…통장 명세 보니 '1원' 입금 "고소할 것"</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004905748?sid=102</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>한 유튜버가 실시간 방송사기를 당했다며 상대방에게 고소할 것을 예고했다.지난 6일 유튜버 구제역은 자신의 유튜브 커뮤니티 게시판에 "지난 라이브 방송에서 '면도 50만원' 미션을 걸었고 시청자 원빈(닉네임)이 50만원을 입금했기에 수염을 밀었다"면서 "이후 통장 명세를 확인해보니 입금자명이 '신협 500000'이었고 1원을 보냈다"고 적었다. 그는 이어 "그 당시 은행점검 중이라 계좌 조회가 되지 않아 토스로만 확인해 벌어진 실수"라며 "당신의 별 생각 없이 한 장난으로 인해 반년 동안 기른 수염을 밀었고, 수염은 둘째치고 고작 1원에 광대 짓 한 게 너무나 치욕적이고 수치스럽다"고 성토했다.그러면서 "사용할 수 있는 모든 수단과 방법을 동원해 당신을 고소하겠다"며 "뭐로 고소할지는 직접 고소장을 받아보면 알 것이고 기분 상해죄는 아니다"라고 덧붙였다.  구제역은 몇 시간 뒤 다시 한번 자신의 커뮤니티 게시판에 "보이스 왁싱을 당했다. 6개월간 7만7000 원씩 지불하며 관리한 수염이 날아가 버렸다"라고 토로하며 해당 내용을 콘텐츠로 제작하겠다고 알렸다. 구제역은 "최근 들어 많은 스트리머분이 저처럼 보이스 왁싱, 아니 리액션 먹튀를 당하는 경우가 종종 발생하고 있다"며 "리액션 먹튀가 처벌 대상인지 알아보기 위해 변호사와 함께 방송을 진행한다"고 말했다. 한편, 구제역은 독자 10만여 명을 보유하고 있는 유튜버로 일반인들의 억울한 사건 등을 제보받거나 유명인들의 사건·사고, 논란, 이슈 등을 주로 다루고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>2022.01.14.</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>서학개미 모시는 토스증권…카카오페이증권에 '선수치기'</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/293/0000037662?sid=105</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>토스증권 업데이트 안내 이미지(사진=토스증권)토스증권이 해외주식에 투자하는 '서학개미'를 위한 기능을 대폭 강화했다. 프리장(정규장 시작 전 거래) 주문을 지원하고, 인기 높은 ETF(상장지수펀드) 상품인 'TQQQ(PROSHARES ULTRAPRO QQQ ETF)'도 거래할 수 있도록 했다. 이달 출시 예정인 카카오페이증권 MTS(모바일트레이딩시스템)로 사용자들의 유출을 최소화하기 위해 선수를 둔 것이라는 분석이 나온다.토스증권은 새해 들어 첫 대규모 MTS 업데이트를 진행했다고 14일 밝혔다. 지난해 3월 공식 출범 이후 토스증권은 상시적인 서비스 업데이트를 진행해 왔다. 이번에 새로 적용되는 내용은 크게 △국내·해외 투자종목 확대 △매매 기능 추가 △알림 기능 세분화로 나뉜다. 먼저, 국내주식 투자종목에 ETF와 ETN(상장지수증권) 등 상장지수상품이 추가된다. 레버리지 ETF를 포함 총 804개 종목으로 국내 상장된 모든 ETF와 ETN이 해당된다. 해외주식 투자종목도 대폭 늘어난다. 지난해 12월 해외주식 서비스 공개 당시 거래 가능한 종목은 ETF를 포함 총 522개 종목이었다. 이번 업데이트를 통해 레버리지 ETF를 포함 총 2700여개 종목으로 확대된다.나스닥100 지수를 3배로 추종하는 레버리지 상품인 TQQQ도 거래할 수 있다. 자산운용사 프로셰어스가 운용하는 TQQQ는 지난해 개인 투자자들이 7867만 달러(약 930억원) 어치를 순매수해 해외 순매수 종목 2위를 차지한 바 있다. 지난해 미국 증시가 호황을 누린 덕분에 높은 수익률을 안겨다줬다. 다만 올해 들어선 TQQQ의 중심을 이루는 기술주가 약세를 나타내고 있어 투자 시 이를 고려할 필요가 있다.이번 토스증권 MTS 업데이트로 해외주식을 거래할 수 있는 시간도 늘어난다. 정규 거래시간 외에 프리마켓과 애프터마켓 거래가 가능해진다. 현재 토스증권 해외주식은 한국시간 기준 평일 저녁 11시 30분부터 다음날 오전 6시까지 거래할 수 있지만, 앞으로는 정규 거래시간 전에 미리 주문할 수 있는 프리마켓에서 저녁 9시부터 11시 30분까지, 장 마감 후 애프터마켓에서는 오전 6시부터 8시까지 거래할 수 있게 된다.프리장 거래는 토스증권 사용자들의 요청이 많았던 기능이었다. 정규 시장이 열리기 전 주가에 영향을 미치는 이벤트에 선제적으로 대응할 수 있는 이점이 있어서다. 서학개미 유치를 위해 다수 증권사가 프리장 거래를 지원 중이다.특히 키움증권과 미래에셋대우 등 해외주식 시장점유율이 높은 증권사들은 프리장 시간을 오후 6시부터로 확대했다. 이들 증권사에 비해 아직 토스증권 프리장 거래 시작시간은 3시간이 늦다. 토스증권 관계자는 "처음은 오후 9시로 시작하지만 미국 현지 파트너사와 논의를 통해서 거래 시간을 점차 넓혀갈 예정"이라고 말했다.원하는 가격에 주식을 자동으로 사고 팔 수 있는 자동주문 기능도 국내 주식에 적용된다. 보유 중인 주식이나 관심 주식을 골라 특정한 가격에 도달하면 미리 지정해둔 가격으로 사거나 팔 수 있는 거래 방법이다. 시장상황을 매번 확인하기 어렵거나, 당장 오늘이 아니어도 관심 주식이 원하는 가격에 도달했을 때 매매하고 싶은 투자자들이 눈여겨 볼 기능이다.토스증권 출범이후 고객들의 긍정적인 평가가 많았던 알림 기능은 각 종목별로 선택할 수 있게 된다. 또한 기존 알림 항목인 가격변동, 뉴스, 공시정보와 같은 회사소식 외에 각 종목별 지정가를 설정해 지정가 도달 시 알림을 받을 수 있다.토스증권 관계자는 "토스증권 MTS는 첫 선을 보인 지난해 3월부터 지금까지 고객의 목소리를 반영한 서비스 업데이트를 꾸준하게 해왔다"며 "투자를 처음 시작하는 단계의 고객과 투자경험이 쌓여 성장한 고객 모두 만족할 수 있는 서비스를 만들어 갈 것"이라 말했다.이번 업데이트는 규모와 시기 면에서 카카오페이증권에 대응하기 위한 목적도 크다는 분석이다. 카카오페이증권은 카카오페이 플랫폼에서 국내 주식, 미국 주식, ETF 투자가 모두 가능한 MTS를 이달 말 출시한다는 계획이다. 사전예약한 고객에게는 한시적으로 거래수수료부터 미국주식 환전수수료까지 무료로 지원하는 프로모션도 공격적으로 펼친다. '누구나 편리하게 주식에 투자할 수 있는 MTS'를 표방해 토스증권과 콘셉트가 상충한다.토스증권은 타사와 차별화된 강점으로 정보 획득의 용이성과 앱 접근성을 내세운다. 토스증권 관계자는 "주식 뉴스에 특화된 번역 엔진을 개발, 해외종목 뉴스를 곧바로 가져와 AI(인공지능)가 자동 번역해 실시간으로 국문화된 뉴스를 제공하고 있다"며 "토스 앱만 있으면 해외주식 앱을 따로 설치하거나 계좌를 새로 여는 번거로운 절차도 필요 없다"고 강조했다.토스증권에 따르면 지난해 12월말 기준 개설된 계좌는 400만개, 월간 활성사용자(MAU)는 230만명을 넘어서고 있다. 올 상반기 중 MTS 차트 고도화와 국내주식 시간외 거래, 해외주식 소수점 거래를 도입해 한층 강화된 투자 경험을 고객에게 제공한다는 계획이다.해외주식 거래는 증권사의 핵심적인 수입원으로 자리잡았다. 자본시장연구원이 지난해 말 발간한 '국내투자자의 해외주식 직접투자 접근성 분석 및 시사점' 보고서에 따르면 2020년 말 기준 국내 증권사의 해외주식 거래수수료 수입은 약 4700억원으로 전년 말 대비 4배 이상 증가했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>2022.01.13.</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>"북한 이야기 아닌가요?" 아이슬란드 할머니가 울었다</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/047/0002338904?sid=102</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>[여성이 멈추면 세상이 변한다 ⑧] 한국 여성이 묻고, 아이슬란드 여성이 답하다20대 한국 여성에게 물었습니다. '당신의 미래를 준비하는데 있어 어떤 허들이 있습니까?' 164명이 357개의 허들을 이야기했습니다. 그 목소리를 품고, 오마이뉴스 X 시사인 X 국제앰네스티 한국지부는 '여성들이 가장 살기 좋은 나라'라는 아이슬란드로 향했습니다. 그리고, 아이슬란드 사람 33명과 이야기를 나눴습니다. 우리가 다다른 결론은 하나입니다. '여성이 멈추면 세상이 변한다.' &lt;편집자말&gt;       ▲  '오마이뉴스 X 시사인 X 국제앰네스티 한국지부'가 아이슬란드에서 함께 취재를 진행했다. 어떻게 아이슬란드가 '세계에서 가장 살기 좋은 나라'로 꼽히게 됐는지, 현재 성평등 시스템과 그들이 생각하는 앞으로의 과제는 무엇인지 등을 현지 취재를 통해 담아냈다. 원정대에 동행한 장혜영 정의당 의원과 동갑내기 순나 해적당 의원과의 대담과 아이슬란드 여성들이 한국 여성들에게 전하는 메시지도 볼 수 있다. 그리고 왕복 40여 시간을 오갔던 엽서를 돌려 받은 여성들의 소감도 실었다.              ⓒ 독립편집부           아이슬란드 할머니가 울었다. 우리는 그녀에게 또박또박 한글로 적힌 엽서 한 장을 건넸을 뿐이었다. 엽서엔 "여성을 바라보는 사회의 시선 때문에 꿈을 꾸기 어렵다"고 적혀있었다. '시선', 두 글자에는 밑줄과 함께 별표시도 있었다.이 내용을 전해들은 헬가 기슬라도티르(Helga Gisladottir, 64세, 이하 헬가)는 말을 잇지 못했다. "후... 우후..." 숨을 골랐다. "감정이 올라와 말을 꺼내기 어렵다"고 했다. 그의 눈에 눈물이 맺혔다. 그는 "잠시 시간을 달라"고 했다. 5분 정도 우리는 아무 말 없이 함께 걸었다. 그는 손수건을 꺼내 눈물을 닦더니 우리에게 물었다."이게 한국 이야기란 말이에요? 북한 이야기 아니에요?"믿기 어렵다는 듯 그는 우리에게 또 물었다. "그래도 여성이 고위직에 오르지 않나요?"우리는 "그렇긴 하지만 그 숫자가 매우 적다"고 답했다. 그는 "정말 마음이 안타깝다"고 했다. "하지만 그래도 계속 꿈을 꿔야 한다, 당신의 꿈을 현실로 가져올 수 있다"고 했다. 그와 함께 다시 걸음을 옮겼다. '페미니스트 워크' 행사 참가자들이 저만치 앞서 가고 있었다. 그 날은 '데이 오프(Women's Day Off, 모든 여성의 월차 투쟁)'가 일어난 지 꼭 46년째가 되는 날이었다.               ▲  2021년 10월 24일, '데이 오프(Women's Day Off, 모든 여성의 월차 투쟁)'를 기념하는 '페미니스트 워크' 행사가 아이슬란드의 수도 레이캬비크에서 열렸다. 행사 참가자들이 길을 따라 걷고 있다.            ⓒ 선재   1975년 10월 24일, 광장에 모인 여성들은 의회로 이동하며 여성과 남성의 임금 격차가 너무 크다고 외쳤다. 취업 지원자 개인 역량보다 여성인지 남성인지를 더 중요하게 여긴다고 주장했다. 주요 단체에 여성대표가 왜 없는 거냐고도 소리쳤다. 그러면서 모든 일을 손에서 놓았다. 전체 여성의 90%가 '데이 오프'에 참여했다. 그리고 2021년 현재 아이슬란드는 세계적인 성평등 모범국가가 됐다. 46년 전 그 날, 헬가는 수많은 여성과 함께 광장에 있었다. 그가 우리에게 다시 말했다."할 수 있어요, 정말."헬가는 우리에게 "감정이 올라와서 미안해요"라고 말했다. "꿈을 꾸기 어렵다"는 한국 여성의 말에 마음이 크게 동요했다고 전했다. 그 엽서를 헬가에게 건넸다. 헬가는 또박 또박 답장을 적기 시작했다.흉상우리는 아이슬란드로 떠나기 전에 20대 여성들에게 '당신의 미래를 준비하는데 있어 어떤 허들이 있습니까'라고 물었다. 144명이 구글독스를 통해 답했다. 20명과는 직접 만나 자신이 생각하는 허들을 엽서에 적어달라고 부탁했다. 그 엽서들을 품고 아이슬란드에 갔다. 국회의원, 교수, 여성권리협회 사무총장, 앰네스티 아이슬란드 지부 등에도 엽서를 건넸다. 한국 여성이 적은 엽서 내용을 소개하고 그에 대한 '답장'을 써달라고 요청했다. 그들은 모두 인터뷰를 마치고 정성스럽게 엽서에 자신의 생각을 적었다. 자신이 직접 기획한 '레이캬비크 페미니스트 워킹 투어'를 운영하고 있는 틴나 에이크 라켈다르도띠르(Tinna Eik Rakelardottir, 이하 틴나)도 그 중 한 사람이었다. 틴나는 아이슬란드 대학에 있는 한 흉상 앞으로 우리를 데리고 갔다. "비요르그 카리타스 소랄락슨(Bjorg Caritas Þorlaksson, 1874년~1934년)의 흉상이에요. 아이슬란드에서 박사학위를 받은 첫 번째 여성이었죠. 결혼하고 그는 남편과 함께 20년 동안 아이슬란드-덴마크 사전을 만드는 일을 했어요. 이혼 후 남편이 사전을 출판했는데, 그녀의 이름은 언급조차 되지 않았습니다. 사전 발간 후 남편은 아이슬란드 대학에서 명예박사학위를 받았지만 그녀는 조명되지 않았죠. 비요르그에 대해 다른 여성이 책을 쓰면서 이 사실이 드러났어요. 그제야 그녀를 기려야 한다는 움직임이 일었고, 2000년 모금 운동으로 흉상을 제작했습니다. 그리고, 여기 흉상이 있는 거죠."              ▲  아이슬란드 레이캬비크에 있는 노르딕 하우스 도서관에서 취재팀과 마주한 틴나 에이크 라켈다르도띠르(Tinna Eik Rakelardottir). 그는 자신이 직접 기획한 '페미니스트 워킹 투어'를 운영하고 있다.                    ⓒ 선재   흉상은 아이슬란드 대학 외곽에 있었다. 공터에 세 그루의 나무가 서 있고, 흉상은 그중 첫 번째 나무 뒤에 있었다. 나뭇가지에 가려 흉상은 제대로 보이지 않았다. 무심코 지나가는 이들에게 흉상은 보이지 않을 것 같았다."비요르그는 아주 전형적으로, 여성이 배제된 존중받지 못한 이야기죠. 그런데 그 흉상조차 여기 서 있어요. 아이슬란드 대학에서 자리를 (여기로) 지정한 걸로 아는데요. 이 흉상은 여성을 향한, 전세계적으로 공통적인 이야기를 담고 있다고 생각해요. 언제나 제 감정을 건드리는 부분이죠."틴나의 감정을 건드리는 부분, 한마디로 차별이다. 여성이라는 이유로, 여성이기 때문에 자신이 한 일조차 제대로 조명 받지 못하는 차별. 그의 말대로 "세계적으로 공통적인 이야기"다. 그 이야기가 우리나라의 경우 더 암담하다는 것이 20대 여성들의 문제의식이다. 구글독스를 통해 한 여성은 이렇게 되물었다. - 어떤 허들이 있냐고요? 2박 3일을 말해도 끝이 없을 겁니다. 걸리는 것은 하나지요. 이걸 누가 듣냐는 겁니다... (중략) 20대 여성 투표권은 세지 않습니다. 우리가 그들에게 구미가 당기는 사람들이 아닌 걸까요? 필요 없는 건가요? 신경 안 써도 세상이 굴러가는 걸까요? 안 들으면 들을 때까지 소리치고 싶습니다... (중략) 암담합니다. 우리에게 미래가 있나요? 허들만 있는 것 같아요. (hy********@님)이 내용을 전하자 틴나는 답했다."성 불평등 문제를 인식하는 것조차 많은 용기가 필요합니다. 당신이 그 첫 발을 떼야 합니다. 당신이 그 다음 사람이 되길 응원합니다. 계속 목소리를 내세요. 당신이 얻을 자격이 있는 걸 위해 계속 싸우세요."이정표오래 걸리는 싸움이다. 엽서에 정성스럽게 답을 적고 있는 헬가 역시 누군가의 "그 다음 사람"이다. 2021년 10월 24일, 1975년 '데이 오프'를 기념해 열린 '페미니스트 워크'에 그는 자신의 엄마 포라 엘파 비곤슨(Pora Elfa Bjionsson, 83세)과 함께 참여했다. 그의 딸, 루트 에이나스도띠르 (Rut Einarsdottir, 29세)도 엄마 그리고 할머니와 함께 걷고 있었다. "계속 꿈을 꾸세요, 절대 희망을 잃지 마세요! 당신은 할 수 있습니다 ♡ -헬가-" (Keep dreaming, Never loose hope! You can do it ♡ Helga)헬가의 딸 루트는 우리에게 "지금까지 싸워 온 여성들이 이룬 걸 기억하는 게 중요하다"고 했다. "그래야 어디까지 왔고 어디까지 가야 할지 볼 수 있기 때문"이라고 했다. 어디까지 가야 할지, 다음 사람에게 필요한 것이 이정표다. 루트의 엄마 헬가는 "그래서 롤모델이 중요하다"면서 "롤모델이 있으면 그 롤모델을 보고 갈 수 있다"고 했다.               ▲  아이슬란드로 떠나기 전에 20대 여성들에게 '당신의 미래를 준비하는데 있어 어떤 허들이 있습니까'라고 물었다. 그 중 한 응답자가 쓴 엽서를 본 헬가 기슬라도티르(Helga Gisladottir, 64세, 사진 가운데)는 "마음이 안타깝다"면서 눈물을 보였다. 그는 1975년 '데이 오프(Women's Day Off, 모든 여성의 월차 투쟁)' 참가자로 이날 행사에 자신의 어머니 그리고 딸과 함께 참석했다.            ⓒ 선재                ▲  헬가가 엽서에 쓴 답글.            ⓒ 이정환   우리는 다른 행사 참가자들에게도 엽서를 내밀었다. 우리의 요청에 길가에 쪼그리고 앉아 엽서를 쓴 솔에이 뱃치(Soley Batsch)의 롤모델은 엄마였다. 그는 "엄마가 집에 있는 것도 너무 좋았지만 엄마가 자신의 꿈을 좇아가는 것이 너무 자랑스러웠다"면서 엽서에 "당신 아이의 롤모델이 되는 것에 집중하세요. 특히 딸에게요"라고 적었다. 3개월 된 갓난아이를 유모차에 태우고 행사에 참가한 아르헤이두르 스테인토스도띠르(Aruheitur Steintorsdottir)는 "당신은 자신에게만 스스로를 증명하면 됩니다"라고 엽서에 적었다. 비르나 스테파운스도띠르(Birna Stefausdottir)는 "당신의 롤모델을 찾고 당신이 (누군가의) 롤모델이 되세요"라고 적었다.그들은 답하고 있었다. 포기하지 말라고. 싸워 내라고. 그래서 증명하고, 스스로 이정표가 되라고. "한국 정부! 당신의 문제입니다. 고치세요!"- 성실하게 하루를 보내도 '내가 전문성을 남자보다 인정받을 수 있을까', 의문이 듭니다."이런 기분을 느끼는 건 당신만이 아닙니다. 아이슬란드에서도 같은 압박을 받아요. 우리는 뭉쳐야 합니다. 당신 자신에게 집중하고 당신의 마음을 돌보는 것은 너무나 중요합니다. 그리고 모든 걸 완벽하게 하지 않아도 된다는 걸 우리 기억해요. 집안 일은 조금 멀리해도 괜찮습니다. 사랑을 담아, 아이슬란드에서." (루트 에이나스도띠르, Rut Einarsdottir)              ▲  루트 에이나스도띠르 (Rut Einarsdottir, 29세)가 엽서에 답글을 쓰고 있다.                                           ⓒ 선재   - 한국 사회가 규정한 '이상적인 가족'을 꾸릴 수 없을 것 같다는 걱정이 됩니다. "삶의 행복과 평등을 위해 싸워 가는 당신에게 응원을 보냅니다. 당신 삶에서 사랑과 일 모두 가질 수 있을 겁니다. 그래야 하고요. 포기하지 마세요, 모든 여성들을 위해 정의를 위해 싸우세요. 누군가는 언제가 '처음'이 되어야 합니다." (토르힐두르 순나 아이바르도띠르 해적당 의원, Þorhildur Sunna Ævarsdottir)              ▲  토르힐두르 순나 아이바르도띠르 (Þorhildur Sunna Ævarsdottir) 해적당 의원이 엽서에 답글을 쓰고 있다.              ⓒ 선재   - 나에게 허들은 '색안경'입니다. 여성에게만 요구되는 잣대와 시선이 있어요. "우리는 모두 같은 경험을 갖고 있습니다. 내가 줄 수 있는 조언은 하나입니다. 당신 스스로 시작할 수 있다고, 계속 큰 소리로 당신을 둘러싼 세상을 설득하기 위해 노력하세요." (락큰헤이두르 크리스탸운스도띠르 아이슬란드 대학 교수, Ragnheitur Kristjansdottir)              ▲  에를라 훌다 할도스도띠르(Erla Hulda Halldorsdottir, 사진 왼쪽)와 락큰헤이두르 크리스탸운스도띠르(Ragnheitur Kristjansdottir)가 서로 마주보며 웃고 있다. 두 사람 모두 아이슬란드 대학교수로 '여성들이 자신의 삶을 결정해 온 역사'를 담은 &lt;선거하는 여인들&gt;(Konur sem kjosa: Aldarsaga)이란 제목의 책을 내놓기도 했다. 그들 역시 한국 여성들의 엽서에 각각 답글을 작성했다.                            ⓒ 선재   - 오빠에 비해 가족들의 지지를 못 받는다는 소외감을 느낍니다. 나의 허들은, 가족입니다. "포기하지 마세요. 다른 나라 여성의 상황과 성평등이 사회에 얼마나 이익이 되는지 계속 보세요. 당신의 목소리를 들려주고 당신의 지식을 전해주세요. 행운을 빕니다." (마그레트, Margret)              ▲  '페미니스트 워크' 행사 참가자가 엽서에 답글을 쓰고 있다.                       ⓒ 선재   - 한국 여성들이 가장 힘들다고 느끼는 건 '여성은 힘이 약하다. 남성보다 낮은 존재다, 일을 못한다'등의 시선, 편견인 것 같아요."사회적 규범에 얽매이지 마세요. 당신이 원하는 대로 자신을 키워가세요. ♡" (브린디스 뱌르나도티르 국제앰네스티 아이슬란드 지부 직원, Bryndis Bjarnadottir)              ▲  '페미니스트 워크' 행사 참가자가 엽서에 답글을 쓰고 있다.                    ⓒ 선재   그리고, 우리는 이날 행사를 주최한 여성권리협회의 브린힐두르 헤이다르(rynhildur Heiðar) 사무총장에게도 엽서를 전달했다. 먼저 "혼자 고민하지 말고 동료 여성들과 함께 행동을 취하라"고 조언하던 그는 "더 중요한 말을 한국 정부에 하고 싶다"고 했다. 브린힐두르 사무총장은 "정부가 성평등 관련해서 해결책을 제공하지 못하기 때문에 여성들이 이런 어려움을 겪는 것"이라면서 "여성이 아이를 낳을 수 있게 하고, 일을 할 수 있게 만드는 책임은 정부에 있다"고 강조했다. 그는 엽서에도 이렇게 썼다.- 취업 후 내 꿈을 펼칠 상상에 부푸는 게 아니라 '과연 내가 어디까지 올라갈 수 있을까'를 걱정합니다. 아이를 좋아하지만 현실을 너무 잘 알기에 아이를 낳고 싶지 않습니다."한국 정부! 이건 여성의 문제가 아니라 '당신의' 문제입니다. 고치세요!" (브린힐두르 헤이다르 여성권리협회 사무총장, Brynhildur Heiðar)               ▲  2021년 10월 24일 열린 '데이 오프(Women's Day Off, 모든 여성의 월차 투쟁)' 기념행사는 아이슬란드 여성권리협회 주최로 열렸다. 브린힐두르 헤이다르(rynhildur Heiðar) 사무총장은 앞서 인터뷰에서 "여성이 의사 결정의 위치에 있는 것은 매우 중요하다"며 "성평등 의제화는 여성이 권력을 가질 때 시작된다"고 강조하기도 했다.                           ⓒ 선재   -----------------------취재 : 이주연·장일호·정창·이정환영상 : 김민수 | 사진 : 선재 | 제작 : 이종호 | 개발 : 황장연독립편집부 facebook.com/ohmyeum본 기획물은 정부광고수수료로 조성된 언론진흥기금의 지원을 받았습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>2022.01.07.</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>삼성전자, '디센트럴랜드' 메타버스에 가상 매장 열었다</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0002992526?sid=101</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>삼성전자가 이더리움 기반 메타버스 플랫폼 '디센트럴랜드'에 가상 매장을 개점했다.삼성전자 미국법인은 6일(현지시각) 뉴스룸 공식 트위터 채널을 통해 가상 매장 '삼성 837X'를 오픈했다고 밝혔다.이 가상매장은 실제로 미국 워싱턴스트리트 837번지에 소재한 삼성전자의 제품 체험 전시장 삼성 837을 가상세계로 옮겨놓은 장소다.각종 삼성의 제품을 체험할 수 있고 공연장과 음악홀도 마련됐다. △커넥티비티 극장 △지속가능성의 숲 △커스텀 스테이지 등을 갖추고 있다. 커넥티비티 극장에서는 가상매장 운영은 이벤트 기간 동안만 한정적으로 운영될 예정이다. 실제 오프라인 매장에서 DJ가 주최하는 라이브 댄스 파티를 혼합현실 형태로 경험할 수 있다.미셸 매토스 삼성전자 미국법인 부사장은 “메타버스는 물리적, 공간적 한계를 초월해 다른 방법으로는 불가능한 독특한 가상 경험을 만들 수 있게 해준다”며 “우리는 혁신 DNA를 갖고 있으며, 많은 사람들이 급성장하는 가상세계를 경험하길 바란다”고 말했다.디센트럴랜드 메타버스 안에 개장된 삼성 가상 매장 837X.(이미지 출처=디센트럴랜드)</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>2022.01.11.</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>[단독] “부장님”“대리님” 사라졌다… DB손해보험, 직급 2단계로 통합</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000774245?sid=101</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>DB손해보험이 직급을 2단계로 통합해 수평적인 조직문화 조성에 나섰다./사진=DB손보DB손해보험(DB손보)이 임원 이하 일반 직원의 직급체계를 2단계로 줄였다. 기존 ‘사원·대리·과장·차장·부장’의 직급을 없애고 ‘책임·수석’으로 운영한다는 것이다. 빅테크(대형 IT기업)·핀테크의 참여로 금융 영역 다툼이 치열해지는 가운데 수평적인 문화를 도입해 혁신을 꾀하겠다는 발상이다. 11일 보험업계 따르면 DB손보는 지난 3일부터 기존 사원, 주임, 대리, 과장, 선임과장, 차장, 부장에 이르는 7단계의 수직형 직급체계 대신 책임·수석의 2단계 체계를 적용하기로 했다. 책임은 기존의 사원·주임, 수석은 대리·과장·선임과장·차장·부장에 해당된다. 임원의 경우 담당, 상무, 부사장, 사장 직급을 그대로 유지한다.DB손해보험 관계자는 "과거 연공 중심 직급체계에서 역할 중심으로 직급을 간소화 했다"며 "기대효과는 수평적 유연한 기업문화 정착 및 공정한 평가를 통한 성과주의 강화를 기대하고 있다"고 말했다.연차별로 보면 책임의 경우 입사 1년차부터 최대 4년차까지, 수석은 5년차 이상 임원 전까지다. 내부적으로도 직급이 아니라 성과에 따른 대우를 기대할 수 있게 됐다. 수석 중에서 부서장 경우 파트장 직책을 부여한다. 직급과 연공서열을 중시하던 기존 인사 제도에서 탈피, 능력만 있다면 우대하겠다는 취지다. 전사적인 직급체계 단순화는 보험권에서 파격적인 시도라는 평가다. 현재 한화생명과 교보생명, 현대해상, 메리츠화재 등 주요 보험사들은 수직적인 직급 체계를 고수하고 있다. 주요 보험사 중에서는 삼성화재(선임·책임·수석)와 삼성생명(프로)만 각각 수평적인 직급체계를 유지하는 중이다.  중소 보험사에서는 지난해 7월 신한라이프가 7월 대리·과장·차장 등 기존 직급을 없애고 관리자급(부부장급) 이상은 '수석', 그 이하는 '매니저' '프로' 등 호칭을 도입했다. 최근 보험사들은 빅테크와 핀테크 기업들이 금융 영토를 확장하면서 위기의식이 커졌다는 게 업계 얘기다. 이들 기업은 수평적인 직급 체계와 유연한 사고를 무기로 새로운 서비스를 꾸준히 내놓고 있다. 보고 체계가 단순하니 사업 추진 속도도 훨씬 빠르다. 카카오뱅크·페이에서는 영어 이름으로 부르고, 핀테크 업체인 토스는 서로 이름 뒤에 ‘님’을 붙여 부른다. 보험업계 관계자는 “직급체계 단순화로 수평적 조직문화와 업무 전문성 강화를 기대하는 보험사들이 속속 나타나고 있다”고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>2022.01.07.</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>네·카는 언감생심… 통신 3사 '코로나 QR인증' 토스에도 밀렸다</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/469/0000651376?sid=105</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>코로나 QR인증 순위 요동SKT·LGU+·KT, 토스에 3위 빼앗겨카카오, 네이버 제치고 1위 서비스 접근성·편의성이 순위 갈라통신 3사와 네이버, 카카오, 토스 등이 뛰어든 코로나 QR인증 경쟁의 희비가 엇갈렸다. 네이버는 카카오를 제치고 선두 자리를 빼앗았다. 신생 스타트업 토스는 통신 3사 연합을 제치고 3위에 올랐다. 1월 4일 서울시내 한 커피전문점을 찾은 시민이 QR코드 인증을 진행하고 있다. 뉴시스거대 통신사와 플랫폼 기업들이 뛰어든 '코로나 QR인증' 경쟁의 희비가 갈렸다. 지난해 매출액 합계만 57조 원이 넘는 통신 3사 연합은 신생 스타트업 토스에 3위 자리마저 빼앗겼다. 선두 경쟁에서는 네이버가 카카오에 1위 자리를 내줬다. 공룡그룹 통신 3사, 토스에 3위 자리 내줘6일 강선우 더불어민주당 의원이 한국사회보장정보원으로부터 제출받은 '플랫폼별 월별 QR인증 건수'에 따르면 핀테크 스타트업 토스는 지난해 12월 기준 887만835건의 QR인증을 기록했다. 반면 같은 기간 SK텔레콤과 LG유플러스, KT 등 통신 3사가 공동 운영하는 애플리케이션 패스(PASS)의 QR인증 수는 823만1,517건에 그쳤다.QR인증 경쟁은 최근 급속히 팽창하는 인증시장에 대한 각 사의 경쟁력을 가늠할 지표로 여겨진다. 기업이 제공하는 인증 시스템에 대한 소비자의 접근성과 편의성, 인지도 등을 선제적으로 평가할 수 있어서다.토스는 지난해 7월 처음 QR인증 경쟁에 뛰어들었다. 이후  8월부터 곧장 통신 3사 중 선두를 달리던 SK텔레콤을 앞질렀고 꾸준히 격차를 벌렸다. 11월에는 QR인증 수 543만7,253건을 기록해 통신 3사 패스앱 이용자 총합(509만7,568건)을 처음 넘어섰다.카카오, 네이버 제치고 1위 자리 빼앗아카카오는 지난해 4월부터 네이버의 QR인증 건수를 앞지르기 시작했다.  2020년 6월 QR인증 시스템이 도입된 지  10개월여 만이다.당초 카카오는 압도적인 일일 이용자 수를 앞세워 QR인증 무대도 장악할 것으로 전망됐다. 하지만 네이버가 QR인증 탭을 메인 화면에 배치하는 등 공격적 전략을 펼치면서 1위 자리를 내주기도 했다.네이버와 카카오는 지난해 11월 각각 1억2,298만7,165건과 1억6,103만5,299건의 QR인증 수를 기록했다. 12월에는 네이버 1억5,633만4,642건, 카카오 2억3797만5,164건으로 집계돼 격차가 벌어졌다.카카오가 코로나 QR인증 제도 도입 10개월여 만인 지난해 4월 네이버를 제치고 이용자 수 1위에 올랐다.순위 가른 건 '접근성'과 '편의성'통신업계는 코로나 QR인증 경쟁의 순위를 결정한 원인으로 서비스 접근성을 꼽았다. 패스앱 가입자는 3,500만 명 규모로 토스 가입자 2,000만 명보다 많지만 금융서비스를 제공하는 토스에 대한 소비자 접근성이 더 높다는 설명이다.편의성도 승패를 가른 요인으로 분석됐다. 토스 관계자는 "매월 필요했던 연락처 갱신도 없애고 QR코드 로딩 속도를 높이기 위해 노력했다"면서 "핸드폰 기종에 따라 흔들기, 위젯 등 다양한 접속이 가능하다"고 밝혔다. 또 토스는 인증서 갱신주기를 설정하지 않은 반면, 통신 3사 패스앱과 카카오 갱신주기는 45초, 네이버는 60초다.카카오 관계자 역시 "처음 카카오는 보안 등의 이유로 앱 내부에서 QR인증 서비스를 제공하지 않았다"며 "이후 앱 안에서 서비스를 제공하고 흔들기 기능 등을 넣어 이용자 편의성을 강화했다"고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>2022.01.12.</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>MZ 수요 반영한 '청년창업사관학교 2.0'…입교생 모집</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0010940183?sid=101</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>기사내용 요약우수 예비·초기 청년창업가 875명 대상만 39세 이하 창업 3년 이내인 대표자민간 AC 직접 선발하고 투자까지 연계[서울=뉴시스] 청년창업사관학교 전면개편 인포그래픽. (사진=중기부 제공) 2022.1.12. photo@newsis.com *재판매 및 DB 금지[서울=뉴시스]권안나 기자 = 우수 청년창업자 지원 프로그램 청년창업사관학교(청창사)가 MZ세대가 원하는 방식으로 탈바꿈한다. 중소벤처기업부(중기부)는 올해 청창사 입교생 875명을 오는 13일부터 내달 4일까지 모집한다고 12일 밝혔다.청창사는 유망 창업아이템과 혁신기술을 보유한 우수 창업자를 발굴해 입주공간 제공, 교육·지도, 사업화 자금 지원 등 창업 전 단계를 묶음으로 지원하는 사업이다.2011년부터 운영하고 있는 청창사는 현재까지 5842명의 청년창업가를 배출했다. 5조768억원의 누적 매출성과와 1만7823명의 신규 일자리를 창출했다.'토스'와 같은 유니콘기업을 배출하는 등 대한민국 청년 기술창업의 대표 양성소로 자리매김하고 있다.올해 청창사는 전년도 사업전반에 대한 전수조사와 청년 창업자 간담회 등에서 나온 의견을 반영해 MZ세대가 원하는 청년창업사관학교 2.0으로 새롭게 탈바꿈한다.'MZ세대 트렌드' 민감하게 반응하는 민간 주도민간 창업기반이 열악한 비수도권 우수창업자를 위해서 대전에 '민간주도형 청창사'를 시범 도입한다.민간주도형 청창사는 직접투자 기능이 있는 창업기획자(AC)가 운영기관이 돼 비수도권 우수창업자를 직접 선발해 육성하고 직접투자 혹은 투자유치 과정까지 책임지는 새로운 운영방식이다.민간 AC가 투자를 전제로 입교생을 직접 선발하기 때문에 대전 청창사에 입교한 상당수의 청년창업자는 졸업과 동시에 민간투자를 기대할 수 있다.또 전문성 있는 민간 교육전담기관을 영입해, 기존 지역별로 수립하였던 교육계획을 통합해 수립·운영한다.민간 교육전담기관은 교육계획뿐만 아니라, 개별 청창사가 초빙하기 어려운 유명강사 등 각 분야 최고 전문가를 섭외해 온·오프라인으로 양질의 교육 콘텐츠를 제공할 예정이다.지도의 경우에도, 소수의 내부 전담교수가 실시하였던 것을 민간 외부전문가 중심의 1:1 지도로 개선해 운영한다. 입교생이 섭외된 민간 전문가 외에 다른 강사를 희망하는 경우 이용권 방식으로 별도 지원도 한다.지역 특성 고려한 특화프로그램 운영수도권 지역에 우수한 기반 및 풍부한 창업수요를 고려해 특화 지역을 시범운영한다.서울은 글로벌 벤처캐피탈(VC), AC 등 투자전문기관이 소재한 점을 고려해 글로벌투자 분야를 특화할 계획이다. 주요공단이 밀집한 경기지역은 소부장 중심의 제조창업 특화, 군부대가 밀집한 경기북부에는 군장병 특화를 실시한다.특화지역에서는 사업화자금 한도 상향 및 업종 전문가 교육·지도를 제공할 예정이다.유니콘 탄생 위한 신규 프로그램을 도입청창사는 부산, 대구, 광주, 대전, 강원, 서울 등 지역거점 시연회를 새롭게 도입한다. 지역거점 시연회에는 비수도권 창업자들이 지역에서 만나기 어려운 우수투자자 대상으로 투자유치·기업홍보를 활발하게 할 수 있도록 모태펀드 출자 받은 투자자 참여도 추진할 계획이다.또 기존 10개 청창사에서만 시행하였던 기업활동(IR) 교육을 18개 전체 청창사로 확대한다. 유관기관(한국벤처투자, 기술보증기금 등) 투자연계 등을 추진한다.코로나19 이후 비대면 교육으로 발생한 입교생간, 입교생·운영기관간 소통 문제 해결을 위해 소통 앱을 개발해 보급한다. 졸업생 홈커밍데이를 정례화해 입교생과 졸업생의 관계망 기회를 확대할 예정이다.선발 방식 및 사업비 운영체계 개선입교 희망자의 지원부담을 완화하기 위해 사업계획서 작성기간에 온라인 무료자문을 실시한다. 발표심사 자료를 별도 피피티(PPT)가 아닌 서류심사시 제출한 신청서로 대체한다.사업비 관리강화를 위해서는 시제품 제작, 기계장치 구입 등에 대한 확인 절차를 강화한다. 창업사업 지원내역, 사업화자금 집행내역 등을 창업진흥원 창업관리시스템과 연계해 창업사업 지원이력을 종합관리할 계획이다.청년감수성에 맞게 새롭게 개편한 올해 청창사 사업은 만 39세 이하 창업 3년 이내인 대표자를 대상으로 한다. 내달 4일 오후2시까지 K-스타트업 누리집을 통해 신청할 수 있다.다만 대전 청창사 민간운영사가 입교생을 직접 선발하기 위해 이번 공고시에는 입교생을 모집하지 않는다. 내달 중으로 별도로 모집공고를 할 계획이다.향후 비수도권 지원자는 대전 청창사에 중복지원을 허용하고, 지원한 곳 모두 합격시 원하는 지역에 입교 선택권을 부여할 예정이다. 청창사 입교에 관심 있는 청년창업자들은 부담 없이 이번 모집에 지원을 하면 된다.청창사 입교에 대한 자세한 문의사항은 전국 18개 청년창업사관학교로 하면 된다．</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>2022.01.13.</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>금융은 직장인만? No! 첫 금융생활은 ‘중·고딩부터’ [MZ세대 슬기로운 금융생활③]</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0001937057?sid=101</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>빅테크·핀테크 CEO “금융앱, 직관적이고 쉬워야”원스톱 프로세스로 MZ세대 위한 UI·UX 제고에 집중[헤럴드경제=이태형 기자] 국내 빅테크·핀테크사 대표들은 MZ세대가 중·고등학교 재학시기에 금융을 처음 접하는 것으로 보고 있다. 이에 빅테크·핀테크사들은 모바일 환경에 익숙한 MZ세대를 위해 UI(사용자 인터페이스)·UX(사용자 경험)의 직관성을 높여 사용자편의성을 높이는 데 집중하고 있다.헤럴드경제가 빅테크·핀테크사 대표이사(CEO) 20명을 대상으로 MZ세대의 금융생활에 대해 진행한 설문조사에서 CEO 20명 중 16명이 첫 금융생활을 시작하는 나이로 미성년시기를 꼽았다. 중학생(14~16세), 고등학생(17~19세)이 각각 7명으로, 전체 중 70%를 차지했다. 14세 미만이라고 응답한 CEO도 2명이나 됐다.최근 부모들이 자녀들의 증권 계좌를 개설해주는 등 조기 경제교육에 대한 관심이 커지면서 MZ세대가 금융을 접하는 시기가 미성년까지 내려간 것으로 풀이된다.이 대표들은 또 금융업에 일찍 눈뜨는 MZ세대를 고객으로 유치·유지하기 위해 자체 애플리케이션(이하 앱)에서 ‘직관적 UI에 따른 편의성’을 가장 중요한 요소로 들었다.MZ세대가 40대 중반 이상의 연령대에 비해 상대적으로 자산 규모가 크지 않은 점에 주목해 기존 금융앱들이 상품 소개나 현금성 보상 등 이벤트에 집중하고 있는 것과는 달리, 모바일 환경 최적화를 강조하며 MZ세대가 앱을 사용하는 데에 어려움이 없도록 하는 것에 초점을 맞추고 있다.카카오페이는 증권과 연계해 하나의 앱에서 주식·펀드 투자까지 가능한 플랫폼을 활용해 기존 투자앱이 은행·증권사별로 분리돼 있는 금융그룹에 비해 사용자편의를 높이고 있다. 상품 소개 방식도 카톡 문답 형식을 적용해 텍스트 중심의 기존 금융앱과 차별화해 가독성을 높이고 사용자가 직관적으로 이해할 수 있도록 앱 내부 콘텐츠를 개발하고 있다.토스증권은 정확한 종목명을 모르더라도 브랜드나 제품 등의 키워드로 종목을 찾을 수 있는 검색 기능을 적용해 MZ세대 ‘주린이(주식+어린이를 합친 신조어)’를 위한 서비스를 제공하고 있다. 예를 들어 ‘새우깡’을 검색하면 ‘농심’, ‘구글’을 검색하면 ‘알파벳’에 대한 투자정보를 제공하는 식이다. ‘매도’ ‘매수’와 같은 전문용어 대신 ‘사기’ ‘팔기’ 등 쉬운 용어를 사용한 것도 MZ세대의 호응을 받고 있다.핀테크업체 관계자는 “기존 금융앱은 목적에 따라 세분화돼 있어 은행이나 해외, 국내주식 등 투자 대상에 따라 여러 앱을 설치해야 했던 점이 있었다”며 “자체 앱을 개발하면서 이를 개선해 플랫폼 하나로 여러 서비스를 사용할 수 있는 프로세스를 만들고, 직관적으로 앱을 이용할 수 있도록 하는 데 초점을 맞췄다”고 말했다.온라인 투자 연계 금융사인 피플펀드컴퍼니도 편의성에 익숙한 MZ세대의 특성을 고려해 비대면 대출 시 별도로 서류를 제출할 필요 없이 앱 내에서 원스톱으로 처리할 수 있도록 했다. 네이버, 카카오톡 간편인증서만으로도 본인 확인이 가능하도록 하는 등 시중 은행의 복잡한 대출 체계를 간소화했다.또 다른 핀테크업계 관계자는 “MZ세대를 중심으로 핀테크기업의 앱을 사용하면 금융투자시장에 입문이 쉽다는 공감대가 유지될 수 있도록 원래의 정체성은 유지하되, 고객 피드백을 기반으로 숙련된 투자자들이 필요로 하는 기능도 강화해 모든 투자자가 만족스러운 투자 경험을 제공할 수 있도록 진화해나갈 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>2022.01.04.</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>LGU+까지 출사표…통신 3사, '마이데이터' 경쟁 불붙나</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/629/0000125285?sid=105</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>SK텔레콤, KT, LG유플러스 국내 통신 3사가 모두 마이데이터 사업에 직접 진출하게 됐다. /더팩트 DB이종업간 경쟁 치열 예정…통신+금융데이터로 신사업 개척 국내 통신 3사가 모두 마이데이터 사업에 직접 진출했다. 빅테크·금융사 등에 일방적으로 정보를 제공해야 했던 통신 3사도 금융 데이터를 수신할 수 있게 되면서 마이데이터 산업 선점을 위한 이종업 간 경쟁이 한층 치열해질 것으로 전망된다.4일 업계에 따르면 LG유플러스는 금융 마이데이터 사업에 직접 진출하기 위해 지난달 31일 금융위원회에 본인신용정보관리업 예비허가를 신청했다.LG유플러스의 경우 마이데이터에 직접 진출하지 않고 금융회사 등과 협업에 나설 것이라는 전망이 나왔다. 실제로 LG유플러스는 신한은행, CJ올리브네트웍스와 마이데이터 공동 프로젝트 업무협약을 맺으면서 금융·통신·유통 데이터를 활용한 협업모델을 모색해 데이터 커뮤니케이션 서비스 '디키타카(DIKITAKA)'를 선보인 바 있다.LG유플러스 관계자는 "금융데이터를 활용한 '생활가치 서비스'를 보다 적극적으로 고객에게 제공하기 위해 이번에 직접 사업권 허가를 신청하게 됐다"고 설명했다.LG유플러스는 마이데이터 사업권을 확보해 고객의 금융 데이터를 안전하게 관리하고, 통신 데이터와 접목해 새로운 금융 마이데이터 서비스를 제공하겠다는 계획이다.LG유플러스가 마이데이터 예비허가를 신청하면서 국내 이동통신 3사와 금융회사들 간 경쟁도 치열해질 것으로 보인다. 앞서 SK텔레콤은 지난해 8월 마이데이터 예비허가 신청서를 제출했고 KT도 지난해 11월 신청서를 제출했다. 두 회사는 모두 결과 발표를 기다리고 있다.통신 3사는 통신 데이터와 금융 서비스를 연계해 새로운 사업 기회를 만들 수 있을 것으로 보인다. 사진은 LG유플러스가 지난달 신한은행, CJ올리브네트웍스와 함께 선보인 데이터 커뮤니케이션 서비스 '디키타카(DIKITAKA)'. /LG유플러스 제공마이데이터 서비스는 소비자의 금융정보를 통합해서 관리하는 서비스를 뜻한다. 마이데이터 서비스 본허가를 받은 기업은 은행, 보험, 증권, 통신 등에 흩어져 있는 개인의 정보를 수집할 수 있는 자격을 획득한다. 이를 바탕으로 이용 가능한 금융상품을 추천하거나 재무 컨설팅을 할 수 있다. 정보전송 요구권이 핵심으로 자유로운 데이터 이동이 가능해지면서 관련 플랫폼 등 신시장이 개척될 것이란 기대감도 큰 상황이다.현재 네이버, 카카오, 토스 등 빅테크뿐만 아니라 대형 금융사들이 대거 마이데이터에 진출한 상황이다. 마이데이터 본허가를 받은 사업자는 은행 10개, 보험사 2개, 금융투자사 7개, 여신전문금융회사 9개, 저축은행 1개, 상호금융회사 1개, 신용평가사 2개 핀테크기업 22개 등이다. 이들 중 일부는 지난달 시범사업을 시작했다.업계 한 관계자는 "지금까지 통신사는 의무정보제공사업자로서 통신 데이터를 요구하는 사업자에 정보를 제공할 수밖에 없었다"면서 "마이데이터 사업자 라이선스를 획득하면 통신 3사도 각종 금융 데이터를 받아 활용할 수 있게 된다"고 설명했다.마이데이터 사업에 직접 뛰어듬으로써 통신 3사는 통신 데이터를 뺏기지 않음과 동시에 다른 성격의 데이터도 획득할 수 있게 된 것이다.통신 데이터는 비금융 분야에서 활용성이 높은 핵심 데이터 중 하나로 꼽힌다. 가입자 정보, 통신료 납부내역, GPS를 활용한 위치정보 등에 대해 개인을 특정할 수 없도록 비식별처리하고 이종 분야 데이터와 결합하면 새로운 서비스를 창출할 여지가 커진다.통신 데이터에 대한 시장 수요는 크지만 정작 통신사들은 마이데이터 시장에 이렇다 할 대응을 하지 않았다. 의무정보제공사업자로서 통신 데이터를 원하는 주체에 관련 정보를 제공하는 준비 위주였다. 최근에서야 일부 이통사가 적극적으로 본허가 라이선스 획득에 출사표를 던지는 전략으로 선회한 것으로 보인다.업계 다른 관계자는 "통신사는 본인들이 가지고 있는 데이터가 워낙 많다. 마이데이터 사업자에 뺏기는 걸 두고 볼 수만은 없을 것"이라며 "지금 당장 마이데이터로 수익을 내지는 못하더라도 향후 데이터 관련 사업에 주도권을 가지기 위해 마이데이터에 진출하는 것으로 보인다"고 분석했다.통신 3사는 통신 데이터와 금융 서비스를 연계해 새로운 사업 기회를 만들 수 있을 것으로 보인다.통신 3사가 보유한 인증 서비스도 마이데이터 시장에서 부가 서비스를 제공할 수 있는 좋은 수단이 될 수 있다는 평가를 받는다. 마이데이터 서비스를 이용하기 위해 반드시 거쳐야 하는 인증 단계에서 수수료 수익이 발생하는데 이와 연계해 다양한 서비스를 추가 제공할만한 여지가 있다는 해석이 나온다.더팩트는 24시간 여러분의 제보를 기다립니다.▶카카오톡: '더팩트제보' 검색▶이메일: jebo@tf.co.kr▶뉴스 홈페이지: http://talk.tf.co.kr/bbs/report/write</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>2022.01.08.</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>자율주행 데이터 레이블링이 뭐길래…100억대 뭉칫돈[이노머니]</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004693637?sid=101</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>[편집자주] 벤처·스타트업 투자흐름을 쫓아가면 미래산업과 기업들에 대한 인사이트를 얻을 수 있습니다. 한 주간 발생한 벤처·스타트업 투자건수 중 가장 주목받은 사례를 집중 분석합니다.[[이주의핫딜]'스마트 레이블링' 에이모, 126억 규모 시리즈A 투자유치]AI 스마트 라벨링 기술 시연 화면/사진제공=에이모오승택 에이모 대표는 1월 5일부터 7일까지 사흘간 미국 라스베이거스에서 개최된 'CES 2022'에 참가해 최신 스마트 레이블링(정제·분류·검수 등 데이터 전처리 과정) 기술 쇼케이스를 진행했다. '스마트 레이블링'은 자율주행과 스마트시티 분야에 필요한 데이터를 인공지능(AI)이 자동으로 레이블링하는 기술이다. 이를테면 거리 풍경 사진에서 자동차, 차선, 보행자, 건물 등의 이미지를 자동으로 구분해 사각형 또는 직육면체로 표시하고 이름을 붙여주는 식이다. 자동차 등에 단순 사각형 표시 후 'car'라고 이름을 붙여주는 레이블링의 경우 사람이 125개 처리할 때 스마트 레이블링은 7200개를 처리할 수 있다. 입체적인 객체를 직육면체로 선택하는 큐보이드 레이블링의 경우엔 사람이 2개 처리할 때 1만8000개를 처리한다.에이모 부스를 찾은 방문자들은 에이모의 AI 학습데이터 가공 기술과 서비스를 통해 기업들이 보유하고 있는 대량의 원천데이터를 보다 유용하게 활용할 수 있을 것 같다며 기대감을 드러냈다.이같은 기술력에 반한 국내 투자자들이 최근 에이모에 126억원(시리즈A)을 투자했다. 이번 투자에는 △DS자산운용 △중소기업은행 △한화투자증권 △S&amp;S인베스트먼트 △토스인베스트먼트 △코리아에셋투자증권 △벤처필드 등 7개사가 참여했다. 앞서 시드·엔젤투자 유치를 포함하면 누적 투자유치금액은 239억원이다.━ 레이블링 시장, 연평균 25%이상 성장…"독보적 기술력으로 고성장 기대"━설립 4년만인 2020년에 1억5500만 달러(약 1867억원) 투자를 유치한 스케일AI(Scale AI)는 2021년 4월 시리즈E 라운드에서 3억2500만 달러(약 3915억원)를 유치했다. 스케일AI는 에이모가 경쟁사로 꼽고 있는 해외 대표적인 데이터 레이블링 기업이다. 데이터 레이블링 시장은 국내외에서 고성장하고 있어 투자자들이 눈여겨 보는 시장이다. 한국데이터산업진흥원에 따르면 국내 데이터산업 시장은 2019년 약 1조7000억원에서 2025년 33조원 규모로 연평균 11.3% 성장할 전망이다. 특히 레이블링 시장규모는 2020년 약 6000억원에서 연평균 28.4%씩 시장이 확대될 것으로 내다봤다. 글로벌 시장 역시 마찬가지다. 그랜드뷰리서치 자료에 따르면 글로벌 데이터 수집 및 레이블링 시장은 2020년 약 1조5000억원에서 2028년 약 9조4000억원으로 연평균 25.6% 성장할 것으로 분석했다.이번 시리즈 A에 참여한 투자사들은 자율주행과 스마트시티 등 진입 장벽이 높은 전문 분야에서 에이모가 독보적인 기술력을 보유하고 지속적인 성장을 하는 것에 주목했다. S&amp;S인베스트먼트 투자심사역은 "코로나19(Covid-19) 사태 이후 모든 산업에서 AI가 활용됨에 따라 AI 시장의 성장은 가속화하고 있다"면서 "AI를 위한 데이터 시장이 급격하게 성장하는 것에 주목했다"고 말했다. 그러면서 "AI 데이터 분야에서 가장 많은 부분을 차지하는 분야가 IT, 자율주행 분야인데 에이모의 경우 해당 분야에 집중해 역량을 키워왔다는 점에서 투자를 결정했다"고 덧붙였다.아울러 에이모의 투자매력 3가지로 △단순 데이터 레이블링 기업이 아닌 자율주행·스마트시티 분야의 명확한 사업모델 구축 △국내외 주요 기업을 고객사 확보해 매출의 질 우수 △글로벌 기업으로의 도약 가능성 입증 등을 꼽았다. ━에이모 지난해 200% 성장..."글로벌 AI 데이터 기업으로 도약"━오승택 에이모 대표/사진제공=에이모2016년 설립된 에이모(옛 블루웨일)는 AI 학습데이터 플랫폼 'AIMMO'를 오픈한 후 자율주행차의 눈 역할을 하는 라이다의 학습데이이터 서비스를 2019년 국내 최초로 선보였다. 이후 베트남을 시작으로 미국과 영국에 현지법인을 설립하고 일본에 영업대리점을 마련하는 등 해외에 적극 진출하면서 국내외 고객사가 50개사에 달한다. 오승택 에이모 대표는 "국내외 경쟁사들과 차별화되는 강점은 크게 세가지"라면서 "딥러닝 기반의 AI 기술을 통해 데이터 레이블링을 빠르고 정확하게 하는 '스마트 레이블링'과 자율주행·스마트시티 특화 AI 데이터 가공 서비스, 그리고 AI 자동 검수 기능 등이다"라고 밝혔다. 에이모는 AI 데이터 전문가가 학습 데이터 프로젝트 설계부터 최종 검수에 이르는 전 과정을 전담해 학습 데이터의 정확성을 보장하는 고품질 학습 데이터 제공 서비스 'GTaaS(Ground Truth as a Service)'를 제공한다. 또 회원가입만 하면 누구나 학습 데이터를 자유롭게 만들 수 있는 가공 플랫폼 '에이모 엔터프라이즈'도 운영 중이다. 특히 투자사들이 주목했던 자율주행·스마트시티 특화 AI 데이터 가공 서비스는 에이모가 자율주행 데이터 수집 차량을 직접 운영하며 얻은 데이터로 검수까지 가능한 솔루션이다. 오 대표는 "현재 AI 데이터 가공과 관련 모든 과정을 원스톱으로 처리할 수 있는 업계 경쟁사는 없다"면서 "그동안 사람에게만 의존하던 검수를 에이모가 독자적으로 개발한 SQIP 기능을 통해 AI가 자동으로 검수한다"고 설명했다.에이모는 이번 투자유치를 계기로 AI를 활용한 데이터 레이블링 기술 연구에 집중해 AI 시장의 데이터 확보와 가공 장벽을 낮출 계획이다. 또 영국과 일본을 중심으로 해외시장 진출에 집중해 글로벌 AI 데이터 기업으로 도약한다는 목표다. [머니투데이 스타트업 액셀러레이팅 미디어 플랫폼 '유니콘팩토리']</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>2022.01.03.</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>[오늘의 설교] 하나님께서 찾는 사람</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/005/0001495857?sid=103</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>사도행전 6장 1~7절초대교회의 큰 부흥을 경험한 뒤 사도들은 말씀을 연구하는 일과 기도하는 일에만 전념하기로 했습니다. 그런데 사도들에겐 일꾼이 필요했습니다. 예루살렘교회 안에 있는 열두 제자로는 많은 일을 감당할 수 없었으니까요. 결국 이들은 집사 7명을 선발했습니다.교회는 세상을 하나님과 화목케 하는 직무를 받았습니다. 성경에는 이렇게 적혀 있습니다. “곧 하나님께서 그리스도 안에 계시사 세상을 자기와 화목하게 하시며 그들의 죄를 그들에게 돌리지 아니하시고 화목하게 하는 말씀을 우리에게 부탁하셨느니라.”(고후 5:19).세상과 하나님을 화목케 하기 위해서는 세상으로부터도 인정받는 사람이 필요합니다. 그렇다면 그런 사람은 어떤 조건을 갖춰야 할까요.하나님께서 찾으시는 사람은 첫째, 성령이 충만한 사람입니다. 일곱 집사를 선택하는 조건 중에 첫째 조건이 ‘성령 충만’입니다. 성령으로 충만한 사람은 하늘에 충성하고, 그로 인해 교회가 성장할 수 있게 만드는 사람입니다. 성령으로 충만한 사람은 육체의 욕심을 좇지 않습니다. 자신의 유익만을 생각하지도 않습니다. 가난하고 소외되고 상처받은 자에게 다가가 복음을 전합니다.하나님이 찾는 사람의 두 번째 조건은 지혜가 충만한 사람입니다. 교회에는 지혜로운 사람이 필요합니다. 어리석은 사람은 교회 일을 하면서 자기 생각을 중심으로만 판단하고 행동합니다. 그러나 지혜로운 사람은 자기중심적으로 생각하지 않습니다. 교회를 섬길 때 지엽적인 것에 몰두하지 않고 교회 전체를 보며 교회를 섬깁니다. 예수님이라면 어떻게 하실까 생각하며 교회 일을 해야 합니다. 하나님의 뜻을 분별하는 지혜가 있어야 합니다.세 번째 조건은 모든 사람에게 칭찬 듣는 사람이어야 한다는 겁니다. 교회에 필요한 사람은 성령과 지혜가 충만해야 하고 그 결과는 사랑으로 나타납니다. 사랑은 모든 것을 초월합니다. 교회의 일꾼은 사람들로부터 칭찬받는 사람이 돼야 합니다. 성도들에게 칭찬받는 사람이 교회 일을 잘 할 수 있습니다. 인격적으로나 신앙적으로 훌륭한 사람이 존경받는 법입니다. 교회에는 이런 사람이 필요합니다. ‘충성’이라는 말은 헬라어로 ‘피스토스’입니다. 헬라어로 ‘믿음’이라는 단어는 ‘피스티스’입니다. ‘피스토스’와 ‘피스티스’는 같은 어근을 가지고 있습니다. 주인을 믿는 믿음과 주인을 향한 충성은 하나라는 뜻일 듯합니다. 주인을 향한 믿음이 있을 때 충성이 따릅니다. 즉, 하나님을 믿는 ‘피스티스’가 있을 때 하나님을 향한 충성 ‘피스토스’가 있게 됩니다. 그래서 히브리서 저자는 “믿음이 없이는 하나님을 기쁘게 할 수 없느니라”고 했습니다. 충성 안에는 자신의 헌신과 희생이 따라야만 합니다.일곱 집사를 뽑아서 일꾼으로 세웠을 때 그 결과가 어땠는지는 7절에 담겨 있습니다. “하나님의 말씀이 점점 왕성하여 예루살렘에 있는 제자의 수가 더 심히 많아지고 허다한 제사장의 무리도 이 도에 복종하니라.”결국은 이로 인해 하나님 나라의 성장이 가능했습니다. 교회의 일꾼들이 세상에서도 칭찬받게 된다면 교회는 그들로 인해 성장하게 됩니다. 여러분 모두 하나님이 찾으시는 일꾼이 돼 여러분의 교회가 놀라운 부흥과 성장을 이루기를 주님의 이름으로 축원합니다.임우성 목사(압구정예수교회)◇압구정예수교회는 하나님의 나라에 궁극적 소망을 두면서도 사회와 민족 문제의 아픔을 외면하지 않고 우리에게 주어진 시대적 사명을 감당하고자 노력하고 있습니다. 유명한 교회보다는 거룩한 교회, 부유한 교회보다는 음지를 살피며 섬기는 교회, 내세울 게 많은 교회보다 매사에 모범이 되는 성경적인 교회를 추구하고 있습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>2022.01.06.</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>대출 재개했다지만…돈 꾸기까지 여전히 '가시밭길'</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/586/0000033241?sid=101</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>당국 "월 단위로 대출 총량 감독하겠다"…월초마다 '패닉 대출' 반복 우려가계대출 총량관리 한도가 올해 '리셋'되면서 대출영업도 재개됐지만 여전히 대출받기는 쉽지 않을 것으로 보인다. 수요는 많은데 대출 총량 한도는 올라가지 않기 때문이다. 월별 총량 규제가 시작되는 점도 '패닉 대출 현상 재발'에 대한 우려를 키운다. 이와 함께 차주별 총부채원리금상환비율(DSR) 강화와 기준금리 추가 인상으로 대출 문턱은 더욱 높아질 전망이다. 전문가들은 대출상품 유형별 금리를 하나하나 확인하는 등 꼼꼼한 대출 전략을 세울 필요가 있다고 조언한다.2021년 12월6일 서울 시내 한 재래시장에 대출 전단이 놓여 있다.ⓒ연합뉴스수요 많은데 총량은 '제자리걸음'주요 시중은행은 이미 대출금리를 낮추고 중단했던 대출상품 판매를 다시 시작한 상태다. 우리은행은 1월3일부터 10개 신용대출과 4개 주택담보대출(주담대) 상품의 우대금리를 최대 0.6%포인트 인상할 예정이다. 우대금리가 높아지면 대출금리는 낮아지는 효과가 있다. NH농협은행도 지난해 8월 이후 중단했던 주담대 상품을 올해부터 다시 판매하고, SC제일은행은 판매를 중단했던 신규 주담대를 재개하기 위해 지난 12월20일부터 사전 신청을 받고 있다.인터넷은행 중에선 지난해 출범 9일 만에 대출을 중단했던 토스뱅크가 다시 영업을 시작했다. 신용대출을 연 3% 금리로 최대 2억7000만원까지 제공하기로 했다. 카카오뱅크도 올해 초 첫 100% 비대면 주택담보대출 상품을 출시한다는 계획이다.하지만 올해도 대출은 '가시밭길'이 될 것으로 예상된다. 우선 당국은 가계부채 증가율 목표치를 지난해 5~6%에서 올해 4~5%로 줄였다. 은행의 대출 총량 한도도 비슷하거나 줄어들 것으로 보인다. 반면 대출 수요는 여전히 많다. 한국은행은 지난 12월 '통화신용정책보고'를 통해 "주택 가격의 높은 오름세가 지속되고 가계대출 수요도 여전히 큰 상황"이라고 진단한 바 있다.당국이 새해부터 기간별 총량 규제 시행을 예고한 점도 문제다. 현재 당국은 연 단위로 각 은행의 가계대출 총량을 관리·감독하고 있다. 이런 방식은 대규모 대출 수요가 발생하는 상황에서 한 해가 끝나기도 전에 은행 한도가 동나는 문제를 일으켰다. 이에 당국은 새해부터 은행으로부터 월별 대출 실행계획을 받아 관리할 계획이다.2021년 11월23일 서울의 한 시중은행 창구의 모습이 대출 규제로 한산하게 느껴진다.ⓒ연합뉴스DSR도 강화…청년·고령층 추가 대출 '막막'당국이 월 단위로 은행 가계대출 관리에 들어가면 매달 초 대출 고객이 크게 몰릴 수 있다는 우려가 제기된다. 연말에 가까워질수록 대출 한도가 줄어 일시적으로 선착순 대출 사태가 종종 발생하는 것을 고려하면 새해에는 매달 이 같은 일이 반복될 수 있다. 대출을 받지 못하면 다음 달까지 기다릴 수밖에 없다. 특히 주담대는 아직 100% 비대면으로 대출이 이뤄지는 비중이 낮다. 월초에 은행 지점에 고객이 몰려 장사진을 이룰 가능성이 있다. 한 시중은행 관계자는 "지난해 당국이 가계대출 조이기에 들어가자 고객들이 갑자기 은행으로 몰렸다"면서 "이를 고려하면 올해 대출 총량 한도가 새로 시작되는 매월 초에 대출 신청이 집중될 수 있다"고 말했다.개인별 총부채원리금상환비율(DSR) 규제도 더 강화된다. 연간 원리금 상환액을 연 소득의 40% 이내로 제한하는 DSR 규제는 이달부터 기존 대출과 신규 대출의 합이 2억원을 초과하는 차주에게 적용된다. 오는 7월부터는 총대출액 1억원 초과 차주로 확대된다. 정부는 지난해 7월 개인별 DSR 40% 규제 적용을 시행했지만, 대상은 조정대상지역 등 부동산 규제 지역의 시가 6억원 초과 주택에 대한 담보대출을 받거나 1억원 초과 신용대출을 받은 차주에게만 해당됐다. 하지만 올해부터는 총대출액 기준으로 규제가 적용된다.예컨대 연봉이 4000만원인 A씨가 조정대상지역의 시세 6억원짜리 아파를 갖고 있으면, 이 차주는 작년까지 주택담보대출(주담대)로 3억원을 받을 수 있었다. 담보인정비율(LTV) 50%만 적용받기 때문이다. A씨가 연 3.5% 이자율의 주담대를 360개월(30년)간 원리금 균등 상환하기로 했다면 연간 상환액은 1608만원이다. A씨는 신용대출을 추가로 받는 것이 가능했다. 하지만 올해부터 A씨는 추가 신용대출이 불가능하다. 총대출 규모가 2억원이 넘기에 DSR 40%가 적용되는데, 이미 주담대 연간 원리금 상환액이 한 해 소득의 40%(1600만원)을 넘어섰기 때문이다. 다만 DSR 40%를 초과했다고 해서 기존 대출을 상환할 필요는 없다.금융위원회가 제공한 자료에 따르면 지난해 9월말 기준 1억원 넘게 대출을 받은 차주는 593만 명에 이른다. 규제가 확대되는 올해 7월까지 전체 차주 수에 큰 변동이 없다면 약 600만 명이 강화된 DSR을 적용받는 셈이다. 더구나 DSR 적용 대상 가운데 20.9%(124만 명)가 20대 이하 청년 또는 60대 이상 고령층으로 나타났다. 이 연령층은 상대적으로 수입이 적기 때문에 추가 대출이 아예 막힐 가능성이 있다.2021년 11월25일 서울 시내 한 은행 외벽에 대출 관련 안내문이 붙어있다.ⓒ연합뉴스중·저신용자는 대출받기 더 수월해질듯강화된 규제에 맞춰 대출을 받으려 해도 금리 상승세는 여전히 대출 문턱을 높이는 요인이다. 작년 하반기 한국은행의 기준금리 인상과 금융 당국의 가계대출 규제 등의 영향으로 주담대 금리는 크게 올랐다. 지난 12월17일 기준으로 KB국민·신한·하나·우리·NH농협 등 5대 시중은행의 변동금리형 주택담보대출 금리는 연 3.84~5.06%로 집계됐다. 지난해 9월말 2.78~4.53%에 비하면 금리 하단이 약 1%포인트 급등했다. 한은은 올해에도 기준금리를 추가로 상향 조정할 것으로 전망된다. 이주열 한은 총재는 지난해 11월 기준금리 인상이 결정된 이후 "(이번 금리 인상은) 긴축이 아닌 정상화"라며 "위기 시 이례적으로 낮췄던 금리 수준은 경기가 개선되면 그에 맞춰 조정하는 게 합당하다"고 밝힌 바 있다.이와 함께 미국 중앙은행인 연방준비제도(Fed·연준)가 올해 세 번의 기준금리 인상을 시사한 점도 금리 상승 가능성을 키우는 대목이다. 금융권에선 한은이 기준금리를 예상보다 더 올릴 수도 있다는 관측이 나온다. 달러와 같은 기축통화가 아닌 원화 입장에서 만약 기준금리 등 정책금리 수준이 미국과 같거나 높더라도 차이가 크지 않으면, 외국인 투자자들의 자금 유출 등이 나타날 수 있기 때문이다.대출 문턱이 높아졌지만 신용평가 점수(KCB) 820점 이하 중·저신용자들은 대출받기가 상대적으로 수월해질 것으로 전망된다. 금융 당국이 올해 은행 가계대출 총량 한도에 중·저신용자 대출은 포함시키지 않기로 했기 때문이다. 고강도 대출 규제 속에서 서민들의 피해를 줄이기 위한 조치다.주요 시중은행은 올해 중·저신용자 대출을 확대할 계획을 세웠다. 당국의 규제로 이전처럼 고신용자 위주로 가계대출 자산을 확보하는 데는 한계가 있어서다. 인터넷은행도 올해 목표치를 달성하기 위해 중·저신용자 대출에 '올인'할 것으로 보인다. 각 은행은 부실 규모 증가를 피하면서 중·저신용자 대출을 늘리기 위해 신용평가모델(CSS) 고도화에 집중한다는 전략이다. 한 시중은행 관계자는 "리스크 관리 측면에서 볼 때 시중은행이 중·저신용자 대출을 대폭 늘리기는 쉽지 않다"면서도 "당국이 이 대출을 강조한 만큼 중·저신용자 가운데 우량차주들을 선별해 대출을 제공하는 데 이전보다 더 관심을 기울일 것으로 예상한다"고 말했다.전문가들 "올해 대출 전략 더 세밀하게 짜야"올해도 은행권 대출 문턱이 여전히 높을 것으로 예상되는 만큼 대출 전략을 더 꼼꼼하게 수립해야 한다고 전문가들은 조언한다. 우선 올해 3월 대통령선거가 예고돼 있는 만큼 '규제 리스크'를 피해야 할 필요가 있다. 각 후보의 부동산·대출 관련 정책이 차이를 보이고 있다. 현행 규제가 시행될 것이 확실한 올해 1~2월 대출을 받는 것이 불확실성을 줄이는 길이라는 설명이다. 지금부터 필요한 자금 규모와 강화된 규제 속에서 대출 가능액을 정확히 파악하고 시행하는 것이 중요하다.이와 함께 DSR 규제에서 제외되는 대출상품들도 꼼꼼히 체크하는 것이 중요하다. 금융 당국은 분양주택에 대한 중도금 대출, 서민금융상품 등 13가지 대출 상품에 대해 DSR 규제를 적용하지 않기로 했다.일반 주담대는 변동형 금리와 고정금리 중 어느 것이 더 유리한지 따져봐야 한다. 은행 주담대 변동금리는 시중금리 상승 영향으로 최고 연 5%를 넘어 혼합형(5년 고정금리 후 변동금리 전환) 금리(지난 12월19일 현재 최고 4.91%)를 역전했다. 정성진 KB국민은행 양재PB센터 팀장은 "금리가 크게 오르는 시기에는 변동형 금리가 고정금리를 역전하는 상황이 벌어지기도 한다"면서 "이러한 상황에선 신규 주담대는 고정형으로 받는 것이 좋다"고 말했다.이와 함께 금리 부담을 낮추기 위해 '대출 갈아타기'를 할 경우 새로 바뀐 가계부채 규제 적용 여부를 반드시 확인해야 한다. 규제 문제 외에도 중도상환해약금 및 대출 신규 시 소모되는 비용 등을 고려해 결정해야 한다. 신한은행 관계자는 "갈아타기로 인해 소모되는 비용이 이자를 아끼는 몫보다 클 수 있다"며 "단순히 금리 때문에 대출 갈아타기를 결정할 경우 주의가 필요하다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>2022.01.12.</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>KB카드 앱 하나로 합친다</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004652182?sid=101</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>결제·관리 기능 'KB페이'로 통합하나·우리카드도 원앱 준비신용카드업계에서 결제와 이용내역 조회 등 기능별로 따로 운영하던 여러 앱을 하나로 통합하는 ‘원앱’ 바람이 불고 있다. 여러 앱을 설치해야 하는 고객 불편을 없애 자체 플랫폼을 활성화하기 위한 전략이다.KB국민카드는 KB국민카드 모바일홈 앱의 주요 기능을 ‘KB페이’ 앱에 통합한다고 12일 밝혔다. 앞으로 모바일홈 앱에서 이용할 수 있었던 결제예정금액 조회, 할부개월 변경, 카드 발급, 이용한도 조회, 결제계좌 변경, 도난분실 등 서비스를 KB페이 앱에서도 이용 가능하다. 송금과 결제가 가능한 선불결제 수단인 KB페이 머니와 KB증권 체크카드도 KB페이에 등록해 온·오프라인에서 사용할 수 있도록 했다. 즉시결제와 더치페이 기능도 선보였다.하나카드는 이르면 올 상반기 원큐페이와 하나카드, 하나멤버스 등 세 앱을 하나로 통합할 계획이다. 롯데카드는 일찌감치 2018년 7월부터 기존 롯데카드 앱(조회 기능)과 롯데앱카드(결제 기능)를 합친 통합 앱 디지로카를 운영하고 있다.우리카드도 통합 플랫폼 구축 작업을 진행 중이다. 이미 우리페이 앱을 우리원카드 앱으로 합쳤다.카드업계 한 관계자는 “토스 등 원앱을 선보인 핀테크에 익숙한 소비자들은 여러 앱을 깔아야 하는 데 번거로움을 느낀다”며 “하나의 앱에 여러 기능을 적용하면 서버가 무거워지고 오히려 앱이 복잡해지는 부작용이 있지만, 고객이 많이 쓰는 기능만이라도 한데 모으려 할 것”이라고 내다봤다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>2022.01.04.</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>마이데이터 시대 개막…내 금융정보 '한 곳'에서 관리한다</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000646149?sid=101</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>1월 5일부터 오후 4시부터 마이데이터 시행 본격화마이데이터 시대가 본격화되면서 개인의 모든 금융정보를 하나의 플랫폼에서 들여다보고 관리할 수 있게 됐다.4일 금융위원회는 다음날인 5일 오후 4시부터 안전한 API방식의 본인신용정보관리업(마이데이터)를 전면 시행한다고 밝혔다.금융위원회 간판  [사진=아이뉴스24 DB]마이데이터란 은행부터 카드사, 핀테크, 통신사까지 여러 기관에 흩어진 개인정보를 한 곳에 모아 통합 관리할 수 있는 서비스를 말한다.흩어진 다른 기관의 개인정보까지 불러올 수 있는 방법은 오픈 API다. 오픈 API란 개인정보 등의 데이터를 외부에 공개해 공유하는 프로그램으로 하나의 금융기관에서 다른 금융기관 정보까지 연동할 수 있도록 돕는 역할을 한다.이를 통해 고객은 흩어진 내 모든 정보를 한 곳에서 사용할 수 있게 됐다. 이를테면 A은행이 마이데이터 서비스를 출시하며 고객에게 정보 제공 동의를 구하면 고객은 은행부터 카드, 보험, 증권, 통신, 공공거래내역 중 총 50개 항목의 정보를 신청 가능하다. 고객은 서비스와 요구에 맞게 자신이 원하는 정보만 불러올 수 있는 셈이다.이때 중요한 건 해당 금융기관의 다른 금융거래 내역까지 모두 제공하는 만큼 믿고 넘길 수 있는 보안의 안전성이다.API시스템은 기존에 사용하던 개인정보 탈취 위험성이 있는 스크래핑 방식고 달리 어떤 데이터가 언제 전달됐는지 기록에 남아 보안성이 뛰어나다.금융위는 그간 마이데이터 시행을 위해 소비자보호를 강화하고 정보제공범위를 확대해 편의성을 늘리는 동시에 인증절차를 간소화해 편의성을 확대했다. 또 건전한 경쟁질서 유지를 위해 과도한 경품지급 등을 제한키도 했다.중소 마이데이터 사업자의 부담을 경감해주기 위해 중계기간 이용확대와 대체식별값 확보를 지원했으며 이달까지 과금과 API의무화를 유예해주고 있다.지난달 1일부터 시범운영을 시작한 마이데이터 서비스는 내일 기준 33개사가 서비스를 시작한다. 핀테크업계선 토스와 네이버파이낸셜, NHN페이코, SK플래닛, 핀다 등이 새로 합류한다.금융위는 시스템과 트래픽 안정화, 서비스 완결성 및 소비자 이용편의 제고 등을 위해 지난달부터 운영한 시범서비스 기간 동안 나타난 개선사항을 신속하게 보완했다.구체적으로 ▲시스템안정화 ▲데이터 정합성 제고 ▲이용편의 개선 등을 추진했다.아울러 이번에 합류하지 않은 마이데이터 사업자 21개사는 관련 시스템과 애플리케이션(앱) 개발 등을 거쳐 올해 상반기중 참여할 예정이다.또 대부업체 등을 제외한 제도권 금융 회사 등 417개사 정보는 내일부터 볼 수 있으며 국세청 국세 납세증명을 제외한 납세내역과 4대보험 납부내역 등 공고정보도 상반기중 제공할 계획이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>2022.01.03.</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>토스, QR 접종증명 개선…부스터샷 경과일·완치여부 확인 가능</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0012894922?sid=101</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>토스 QR, '백신 접종 경과 기간' 보이게 업그레이드[비바리퍼블리카 제공=연합뉴스]    (서울=연합뉴스) 한혜원 기자 = 토스는 신종 코로나바이러스 감염증(코로나19) 백신 접종 QR 증명서를 띄우면 최신 접종 후 경과 기간을 바로 알 수 있도록 QR 서비스를 개선했다고 3일 밝혔다.     토스 애플리케이션(앱)을 업데이트하고 QR 접종 증명서를 이용하면 백신 3차 접종(부스터샷) 여부, 2차 접종(얀센은 1차) 후 경과 시간을 메시지로 확인할 수 있다.     방역패스 유효기간인 접종 14일 이후부터 180일 이내를 지키는 접종 계획을 세울 수 있도록 도우려는 것이라고 토스는 설명했다.     그동안 종이로만 발급이 가능했던 완치확인서, 접종 예외 확인서도 종이 없이 QR 체크인으로 증명할 수 있다.     hye1@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>2022.01.08.</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>‘주주가치 훼손’ 논란에도 끊이지 않는 물적분할</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/028/0002574749?sid=102</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>[한겨레S] 김수헌의 투자 ‘톡’물적분할과 주주이익지난해 서울 여의도 엘지(LG)트윈타워에서 열린 엘지화학 주주총회에서 주주들이 입장하기에 앞서 체온을 재고 있다. 연합뉴스한국상장회사협의회가 물적분할 제도 손질에 기본적으로 찬성한다는 입장을 밝혔다. 물적분할 신설 회사가 증권시장에 상장할 때, 모회사 주주에게 우선청약권을 주는 방안을 일단 제시했다.더불어민주당과 국민의힘 등 정치권은 이미 지난해 말 발표한 주식시장 제도 개선 방안에 물적분할 상장 시 주식배정 안을 포함시켰다. 가장 힘센 여야가 한목소리를 내니 제도 수정 가능성은 이미 높아진 상태였다.이런 상황에서 상장사 이익을 대변하는 경제단체가 최신 리포트(물적분할 뒤 동시상장 이슈와 시사점)를 통해 우선청약권 부여를 대안으로 제시했다는 점은 의미가 있다. 신중한 접근을 전제로 달았으나 신주인수권 부여 가능성도 대안으로 언급하였다. 이로써 말도 많고 탈도 많은 물적분할 제도는 손질될 것이 확실해졌다.“모회사 주주 피해” 논란 불구엘지 배터리 비롯 분할 잇따라‘주주가치 훼손’ 상징처럼 낙인찍혀몇년 전만 해도 필자가 기업공시 강의를 다닐 때면 기업분할을 설명하느라 많은 시간을 할애해야 했다. 이제는 그럴 필요가 없어졌다. 최근 경제 유튜브에 출연했더니, 진행자가 “모든 국민이 기업분할 전문가가 되었다”고 말했다. ‘모든 국민’은 과장된 표현이긴 하지만, ‘모든 주식투자자’로 바꾼다면 얼추 맞을 듯하다.모든 주식투자자를 기업분할 전문가로 만든 시발점은 2020년 9월 엘지(LG)화학의 배터리 사업 분할 공시다. 주가가 급락하면서 ‘물적분할+상장’은 주주가치 훼손의 상징으로 낙인찍혔다.기업에서 어떤 사업 부문을 떼내 새 회사를 만드는 것을 분할이라 한다. 분할은 떼낼 사업 부문에 속하는 자산과 부채를 결정하는 것으로 시작한다. 엘지화학의 배터리 사업 분할회사(엘지에너지솔루션, 이하 엘지엔솔)는 자산과 부채를 넘겨받고 주식을 발행한다. 주식을 모두 엘지화학에 배정하여 두 회사가 100% 모자(母子) 관계를 형성하면 ‘물적분할’이 된다. 주식을 엘지화학 기존 주주들에게 지분율대로 배정하면 ‘인적분할’이다.물적분할은 원래 기업이 구조조정이나 사업재편을 위해 많이 활용하는 수단이었다. 해태제과는 2020년 1월 아이스크림 사업을 물적분할했다. 아이스크림 사업 적자 지속으로 전사 재무구조가 악화하자 분할 매각이라는 결단을 내렸다. 빙그레가 해태아이스크림 지분 100%를 인수했다. 지분양수도로 간편하게 부실 사업 부문을 정리한 셈이다.엘지유플러스는 회사 비핵심인 전자결제 사업을 물적분할하여 토스에 매각했다. 건설 업체 아이에스(IS)동서는 폐기물 처리 사업을 미래 주력으로 키우기 위해 요업 사업 부문을 물적분할했다. 사모펀드에 매각한 자금으로 폐기물 업체를 인수했다.물적분할은 한편으로 합작회사를 만들기에 요긴한 수단으로 활용되기도 했다. 에스케이씨(SKC)가 화학 사업을 물적분할한 뒤 지분 49%를 쿠웨이트 피아이시(PIC)에 매각한 것이 대표적인 사례다. 물적분할 회사는 ‘SKCPIC’라는 사명으로 51 대 49 합작사가 되었다.사실 에스케이씨의 이러한 조치는 동박 사업 진출 자금 마련을 위한 것이기도 했다. 피아이시로부터 받은 5600억원은 에스케이씨가 글로벌 사모펀드로부터 동박 업체를 인수하는 데 필요한 자금으로 사용되었다. 이 회사가 지금의 에스케이넥실리스다.물적분할 합작 사례는 드물지 않다. 엘지전자는 지난해 전장 사업 일부를 물적분할하여 100% 자회사를 신설했다. 이 가운데 49%를 글로벌 자동차 부품 업체인 캐나다 마그나에 매각했다. 이렇게 출범한 합작법인이 엘지마그나이(e)파워트레인이다. 글로벌 기업과의 합작으로 전장 사업을 더 키우기 위해 선택한 방법이 물적분할이었다.물적분할과 함께 신설 자회사의 증권시장 상장 계획을 동시에 밝힌 것은 아마 엘지화학이 처음이 아니었나 싶다. 당시 엘지화학 시가총액에서 배터리 사업이 차지하는 비중을 시장에서는 약 70~80%로 평가했다. 당연히 배터리 사업에 대한 기대로 엘지화학에 투자한 주주들이 많았다. 주주 입장에서는 물적분할 때문에 배터리 사업(엘지엔솔)을 간접지배하게 되었으니 상실감이 컸다.엘지엔솔은 이달 기업공개(IPO) 과정에서 신주 발행으로 약 10조원을 조달한다. 엘지화학과 주주들의 지배력은 그만큼 희석된다. 엘지화학 주주들이 엘지엔솔 주식을 직접 가지기 위해서는 다른 신규 투자자들처럼 공모에 참여하는 것 외에는 달리 도리가 없다. 이렇게 모회사가 상장되어 있는 상태에서 자회사까지 상장하면, 모자 동시상장에 따른 모회사 디스카운트가 나타날 가능성이 높다.엘지화학 쪽은 엘지엔솔이 상장되어 시가총액이 올라가면 엘지화학의 가치도 상승할 것이고, 이는 엘지화학 주주가치에도 도움이 된다고 설명한다. 문제는 자회사 가치 상승이 모회사에 온전히 반영되지 않는다는 점이다.대표적인 사례로 에스케이케미칼이 많이 거론된다.에스케이케미칼은 백신사업부를 물적분할하여 에스케이바이오사이언스를 설립한 뒤 증시에 상장하였다. 에스케이바이오사이언스 시총이 20조원을 넘어설 때도 지분 68%를 가진 에스케이케미칼의 시총은 4조원 안팎에 머물렀다. 20조원의 68%면 단순계산으로 13조6000억원이다. 여기서 70%를 할인하여도 4조원 수준이다. 에스케이케미칼 자체 영업가치를 전혀 반영하지 않은 채 자회사 지분가치를 무려 70%나 할인하였을 때의 시총에 해당한다. 이 정도면 자회사 지분가치가 모회사에 거의 반영되지 않은 수준이라고 하여도 할 말이 없다. 그래서 에스케이케미칼에 투자한 싱가포르 헤지펀드는 차라리 에스케이바이오사이언스 지분 일부를 팔아 주주들에게 배당하라고 요구한다.기존 주주 우선청약권 등 제안말 많던 물적분할제 손질될 듯논란에도 이어지는 물적분할그래서 주주들은 물적분할에 그치지 않고 상장으로까지 나아갈 경우 주주가치가 크게 훼손된다고 주장한다. 이런 와중에 만도, 씨제이이엔엠(CJENM), 엔에이치엔(NHN) 등이 잇달아 물적분할에 나서자 논란은 끊이질 않았다.결국 대선을 앞둔 정치권이 제도 개선안을 들고나오기에 이르렀다. 여야 정치권의 개선안을 에스케이온(에스케이이노베이션의 배터리 사업 물적분할 회사)에 적용해보자.에스케이온 상장을 위한 기업공개 공모 과정에서 기존 에스케이이노베이션 주주들에게 공모주 청약우선권이나 공모신주인수권을 부여한다. 청약우선권은 말 그대로 먼저 청약할 수 있는 권리를 주겠다는 것이다. 청약을 포기하면 그로써 그만이다. 신주인수권증서 부여는 좀 다르다. 청약을 포기하더라도 다른 청약 희망자에게 이 증서를 매각할 수 있다. 상장회사협의회의 제안은 우리사주조합에 공모주식을 우선배정하는 현행 기업공개 방식을 적용하자는 것이다. 신주인수권증권 발행분배도 언급하였으나 적극적인 입장으로 보이지는 않는다. fntom@naver.com주말뉴스 &lt;s-레터&gt;로 손쉽게 보세요.☞구독하기 https://page.stibee.com/subscriptions/151115국제경제전문 미디어 ‘글로벌모니터’ 대표. &lt;기업공시완전정복&gt; &lt;이것이 실전회계다&gt; &lt;하마터면 회계를 모르고 일할 뻔했다&gt; &lt;1일 3분 1회계&gt; &lt;1일 3분 1공시&gt; 등을 저술했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>2022.01.08.</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>방역 패스 QR 코드 인증 우회 시도 극성</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/022/0003655577?sid=102</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>네이버 측 “방역당국과 꼼수 행위 막기 위한 기술적 조치 하고 있다”    '방역패스(접종증명·PCR음성확인)'에 백신 유효기간을 적용한 3일 관람객들이 큐알(QR) 코드 스캔과 방역패스 유효 상태를 체크하고 있다. 뉴스1    정부의 '방역패스' 조치 이후 QR 코드 인증을 우회하려는 시도와 이를 막으려는 창과 방패의 싸움이 이어지고 있다.    네이버는 타인의 아이디(ID)를 이용한 QR 체크인을 막기 위해 인증 절차를 강화했으며, 당근마켓은 백신 인증 ID 판매를 막기 위해 인공지능(AI) 필터링 기술을 이용하고 있다. 그러나 여전히 꼼수 인증이 이어져 정부 당국과 업계의 지속적인 노력이 필요하다는 지적이 나온다.   8일 뉴스1과 업계에 따르면 네이버는 최근 타인의 명의를 도용한 QR 체크인을 방지하기 위한 기술적 조치를 강화했다. 지난해 12월13일 방역패스 의무화 직후 백신 접종 인증이 된 타인 계정으로 쉽게 QR 코드를 생성할 수 있다는 지적이 나오자 문제 개선에 나선 모습이다.   당시 네이버 앱의 경우 코로나19 백신 접종 완료자 ID로 다른 기기에서 로그인해도 추가 인증 절차 없이 백신 접종이 인증된 QR 체크인 기능을 이용할 수 있었다. 이 때문에 백신 미접종자가 QR 인증을 할 수 있어 방역패스에 구멍이 생겼다는 문제 제기가 이어졌다.   현재 네이버는 강화된 인증 절차를 적용하고 있다. 다른 기기에서 새로 로그인할 경우 접종 정보가 바로 발급되지 않으며, 네이버 인증서를 통한 보인 확인 절차를 거쳐야 한다. 문자 인증, 본인 계좌 확인 등의 절차를 거쳐야 인증서가 발급되고, 이전 기기에서는 해당 인증서를 사용할 수 없다. 1기기 1인증서 정책을 적용해 백신 인증 QR 코드를 쉽게 생성하지 못하도록 막았다.   백신 접종 ID 판매 글이 올라와 논란이 됐던 당근마켓은 AI 머신러닝 기술을 활용한 필터링 기술로 대응하고 있다. 지난달 16일 백신 접종 완료자 네이버 ID를 5만원에 빌린다는 거래 글이 올라왔을 때도 해당 게시글은 1분 만에 미노출 처리됐다.   이처럼 불법 거래 글이 쉽게 노출되지 않는 환경이 갖춰지자 현재 당근마켓에서 백신 접종 ID 거래 시도 자체가 미미한 것으로 알려졌다. 네이버 역시 백신 접종 ID 거래에 대응하고 있다. 키워드 모니터링 등을 통해 삭제 조치를 하고 있다.   방역 당국 차원에서도 QR 체크인 서비스에 대한 기술적 가이드라인을 통해 꼼수 인증 대응에 나서고 있다. 질병관리청 중앙방영대책본부는 지난 3일 코로나19 백신 2차 접종(얀센은 1차 접종) 후 180일이 지났을 경우 추가 접종을 하지 않으면 식당·카페 등 다중이용시설을 이용할 수 없는 방역패스 유효기간 적용에 앞서 지난달 31일 전자출입명부 앱 시스템을 개선했다.   질병청에서 운영 중인 쿠브(COOV) 앱 및 네이버, 카카오톡, 토스, 통신 3사 패스(PASS) 앱에는 QR 표시에 파란색의 흐르는 테두리가 적용됐다. QR 코드 화면을 캡처해 이용하는 것을 막고, 유효한 접종 증명을 쉽게 확인할 수 있도록 한 조치다.   카카오톡의 경우 서비스 특성상 다른 기기에서 타인의 계정을 이용한 로그인 자체가 쉽지 않다. 다른 스마트폰에서 카카오톡에 로그인할 경우 이전 폰에서 카카오톡 대화 내용이 초기화되며, 접종 증명도 연동되지 않는다. 단, 현재 아이폰의 경우 QR 코드 캡처가 가능한 상태다.   그러나 방역패스를 우회하기 위한 시도는 지속되고 있다. 특히 여러 앱에서 접종 증명서를 발급받을 수 있다는 점이 허점으로 지적된다.   이에 대해 방역 당국은 한 서비스에서 기능 장애가 발생했을 때 다른 앱에서 QR 체크인을 이용할 수 있도록 사용자 편의를 고려한 것이라면서도 방역패스 위변조를 지속해서 모니터링하고 있다는 입장이다.   또 접종 증명서를 도용할 경우 공문서 위·변조죄에 해당돼 10년 이하 징역에 해당하는 형사 처벌을 받을 수 있다고 경고하고 있다. 형법에 따르면 공문서 부정 사용 시 2년 이하의 징역이나 금고 또는 500만원 이하의 벌금에 처할 수 있다.   네이버 관계자는 "어뷰징 행위를 100% 차단할 수 있다고 장담하긴 어렵지만, 이는 위법 행위에 해당하며 현재 정부 당국, 질병청과 꼼수 행위를 막기 위한 기술적 조치를 지속하고 있다"고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>2022.01.03.</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>방역당국 "방역패스 유효기간, 불편하지만 꼭 필요"</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0010924489?sid=102</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>기사내용 요약방역패스 유효기간, 2차 접종 후 180일유효하면 "접종 완료자"…아니면 "딩동"[청주=뉴시스] 안성수 기자 = 코로나19 백신 접종증명·음성확인제(방역패스) 유효기간 제도가 시행된 3일 오후충북 청주시의 한 식당에서 접종 유효기간이 90일 남은 시민이 출입 인증을 하고 있다. 유효기간은 2차 접종 이후 180일까지이며, 이 기간이 경과하면 유효한 접종으로 인정받을 수 없다. 2022.01.03. hugahn@newsis.com[서울=뉴시스] 강지은 기자 = 방역당국은 3일부터 코로나19 백신 접종증명·음성확인제(방역패스) 유효기간이 적용된 데 대해 "다소 불편함이 있을 수 있겠지만 꼭 필요한 조치라고 생각한다"고 밝혔다.이상원 중앙방역대책본부(방대본) 역학조사분석단장은 이날 정례 브리핑에서 "오늘부터 방역패스 유효기간이 적용되고, 앞으로 일주일간은 계도기간"이라며 이같이 말했다.방대본에 따르면 방역패스 유효기간은 2차 접종(얀센은 1차 접종) 이후 180일까지이며, 이 기간이 경과하면 유효한 접종으로 인정받을 수 없다.이에 따라 이날 기준으로 7월6일 이전에 2차 접종을 받은 사람은 3차 접종을 받거나 유전자증폭(PCR) 검사 음성 확인 등을 통해 감염 전파력이 없다는 사실을 증명해야 한다.이날부터 방역패스 유효기간이 적용되면서 이용자가 방역패스 적용시설 이용 시 QR코드로 방역패스를 스캔하면 유효한 접종 증명일 경우 "접종 완료자입니다"라는 음성 안내가 나온다. 현재 방역패스 적용 시설은 ▲유흥시설 등(유흥주점, 단란주점, 클럽(나이트), 헌팅포차, 감성주점, 콜라텍·무도장) ▲노래(코인)연습장 ▲실내체육시설 ▲목욕장업 ▲경륜·경정·경마/카지노(내국인) ▲식당·카페 ▲학원 등 ▲영화관·공연장 ▲독서실·스터디카페 ▲멀티방 ▲PC방 ▲스포츠경기(관람)장(실내) ▲박물관·미술관·과학관 ▲파티룸 ▲도서관 ▲마사지업소·안마소 ▲상점·마트·백화점(3,000㎡ 이상) 등이다.반면 유효하지 않은 접종 증명의 경우 "딩동" 알림음만 울린다. 이 경우 시설 관리자는 이용자의 예방접종증명서나 PCR 음성 확인서, 격리해제확인서, 예외확인서를 확인해야 하며 없으면 이용 불가를 안내해야 한다.[광주=뉴시스] 변재훈 기자 = '방역 패스'(접종증명·음성확인제)' 유효 기간 제도 시행 첫 날 3일 광주 북구 모 카페에서 한 손님이 QR코드를 이용해 백신 접종 인증을 하고 있다. 2022.01.03. wisdom21@newsis.com다만 오는 9일까지는 계도기간이어서 방역패스 위반으로 과태료 등 행정 처분이 내려지지는 않는다. 10일부터는 계도기간이 종료돼 유효하지 않은 방역패스로 다중시설을 몰래 이용하다 적발되면 과태료 10만원이 부과된다.이 중 상점·마트·백화점 등 대규모 점포의 방역패스 적용은 10일부터 시행하고, 16일까지 계도기간을 부여한다.3차 접종력과 2차 접종 후 경과일은 코로나19 전자예방접종증명(COOV·쿠브)뿐 아니라 네이버와 카카오, 토스 등 민간 플랫폼에서도 확인할 수 있다. 3차 접종자는 앱을 업데이트한 후 본인의 접종정보를 직접 갱신해야 한다. 갱신하지 않으면 3차 접종력이 입력되지 않아 기본접종 이후 유효기간 6개월이 만료된 것으로 잘못 인식될 수 있다.이 단장은 "지금까지 그래왔듯이 국민 여러분의 협조가 없이는 어떠한 방역 조치도 성공할 수가 없다"며 "3차 접종에 적극 참여해주시고 손 씻기, 마스크 쓰기 같은 기본 방역 수칙을 철저히 지켜달라"고 거듭 당부했다．</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>2022.01.03.</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>[현장클릭] 금융위원장은 왜 ‘해금법’을 언급했을까</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004766084?sid=101</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>"15세기 중국 명나라는 뛰어난 항해술을 갖췄으나 해금법으로 인해 대양강국으로 발돋움할 기회를 놓쳤다고 평가된다."   고승범 금융위원장의 올해 신년사중 한 대목이다. 빅테크와 핀테크의 영역 확장 속도가 늘어난 가운데 규제 방향을 어떤식으로 가져갈지 고민한 흔적이 엿보인다.   해금법은 중국 명나라와 청나라 당시 황제가 쓰던 강력한 규제 무기중 하나였다. 민간 해상무역 시장이 타깃이다. 상황에 따라 그 정도를 달리 했으므로 해금령으로 잘 알려져 있다. 당시 해적이나 왜구 등 외세로부터 경제 장악력을 뺏기지 않기 위한 고육책이었다.   조공무역과 달리 민간 해상 무역은 통제가 어려웠다. 조공무역은 주변 국가들이 배를 타고 황제를 만나 물자를 건네주고, 황제 역시 하사품을 건네주는 방식으로 그 주기와 물량까지 어느정도 통제가 가능했다. 하지만 민간 무역이 활성화해도 당시엔 이를 적절히 파악하거나 통제할 길이 없으니 아예 이를 금지한 것이다.   역사는 해금령의 두가지 역효과를 지적한다. 초기엔 먹히는 듯 했지만 밀무역이 늘어나 지하경제 규모가 커졌고, 항해술 또한 크게 쇠퇴시켰다. 곳곳의 지역 특산물을 내다 팔려면 당시 해상무역은 필수적이었다. 서양보다 앞서갔던 조선기술과 항해술은 발전 속도가 급격히 떨어졌다. 명나라 말기에 가서야 해금령을 일시적으로 해제했지만 민간 무역 쇠퇴로 당시세수마저 급격히 줄어든 후였다.   국내 규제는 해금령 만큼 강력할까. 예단하긴 어렵지만 혁신산업에 척박한 환경이라는데는 재론의 여지가 없다. 지난해 제3인터넷은행인 토스뱅크가 출범했지만 허용된 초기 대출 금액은 5000만원이었다. 전 금융권이 참여하는 대환대출 플랫폼은 당국이 하반기 론칭을 목표로 세웠지만 좌초됐다. 전자금융법 개정안은 여전히 정무위원회에 계류중이다. 금융소비자보호법으로 인해 보험 핀테크업체들의 비교추천 서비스는 막혀 있다. 기술 만능주의가 답은 아니다. 하지만 소비자 편익을 고려한다면 합리적 규제 방안에 대한 속도감 있는 고민이 필요한 시점이다.   ksh@fnnews.com 김성환 차장</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>2022.01.06.</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>토스, 스타트업 경진대회 개최...총 10억 투자</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002244243?sid=105</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>23일까지 접수모바일 금융서비스 '토스'를 운영하는 '비바리퍼블리카'가 투자 유치금 10억원 규모의 스타트업 경진 대회 '파운드(FOUND)'를 개최한다고 6일 밝혔다.참가 신청은 이번 달 23일까지 대회 홈페이지를 통해 할 수 있다. 예비 창업자나 기존 스타트업 운영사 모두 지원 가능하며, IT기술이 접목된 세상을 바꿀 수 있는 아이디어를 가졌다면 누구나 지원할 수 있다. 지난 12월 시작된 사전 신청에는 이미 600여팀이 참여의사를 밝혔다.토스는 1월말 서류 심사를 통해 본선 진출팀을 선정하고, 3~4월 본선을 치러 최종 우승팀 세 곳을 선정할 예정이다. 이들에게는 총 10억 규모의 투자가 차등적으로 이루어지며, 대회 종료 이후에도 성장을 위한 코칭 및 파트너십 등의 혜택이 주어진다.토스의 이승건 대표와 서현우 전략총괄을 포함해, 국내 유명 VC와 스타트업계 대표들이 심사위원으로 참여한다. 심사위원들은 세 그룹으로 나뉘어 자신들이 선정한 후보들을 직접 멘토링하며, 우승을 놓고 경쟁하게 된다.이번 경연 과정은 총 6회 분량의 영상으로 제작되며 토스 유튜브 채널을 통해 스트리밍 될 예정이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>2022.01.15.</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>"연이자 100만원 덜 낸다면"…1억대출 김과장 찾는다는 이곳 [슬기로운 금융생활]</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004909277?sid=101</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>사진=게티이미지뱅크 [김혜순의 슬기로운 금융생활] 금융당국의 강력한 가계대출 규제로 시중은행 대출 금리가 고공행진하면서 단위농협 신협 새마을금고 등 상호금융보다 높아지는 현상이 나타나고 있다. 저축은행과의 대출 금리 차도 최저치로 좁혀졌다. 제1금융권에서 저금리로 대출받기 어려운 상황이라면 제2금융권에서 대출 조건을 알아보는 것도 좋은 방법이다.한국은행 경제통계시스템에 따르면 지난해 11월 신규 취급액 기준 상호금융권 신용대출 가중평균금리는 연 4.17%인 데 반해 은행권은 5.16%다. 은행권 대출 금리가 1%포인트가량 높다. 1억원을 대출받았다면 연간 이자 부담이 약 100만원 차이가 난다.통상 제2금융권 대출 금리는 은행권보다 높았는데 지난해 2월 금리가 역전된 이후부터 은행권 신용대출 금리가 더 높은 상태로 유지되고 있다.주택담보대출 금리도 상호금융권이 3.31%, 은행권이 3.51%로 상호금융권이 0.20%포인트 낮은 것으로 나타났다.지난해 11월 신규 취급액 기준 상호저축은행 가중평균금리는 9.32%로 은행권(5.16%)과 대출 금리 차이가 4.16%포인트로 나타났다. 이는 2009년 12월(5.3%포인트) 이후 11년11개월 만에 경신된 최저 격차다. 시중은행과 저축은행 대출 금리 격차는 2019년 8월 이후 7%포인트대였다. 지난해 6월부터 6%포인트대로 좁혀졌다.신용점수가 800점을 초과한다면 저축은행에서도 한 자릿수 금리로 신용대출을 받을 수 있다. 저축은행중앙회 공시에 따르면 지난해 11월 신규 취급액 기준 IBK저축은행은 나이스평가정보 신용점수 900점 초과 차주(대출받는 사람)에게는 평균 5.98%, 800점 초과 차주에게는 8.23% 금리로 대출을 내줬다. 같은 기간 NH저축은행은 신용점수 900점 초과 차주에게는 평균 6.29%, 800점 초과 차주에게는 8.02% 대출 금리를 적용했다. 신한저축은행은 900점 초과는 평균 7.7%, 800점 초과는 9.31%의 금리를 적용했다.신용점수가 더 낮은 편이라면 정책금융 상품인 햇살론·사잇돌 대출을 알아보는 방법도 있다. 2월부터 햇살론 대출 한도가 500만원씩 늘어난다. 근로자햇살론은 2000만원, 햇살론뱅크는 2500만원까지 대출 한도가 상향된다. 햇살론 대출 대상자의 기본 소득 요건은 '연소득 3500만원 이하 또는 4500만원 이하이면서 개인 신용평점 하위 20%'다. 사잇돌2는 중·저신용 거래자에게 중금리 대출 상품 공급을 목적으로 SGI서울보증과 연계해 취급하는 저축은행 중금리 보증대출 상품이다.근로소득자인 경우 5개월 이상 재직을 유지한 사람 중 연소득이 1200만원 이상이면 사잇돌2 대상자에 해당된다. 저축은행에 따라 금리는 다르지만 지난해 3분기 기준 신용평점 600점대 차주는 평균 13.89% 금리로 사잇돌2 대출을 받았다. 서울·부산에서 사업장을 운영하는 중소상공인이라면 일부 저축은행에서 햇살론보다 더 낮은 금리로 대출을 받을 수 있다.서울에서 사업장을 운영하는 업력 1년 이상 신용 1~6등급의 중·소상공인이라면 SBI·OK·웰컴저축은행에서 6.5% 이내 금리를 제공받을 수 있으며 신규 대출 기준 3000만원 한도에서 대출 금액의 95%를 서울신용보증재단으로부터 보증받을 수 있다. 부산에서 사업장을 운영하는 중소상공인이라면 신용평점과 무관하게 IBK·BNK·고려저축은행에서 5.5~7.5%의 금리로 대출받을 수 있다. 마찬가지로 신규 대출 기준 3000만원 한도에서 대출 금액의 95%를 부산신용보증재단이 보증한다.대출 비교 플랫폼을 이용하면 본인에게 더 유리한 상품을 찾기 쉽다. 정보 부족으로 2금융권만 이용하던 사용자가 금리 비교 서비스를 이용해 1금융권 대출 문턱을 넘기도 한다. 지난해 기준 2금융권 기대출 보유 고객 중 토스 대출 금리 비교 서비스를 통해 1금융권 대출을 실행한 규모는 1만5000건 이상, 대출 금액은 약 2200억원이었다. 대출 금리 비교 서비스는 주말보다 평일, 새벽보다 오후에 이용해야 유리하다. 금융사들의 영업시간을 고려해 평일 오후에 본심사에서 최적의 결과를 받아볼 수 있기 때문이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>2022.01.11.</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>[MK 추천매물] 용인 원삼면 사업용지 3.3㎡당 260만원</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004907617?sid=101</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>MK 추천매물은 매경비즈 부동산센터 각 지역 회원사에서 추천한 매물입니다.상담/문의 ◇강남구 중심상권 대로변 신축 용지=유동인구가 풍부한 대로변 사거리 코너의 대지 800㎡인 신축 용지가 290억원이다. 사옥 및 전시장용으로 건축할 수 있다. 서초 제이에스부동산중개 차상혁 등록번호 9251-8842◇청주시 대로변 상업지역 코너 빌딩=일반상업지역의 대지 3000㎡, 연면적 1만㎡인 12층 건물이 190억원이다. 보증금 8억5000만원, 월 1억5500만원이며 투자용으로 적합하다.강남 스카이부동산중개 허봉환 등록번호 9251-6672◇중구 신당동 투자·수익용 신축 빌딩=약수역세권에 위치한 대지 142㎡, 연면적 455㎡인 7층 신축 건물이 65억원이다. 보증금 2억8000만원, 월 1500만원에 근린생활시설, 사무실로 임대됐다. 강남 리얼티코리아중개 유진석 등록번호 9250-11288◇강남구 신축 사옥 빌딩=외관이 수려한 대지 200㎡, 연면적 600㎡인 6층 건물이 90억원이다. 보증금 2억원, 월 1500만원에 커피전문점 등으로 장기 임대됐으며 투자용으로 적합하다.강남 (주)더빌딩중개법인 이웅렬등록번호 11680-2020-000034◇양평 용문역세권 수익형 신축 빌딩=베이커리카페, 병·의원 등으로 성업 중인 대지 640㎡, 연면적 2097㎡인 건물이 45억원이다. 융자 28억원, 보증금 2억6000만원, 월 1600만원에 임대됐다. 경기 광주 지인공인 김범철등록번호 가118-1811◇영등포구 역세권 사옥용 빌딩=비즈니스 중심지역의 대지 1358㎡, 연면적 3847㎡인 8층 건물이 400억원이다. 기업 사옥으로 임대 중이며 역세권 소규모 개발도 가능하다.강남 에스비부동산중개(주) 김안호 등록번호 11680-2019-00063◇용인 원삼면 고당리 개발사업용지=SK반도체 클러스터에 접한 임야와 대지 2만3870㎡가 3.3㎡당 260만원이다. 대규모 상업시설이나 타운하우스, 다가구 주택 등으로 건축할 수 있으며 분할매매도 가능하다.용인 원삼SK신도시공인 김효원 등록번호 41461-2021-00013◇강남구 역세권 사옥용 빌딩=유동인구가 풍부한 삼성동의 대지 1350㎡, 연면적 4500㎡인 건물이 870억원이다. 주차 50대 가능하다. 서초 토스부동산중개 손미영등록번호 11650-2019-00249◇송파구 역세권 투자·사옥용 빌딩=역세권에 위치한 대지 600㎡, 연면적 1800㎡인 9층 건물이 160억원이다. 보증금 5억원, 월 3800만원이며 주차 15대 가능하다. 강남 시너지부동산중개법인 최학성 등록번호 11680-2019-00456◇세종시 사거리 코너상가=유동인구가 풍부한 횡단보도 앞 1층 전용면적 100㎡인 점포가 13억5000만원이다. 관공서에 인접했으며 편의점 등으로 적합하다. 평택 천억공인 최문희 등록번호 41220-2017-10068◇강남구 도산대로 메디컬빌딩=신사동 메인 상권의 대지 822㎡, 연면적 3661㎡인 지하 2층, 지상 8층 건물이 620억원이다. 보증금 20억원, 월 1억8000만원이며 주차 46대 가능하다. 강남 (주)더빌딩중개법인 이웅렬 등록번호 11680-2020-000034 하남시 역세권 대로변 병원 상가 ◇하남시 역세권 대로변 병원 상가=역세권 업무빌딩 밀집 지역 건물 중 4층 전용면적 132㎡인 점포가 12억원이다. 보증금 1억원, 월 440만원에 피부·성형외과로 임대 중이며 유동인구가 풍부하다. 동탄 명성공인중개사 윤재호 등록번호 41590-2020-20126◇동탄신도시 제과점 상가=유동인구가 풍부한 대단지 아파트 밀집 지역 1층 전용면적 186㎡ 점포가 16억5000만원이다. 보증금 6000만원, 월 530만원에 임대됐으며 성업 중이다.동탄 골든부동산공인 최인순등록번호 1590-2020-20044</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>2022.01.13.</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>뱅크샐러드, ‘유전자 검사’ 인기에 선착순 인원 확대</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000787071?sid=101</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>연일 조기 마감에 제공 인원 700명으로        핀테크 기업 뱅크샐러드가 마이데이터 사업의 일환으로 내놓은 건강 서비스 ‘유전자 검사’가 인기를 끌면서 일일 선착순 인원을 기존 500명에서 700명으로 늘리기로 했다고 13일 밝혔다.2012년 설립된 뱅크샐러드는 앱에서 예적금, 투자, 대출, 주식 등 자산 현황을 한눈에 볼 수 있는 통합 자산관리 서비스 회사로 시작했다. 하지만 최근에는 자산관리 솔루션을 기반으로 금융, 의료, 통신 등 다양한 정보를 융합하는 마이데이터(본인신용정보관리업) 기업을 지향하고 있다. 여기엔 네이버, 카카오, 토스 등 금융 영역에 뛰어든 핀테크 업체 간 경쟁이 치열해지면서, 자산관리 서비스만으로 차별화가 어려워진 위기를 마이데이터 사업을 확장해 타개하려는 전략이 깔려있다.뱅크샐러드.        이런 목표 하에 선보인 ‘유전자 검사’ 서비스가 청년층 고객을 중심으로 호응을 얻고 있는 것이다. 회사 측 설명에 따르면 매일 오전 10시 시작되는 선착순 신청 평균 경쟁률이 30:1에 달하며 일 평균 대기 인원은 1만5000명을 기록했다. 검사 인원을 늘려 달라는 고객들의 의견에 따라 기존 500명이 한계였던 하루 최대 검사 인원을 700명으로 늘리기로 결정했다.집으로 배송된 유전자 검사 키트로 타액(침)을 채취해 유전자 분석기업 마크로젠으로 보내면 영양소, 운동, 피부, 모발, 식습관, 개인 특성, 건강관리 등 65개 항목에 걸쳐 유전형질을 약 2주 이내에 분석해준다. 분석 결과는 뱅크샐러드 앱의 ‘건강’ 메뉴에서 결과를 확인할 수 있다. 뱅크샐러드는 지난해 10월 유전자 검사 서비스를 베타 버전으로 선보인 이후 약 3개월의 안정화 기간을 거쳐 정식 서비스에 돌입했다. 30만원 상당의 유료 상품이지만 올 한해 동안은 유전자 검사 서비스를 무료로 제공할 예정이다.뱅크샐러드는 65개 검사 항목 중 가장 좋은 유전자를 독자적인 콘텐츠로 표현한 ‘TOP3 결과 카드’로 보여주는데, 고객들이 이 결과 카드를 자발적으로 SNS에 공유하면서 홍보 효과를 봤다는 게 회사 측 설명이다. MZ세대 사이에서는 ‘과학사주’, ‘유전 MBTI’ 로 불리고 있다.김태훈 뱅크샐러드 대표는 “선천적 건강 지표에 해당하는 유전자 검사는 개인의 생애주기에 맞춰 활용되며 유의미한 가치를 만들어 낼 수 있는 마이데이터”라면서 “뱅크샐러드는 고객의 실생활에 녹아든 건강 마이데이터의 대중화를 이끌어 가겠다”고 덧붙였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>2022.01.13.</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>빅테크만 선불충전금 6000억원…쫓는 네이버페이, 달아나는 카카오페이</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0001937026?sid=101</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>3분기 만에 27.6% 늘어카카오페이 3841억원으로 1위네이버페이 63.3%↑[헤럴드경제=박자연 기자]간편결제를 위해 넣어두는 돈인 선불충전금 잔액이 네이버페이, 토스 등 빅테크 3사만 6000억원인 것으로 집계됐다. 이들 업체의 선불충전금은 1년도 안돼 30% 가까이 늘었다. 카카오페이가 여전히 선두를 달렸지만 네이버페이 상승세가 무섭다. 토스는 지난 10월 출범한 토스뱅크 영향으로 선불충전금 잔액이 쪼그라들었다.13일 금융권에 따르면 카카오페이, 네이버페이, 토스 등 빅테크 3사 선불충전금은 지난해 말 기준 5913억3600만원으로 공시됐다. 처음으로 동시에 공시가 이뤄진 지난해 1분기 말(4631억8400만원)과 비교해 27.6% 증가한 금액이다.선불충전금 이용은 점차 일반화되고 있다. 한국은행에 따르면 지난해 상반기 전자금융업자가 운영하는 선불전자지급 수단의 일 이용금액은 5811억7000만원으로 전기 대비 25.2%나 불어났다. 같은 기간 이용 건수 역시 2133만8000건으로 14.3% 늘었다.빅테크 3사 중에 가장 큰 선불충전금 규모를 자랑하는 회사는 여전히 카카오페이다. 간편투자 등과 연계한 카카오페이머니 잔액은 지난해 1분기 말 2890억원에서 지난해 말 3841억원으로 32.9% 급증했다.다만 증가율 측면에서는 네이버파이낸셜이 운영하는 네이버페이가 카카오페이를 압도했다. 네이버페이 선불충전금은 같은 기간 559억원에서 913억원으로 63.3% 급증한 것으로 조사됐다. 유료로 운영되는 네이버페이 멤버십 서비스와 시너지를 냈고, 선불충전금을 충전해 결제를 진행할 경우 네이버 포인트 적립률을 높이는 방식이 효과를 낸 것으로 보인다.토스의 경우 지난해 10월 토스뱅크 출범과 네이버·카카오 보다 약한 결제 기능 등으로 선불충전금이 다소 줄어든 모양새다. 지난해 1분기 1181억원에서 지난해 말 1157억원으로 선불충전금 규모가 소폭 감소했다. 토스는 선불충전금 서비스인 토스머니를 단계적으로 중단할 예정이기도 하다. 토스머니로 환급을 제공하던 ‘토스머니 카드’도 지난해 말로 서비스를 중단했다. 토스머니는 현재 잔액이 남아있는 고객에 한해서만 이용할 수 있으며, 잔액이 없는 고객은 토스 앱에서 토스머니에 접근할 수 없다.선불충전금 분야에서는 유통업계 성장세도 무섭다. 이들은 자체 판매 채널을 바탕으로 선불충전 시스템을 구축하고 있기 때문이다. 대표적으로 쿠팡(쿠페이머니)와 SSG닷컴(SSG머니), 배달의민족(배민페이머니) 등이다. 특히 쿠팡은 플랫폼 이용률이 높아지면서 지난해 말 기준 선불충전금이 830억원을 웃돌고 있다.각사는 선불충전금을 은행이나 보증기관 등에 신탁해 관리하고 있다. 예금자보호제도 가입 사각지대에 있어 소비자 보호를 위한 장치가 부족하기 때문이다. 따라서 업체들은 금감원이 2020년 9월 발표한 ‘전금업자의 이용자 자금 보호 가이드라인’에 의해 소비자가 충전한 선불충전금과 업체의 고유재산을 구분하고, 선불충전금을 외부기관에 신탁하거나 지급보증보험에 가입해야 한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>2022.01.03.</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>“매일이 전쟁터인데”… 신년행사 없이 새해 맞는 판교 IT 기업</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000784704?sid=105</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>네이버·카카오·한컴·게임사 등 시무식 생략 “실시간 경쟁, 변화 빨라 연간 계획 무의미”경기 성남시 판교테크노밸리 전경. /조선DB        “시무식이요? 저흰 그런 거 없어요.” 3일 오전 경기 성남시 판교테크노밸리의 인터넷·게임 기업 대부분은 시무식이나 대표의 신년사 발표 없이 조용히 새해 첫 근무를 시작했다.이날 인터넷·게임업계에 따르면 네이버, 카카오, 한글과컴퓨터, 엔씨소프트, 넥슨 등 주요 기업들은 올해를 포함해 창립 이래 한 번도, 또는 최근 몇 년간 시무식을 갖지 않고 있다. 대부분 대표의 신년사 발표도 없다. 게임사 중 넥슨이 신년사를 임직원에게 공지하는 정도다. 판교 기업이 아닌 비바리퍼블리카(토스), 쏘카 등 정보기술(IT) 스타트업도 이 분위기를 따르고 있다.일반적으로 제조업 중심의 대기업은 연초에 대략적인 연간 경영 계획을 알리고 임직원을 격려하는 시무식을 갖는다. 하지만 인터넷·게임업계는 24시간 365일 서비스를 운영하고 서로 경쟁하는 과정에서 수시로 계획을 바꿔야 때문에 시무식 문화와는 맞지 않는다는 게 업계 관계자들의 설명이다.판교 정보기술(IT) 기업 한 관계자는 “몇 개월 단위, 짧으면 몇 주 단위로 사업 전략이 바뀌고 이에 맞춰 인사와 조직개편이 이뤄진다”라며 “1년을 내다보고 계획을 발표하는 건 큰 의미가 없고 오히려 시간과 에너지 낭비만 될 것”이라고 말했다. 일례로 네이버는 내부적으로 매달 크고 작은 사업계획 수정과 이를 반영한 조직개편을 단행하고 있다.지난해 하반기 취임 후 첫 새해를 맞은 김연수 한컴그룹 대표도 별도의 신년 행사 없이 실무에 몰두하고 있다. 한컴 관계자는 “대표님은 CES(Consumer Electronics Show) 참석을 위해 지난주부터 미국 라스베이거스 출장 중이기 때문에 시무식을 포함한 신년 행사를 열 시간은 없다”라고 전했다.전 임직원을 한자리에 불러 모으는 시무식이 이 업계의 수평적인 조직문화와 맞지 않는다는 이유도 있다. 아직 시무식을 갖는 기업도 이런 조직문화가 반영돼 행사를 간소화하는 추세다. 판교가 아닌 서울 구로에 본사를 둔 넷마블은 매년 오프라인 시무식을 갖지만, 올해는 신종 코로나 바이러스 감염증(코로나19) 재택근무와 맞물려 임원만 필수로 참석하고 직원은 자유롭게 참석 또는 불참한다. 비대면 중계도 하지 않는다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>2022.01.07.</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>업비트 의존도 절대적… 케이뱅크, IPO 흥행 여부 불투명</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000773182?sid=101</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>국내 1호 인터넷전문은행 케이뱅크가 기업공개(IPO) 절차에 돌입했지만 흥행 여부가 불투명하다. 사진은 서호성 케이뱅크 행장./사진=케이뱅크국내 1호 인터넷전문은행 케이뱅크가 기업공개(IPO) 절차에 돌입했지만 흥행 여부가 불투명하다.  코스피 상장 1호 인터넷은행인 카카오뱅크의 몸값은 한때 45조원에 달했지만 이후 주가가 힘을 잃으면서 케이뱅크의 IPO에 대한 기대감도 낮아지고 있다. 특히 케이뱅크가 최근 급성장한 배경에는 암호화폐 거래소인 업비트와 제휴한 효과가 컸다. 하지만 업비트 효과는 성장 한계가 있을 수 밖에 없어 IPO의 발목을 잡을 수 있는 요인 중 하나로 꼽힌다.7일 케이뱅크는 국내외 주요 증권사에 유가증권시장 상장을 위한 입찰제안서(RFP)를 발송했다고 밝혔다. 케이뱅크는 이달 중 증권사의 제안서를 받아 다음달 중 주관사단을 선정할 예정이다.RFP 발송은 상장을 진행하기 위한 첫 번째 단계다. 케이뱅크 관계자는 "구체적인 상장 일정은 대표주관 계약 체결 이후 확정할 계획"이라고 설명했다.케이뱅크의 가입자는 지난 2020년 말 219만명에서 지난해 말 717만명으로 3.3배 늘었다. 여수신 성장세도 가팔랐다. 같은 기간 케이뱅크의 여신은 2조9900억원에서 7조900억원으로 수신은 3조7500억원에서 11조3200억원으로 확대됐다.케이뱅크는 자본확충 규제로 약 1년4개월동안 '개점휴업'을 이어가다 지난 2020년 7월 자본확충 이후 영업을 재개하며 우여곡절 끝에 정상화 궤도에 올랐다.━카뱅 주가 부진에 불안한 업비트 후광효과━하지만 이같은 성장세에도 IPO 흥행 여부엔 물음표가 달린다. 우선 케이뱅크의 기업가치를 비교할 카카오뱅크의 주가가 부진한 모습을 보이고 있다.지난해 8월 상장한 카카오뱅크는 '금융 대장주' 자리를 꿰찼지만 카카오뱅크의 주가는 이날 기준 5500원대로 떨어져 시가총액은 26조원대로 내려앉았다. 한때 45조원에 육박했던 시총이 4개월여만에 약 19조원 급감한 셈이다. 상장을 앞둔 케이뱅크 역시 '거품 논란'에 자유롭지 못할 것이라는 관측도 나온다.아울러 케이뱅크는 지난해 상반기 암호화폐 투자 열풍으로 업비트와 실명확인 계좌발급 제휴 효과를 톡톡히 봤다. 하지만 암호화폐 열풍에 힘입은 가파른 수신 성장세가 일시적인 현상에 그칠 수 있다는 지적이 나온다.업비트에 대한 높은 의존도 역시 케이뱅크로선 부담이지만 이마저 위태하다. 업비트를 운영하는 두나무는 "케이뱅크뿐만 아니라 다른 은행으로 실명계좌를 확장할 수 있길 기대한다"며 제휴처 확대 기회를 노리고 있다.실제로 업비트가 실명계좌 발급 제휴 은행을 늘리면 고객들은 케이뱅크가 아닌 다른 은행으로 예금을 뺄 수도 있어 케이뱅크의 수신액은 줄어들 수밖에 없다.특히 케이뱅크의 수신과 여신 간 불균형이 심화하고 있다. 지난 2020년 말까지만 해도 케이뱅크의 수신과 여신은 각각 3조7453억원, 2조9887억원였다. 당시 수신액과 여신액 차이는 약 7566억원에 그쳤지만 1년새 4조2300억원이나 벌어졌다. 지난 한해동안 수신 증가폭은 여신에 비해 1.8배에 달한 것이다.시중은행의 경우 수신과 여신의 증가율이 비슷한 수준을 보인다는 점을 이같은 여수신 불균형은 회사의 불안요소로 여겨진다.금융당국의 고강도 가계대출 규제 역시 인터넷은행 투자 심리를 위축시키고 있다. 금융권 관계자는 "토스뱅크도 가계대출 총량관리로 출범 9일만에 대출을 하지 못해 사실상 개점휴업 상태였다는 점도 케이뱅크의 기업가치를 산출하는데 부정적인 요소로 작용할 수 있다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>2022.01.11.</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>모더나·노바백스 변이 백신 개발에 삼성바이오·SK바사 '후광'</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/215/0001008632?sid=101</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>바이오젠, 미국서 삼성바이오 루센티스 바이오시밀러 올 중반 출시조만간 코로나 19 오미크론 변이를 예방할 수 있는 백신이 출시될 것으로 보인다.화이자는 3월쯤, 모더나는 가을을 목표로 오미크론 변이용 백신을 준비하고 있다.노바백스도 올 상반기 코로나19 예방백신 접종연령 확대와 부스터샷 연구도 시작한다.오미크론 변이 백신 개발을 위한 임상에도 착수할 예정이다.글로벌 제약사들의 오미크론 변이 예방 백신 개발이 본격화 되면서 위탁생산을 하고 있는 삼성바이오로직스와 SK바이오사이언스에 대한 관심도 커지고 있다.(사진 = 연합뉴스)■ 오미크론 백신 나온다…화이자는 3월, 모더나는 가을앨버트 불라 화이자 대표(CEO)는 10일(현지시간) JP모건 헬스케어 콘퍼런스 행사 발표를 앞두고 가진 미국 언론 CNBC와 가진 인터뷰에서 "오미크론 변이를 대상으로 한 백신은 오는 3월이면 출시 준비가 될 것"이라며 "현재 일부 수량에 대한 생산을 시작했다"고 밝혔다.불라 CEO는 "이 백신은 현재 퍼지고 있는 코로나19 변이들을 겨냥한 백신"이라며 "오미크론 백신이 필요한지 어떻게 사용될 지는 확실치 않지만 백신을 준비하고 있다"고 설명했다.스테판 방셀 모더나 CEO도 CNBC와 인터뷰에서 “모더나는 전세계 접종을 위해 올 가을 오미크론 변종 대상의 부스터샷을 준비하고 있다”고 말했다.방셀 CEO는 JP모건 헬스케어 콘퍼런스 온라인 발표를 통해서도 “모더나는 2022년 초 임상시험 단계로 발전할 것으로 예상하는 오미크론 전용 백신 mRNA-1273.529를 계속 개발할 것”이라며 “이는 오미크론을 포함해 다가 부스터 프로그램에서 평가될 것”이라고 설명했다.아울러 모더나는 현재 시판중인 코로나19 백신에 대해 부스터샷 활용에도 집중할 것으로 관측된다.모더나 백신 연구결과에 따르면, 부스터샷으로 50마이크로그램(㎍) 투여시 중화항체 수준이 2회 접종시와 비교할 때 37배, 100㎍ 투여시엔 83배 증가했다.지난해 말 미국 식품의약국(FDA)이 승인한 부스터샷 용량은 50㎍이다.이외에도 모더나는 현재 계절성 인플루엔자 백신 ‘mRNA-1010’에 대해서도 임상을 진행 중이다.지난해 말 임상1상 중간발표에서 긍정적인 데이터를 확보했으며, 임상2상 피험자 등록이 완료된 상태다.또, 모더나는 코로나19와 인플루엔자를 동시에 예방하는 백신 ‘mRNA-1073’을 개발하고 있다.노바백스는 올 상반기 코로나19 예방백신 접종연령 확대와 '부스터샷(추가접종)'을 위한 연구를 시작한다.스탠리 C. 얼크 노바백스 사장도 JP모건 헬스케어 콘퍼런스 온라인 발표를 통해 "2022년 상반기 중 코로나19 백신(NVX-CoV2373)의 허가지역과 국제 공급을 확대하겠다"면서 "부스터샷 연구와 12~17세 청소년 예방접종 적응증 추가 등을 진행하겠다"고 밝혔다.이 날 발표에 따르면 노바백스는 단기 개발 일정으로 총 6개의 백신 파이프라인을 보유하고 있다.이 가운데 코로나19 관련 파이프라인은 4개로 누바소비드(NVX-CoV2373) 백신, 오미크론 변이 백신, 코로나·독감 병용 백신, 코로나·독감·RSV 병용 백신이다.누바소비드는 국내에서도 허가심사를 진행중이며, SK바이오사이언스가 기술이전을 받아 위탁생산을 맡고 있다.이외 코로나·독감 병용 백신이 임상1·2상을, 나머지 오미크론 변이 임상과 콤비백신이 전임상 단계를 진행 중이다.특히 노바백스는 올해 부스터샷과 오미크론 변이 백신 연구를 본격 시작한다.이에 올 1분기 중 오미크론 변이를 겨냥한 백신 임상시험에 본격 돌입할 예정이다.누바소비드의 인체 투약안전성을 앞서 확인한 만큼 임상2상 후기 혹은 임상3상을 곧바로 시작할 수 있다. 이와 함께 변이 백신의 GMP 인증 제조시설도 마련한다.부스터샷 임상시험은 올 상반기 착수하고 접종 대상 연령도 확대해 나갈 계획이다.■ 위탁생산 삼바·SK바사 후광효과 볼까모더나와 노바백스가 부스터샷과 오미크론 변이 대응 백신 개발에 착수하면서 위탁생산을 맡고 있는 삼성바이오로직스와 SK바이오사이언스에 대한 기대감도 커지고 있다.삼성바이오로직스는 모더나 mRNA 백신의 충진·포장을 맡는 완제(DP) 위탁생산(CMO) 계약을 체결했다.5개월만인 지난해 10월 국내 출하를 완료한 후 국내 공급용 초도 생산 물량 243만 5천도즈를 출하했다.삼성바이오로직스는 월평균 생산량을 점차 늘려 올해 말까지 모더나와의 계약 물량인 수 억 도즈를 생산할 계획이다.여기에 최근 삼성바이오로직스가 국내에서 생산하는 모더나 코로나19 백신 ‘스파이크박스(주)’의 정식 품목허가도 결정됐다.식품의약품안전처 및 삼성바이오로직스에 따르면 지난 달 14일 삼성바이오로직스가 완제 위탁생산한 모더나 코로나19 백신 스파이크박스(주)는 정식 품목허가를 받았다.스파이크박스(주)는 국내 허가된 코로나19 백신 중 mRNA(메신저 리보핵산) 방식으로는 최초로 국내에서 위탁생산하는 백신이다.앞으로 삼성바이오로직스가 생산한 백신은 국내 판매는 물론 해외에 수출이 가능해진 것이다.모더나가 오미크론 변종 대상의 부스터샷 개발을 발표하면서 자연스럽게 위탁생산을 담당하고 있는 삼성바이오로직스에 대한 기대감도 커지고 있다.이와 함께 미국 바이오젠은 삼성바이오에피스가 개발한 황반변성 치료제인 루센티스의 바이오시밀러에 대한 시판 계획을 발표했다.이 날 미셸 보나토스(Michel Vounatsos) 바이오젠 대표(CEO)는 JP모건 헬스케어 콘퍼런스 발표를 통해 “미국 시장에서 바이우비즈가 올 중반쯤 출시될 것으로 예상한다”고 밝혔다.삼성바이오에피스는 바이우비즈에 대해 지난해 7월과 9월 각각 유럽과 미국서 시판허가를 받았으며, 지난 2020년 글로벌 매출 약 4조원, 미국 매출 약 1조8000억원을 기록했다.삼성바이오로직스와 함께 주목받고 있는 곳은 SK바이오사이언스다.SK바이오사이언스는 노바백스의 백신 위탁생산 계약을 체결했다.지난 달에는 노바백스와 코로나19 백신 ‘NVX-CoV2373’의 위탁생산 계약을 확대 체결했다.계약 기간은 2022년 12월까지다.SK바이오사이언스는 안동 백신공장 L하우스의 9개 원액 생산시설 중 3개 시설을 ‘NVX-CoV2373’ 생산에 활용하게 된다.계약은 SK바이오사이언스가 노바백스로부터 원액(DS) 생산에 따른 위탁 수수료와 노바백스의 완제(DP) 판매에 따른 매출 수수료를 지급받고 한국, 태국, 베트남에선 직접 판매해 추가 매출을 확보하는 방식으로 체결됐다.원액 계약은 노바백스에 공급되는 생산량에 따라 위탁 생산 수수료를 SK바이오사이언스가 수령하는 형태로 협의됐다.또, 완제 계약은 안동의 원액 생산시설 중 1곳에서 생산되는 물량을 노바백스가 완제로 제조해 판매하는 경우 SK바이오사이언스가 매출에 따른 수수료를 받도록 했다.SK바이오사이언스는 안동에서 생산된 ‘NVX-CoV2373’를 한국과 태국, 베트남에 공급·상업화할 권리도 추가로 확보해 각 국가별 구매 계약을 추진할 수 있게 됐다.SK바이오사이언스는 원액 계약에 따라 발생될 예상 수수료 약 2,000억원을 포함, 각각의 계약별로 추가 매출을 기대할 수 있을 것으로 전망하고 있다.자연스럽게 노바백스가 부스터샷 개발과 오미크론 백신 개발에 성공한다면 생산을 SK바이오사이언스가 담당하게 될 가능성이 크다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>2022.01.14.</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>"토스 대출 금리비교 월평균 60만명 이용"</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004008181?sid=101</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>40개 금융사 금리 단 20초면 한눈에 비교 가능[서울경제] 토스는 ‘대출 금리비교 서비스’의 월 평균 이용자가 1년 만에 3배 이상 늘어나 60만 명을 돌파했다고 14일 밝혔다. 지난 2019년 5월 금융위원회로부터 혁신금융서비스로 선정돼 같은 해 8월 출시된 대출 금리비교 서비스는 토스 앱 내에서 간단한 정보 입력만으로 40개 금융사의 신용대출 상품 금리와 한도를 비교할 수 있는 게 특징이다. 오프라인에서 대출을 받으려면 지점 방문, 가심사 한도 및 금리 안내, 서류 준비 후 제출, 실제 심사요청 등 4~5단계 절차를 거쳐야 한다. 토스에서는 40개 금융기관의 신용대출 상품을 클릭 몇 번 만으로 단 20초(평균 기준) 만에 금리, 한도 순으로 한눈에 정렬해 볼 수 있다.이런 편리하고 빠른 서비스 덕에 누적 대출실행액수는 7조 6,000억 원, 누적 가심사 승인금액은 무려 2,165조 원에 달한다. 지난 한 해 동안 1만 5,000명 이상의 사용자가 토스에서 2,200억 원 규모의 2금융권 대출을 1금융권으로 대환(갈아타기)하는 데 성공한 것으로 나타났다. 1금융권 대출이 가능함에도 카드론, 저축은행 대출을 받았던 사용자가 토스에서 정보 불균형을 해소하며 낮은 금리, 높은 한도의 대출로 갈아탈 수 있었다. 토스에서는 신한은행, 우리은행, 하나은행 등 1금융권 대출상품을 만나볼 수 있다.고신용자 뿐 아니라 저신용자 전용 상품인 햇살론 누적 실행액도 3,900억 원을 넘어서며 다양한 대출 수요층을 아우르고 있다.토스 관계자는 “고객에게 더 나은 금융 경험을 제공하고자 시작된 대출 금리비교 서비스가 이제 비대면 대출시장을 선도해나가는 서비스로 성장했다”며 “더이상 공급자 중심의 대출시장이 아닌 고객 스스로 본인에게 맞는 대출을 찾는 수요자 중심의 시장을 형성하는데 노력을 기울이겠다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>2022.01.02.</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>"미리 앱 업데이트 하세요"…내일부터 방역패스 '유효기간' 적용</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004902912?sid=102</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>사진은 지난달 31일 서울의 한 대형마트에서 출입 인증을 확인하는 직원들. [사진 = 연합뉴스] 오는 3일부터 방역패스(접종증명·음성확인제)에 '유효기간'이 적용된다.2일 방역당국에 따르면 방역패스의 유효기간이 임박한 사람은 3차 접종을 해야 방역패스 효력이 유지된다. 방역패스 유효기간은 코로나19 백신 2차 접종(얀센 접종자는 1차 접종) 후 14일이 지난 날부터 6개월(180일)까지다.예컨대 지난해 7월 6일이나 그보다 이전에 기본접종을 마친 사람은 추가 접종을 하지 않았다면 3일부터 영화관 등 방역패스 적용시설을 이용할 수 없다.청소년 방역패스는 오는 3월 1일부터 시행한다. 단, 12∼17세는 방역패스 유효기간을 적용받지 않는다. 12∼17세는 3차접종 권고 대상이 아니기 때문이다.유효기간은 예방접종 인증 전자증명서인 '쿠브(COOV)' 애플리케이션(앱)에서 확인할 수 있다. 2차 접종 후 14일이 지나면 '14일 경과' 표시가, 180일이 지나면 '유효기간 만료' 표시가 뜬다. 쿠브 앱을 업데이트 해야 3차 접종 여부와 2차 접종 후 며칠이 지났는지 등을 쉽게 확인할 수 있다.질병청은 유효기간 적용이 시작되는 3일이 되기 전 미리 앱을 업데이트해두는 게 좋다고 강조했다. 앞서 방역패스 단속을 시작한 지난달 13일 앱 접속자가 몰리는 바람에 '서버 먹통' 사태 벌어졌는데, 이를 막기 위한 조치로 풀이된다.현재 식당이나 카페, 실내체육시설, 영화관 등에서 방역패스가 적용되고 있다. 방역패스 적용 시설을 이용하려는 접종자들은 카카오, 네이버, 토스, PASS 등 민간 전자출입명부 앱에서도 업데이트하면 해당 정보를 확인할 수 있다.방역패스 유효기간은 일주일(3∼9일) 계도기간을 거쳐 시행된다. 이에 따라 방역패스 유효기간 위반으로 인한 과태료나 행정처분은 오는 10일부터 부과된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>2022.01.04.</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>DSR 시행에 토스뱅크 대출폭주 진정</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004766770?sid=101</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>새해부터 대출 신청이 폭주했던 토스뱅크가 지난 3일부터는 대출 소진 속도가 잦아들고 있다. 총부채원리금상환비율(DSR) 규제가 적용되면서 대출 수요 자체가 줄어든 데다 한도 역시 연소득 이내로 제한돼서다.   4일 은행권에 따르면 DSR 규제 조기 시행 등 여파로 토스뱅크의 직장인 신용대출 한도가 하루 사이에 수천만원이 축소된 것으로 나타났다.   차주 단위 DSR 2단계가 적용되면 기존 대출과 신규 대출 신청분을 합산해 총 대출액 2억원이 넘는 경우 연소득 40% 이상을 원리금을 갚는 데 쓸 수 없다.   바뀐 DSR 규제는 3일부터 적용됐다. 지난해 10월 연간 한도 소진으로 출범 9일 만에 대출을 중단한 토스뱅크는 지난 1일 해가 바뀌자마자 최저 3% 초반 금리, 최고 2억7000만원 한도를 내세우며 대출을 재개했다. 그 결과 주말인 1~2일 이틀간 대출 신청이 폭주했고, 대출 조회 서비스 접속이 지연됐다.   이는 기존 은행권 대비 신용대출 금리가 낮기 때문으로 풀이됐다. 이날 현재 토스뱅크의 신용대출은 최저 연 3.31%, 최대한도는 2억7000만원이다. 반면 시중은행권 신용대출 금리는 6%가 넘은 곳도 있었다.   은행연합회에 따르면 국민·농협·하나·신한·우리은행 등 5대 시중은행이 지난해 11월 중 취급한 대출을 기준으로 작성해 지난달 공시한 일반신용대출 금리는 평균 4.57%로 전달(3.85%) 대비 0.72%포인트 대폭 올랐다.   한편 금융당국은 해를 넘겨서도 토스뱅크 대출 잔액을 설정하지 못한 것으로 알려졌다. 원칙대로라면 지난해 5000억원의 한도를 받은 토스뱅크는 가계부채 총량 증가율 한도를 최대 5% 인정받는다고 해도 250억원까지 밖에 대출 잔액을 늘리지 못한다. 이에 대해서는 금융당국과 은행측 모두 비합리적이라는 데 의견을 같이 하는 것으로 파악됐다. 토스뱅크는 올해 중금리대출 비중을 42%로 설정했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>2022.01.13.</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>"인터넷은행 대출금리 10% 육박…카카오뱅크 최고"</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/215/0001009032?sid=101</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>최근 금리 상승기에 인터넷은행들이 가산금리를 더 올려 일부 신용대출 금리가 최고 10%에 육박한 것으로 드러났다.13일 IBK투자증권에 따르면 인터넷은행의 가계 대출금리 상승 폭이 지난해 9월부터 확대되더니 그해 12월 기준 대형 은행과 금리 차이가 크게 벌어졌다.지난해 12월 상장 은행주의 5개 대형은행 가계 일반 신용대출 금리(서민금융 제외) 평균은 3.78%로 나타났다.그러나 카카오뱅크 신용대출 금리는 9.79%에 달했고, 케이뱅크는 5.71%로 높았다. 토스뱅크 신용대출 금리도 지난해 11월 기준 5.07%로 대형은행 11월 평균 금리 3.5%보다 높은 수준이었다.김은갑 연구원은 "최근 은행권 신용대출 금리상승 폭이 예상보다 확대되는 등 은행 수익성 개선 속도가 빨라지고 있다"며 "이 중 인터넷은행의 신용대출 금리는 시중은행 대비 크게 높은 수준에서 형성되고 있다"고 설명했다.그는 "은행의 대출금리 차이는 가산금리 차이에 의한 것"이라며 "인터넷은행이 중신용자 대출을 확대하는 과정에서 금리가 높아진 부분도 있지만 전반적으로 대형은행 대비 금리 경쟁력이 약화했다"고 지적했다.그러면서 "인터넷은행에 의한 금리 경쟁과 대출금리 하락 효과는 없는 상황"이라며 "예대금리차는 올해 상반기까지 상승추세를 보이고 신규 대출금리 상승세가 한동안 반전될 가능성은 작아 보인다"고 덧붙였다.(사진=연합뉴스)</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>2022.01.01.</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>"대출 문 열리면 뭐하나"…총량규제·금리인상 등 부담만 더 커졌다</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005024207?sid=101</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>닫혔던 은행권 대출 문…1일부터 속속 재개하지만 소비자 체감은 미미할 듯총량·DSR 규제 강화에 기준금리 인상까지 '지뢰밭'코로나 사태 이후 찾아왔던 0%대 금리 시대가 1년 8개월 만에 막을 내렸다. 한국은행 금융통화위원회는 25일 통화정책방향 결정회의를 열고 기준금리를 0.75%에서 1%로 0.25%포인트 인상했다. 사진은 이날 서울 시내 한 은행 외벽에 붙은 대출 관련 안내문. /문호남 기자 munonam@지난 한 해 굳게 닫혔던 은행의 대출 문이 오늘부터 본격적으로 다시 열렸다. 하지만 올해 가계대출 증가율 목표치가 지난해(5~6%대)보다 낮은 4~5%대로 관리되는 데다 차주별 총부채원리금상환비율(DSR) 규제도 강화돼 금융소비자들의 체감은 그리 크지 않을 것이란 지적이 나온다. 특히 올해는 기준금리 인상 등 대출금리 상승 요인도 많아 차주의 이자 부담이 크게 늘어날 전망이다.1일 금융권에 따르면 인터넷전문은행 토스뱅크는 이날 오전부터 중단됐던 신용대출을 전면 재개했다. 토스뱅크의 신용대출은 최저금리가 연 3% 초반대고, 최대 한도는 2억7000만원으로 국내 은행 중 가장 낮은 금리와 높은 한도를 지녔다.지난해 8월 이후 대출 문을 막았던 NH농협은행부터 SC제일은행 등 대부분의 시중은행도 이날부터 대출을 재개한다. KB국민은행과 우리은행 등도 3일부터 신용대출과 주택담보대출 등 대부분의 상품에 대해 우대금리를 부활하는 조치를 시행한다. 우대금리가 높아지면 차주의 이자 부담은 줄어드는 효과가 있다.주요 은행들이 새해 들어 대출 문을 활짝 열고 나섰지만 금융소비자들의 체감은 그리 크지 않을 것이란 분석이 지배적이다. 일부 고객을 중심으로는 대출 한도나 금리 면에서 지난해보다 더 불리해진 금융 환경 때문이다. 대표적으로 금융당국이 가계부채 관리를 지난해보다 대폭 강화하겠다고 예고한 것과 한국은행의 기준금리 추가 인상 등이 부담 요인으로 거론된다.당장 이날부터 가계대출 총액이 2억원을 넘을 때, 오는 7월부터는 가계대출 총액이 1억원을 넘을 때 차주 단위 DSR 규제가 적용된다. 연간 원리금 상환액이 연 소득의 40%(2금융권의 50%)를 넘으면 추가 대출이 사실상 불가능하다. 금융당국에 따르면 차주 단위 DSR 규제를 적용받는 이는 약 600만명에 달한다.금융당국이 올해 가계대출 증가율 목표치에 전세대출을 포함한 것도 대출 문턱을 높이는 요인 중 하나다. 지난해의 경우 전세대출은 총량규제에서 제외시켜줬지만 올해는 이 역시 포함돼 은행들 입장에서는 지난해와 마찬가지로 가계대출을 조일 수밖에 없는 형편이다.특히 의사, 변호사 등 이른바 전문직도 새해부터는 더욱 강화된 대출규제를 적용받게 됐다. 대표적인 고소득·고신용자인 전문직도 올해부터는 신용대출 한도가 연소득 이내로 제한된다.급격하게 오른 대출금리도 차주들의 부담으로 작용할 전망이다. 은행에서 변동금리 주담대를 받을 때 기준이 되는 코픽스 금리가 최근 빠르게 상승하고 있다. 은행연합회가 지난달 15일 공시한 신규 취급액 기준 코픽스(11월 기준)는 연 1.55%로 한 달 전과 비교해 0.26%포인트나 올랐다. 이는 관련 코픽스가 산출된 2010년 2월 이후 월간 기준 최대 상승 폭이다.특히 한은이 이달 중 기준금리를 추가 인상할 것이 확실시 되고 있어 대출금리는 더욱 빠르게 상승할 것으로 보인다. 이미 은행권의 신용대출과 주담대 대출금리는 각각 5%대, 6%대에 육박하고 있다. 금융권 관계자는 "총량규제 리셋으로 새해 들어 대부분의 금융사의 대출 문이 열렸지만 차주들의 체감은 그리 크지 않을 것으로 본다"며 "오히려 더 깐깐해진 규제와 높아진 대출금리로 돈 빌리기가 더 어렵다고 보는 것이 맞다"고 내다봤다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>2022.01.04.</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>3000만 고객 5년차 인뱅 ‘삼국지’</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0001933001?sid=101</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>카뱅·케뱅은 대출상품 라인업토뱅은 신용카드사업 승부수중저신용자 대출 확대도 박차올해로 출범 5년차를 맞는 인터넷전문은행 삼국지가 올해 본격적으로 포문을 연다. 그간 ‘비대면’이라는 제약으로 시장에 나오지 못했던 상품들이 줄줄이 출시된다. 출범 하자마자 대출총량 제한으로 영업을 일부 제한할 수밖에 없었던 토스뱅크 역시 올해에는 본격저인 영업에 나설 예정이다.4일 업계에 따르면, 카카오뱅크는 100% 비대면 주택담보대출을 선보인다. 당초 지난해 출시 예정이었던 이 상품은 정부 대출 규제가 강화되면서 올해 선보이게 됐다. 카카오뱅크는 최근 임직원 테스트를 마치고 실 고객 대상 테스트를 진행한다고 공지했다. 선발된 이들은 사전에 해당 주담대 상품을 경험해볼 수 있다.이와 함께 카카오뱅크는 중·저신용자 대출 확대에 드라이브를 걸 예정이다. 다른 인터넷은행들이 고신용자 대출을 재개한 가운데 카카오뱅크는 유일하게 고신용자 대상 신용·마이너스통장 대출을 막아두고 있다. 카카오뱅크는 대신 데이터기반중금리시장혁신준비법인에 참여해 개인사업자 신용평가에 나설 예정이다.케이뱅크 역시 새로운 상품을 출시한다. 개인사업자 대출을 내놓고, 디지털과 금융을 결합한 혁신상품도 선보일 예정이다. 서호성 케이뱅크 행장도 신년사에서 “디지털 금융플랫폼으로 확실히 자리잡아야 한다”고 강조했다. 케이뱅크는 특화된 신용평가모형(CSS) 구축을 통한 중저신용대출 확대도 새해 목표로 내걸었다. 대표 여신 상품으로 꼽히는 비대면 아파트담보대출 역시 대환대출에 한정되지만 상대적으로 낮은 금리(3~4.74%, 변동금리 기준) 수준으로 흥행을 지속하고 있다.토스뱅크는 신용대출 라인업을 바탕으로 신용카드업 진출을 도모할 예정이다. 토스뱅크가 신용카드업 인가를 받으면 인터넷은행 중에는 처음으로 신용카드를 발행할 수 있게 된다. 현재 토스뱅크는 신용카드 리스크 평가 직무 등 관련 채용을 지속하고 있다.한편 인터넷은행은 눈에 띄게 성장하고 있다. 고객 규모의 경우 카카오뱅크는 가입자 수 1799만명을 웃돌고 있고 케이뱅크도 가입자수 700만명을 돌파했다. 지난해 토스뱅크도 문을 열기 전에 사전신청만 170만명을 넘었다. 여·수신도 폭풍성장 중이다. 지난해 기준 케이뱅크는 전년 대비 수신이 약 3배, 여신은 약 2배 늘어났다. 카카오뱅크는 상장을 성공적으로 이뤄냈고 여수신도 각각 25조원, 30조원를 넘어섰다. 토스뱅크의 경우 금융당국 총량 제한으로 대출은 미미했으나 입출금통장 연 2%라는 파격 금리를 제시하며 1주일 만에 1.7조 수신 일으킨 바 있다. 박자연 기자</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>2022.01.03.</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>3일부터 방역패스 유효기간 적용…'딩동' 하면 입장 불가</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/586/0000033092?sid=102</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>앱 업데이트·접종정보 갱신해야 입장 가능…43만여 명, 3일 방역패스 만료2일 오후 서울 종로구의 한 식당에 방역패스(접종증명·음성확인제) 관련 안내문이 붙어 있다. ⓒ연합뉴스3일부터 방역패스(접종증명·음성확인제)에 6개월 백신 유효기간이 적용된다. 사적모임 인원 4인·영업시간 오후 9시 제한 등을 골자로 하는 현행 사회적 거리두기도 이날부터 2주간 연장됐다.3일 질병관리청 중앙방역대책본부에 따르면, 이날부터 방역패스에 유효기간이 적용된다. 코로나19 백신 2차접종(얀센 접종자는 1차접종) 이후 14일이 지난 날부터 6개월(180일)이 지나면 방역패스 효력이 만료된다.유효기간이 임박했다면 3차접종을 받아야 방역패스의 효력을 유지할 수 있다. 단 3차접종은 2차접종과 달리 접종 당일부터 바로 효력이 인정된다. 이날(1월3일)을 기준으로, 2021년 7월6일까지 2차접종을 마친 사람이 아직 3차접종을 받지 않았으면 이날부터 영화관·PC방 등 방역패스 적용 시설을 이용할 수 없다.방대본에 따르면 3일 방역패스 유효기간 만료 대상자는 563만 명이다. 이 중 92%인 518만 명이 3차접종을 마쳐 유효기간이 연장된 상태다. 또 1만4000명(0.2%)은 3차 접종을 예약한 상태다. 남은 43만6000명(7.7%)은 이날 방역패스가 만료될 예정이다.방역패스 유효기간은 예방접종 인증 전자증명 앱 '쿠브(COOV)'와 네이버, 카카오, 토스, PASS 등 전자 출입명부 앱에서 확인할 수 있다. 2차접종 후 14일이 지나면 '14일 경과' 표시가, 180일이 지나면 '유효기간 만료' 표시가 나온다. 유효기간이 남은 앱 화면을 인식기에 대면 '접종 완료자입니다'라는 음성이 나오지만, 유효기간이 만료된 경우 '딩동' 소리가 난다. '딩동' 소리가 나면 방역패스 적용 시설에는 입장할 수 없다.단 사용하는 전자 출입명부 앱을 업데이트하고 접종정보를 갱신해야 3차접종 여부와 2차접종 후 며칠이 지났는지를 쉽게 확인할 수 있다. 당국은 유효기간이 적용되는 첫날인 3일에 사용자가 몰릴 것에 대비해 사전에 앱 내 접종 정보를 미리 갱신하고, 해당 앱 자체도 최신 버전으로 업데이트 해 달라고 당부했다.한편 방역패스가 적용되는 다중이용시설은 총 17종으로, △대규모 점포 △영화관·공연장 △유흥시설 △노래연습장 △실내체육시설 △목욕장업 △경륜·경정·경마·카지노 △식당·카페(미접종자는 단독이용만) △학원 △독서실·스터디카페 △멀티방 △PC방 △실내 스포츠경기장 △박물관·미술관·과학관 △파티룸 △도서관 △마사지업소·안마소 등이다.방역패스 유효기간 적용은 일주일(3∼9일) 계도기간을 거쳐 시행된다. 따라서 방역패스 유효기간 위반으로 인한 과태료나 행정처분은 10일부터 부과된다.이와 별개로 정부는 사적 모임 인원을 4명까지, 식당·카페 등의 영업시간을 오후 9시까지로 제한하는 현행 사회적 거리두기 조치를 이날부터 16일까지 2주 더 연장하기로 했다. 코로나19로 인한 위중증 환자 발생이 여전히 높은 수준을 유지하고 있고, 기존 바이러스보다 전파력이 강한 오미크론 변이가 빠르게 확산하는 상황에 따른 조치다.영화관·공연장의 경우 기존에는 오후 10시 이후로는 영업할 수 없도록 해왔지만, 3일부터는 영화·공연 시작 시간을 기준으로 오후 9시까지는 관객 입장이 허용된다. 다만 종료 시간이 밤 12시를 넘겨서는 안 된다. 백화점·대형마트 등 면적 3000㎡ 이상의 대규모 점포도 오는 10일부터 방역패스의 적용을 받는다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>2022.01.02.</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>"미리 앱 업데이트 하세요"…내일부터 방역패스 유효기간 적용</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002713785?sid=102</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>[연합뉴스]    오는 3일부터 방역패스에 '유효기간'이 생긴다. 방역패스 유효기간은 일주일(3∼9일) 계도기간을 거쳐 시행된다. 2일 방역당국에 따르면, 방역패스의 유효기간은 코로나19 백신 2차접종(얀센 접종자는 1차접종) 후 14일이 지난 날부터 6개월(180일)까지다. 유효기간이 임박한 사람은 3차접종을 해야 방역패스 효력을 유지할 수 있다. 3차접종을 받은 즉시 효력이 생긴다.따라서 지난해 7월 6일이나 그보다 전에 기본접종을 완료한 사람이 추가접종을 하지 않았다면 3일부터 영화관 등 방역패스 적용 시설을 이용할 수 없다.청소년 방역패스는 오는 3월 1일부터 시행하는데, 12∼17세는 방역패스 유효기간을 적용받지 않는다. 12∼17세는 3차접종 권고 대상이 아니기 때문이다. 방역패스 유효기간 위반으로 인한 과태료나 행정처분은 10일부터 부과된다. 유효기간은 예방접종 인증 전자증명서인 '쿠브(COOV)' 애플리케이션(앱)에서 확인할 수 있다. 2차접종 후 14일이 지나면 '14일 경과' 표시가, 180일이 지나면 '유효기간 만료' 표시가 뜬다. 질병청은 쿠브 앱을 업데이트해야 3차접종을 했는지 여부와 2차접종 후 며칠이 지났는지를 쉽게 확인할 수 있다고 밝혔다. 그러면서 유효기간 적용이 시작하는 3일이 되기 전에 미리 업데이트해두는 게 좋다고 덧붙였다. 카카오, 네이버, 토스, PASS 등 민간 전자출입명부 앱도 업데이트하면 해당 정보를 확인할 수 있다. 유효기간이 남은 앱 화면을 인식기에 대면 '접종 완료자입니다'라는 음성이 나오고, 유효기간이 만료된 경우에는 '딩동' 소리가 나온다. 딩동 소리가 나면 입장할 수 없다. 전자 증명서 사용이 어려운 장애인은 종이로 된 접종증명서나 예방접종스티커를 사용할 수 있다. 종이 증명서는 보건소에 신청해 발급받을 수 있다. 돌파감염 등 코로나19 감염력이 있는 2차접종 완료자는 접종 후 14일이 지나면 별도 유효기간 없이 방역패스 효력을 인정받는다. 이 경우 전자증명 앱에 유효기간이 없는 예방접종 증명서가 발급된다. 방역패스가 적용되는 다중이용시설은 총 17종(대규모 점포, 영화관·공연장, 유흥시설, 노래연습장(동전 노래방 포함), 실내체육시설, 목욕장업, 경륜·경정·경마·카지노, 식당·카페, 학원, 독서실·스터디카페, 멀티방, PC방, 실내 스포츠경기장, 박물관·미술관·과학관, 파티룸, 도서관, 마사지업소·안마소) 등이다.이 가운데 백화점, 대형마트 등 면적 3000㎡ 이상 대규모 점포는 오는 10일부터 방역패스 적용을 받는다. 미접종자가 방역패스 시설을 이용하려면 48시간 내 발급받은 PCR(유전자증폭검사) 음성확인서를 제시해야 한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>2022.01.09.</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>새해 연말정산 사설인증서 대격돌</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0002992706?sid=101</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>사설인증서 사업자들이 2021년도 연말정산에 마이데이터 본 시행까지 겹치면서 그 어느 때보다 사용자 확보 경쟁에 사활을 걸었다.자사 플랫폼에서 연말정산 미리보기 서비스를 제공하고 있어 사설인증서 확대에 더해 플랫폼 유입 경쟁이 본격화했다.9일 업계에 따르면 연중 최대 사용자 확보 시기인 연말정산에 돌입함에 따라 사설인증서 사업자들이 일제히 사용자 유치에 나섰다.현재 국세청 연말정산은 공동인증서 외에 금융인증서, 카카오, 패스(이통3사), 한국정보인증(삼성패스), KB국민은행, NHN페이코, 네이버, 신한은행 등 8개 사설인증서를 사용할 수 있다. 신한은행과 네이버 인증서가 새롭게 추가됐다.국세청이 2021년도 연말정산 분부터 손택스(모바일 홈택스)에도 사설인증서를 적용함에 따라 8개 사설인증서를 모바일에서 이용할 수 있다.사설인증서는 지난해 연말정산을 기점으로 사용자를 대폭 확대해왔다. 현재 패스 3200만건, 카카오 3000만건 이상, 네이버 2200만건이 발급돼 시장 상당수를 점유했다. 뒤를 이어 금융인증서 1000만건, KB모바일인증서 960만건으로 선두를 바짝 쫓고 있다.이들 대다수 사설인증서 사업자는 자사 플랫폼에서 연말정산 미리보기 기능을 제공해 인증서 발급 확대를 유도하고 있다. 마이데이터와 연계해 연말정산을 최대로 돌려받을 수 있도록 컨설팅 서비스까지 제공한다.토스를 서비스하는 비바리퍼블리카의 경우 토스인증서가 국세청 연말정산 인증서로 포함되지 않았지만 자사 토스 플랫폼에서 연말정산 미리보기 기능과 연계해 발급 확대를 꾀했다. 마이데이터 통합인증에도 적용돼 마이데이터와 연계해 공격적으로 사용자 확대를 추진하고 있다.주요 사설인증서 사업자는 연말정산이 본격화된 만큼 공격적인 이벤트로 사용자 몰이에 나선다. 이미 금융결제원이 공동·금융인증서 통합 4000만건 발급 돌파를 기념해 오는 28일까지 금융인증서 이용자 대상 이벤트를 실시하고 있다.신한은행은 자사 앱 신한 쏠(SOL)에서 신한인증서 발급, 연말정산 미리보기, 홈텍스에서 신한인증서로 로그인 등 세 가지 부문에 걸쳐 이벤트에 돌입했다. 국민은행도 연말정산 시 KB모바일인증서 사용자 대상 이벤트를 조만간 실시할 계획이다.뒤늦게 연말정산 대열에 합류한 네이버는 대대적인 사용자 몰이에 나서며 카카오 추격에 시동을 걸었다. 다음달 3일까지 네이버 인증서를 발급하고 홈택스에서 사용하면 무작위로 선정해 네이버페이 포인트를 증정하는 이벤트를 시작했다.내년 연말정산은 더 많은 사설인증서 사업자가 추가될 전망이다. 하나은행이 전자서명인증사업자 인정을 획득함에 따라 국세청 등 공공기관 참여와 마이데이터 통합인증 참여를 준비하고 있다. 우리은행과 NH농협은행도 올 상반기 목표로 사설인증서를 출시하고 공공기관 참여, 전자서명인증사업자 인정, 마이데이터 통합인증 참여를 준비하고 있다.[표]사설인증서 현황 (자료=업계 취합)</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>2022.01.02.</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>내일부터 방역패스 찍을때 '딩동' 소리나면 식당·카페 못 들어간다…유효기간 적용</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004903096?sid=102</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>내일부터 방역패스 찍을때 '딩동' 소리나면 식당·카페 못 들어간다...유효기간 적용  2일 서울의 한 대형마트를 찾은 시민들이 입장 전 QR코드 체크인을 하는 모습.[사진제공=연합뉴스]내일부터 식당·카페 등 다중이용시설을 이용할 때 필요한 코로나19 방역패스(접종증명·음성확인제)에 유효기간이 적용된다. 유효기간이 지난 방역패스를 건네면 '딩동' 소리가 나도록 했다. 딩동 소리가 나면 다중이용시설을 입장할 수 없다.2일 방역당국에 따르면 오는 3일부터 코로나19 방역패스 유효기간이 적용된다. 방역패스 유효기간은 코로나19 백신 2차 접종(얀센 접종자는 1차 접종) 후 14일이 지난 날부터 6개월(180일)까지다. 방역패스의 유효기간이 임박한 사람은 3차 접종을 해야 방역패스 효력이 유지된다.예컨대 지난해 7월 6일이나 그보다 이전에 기본접종을 마친 사람은 추가 접종을 하지 않았다면 3일부터 영화관 등 방역패스 적용시설을 이용할 수 없다.청소년 방역패스는 오는 3월 1일부터 시행한다. 단, 12∼17세는 방역패스 유효기간을 적용받지 않는다. 12∼17세는 3차접종 권고 대상이 아니기 때문이다.유효기간은 예방접종 인증 전자증명서인 '쿠브(COOV)' 애플리케이션(앱)에서 확인할 수 있다. 2차 접종 후 14일이 지나면 '14일 경과' 표시가, 180일이 지나면 '유효기간 만료' 표시가 뜬다. 쿠브 앱을 업데이트 해야 3차 접종 여부와 2차 접종 후 며칠이 지났는지 등을 쉽게 확인할 수 있다.질병청은 유효기간 적용이 시작되는 3일이 되기 전 미리 앱을 업데이트해두는 게 좋다고 강조했다. 앞서 방역패스 단속을 시작한 지난달 13일 앱 접속자가 몰리는 바람에 '서버 먹통' 사태 벌어졌는데, 이를 막기 위한 조치로 풀이된다.3일부터 유효기간이 남은 앱 화면을 전자출입명부 인식기에 대면 '접종 완료자입니다'라는 음성이 나온다. 만약 유효기간이 만료된 경우에는 '딩동' 소리가 나오도록 조치했다. 딩동 소리가 나면 입장할 수 없다.현재 식당이나 카페, 실내체육시설, 영화관 등에서 방역패스가 적용되고 있다. 방역패스 적용 시설을 이용하려는 접종자들은 카카오, 네이버, 토스, PASS 등 민간 전자출입명부 앱에서도 업데이트하면 해당 정보를 확인할 수 있다.전자 증명서 사용이 어려운 이들은 종이로 된 접종증명서나 예방접종스티커를 사용할 수 있다. 종이 증명서는 보건소에 신청해 발급받을 수 있다.방역패스가 적용되는 다중이용시설은 총 17종(대규모 점포, 영화관·공연장, 유흥시설, 노래연습장(동전 노래방 포함), 실내체육시설, 목욕장업, 경륜·경정·경마·카지노, 식당·카페, 학원, 독서실·스터디카페, 멀티방, PC방, 실내 스포츠경기장, 박물관·미술관·과학관, 파티룸, 도서관, 마사지업소·안마소) 등이다.그동안 백화점이나 대형마트 등은 출입관리가 어려워 방역패스 적용이 제외됐으나 이번에 방역패스 의무화 시설로 지정됐다. 오는 10일부터 면적 3000㎡ 이상 대규모 점포는 방역패스가 적용된다. 다만 동네 중·소규모 마트에는 방역패스 없이도 출입이 가능하다.방역패스 유효기간은 일주일(3∼9일) 계도기간을 거쳐 시행된다. 이에 따라 방역패스 유효기간 위반으로 인한 과태료나 행정처분은 오는 10일부터 부과된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>2022.01.11.</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>[단독] 지드래곤 누나회사 '레어마켓' 세계 최대 벤처캐피털에 팔렸다</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004907442?sid=101</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>해외 브랜드 소개 패션플랫폼G드래곤 누나 대표로 유명세10조 굴리는 세쿼이아캐피털패션기업 성장성 높게 평가 미국 실리콘밸리 대표 벤처캐피털이 국내 패션업체 '레어마켓' 인수에 나섰다. 유명 패션브랜드 편집숍을 운영하는 레어마켓은 그룹 빅뱅 멤버 '지드래곤(GD·권지용)'의 누나 권다미 씨가 공동대표를 맡으며 유명세를 탄 곳이다.11일 패션업계와 투자은행(IB)업계 등에 따르면 미국 실리콘밸리의 유명 벤처캐피털인 세쿼이아캐피털은 최근 권씨와 공동대표인 정혜진 씨 등으로부터 60%대 지분과 경영권을 인수하는 계약을 체결한 것으로 전해졌다. 금액은 1000억원 안팎인 것으로 알려졌다. 두 공동대표는 계약 이후에도 나머지 30%대 지분을 보유하며 회사의 전략 수립과 경영에 지속적으로 참여할 것으로 보인다. 권씨와 정씨, 동갑내기인 두 사람은 2017년 영국 매체 '비즈니스 오브 패션'이 선정한 '세계에서 가장 영향력 있는 글로벌 패션인 500인'에 이름을 올리며 화제가 되기도 했다. 세쿼이아캐피털도 권다미·정혜진 공동대표가 만들어내는 남다른 패션 감각과 회사의 성장 잠재력을 높이 평가해 이번 투자를 결정한 것으로 전해졌다.레어마켓은 2014년 첫 매장을 낸 이후 로지 애슐린, 자크 뮈스 등 떠오르는 해외 브랜드를 발 빠르게 한국에 소개해 쇼핑 메카로 입지를 굳혔다. 2015년에는 자체 브랜드 '웰던'을 만들기도 했다. 국내에서 좀처럼 접하기 어려운 브랜드 제품들과 독특한 구성의 인테리어 때문에 '패피(패션피플)' 집합소로 알려졌다.특히 지드래곤의 누나가 운영하는 곳으로 알려져 유명세를 더했다. 권씨는 2019년에 배우 김민준과 결혼해 최근 임신 소식을 알리기도 했다. '레어(Rare)'라는 브랜드 이름도 지드래곤이 제안한 것으로 알려져 화제를 모았다. '흔치 않은, 특별한, 진귀한'의 의미를 담아 이름을 붙였다고 한다.세쿼이아캐피털은 운용자산(AUM)이 10조원에 육박하는 자타가 공인하는 세계 최대 규모의 벤처캐피털이다. 1972년 벤처투자업계의 전설로 불리는 돈 밸런타인이 미국 실리콘밸리에 설립한 것이 시초다. 이후 애플, 오라클, 시스코, 구글, 유튜브, 와츠앱 등에 투자해 성공 신화를 썼다. 한국 기업으로는 쿠팡, 마켓컬리, 토스, 무신사 등이 이 회사에서 투자를 받았다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>2022.01.05.</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>[fn이사람] “개발자에게 기술 넘어선 공부법 알려드려요"</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004767527?sid=102</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>박중수 F-LAB 대표개발자 멘토링 서비스 F-LAB기술역량·이력 검증된 멘토들코딩학습 로드맵 직접 그려줘수료생 절반 유명 IT기업 입사 F-Lab &amp; Company(F-LAB·에프랩)는 개발자 멘토링 서비스를 제공하는 기업이다. 단순 기술만이 아닌 복잡한 비즈니스 상황별 대응이 가능하도록 깊이 있는 이론을 터득하게 해주는 곳으로, 쉽게 말해 개발자들의 사수 역할을 하고 있다.   F-LAB의 박중수 대표(사진)는 많은 회사들이 '좋은' 개발자를 찾지 못해 구인난을 겪는 현상을 보고 멘토링 서비스 창업을 결심했다. 4차 산업혁명 시대에 가장 주목받는 직업으로 개발자가 꼽히는 만큼 최근 개발자 수는 급증했다. 하지만 업계에서 원하는 수준의 역량을 갖기까지는 '고통스러운' 학습과정을 거쳐야 한다는 것이 박 대표의 설명이다.   박 대표는 개발자 출신이다. 그는 5일 파이낸셜뉴스와 만나 "개발을 시작한 지 10년이 지났지만 부끄럽게도 10년에 비례하는 개발실력을 가지고 있지 않다"고 자신을 소개했다. 박 대표는 대학생 시절 개발을 시작해 일찍이 수익을 얻었고, '개발 잘하는 사람'이란 평가를 들어 자만심을 갖게 됐다고 했다. 하지만 개발을 한 지 7년 만에 개발관련 서적을 읽다가 개발이 얼마나 깊은 분야인지 뒤늦게 깨닫게 됐다.   예컨대 깊게 공부하지 않은 개발자도 음식배달 애플리케이션(앱)과 같은 서비스를 어느 정도는 구현할 수 있지만, 동시에 많은 사용자가 접속하거나 요구사항이 변경된 상황을 고려할 때 소스코드 변경을 최소화하는 설계는 쉽게 하지 못한다는 설명이다.   박 대표는 "멘토링을 하면서 저와 같은 생각을 갖고 있는 개발자가 꽤 많았다. 이들은 노력의 양이 부족한 게 아니라 방향을 몰라 성장하지 못하고 있다고 느꼈다"고 했다.   F-LAB은 개발자들의 역량을 상위 1%로 끌어올리는 것을 목표로 한다. 힘겨운 학습과정을 버틸 수 있는 동기부여는 물론 학습의 로드맵을 명확히 잡아준다.   얕고 빠르게 공부하는 습관보다는 느리지만 깊게, 제대로 학습하는 습관을 길러주는 것이다.   2020년 11월 시작된 F-LAB 멘토링 서비스는 입소문을 통해 성장세를 타고 있다. 박 대표는 "3일 기준 수료생 57%가 유명한 IT서비스 회사에 입사했다"며 "전체 수료생의 평균 연봉도 4675만원으로, 업계에서도 최고의 성과를 달성하고 있다"고 자신감을 드러냈다.   박 대표는 좋은 멘토를 구하는 데도 총력을 쏟고 있다. 그는 "이력 타이틀뿐 아니라 실력까지 검증하여 멘토를 채용하고 있다"며 "네이버·하이퍼커넥트 출신 대표와 하이퍼커넥트·토스 출신 CTO(최고기술경영자)가 직접 면접을 통해 멘토링에 필요한 기술·인성 역량을 검증해 멘토를 선발한다"고 강조했다.   F-LAB은 멘토에게 동기부여 차원에서 스톡옵션을 주는 파격적인 제도도 운영하고 있다. 박 대표는 "개발자들이 좋은 처우와 복지의 회사를 다니다 보면 안일해질 수 있는데, 자기계발을 통해 더 높은 경지로 오르고자 하는 개발자는 더 높은 보상을 받을 자격이 있다고 생각한다"고 취지를 설명했다. 이어 "스톡옵션 제도는 좋은 훌륭한 멘티 개발자를 양성하는 회사의 목표에도 많은 도움이 되고 있다"고 덧붙였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>2022.01.14.</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>한국씨티은행 노조 "소비자 보호계획 미흡…영업점 충분히 유지해야"</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0005845511?sid=101</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>한국씨티은행 노조는 14일 오전 서울 광화문 정부서울청사 앞에서 '제2의 씨티은행 사태 방지를 위한 은행법 개정 기자회견 및 금융위원회 조치 명령 밀실 승인 규탄대회'를 열었다. 2022.1.14/뉴스1 © 뉴스1 민선희 기자(서울=뉴스1) 민선희 기자 = 한국씨티은행 노조가 씨티은행의 소비자 보호계획이 미흡하다며 충분한 영업점을 유지해야 한다고 주장했다. 또한 기존 대출 고객을 타행으로 이전시키는 과정에서 이자 부담이 급격히 늘어날 수 있는 만큼 신용대출 대환 프로그램을 마련할 때 '가산금리 인상 금지 특약'을 체결해야 한다고 했다. 한국씨티은행 노조는 14일 오전 11시 서울 광화문 정부서울청사 앞에서 '제2의 씨티은행 사태 방지를 위한 은행법 개정 기자회견 및 금융위원회 조치 명령 밀실 승인 규탄대회'를 열고 이같이 밝혔다. 앞서 한국씨티은행은 지난 10일 '소비금융 단계적 폐지 관련 이용자보호계획'을 금융감독원에 제출했으며, 금융감독원은 지난 12일 해당 계획을 점검한 후 금융위원회 정례회의에 보고했다.  노조는 "금융당국은 노조, 국회, 언론, 시민단체, 고객 등 그 어떤 이해관계자나 외부의 의견을 청취하지 않고 오직 은행과 머리를 맞대 소비자보호방안을 내놨다"며 "그야말로 탁상행정의 전형"이라고 꼬집었다. 노조는 이용자보호계획과 관련해 "금융위원회는 올해 하반기부터 점진적 폐점을 허용했는데, 당장 연내 폐점을 진행해서는 안된다"며 "2025년말까지 수도권 거점 점포 2개와 지방 점포 7개 이상을 운영한다고 하는데 수도권 고객 분포 등을 감안하면 부족하다"고 했다. 그러면서 Δ2023년말까지 현 32개 영업점을 모두 유지할 것 Δ그 이후 수도권 거점점포 6개와 지방점포 7개 등 최소한 13개 이상의 지속적인 영업점 유지를 요구했다. 노조는 씨티은행이 다른 시중은행과 제휴를 통해 신용대출 대환 프로그램을 제공하겠다고 밝힌 것과 관련해서도 "문제의 핵심은 타행으로의 이전 이후 가산금리가 인상되는 것"이라고 했다. 씨티은행은 신용대출을 연장하더라도 고객 고유 가산금리를 인상하지 않는데, 타행은 기준금리 뿐 아니라 가산금리도 인상할 가능성이 높다는 것이다. 노조 관계자는 "제휴 대상으로 토스뱅크가 거론되는데 같은 인터넷전문은행인 카카오뱅크, 케이뱅크는 최근 만기도래시 가산금리를 1% 내외로 인상했다"고 했다. 노조는 "타행들이 처음에는 고객 유치 이벤트를 쏟아내며 유치 경쟁에 열을 올리겠지만 만기시 금리를 인상할 가능성이 있기 때문에 제휴에 있어 반드시 '가산금리 인상금지 특약'을 체결할 필요가 있다"고 강조했다. 이어 "금융당국은 가계대출 3대 규제 예외를 씨티은행 최대 대출 연장 기한인 5년간 적용해 원하는 고객은 최대한 씨티은행에 머물다가 타행으로 이전할 수 있게 해야 한다"고 덧붙였다.</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
